--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R865"/>
+  <dimension ref="A1:R870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J844" t="n">
         <v>550</v>
       </c>
       <c r="K844" t="n">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="L844" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="M844" t="n">
-        <v>14000</v>
+        <v>28909</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>778</v>
+        <v>1606</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -61193,36 +61193,36 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="K845" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="L845" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="M845" t="n">
-        <v>10000</v>
+        <v>32000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>556</v>
+        <v>1600</v>
       </c>
       <c r="Q845" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -61265,36 +61265,36 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>650</v>
+        <v>3500</v>
       </c>
       <c r="K846" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="L846" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="M846" t="n">
-        <v>8000</v>
+        <v>24800</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>533</v>
+        <v>1378</v>
       </c>
       <c r="Q846" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R846" t="inlineStr">
         <is>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -61332,7 +61332,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -61341,32 +61341,32 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>650</v>
+        <v>3000</v>
       </c>
       <c r="K847" t="n">
         <v>10000</v>
       </c>
       <c r="L847" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M847" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>556</v>
+        <v>1050</v>
       </c>
       <c r="Q847" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -61404,38 +61404,38 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>1950</v>
+        <v>500</v>
       </c>
       <c r="K848" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="L848" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M848" t="n">
-        <v>6872</v>
+        <v>22000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>382</v>
+        <v>1222</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61476,7 +61476,7 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
@@ -61485,20 +61485,20 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>380</v>
+        <v>550</v>
       </c>
       <c r="K849" t="n">
-        <v>1800</v>
+        <v>14000</v>
       </c>
       <c r="L849" t="n">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M849" t="n">
-        <v>1905</v>
+        <v>14000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
@@ -61507,10 +61507,10 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>1905</v>
+        <v>778</v>
       </c>
       <c r="Q849" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>2450</v>
+        <v>650</v>
       </c>
       <c r="K850" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L850" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M850" t="n">
-        <v>12510</v>
+        <v>10000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>695</v>
+        <v>556</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E851" t="n">
         <v>9</v>
@@ -61625,11 +61625,11 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="K851" t="n">
         <v>8000</v>
@@ -61642,19 +61642,19 @@
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>800</v>
+        <v>533</v>
       </c>
       <c r="Q851" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61714,19 +61714,19 @@
       </c>
       <c r="N852" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q852" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R852" t="inlineStr">
         <is>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E853" t="n">
         <v>9</v>
@@ -61764,38 +61764,38 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>950</v>
+        <v>1950</v>
       </c>
       <c r="K853" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L853" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M853" t="n">
-        <v>10000</v>
+        <v>6872</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>556</v>
+        <v>382</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61845,32 +61845,32 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="K854" t="n">
-        <v>10000</v>
+        <v>1800</v>
       </c>
       <c r="L854" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M854" t="n">
-        <v>10000</v>
+        <v>1905</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>556</v>
+        <v>1905</v>
       </c>
       <c r="Q854" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R854" t="inlineStr">
         <is>
@@ -61908,25 +61908,25 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>250</v>
+        <v>2450</v>
       </c>
       <c r="K855" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L855" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M855" t="n">
-        <v>8000</v>
+        <v>12510</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>444</v>
+        <v>695</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61980,41 +61980,41 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="K856" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L856" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M856" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="Q856" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R856" t="inlineStr">
         <is>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -62057,36 +62057,36 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="K857" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="L857" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M857" t="n">
-        <v>21500</v>
+        <v>10000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>1194</v>
+        <v>667</v>
       </c>
       <c r="Q857" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R857" t="inlineStr">
         <is>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E858" t="n">
         <v>9</v>
@@ -62129,36 +62129,36 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="K858" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L858" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M858" t="n">
-        <v>24500</v>
+        <v>10000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>1225</v>
+        <v>556</v>
       </c>
       <c r="Q858" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R858" t="inlineStr">
         <is>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>2200</v>
+        <v>350</v>
       </c>
       <c r="K859" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L859" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M859" t="n">
-        <v>15545</v>
+        <v>10000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>864</v>
+        <v>556</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -62268,41 +62268,41 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>5800</v>
+        <v>250</v>
       </c>
       <c r="K860" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L860" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M860" t="n">
-        <v>5759</v>
+        <v>8000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>576</v>
+        <v>444</v>
       </c>
       <c r="Q860" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -62340,38 +62340,38 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K861" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L861" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M861" t="n">
-        <v>17556</v>
+        <v>6000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>975</v>
+        <v>333</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K862" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="L862" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M862" t="n">
-        <v>12526</v>
+        <v>21500</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>696</v>
+        <v>1194</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -62493,20 +62493,20 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K863" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L863" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="M863" t="n">
-        <v>20000</v>
+        <v>24500</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
@@ -62515,10 +62515,10 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>1111</v>
+        <v>1225</v>
       </c>
       <c r="Q863" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R863" t="inlineStr">
         <is>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K864" t="n">
         <v>15000</v>
       </c>
       <c r="L864" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M864" t="n">
-        <v>15000</v>
+        <v>15545</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>833</v>
+        <v>864</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -62637,34 +62637,394 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>400</v>
+        <v>5800</v>
       </c>
       <c r="K865" t="n">
         <v>5500</v>
       </c>
       <c r="L865" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M865" t="n">
+        <v>5759</v>
+      </c>
+      <c r="N865" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O865" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P865" t="n">
+        <v>576</v>
+      </c>
+      <c r="Q865" t="n">
+        <v>10</v>
+      </c>
+      <c r="R865" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>10</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D866" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E866" t="n">
+        <v>9</v>
+      </c>
+      <c r="F866" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H866" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I866" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J866" t="n">
+        <v>900</v>
+      </c>
+      <c r="K866" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L866" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M866" t="n">
+        <v>17556</v>
+      </c>
+      <c r="N866" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O866" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P866" t="n">
+        <v>975</v>
+      </c>
+      <c r="Q866" t="n">
+        <v>18</v>
+      </c>
+      <c r="R866" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>10</v>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D867" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E867" t="n">
+        <v>9</v>
+      </c>
+      <c r="F867" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J867" t="n">
+        <v>380</v>
+      </c>
+      <c r="K867" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L867" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M867" t="n">
+        <v>12526</v>
+      </c>
+      <c r="N867" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O867" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P867" t="n">
+        <v>696</v>
+      </c>
+      <c r="Q867" t="n">
+        <v>18</v>
+      </c>
+      <c r="R867" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>10</v>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D868" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E868" t="n">
+        <v>9</v>
+      </c>
+      <c r="F868" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J868" t="n">
+        <v>200</v>
+      </c>
+      <c r="K868" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L868" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M868" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N868" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O868" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P868" t="n">
+        <v>1111</v>
+      </c>
+      <c r="Q868" t="n">
+        <v>18</v>
+      </c>
+      <c r="R868" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>10</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D869" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E869" t="n">
+        <v>9</v>
+      </c>
+      <c r="F869" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H869" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I869" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J869" t="n">
+        <v>400</v>
+      </c>
+      <c r="K869" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L869" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M869" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N869" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O869" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P869" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q869" t="n">
+        <v>18</v>
+      </c>
+      <c r="R869" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>10</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D870" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E870" t="n">
+        <v>9</v>
+      </c>
+      <c r="F870" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J870" t="n">
+        <v>400</v>
+      </c>
+      <c r="K870" t="n">
         <v>5500</v>
       </c>
-      <c r="M865" t="n">
+      <c r="L870" t="n">
         <v>5500</v>
       </c>
-      <c r="N865" t="inlineStr">
+      <c r="M870" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N870" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="O865" t="inlineStr">
+      <c r="O870" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P865" t="n">
+      <c r="P870" t="n">
         <v>550</v>
       </c>
-      <c r="Q865" t="n">
-        <v>10</v>
-      </c>
-      <c r="R865" t="inlineStr">
+      <c r="Q870" t="n">
+        <v>10</v>
+      </c>
+      <c r="R870" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R870"/>
+  <dimension ref="A1:R874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -56868,29 +56868,29 @@
       </c>
       <c r="H785" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="K785" t="n">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="L785" t="n">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="M785" t="n">
-        <v>20000</v>
+        <v>31364</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O785" t="inlineStr">
@@ -56899,10 +56899,10 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>1111</v>
+        <v>1568</v>
       </c>
       <c r="Q785" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R785" t="inlineStr">
         <is>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E786" t="n">
         <v>9</v>
@@ -56940,7 +56940,7 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
@@ -56949,20 +56949,20 @@
         </is>
       </c>
       <c r="J786" t="n">
-        <v>50</v>
+        <v>950</v>
       </c>
       <c r="K786" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="L786" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="M786" t="n">
-        <v>13000</v>
+        <v>24579</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O786" t="inlineStr">
@@ -56971,10 +56971,10 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>1300</v>
+        <v>1366</v>
       </c>
       <c r="Q786" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R786" t="inlineStr">
         <is>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E787" t="n">
         <v>9</v>
@@ -57021,32 +57021,32 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>2700</v>
+        <v>1150</v>
       </c>
       <c r="K787" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L787" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M787" t="n">
-        <v>13444</v>
+        <v>10478</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>747</v>
+        <v>1048</v>
       </c>
       <c r="Q787" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R787" t="inlineStr">
         <is>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E788" t="n">
         <v>9</v>
@@ -57089,24 +57089,24 @@
       </c>
       <c r="I788" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J788" t="n">
-        <v>4000</v>
+        <v>680</v>
       </c>
       <c r="K788" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="L788" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="M788" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
@@ -57115,10 +57115,10 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>500</v>
+        <v>1222</v>
       </c>
       <c r="Q788" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57156,7 +57156,7 @@
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -57165,20 +57165,20 @@
         </is>
       </c>
       <c r="J789" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="K789" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L789" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M789" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
@@ -57187,7 +57187,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="Q789" t="n">
         <v>18</v>
@@ -57228,41 +57228,41 @@
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K790" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L790" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M790" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>667</v>
+        <v>1300</v>
       </c>
       <c r="Q790" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R790" t="inlineStr">
         <is>
@@ -57300,7 +57300,7 @@
       </c>
       <c r="H791" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I791" t="inlineStr">
@@ -57309,16 +57309,16 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>500</v>
+        <v>2700</v>
       </c>
       <c r="K791" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L791" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M791" t="n">
-        <v>11600</v>
+        <v>13444</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>644</v>
+        <v>747</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57372,7 +57372,7 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -57381,32 +57381,32 @@
         </is>
       </c>
       <c r="J792" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="K792" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L792" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M792" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="Q792" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R792" t="inlineStr">
         <is>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E793" t="n">
         <v>9</v>
@@ -57449,24 +57449,24 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K793" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L793" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="M793" t="n">
-        <v>25111</v>
+        <v>13000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
@@ -57475,10 +57475,10 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>1256</v>
+        <v>722</v>
       </c>
       <c r="Q793" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R793" t="inlineStr">
         <is>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E794" t="n">
         <v>9</v>
@@ -57521,20 +57521,20 @@
       </c>
       <c r="I794" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J794" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="K794" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L794" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M794" t="n">
-        <v>15545</v>
+        <v>12000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>864</v>
+        <v>667</v>
       </c>
       <c r="Q794" t="n">
         <v>18</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E795" t="n">
         <v>9</v>
@@ -57588,7 +57588,7 @@
       </c>
       <c r="H795" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -57597,32 +57597,32 @@
         </is>
       </c>
       <c r="J795" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K795" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L795" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M795" t="n">
-        <v>7545</v>
+        <v>11600</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>754</v>
+        <v>644</v>
       </c>
       <c r="Q795" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R795" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44251</v>
+        <v>44161</v>
       </c>
       <c r="E796" t="n">
         <v>9</v>
@@ -57660,7 +57660,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -57669,32 +57669,32 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>1550</v>
+        <v>3000</v>
       </c>
       <c r="K796" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L796" t="n">
         <v>8000</v>
       </c>
       <c r="M796" t="n">
-        <v>7419</v>
+        <v>8000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>412</v>
+        <v>533</v>
       </c>
       <c r="Q796" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R796" t="inlineStr">
         <is>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E797" t="n">
         <v>9</v>
@@ -57737,36 +57737,36 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="K797" t="n">
-        <v>5000</v>
+        <v>24000</v>
       </c>
       <c r="L797" t="n">
-        <v>5000</v>
+        <v>26000</v>
       </c>
       <c r="M797" t="n">
-        <v>5000</v>
+        <v>25111</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>278</v>
+        <v>1256</v>
       </c>
       <c r="Q797" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R797" t="inlineStr">
         <is>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E798" t="n">
         <v>9</v>
@@ -57809,20 +57809,20 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="K798" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L798" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M798" t="n">
-        <v>20000</v>
+        <v>15545</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57835,7 +57835,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>1111</v>
+        <v>864</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -57885,20 +57885,20 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K799" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L799" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M799" t="n">
-        <v>13500</v>
+        <v>7545</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O799" t="inlineStr">
@@ -57907,10 +57907,10 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="Q799" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R799" t="inlineStr">
         <is>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E800" t="n">
         <v>9</v>
@@ -57957,32 +57957,32 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>500</v>
+        <v>1550</v>
       </c>
       <c r="K800" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L800" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M800" t="n">
-        <v>4200</v>
+        <v>7419</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="Q800" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R800" t="inlineStr">
         <is>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44442</v>
+        <v>44251</v>
       </c>
       <c r="E801" t="n">
         <v>9</v>
@@ -58025,36 +58025,36 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>35</v>
+        <v>850</v>
       </c>
       <c r="K801" t="n">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="L801" t="n">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="M801" t="n">
-        <v>28000</v>
+        <v>5000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>1400</v>
+        <v>278</v>
       </c>
       <c r="Q801" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R801" t="inlineStr">
         <is>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E802" t="n">
         <v>9</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J802" t="n">
         <v>100</v>
       </c>
       <c r="K802" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="L802" t="n">
         <v>20000</v>
       </c>
       <c r="M802" t="n">
-        <v>19700</v>
+        <v>20000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58123,7 +58123,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>1094</v>
+        <v>1111</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E803" t="n">
         <v>9</v>
@@ -58173,20 +58173,20 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K803" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L803" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="M803" t="n">
-        <v>8500</v>
+        <v>13500</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O803" t="inlineStr">
@@ -58195,10 +58195,10 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="Q803" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R803" t="inlineStr">
         <is>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44435</v>
+        <v>44428</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
@@ -58241,24 +58241,24 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="K804" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L804" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M804" t="n">
-        <v>15000</v>
+        <v>4200</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O804" t="inlineStr">
@@ -58267,10 +58267,10 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>833</v>
+        <v>420</v>
       </c>
       <c r="Q804" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R804" t="inlineStr">
         <is>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E805" t="n">
         <v>9</v>
@@ -58317,16 +58317,16 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>665</v>
+        <v>35</v>
       </c>
       <c r="K805" t="n">
-        <v>20000</v>
+        <v>28000</v>
       </c>
       <c r="L805" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="M805" t="n">
-        <v>22045</v>
+        <v>28000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58339,7 +58339,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>1102</v>
+        <v>1400</v>
       </c>
       <c r="Q805" t="n">
         <v>20</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
@@ -58385,24 +58385,24 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K806" t="n">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="L806" t="n">
         <v>20000</v>
       </c>
       <c r="M806" t="n">
-        <v>20000</v>
+        <v>19700</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O806" t="inlineStr">
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E807" t="n">
         <v>9</v>
@@ -58457,24 +58457,24 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="K807" t="n">
-        <v>22000</v>
+        <v>8500</v>
       </c>
       <c r="L807" t="n">
-        <v>22000</v>
+        <v>8500</v>
       </c>
       <c r="M807" t="n">
-        <v>22000</v>
+        <v>8500</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
@@ -58483,10 +58483,10 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="Q807" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R807" t="inlineStr">
         <is>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>6270</v>
+        <v>1250</v>
       </c>
       <c r="K808" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L808" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M808" t="n">
-        <v>12086</v>
+        <v>15000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>671</v>
+        <v>833</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58601,24 +58601,24 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>11950</v>
+        <v>665</v>
       </c>
       <c r="K809" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="L809" t="n">
-        <v>5000</v>
+        <v>24000</v>
       </c>
       <c r="M809" t="n">
-        <v>4301</v>
+        <v>22045</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O809" t="inlineStr">
@@ -58627,10 +58627,10 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>430</v>
+        <v>1102</v>
       </c>
       <c r="Q809" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R809" t="inlineStr">
         <is>
@@ -58673,24 +58673,24 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>2260</v>
+        <v>450</v>
       </c>
       <c r="K810" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L810" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M810" t="n">
-        <v>8288</v>
+        <v>20000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O810" t="inlineStr">
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>460</v>
+        <v>1111</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58740,7 +58740,7 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -58749,20 +58749,20 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="K811" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L811" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M811" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="O811" t="inlineStr">
@@ -58771,10 +58771,10 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="Q811" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R811" t="inlineStr">
         <is>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E812" t="n">
         <v>9</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>550</v>
+        <v>6270</v>
       </c>
       <c r="K812" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L812" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M812" t="n">
-        <v>13000</v>
+        <v>12086</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>722</v>
+        <v>671</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E813" t="n">
         <v>9</v>
@@ -58889,24 +58889,24 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>210</v>
+        <v>11950</v>
       </c>
       <c r="K813" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L813" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M813" t="n">
-        <v>15000</v>
+        <v>4301</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O813" t="inlineStr">
@@ -58915,10 +58915,10 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>833</v>
+        <v>430</v>
       </c>
       <c r="Q813" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R813" t="inlineStr">
         <is>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E814" t="n">
         <v>9</v>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>650</v>
+        <v>2260</v>
       </c>
       <c r="K814" t="n">
         <v>8000</v>
       </c>
       <c r="L814" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M814" t="n">
-        <v>8000</v>
+        <v>8288</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E815" t="n">
         <v>9</v>
@@ -59028,41 +59028,41 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="K815" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L815" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M815" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="Q815" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R815" t="inlineStr">
         <is>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="K816" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L816" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M816" t="n">
-        <v>9643</v>
+        <v>13000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>536</v>
+        <v>722</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59177,24 +59177,24 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>1250</v>
+        <v>210</v>
       </c>
       <c r="K817" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L817" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="M817" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O817" t="inlineStr">
@@ -59203,10 +59203,10 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>450</v>
+        <v>833</v>
       </c>
       <c r="Q817" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R817" t="inlineStr">
         <is>
@@ -59249,20 +59249,20 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="K818" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L818" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M818" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q818" t="n">
         <v>18</v>
@@ -59321,20 +59321,20 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>480</v>
+        <v>650</v>
       </c>
       <c r="K819" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L819" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M819" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>222</v>
+        <v>556</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E820" t="n">
         <v>9</v>
@@ -59388,7 +59388,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -59397,20 +59397,20 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="K820" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L820" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M820" t="n">
-        <v>18000</v>
+        <v>9643</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O820" t="inlineStr">
@@ -59419,10 +59419,10 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>1800</v>
+        <v>536</v>
       </c>
       <c r="Q820" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R820" t="inlineStr">
         <is>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E821" t="n">
         <v>9</v>
@@ -59460,7 +59460,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>50</v>
+        <v>1250</v>
       </c>
       <c r="K821" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L821" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M821" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>1200</v>
+        <v>450</v>
       </c>
       <c r="Q821" t="n">
         <v>10</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="K822" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L822" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M822" t="n">
-        <v>15400</v>
+        <v>6000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59559,11 +59559,11 @@
       </c>
       <c r="O822" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P822" t="n">
-        <v>856</v>
+        <v>333</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E823" t="n">
         <v>9</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>3300</v>
+        <v>480</v>
       </c>
       <c r="K823" t="n">
-        <v>12500</v>
+        <v>4000</v>
       </c>
       <c r="L823" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="M823" t="n">
-        <v>13182</v>
+        <v>4000</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>732</v>
+        <v>222</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59676,7 +59676,7 @@
       </c>
       <c r="H824" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I824" t="inlineStr">
@@ -59685,20 +59685,20 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="K824" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L824" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M824" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O824" t="inlineStr">
@@ -59707,10 +59707,10 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>611</v>
+        <v>1800</v>
       </c>
       <c r="Q824" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R824" t="inlineStr">
         <is>
@@ -59748,7 +59748,7 @@
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -59757,16 +59757,16 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>3300</v>
+        <v>50</v>
       </c>
       <c r="K825" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L825" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M825" t="n">
-        <v>5455</v>
+        <v>12000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>546</v>
+        <v>1200</v>
       </c>
       <c r="Q825" t="n">
         <v>10</v>
@@ -59825,24 +59825,24 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K826" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L826" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M826" t="n">
-        <v>11000</v>
+        <v>15400</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O826" t="inlineStr">
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>611</v>
+        <v>856</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59901,29 +59901,29 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>1200</v>
+        <v>3300</v>
       </c>
       <c r="K827" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L827" t="n">
         <v>14000</v>
       </c>
       <c r="M827" t="n">
-        <v>14000</v>
+        <v>13182</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>778</v>
+        <v>732</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59964,7 +59964,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -59991,7 +59991,7 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P828" t="n">
@@ -60036,7 +60036,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -60045,32 +60045,32 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="K829" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L829" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M829" t="n">
-        <v>8000</v>
+        <v>5455</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="Q829" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R829" t="inlineStr">
         <is>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -60113,33 +60113,33 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="K830" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L830" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="M830" t="n">
-        <v>16385</v>
+        <v>11000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>910</v>
+        <v>611</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E831" t="n">
         <v>9</v>
@@ -60189,20 +60189,20 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="K831" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L831" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M831" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O831" t="inlineStr">
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -60252,7 +60252,7 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
@@ -60261,16 +60261,16 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="K832" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L832" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M832" t="n">
-        <v>9455</v>
+        <v>11000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>525</v>
+        <v>611</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44279</v>
+        <v>44175</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -60324,16 +60324,16 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="K833" t="n">
         <v>8000</v>
@@ -60346,19 +60346,19 @@
       </c>
       <c r="N833" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="Q833" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R833" t="inlineStr">
         <is>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E834" t="n">
         <v>9</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>500</v>
+        <v>325</v>
       </c>
       <c r="K834" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L834" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M834" t="n">
-        <v>14000</v>
+        <v>16385</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60427,7 +60427,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>778</v>
+        <v>910</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E835" t="n">
         <v>9</v>
@@ -60477,20 +60477,20 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="K835" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L835" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M835" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O835" t="inlineStr">
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="Q835" t="n">
         <v>18</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E836" t="n">
         <v>9</v>
@@ -60549,16 +60549,16 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K836" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L836" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M836" t="n">
-        <v>16444</v>
+        <v>9455</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60567,11 +60567,11 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>914</v>
+        <v>525</v>
       </c>
       <c r="Q836" t="n">
         <v>18</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44223</v>
+        <v>44279</v>
       </c>
       <c r="E837" t="n">
         <v>9</v>
@@ -60612,25 +60612,25 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K837" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L837" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M837" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -60693,32 +60693,32 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="K838" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L838" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M838" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="Q838" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R838" t="inlineStr">
         <is>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44314</v>
+        <v>44412</v>
       </c>
       <c r="E839" t="n">
         <v>9</v>
@@ -60761,36 +60761,36 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K839" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L839" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M839" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>850</v>
+        <v>889</v>
       </c>
       <c r="Q839" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R839" t="inlineStr">
         <is>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E840" t="n">
         <v>9</v>
@@ -60833,33 +60833,33 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K840" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L840" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M840" t="n">
-        <v>15000</v>
+        <v>16444</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>833</v>
+        <v>914</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E841" t="n">
         <v>9</v>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>600</v>
+        <v>380</v>
       </c>
       <c r="K841" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L841" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M841" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60927,11 +60927,11 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q841" t="n">
         <v>18</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E842" t="n">
         <v>9</v>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60981,32 +60981,32 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>600</v>
+        <v>950</v>
       </c>
       <c r="K842" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L842" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M842" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="Q842" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R842" t="inlineStr">
         <is>
@@ -61044,41 +61044,41 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K843" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L843" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M843" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="Q843" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R843" t="inlineStr">
         <is>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -61125,20 +61125,20 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K844" t="n">
-        <v>28000</v>
+        <v>15000</v>
       </c>
       <c r="L844" t="n">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="M844" t="n">
-        <v>28909</v>
+        <v>15000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O844" t="inlineStr">
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>1606</v>
+        <v>833</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -61193,36 +61193,36 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K845" t="n">
-        <v>32000</v>
+        <v>11000</v>
       </c>
       <c r="L845" t="n">
-        <v>32000</v>
+        <v>11000</v>
       </c>
       <c r="M845" t="n">
-        <v>32000</v>
+        <v>11000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>1600</v>
+        <v>611</v>
       </c>
       <c r="Q845" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -61269,20 +61269,20 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>3500</v>
+        <v>600</v>
       </c>
       <c r="K846" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="L846" t="n">
-        <v>26000</v>
+        <v>5000</v>
       </c>
       <c r="M846" t="n">
-        <v>24800</v>
+        <v>5000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
@@ -61291,10 +61291,10 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>1378</v>
+        <v>500</v>
       </c>
       <c r="Q846" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R846" t="inlineStr">
         <is>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -61332,7 +61332,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -61341,32 +61341,32 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K847" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L847" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M847" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>1050</v>
+        <v>500</v>
       </c>
       <c r="Q847" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61409,20 +61409,20 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K848" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="L848" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="M848" t="n">
-        <v>22000</v>
+        <v>28909</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>1222</v>
+        <v>1606</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61481,36 +61481,36 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K849" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="L849" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="M849" t="n">
-        <v>14000</v>
+        <v>32000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>778</v>
+        <v>1600</v>
       </c>
       <c r="Q849" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>650</v>
+        <v>3500</v>
       </c>
       <c r="K850" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="L850" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="M850" t="n">
-        <v>10000</v>
+        <v>24800</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>556</v>
+        <v>1378</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E851" t="n">
         <v>9</v>
@@ -61625,36 +61625,36 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>650</v>
+        <v>3000</v>
       </c>
       <c r="K851" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L851" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M851" t="n">
-        <v>8000</v>
+        <v>10500</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>533</v>
+        <v>1050</v>
       </c>
       <c r="Q851" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -61692,25 +61692,25 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="K852" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L852" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M852" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>556</v>
+        <v>1222</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61764,7 +61764,7 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
@@ -61773,29 +61773,29 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>1950</v>
+        <v>550</v>
       </c>
       <c r="K853" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L853" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M853" t="n">
-        <v>6872</v>
+        <v>14000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>382</v>
+        <v>778</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -61836,29 +61836,29 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="K854" t="n">
-        <v>1800</v>
+        <v>10000</v>
       </c>
       <c r="L854" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="M854" t="n">
-        <v>1905</v>
+        <v>10000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
@@ -61867,10 +61867,10 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>1905</v>
+        <v>556</v>
       </c>
       <c r="Q854" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R854" t="inlineStr">
         <is>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -61913,36 +61913,36 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>2450</v>
+        <v>650</v>
       </c>
       <c r="K855" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L855" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M855" t="n">
-        <v>12510</v>
+        <v>8000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>695</v>
+        <v>533</v>
       </c>
       <c r="Q855" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R855" t="inlineStr">
         <is>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -61980,7 +61980,7 @@
       </c>
       <c r="H856" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I856" t="inlineStr">
@@ -61989,32 +61989,32 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="K856" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L856" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M856" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>800</v>
+        <v>556</v>
       </c>
       <c r="Q856" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R856" t="inlineStr">
         <is>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -62052,7 +62052,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -62061,32 +62061,32 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>650</v>
+        <v>1950</v>
       </c>
       <c r="K857" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L857" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M857" t="n">
-        <v>10000</v>
+        <v>6872</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>667</v>
+        <v>382</v>
       </c>
       <c r="Q857" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R857" t="inlineStr">
         <is>
@@ -62124,41 +62124,41 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>950</v>
+        <v>380</v>
       </c>
       <c r="K858" t="n">
-        <v>10000</v>
+        <v>1800</v>
       </c>
       <c r="L858" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M858" t="n">
-        <v>10000</v>
+        <v>1905</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>556</v>
+        <v>1905</v>
       </c>
       <c r="Q858" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R858" t="inlineStr">
         <is>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>350</v>
+        <v>2450</v>
       </c>
       <c r="K859" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L859" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M859" t="n">
-        <v>10000</v>
+        <v>12510</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>556</v>
+        <v>695</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62268,16 +62268,16 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="K860" t="n">
         <v>8000</v>
@@ -62290,19 +62290,19 @@
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>444</v>
+        <v>800</v>
       </c>
       <c r="Q860" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62340,41 +62340,41 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="K861" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L861" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M861" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q861" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R861" t="inlineStr">
         <is>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="K862" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="L862" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M862" t="n">
-        <v>21500</v>
+        <v>10000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>1194</v>
+        <v>556</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -62484,41 +62484,41 @@
       </c>
       <c r="H863" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K863" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L863" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M863" t="n">
-        <v>24500</v>
+        <v>10000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>1225</v>
+        <v>556</v>
       </c>
       <c r="Q863" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R863" t="inlineStr">
         <is>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -62556,25 +62556,25 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>2200</v>
+        <v>250</v>
       </c>
       <c r="K864" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L864" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M864" t="n">
-        <v>15545</v>
+        <v>8000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>864</v>
+        <v>444</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -62628,41 +62628,41 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>5800</v>
+        <v>200</v>
       </c>
       <c r="K865" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="L865" t="n">
         <v>6000</v>
       </c>
       <c r="M865" t="n">
-        <v>5759</v>
+        <v>6000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>576</v>
+        <v>333</v>
       </c>
       <c r="Q865" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R865" t="inlineStr">
         <is>
@@ -62705,24 +62705,24 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K866" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="L866" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M866" t="n">
-        <v>17556</v>
+        <v>21500</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O866" t="inlineStr">
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>975</v>
+        <v>1194</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62777,24 +62777,24 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="K867" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="L867" t="n">
-        <v>13000</v>
+        <v>25000</v>
       </c>
       <c r="M867" t="n">
-        <v>12526</v>
+        <v>24500</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
@@ -62803,10 +62803,10 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>696</v>
+        <v>1225</v>
       </c>
       <c r="Q867" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R867" t="inlineStr">
         <is>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>200</v>
+        <v>2200</v>
       </c>
       <c r="K868" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L868" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M868" t="n">
-        <v>20000</v>
+        <v>15545</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>1111</v>
+        <v>864</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -62925,20 +62925,20 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>400</v>
+        <v>5800</v>
       </c>
       <c r="K869" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="L869" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M869" t="n">
-        <v>15000</v>
+        <v>5759</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
@@ -62947,10 +62947,10 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>833</v>
+        <v>576</v>
       </c>
       <c r="Q869" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62973,58 +62973,346 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E870" t="n">
+        <v>9</v>
+      </c>
+      <c r="F870" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G870" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H870" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I870" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J870" t="n">
+        <v>900</v>
+      </c>
+      <c r="K870" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L870" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M870" t="n">
+        <v>17556</v>
+      </c>
+      <c r="N870" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O870" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P870" t="n">
+        <v>975</v>
+      </c>
+      <c r="Q870" t="n">
+        <v>18</v>
+      </c>
+      <c r="R870" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>10</v>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D871" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E871" t="n">
+        <v>9</v>
+      </c>
+      <c r="F871" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J871" t="n">
+        <v>380</v>
+      </c>
+      <c r="K871" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L871" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M871" t="n">
+        <v>12526</v>
+      </c>
+      <c r="N871" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O871" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P871" t="n">
+        <v>696</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>18</v>
+      </c>
+      <c r="R871" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>10</v>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D872" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E870" t="n">
-        <v>9</v>
-      </c>
-      <c r="F870" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G870" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H870" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I870" t="inlineStr">
+      <c r="E872" t="n">
+        <v>9</v>
+      </c>
+      <c r="F872" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J872" t="n">
+        <v>200</v>
+      </c>
+      <c r="K872" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L872" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M872" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N872" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O872" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P872" t="n">
+        <v>1111</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>18</v>
+      </c>
+      <c r="R872" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>10</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D873" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E873" t="n">
+        <v>9</v>
+      </c>
+      <c r="F873" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I873" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J870" t="n">
+      <c r="J873" t="n">
         <v>400</v>
       </c>
-      <c r="K870" t="n">
+      <c r="K873" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L873" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M873" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N873" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O873" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P873" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q873" t="n">
+        <v>18</v>
+      </c>
+      <c r="R873" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>10</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D874" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E874" t="n">
+        <v>9</v>
+      </c>
+      <c r="F874" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J874" t="n">
+        <v>400</v>
+      </c>
+      <c r="K874" t="n">
         <v>5500</v>
       </c>
-      <c r="L870" t="n">
+      <c r="L874" t="n">
         <v>5500</v>
       </c>
-      <c r="M870" t="n">
+      <c r="M874" t="n">
         <v>5500</v>
       </c>
-      <c r="N870" t="inlineStr">
+      <c r="N874" t="inlineStr">
         <is>
           <t>$/caja 10 kilos</t>
         </is>
       </c>
-      <c r="O870" t="inlineStr">
+      <c r="O874" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P870" t="n">
+      <c r="P874" t="n">
         <v>550</v>
       </c>
-      <c r="Q870" t="n">
-        <v>10</v>
-      </c>
-      <c r="R870" t="inlineStr">
+      <c r="Q874" t="n">
+        <v>10</v>
+      </c>
+      <c r="R874" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R897"/>
+  <dimension ref="A1:R899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E837" t="n">
         <v>9</v>
@@ -60621,32 +60621,32 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K837" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L837" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M837" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="Q837" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R837" t="inlineStr">
         <is>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -60689,20 +60689,20 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>700</v>
+        <v>40</v>
       </c>
       <c r="K838" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L838" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M838" t="n">
-        <v>11429</v>
+        <v>13500</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>635</v>
+        <v>750</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60765,32 +60765,32 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="K839" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L839" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M839" t="n">
-        <v>5286</v>
+        <v>12000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>529</v>
+        <v>667</v>
       </c>
       <c r="Q839" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R839" t="inlineStr">
         <is>
@@ -60833,24 +60833,24 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K840" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L840" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M840" t="n">
-        <v>4000</v>
+        <v>11429</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
@@ -60859,10 +60859,10 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>400</v>
+        <v>635</v>
       </c>
       <c r="Q840" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R840" t="inlineStr">
         <is>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E841" t="n">
         <v>9</v>
@@ -60909,32 +60909,32 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K841" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="L841" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="M841" t="n">
-        <v>18118</v>
+        <v>5286</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>1007</v>
+        <v>529</v>
       </c>
       <c r="Q841" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R841" t="inlineStr">
         <is>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E842" t="n">
         <v>9</v>
@@ -60977,24 +60977,24 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K842" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L842" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M842" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O842" t="inlineStr">
@@ -61003,10 +61003,10 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="Q842" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R842" t="inlineStr">
         <is>
@@ -61053,32 +61053,32 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K843" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="L843" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="M843" t="n">
-        <v>5750</v>
+        <v>18118</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>575</v>
+        <v>1007</v>
       </c>
       <c r="Q843" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R843" t="inlineStr">
         <is>
@@ -61116,7 +61116,7 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="K844" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L844" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M844" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61188,7 +61188,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -61197,32 +61197,32 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K845" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L845" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M845" t="n">
-        <v>9000</v>
+        <v>5750</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="Q845" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61269,29 +61269,29 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="K846" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L846" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M846" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61337,24 +61337,24 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K847" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L847" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M847" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
@@ -61363,10 +61363,10 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="Q847" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61409,36 +61409,36 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K848" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L848" t="n">
         <v>8000</v>
       </c>
       <c r="M848" t="n">
-        <v>7833</v>
+        <v>8000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="Q848" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R848" t="inlineStr">
         <is>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61476,41 +61476,41 @@
       </c>
       <c r="H849" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="K849" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L849" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M849" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q849" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -61548,41 +61548,41 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="K850" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="L850" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M850" t="n">
-        <v>20000</v>
+        <v>7833</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>1111</v>
+        <v>522</v>
       </c>
       <c r="Q850" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R850" t="inlineStr">
         <is>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E851" t="n">
         <v>9</v>
@@ -61629,32 +61629,32 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="K851" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L851" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M851" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q851" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K852" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L852" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M852" t="n">
-        <v>11600</v>
+        <v>20000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>644</v>
+        <v>1111</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61773,32 +61773,32 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="K853" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="L853" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M853" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>450</v>
+        <v>667</v>
       </c>
       <c r="Q853" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R853" t="inlineStr">
         <is>
@@ -61841,20 +61841,20 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K854" t="n">
         <v>10000</v>
       </c>
       <c r="L854" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M854" t="n">
-        <v>10000</v>
+        <v>11600</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>556</v>
+        <v>644</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="K855" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L855" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M855" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q855" t="n">
         <v>10</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K856" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L856" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M856" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -62057,36 +62057,36 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J857" t="n">
+        <v>500</v>
+      </c>
+      <c r="K857" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L857" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M857" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N857" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O857" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P857" t="n">
         <v>400</v>
       </c>
-      <c r="K857" t="n">
-        <v>22000</v>
-      </c>
-      <c r="L857" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M857" t="n">
-        <v>23000</v>
-      </c>
-      <c r="N857" t="inlineStr">
-        <is>
-          <t>$/bandeja 20 kilos</t>
-        </is>
-      </c>
-      <c r="O857" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P857" t="n">
-        <v>1150</v>
-      </c>
       <c r="Q857" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R857" t="inlineStr">
         <is>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K858" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L858" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M858" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>694</v>
+        <v>833</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K859" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L859" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M859" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="Q859" t="n">
         <v>20</v>
@@ -62277,20 +62277,20 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K860" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L860" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M860" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
@@ -62299,10 +62299,10 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>500</v>
+        <v>694</v>
       </c>
       <c r="Q860" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62349,20 +62349,20 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K861" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L861" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M861" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
@@ -62371,10 +62371,10 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q861" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R861" t="inlineStr">
         <is>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -62421,32 +62421,32 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K862" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L862" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M862" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P862" t="n">
         <v>500</v>
       </c>
       <c r="Q862" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R862" t="inlineStr">
         <is>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -62493,29 +62493,29 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="K863" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L863" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M863" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -62565,20 +62565,20 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="K864" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L864" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M864" t="n">
-        <v>8237</v>
+        <v>9000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O864" t="inlineStr">
@@ -62587,10 +62587,10 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="Q864" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R864" t="inlineStr">
         <is>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="K865" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L865" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M865" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="K866" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L866" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M866" t="n">
-        <v>5000</v>
+        <v>8237</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>333</v>
+        <v>549</v>
       </c>
       <c r="Q866" t="n">
         <v>15</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K867" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L867" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M867" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62799,11 +62799,11 @@
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -62849,11 +62849,11 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="K868" t="n">
         <v>5000</v>
@@ -62866,19 +62866,19 @@
       </c>
       <c r="N868" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q868" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R868" t="inlineStr">
         <is>
@@ -62916,7 +62916,7 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -62928,29 +62928,29 @@
         <v>500</v>
       </c>
       <c r="K869" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L869" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M869" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>533</v>
+        <v>722</v>
       </c>
       <c r="Q869" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -62993,36 +62993,36 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="K870" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L870" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M870" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="Q870" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R870" t="inlineStr">
         <is>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -63060,7 +63060,7 @@
       </c>
       <c r="H871" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
@@ -63069,32 +63069,32 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="K871" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L871" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M871" t="n">
-        <v>12486</v>
+        <v>8000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>694</v>
+        <v>533</v>
       </c>
       <c r="Q871" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R871" t="inlineStr">
         <is>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="K872" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L872" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M872" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>778</v>
+        <v>889</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63209,20 +63209,20 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>550</v>
+        <v>1750</v>
       </c>
       <c r="K873" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L873" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M873" t="n">
-        <v>10000</v>
+        <v>12486</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>556</v>
+        <v>694</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="K874" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L874" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M874" t="n">
-        <v>16385</v>
+        <v>14000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>910</v>
+        <v>778</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="K875" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L875" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M875" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63375,11 +63375,11 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="K876" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L876" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M876" t="n">
-        <v>18844</v>
+        <v>16385</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63447,11 +63447,11 @@
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>1047</v>
+        <v>910</v>
       </c>
       <c r="Q876" t="n">
         <v>18</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>180</v>
+        <v>850</v>
       </c>
       <c r="K877" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L877" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M877" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="K878" t="n">
         <v>18000</v>
       </c>
       <c r="L878" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M878" t="n">
-        <v>18000</v>
+        <v>18844</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>1000</v>
+        <v>1047</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>385</v>
+        <v>180</v>
       </c>
       <c r="K879" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L879" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M879" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q879" t="n">
         <v>18</v>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,32 +63717,32 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="K880" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L880" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M880" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q880" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R880" t="inlineStr">
         <is>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>250</v>
+        <v>385</v>
       </c>
       <c r="K881" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L881" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M881" t="n">
-        <v>17200</v>
+        <v>15000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63807,11 +63807,11 @@
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>956</v>
+        <v>833</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,32 +63861,32 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="K882" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L882" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M882" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P882" t="n">
         <v>667</v>
       </c>
       <c r="Q882" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63929,24 +63929,24 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="K883" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L883" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M883" t="n">
-        <v>5000</v>
+        <v>17200</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
@@ -63955,10 +63955,10 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>500</v>
+        <v>956</v>
       </c>
       <c r="Q883" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>830</v>
+        <v>600</v>
       </c>
       <c r="K884" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L884" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="M884" t="n">
-        <v>18331</v>
+        <v>12000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64023,11 +64023,11 @@
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>1018</v>
+        <v>667</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -64077,20 +64077,20 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="K885" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L885" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M885" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O885" t="inlineStr">
@@ -64099,10 +64099,10 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q885" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R885" t="inlineStr">
         <is>
@@ -64149,32 +64149,32 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>1200</v>
+        <v>830</v>
       </c>
       <c r="K886" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="L886" t="n">
-        <v>6000</v>
+        <v>18500</v>
       </c>
       <c r="M886" t="n">
-        <v>5771</v>
+        <v>18331</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>577</v>
+        <v>1018</v>
       </c>
       <c r="Q886" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R886" t="inlineStr">
         <is>
@@ -64212,7 +64212,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="K887" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L887" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M887" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q887" t="n">
         <v>18</v>
@@ -64284,7 +64284,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -64293,32 +64293,32 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="K888" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L888" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M888" t="n">
-        <v>7600</v>
+        <v>5771</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>507</v>
+        <v>577</v>
       </c>
       <c r="Q888" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R888" t="inlineStr">
         <is>
@@ -64365,32 +64365,32 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>1250</v>
+        <v>255</v>
       </c>
       <c r="K889" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L889" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M889" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>533</v>
+        <v>833</v>
       </c>
       <c r="Q889" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R889" t="inlineStr">
         <is>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -64428,41 +64428,41 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K890" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L890" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M890" t="n">
-        <v>20500</v>
+        <v>7600</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>1139</v>
+        <v>507</v>
       </c>
       <c r="Q890" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R890" t="inlineStr">
         <is>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,32 +64509,32 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>600</v>
+        <v>1250</v>
       </c>
       <c r="K891" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L891" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M891" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="Q891" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R891" t="inlineStr">
         <is>
@@ -64577,24 +64577,24 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J892" t="n">
         <v>400</v>
       </c>
       <c r="K892" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L892" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M892" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>806</v>
+        <v>1139</v>
       </c>
       <c r="Q892" t="n">
         <v>18</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64649,36 +64649,36 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>155</v>
+        <v>600</v>
       </c>
       <c r="K893" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L893" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M893" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>722</v>
+        <v>400</v>
       </c>
       <c r="Q893" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R893" t="inlineStr">
         <is>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -64725,29 +64725,29 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K894" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L894" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M894" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>556</v>
+        <v>806</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>650</v>
+        <v>155</v>
       </c>
       <c r="K895" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L895" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M895" t="n">
-        <v>9538</v>
+        <v>13000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>530</v>
+        <v>722</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64869,32 +64869,32 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>1350</v>
+        <v>150</v>
       </c>
       <c r="K896" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L896" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M896" t="n">
-        <v>4741</v>
+        <v>10000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>474</v>
+        <v>556</v>
       </c>
       <c r="Q896" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64932,7 +64932,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>210</v>
+        <v>650</v>
       </c>
       <c r="K897" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L897" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M897" t="n">
-        <v>8000</v>
+        <v>9538</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,16 +64959,160 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>444</v>
+        <v>530</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
       </c>
       <c r="R897" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>10</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D898" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E898" t="n">
+        <v>9</v>
+      </c>
+      <c r="F898" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H898" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I898" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J898" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K898" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L898" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M898" t="n">
+        <v>4741</v>
+      </c>
+      <c r="N898" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O898" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P898" t="n">
+        <v>474</v>
+      </c>
+      <c r="Q898" t="n">
+        <v>10</v>
+      </c>
+      <c r="R898" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>10</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D899" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E899" t="n">
+        <v>9</v>
+      </c>
+      <c r="F899" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G899" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H899" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I899" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J899" t="n">
+        <v>210</v>
+      </c>
+      <c r="K899" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L899" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M899" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N899" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O899" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P899" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q899" t="n">
+        <v>18</v>
+      </c>
+      <c r="R899" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R905"/>
+  <dimension ref="A1:R908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51093,7 +51093,7 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E705" t="n">
         <v>9</v>
@@ -51117,16 +51117,16 @@
         </is>
       </c>
       <c r="J705" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="K705" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L705" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M705" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N705" t="inlineStr">
         <is>
@@ -51135,11 +51135,11 @@
       </c>
       <c r="O705" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P705" t="n">
-        <v>1056</v>
+        <v>833</v>
       </c>
       <c r="Q705" t="n">
         <v>18</v>
@@ -51165,7 +51165,7 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E706" t="n">
         <v>9</v>
@@ -51180,7 +51180,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -51189,32 +51189,32 @@
         </is>
       </c>
       <c r="J706" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K706" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L706" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M706" t="n">
-        <v>13200</v>
+        <v>7000</v>
       </c>
       <c r="N706" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O706" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P706" t="n">
-        <v>880</v>
+        <v>700</v>
       </c>
       <c r="Q706" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R706" t="inlineStr">
         <is>
@@ -51237,7 +51237,7 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E707" t="n">
         <v>9</v>
@@ -51252,41 +51252,41 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J707" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K707" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L707" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M707" t="n">
-        <v>15500</v>
+        <v>5000</v>
       </c>
       <c r="N707" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O707" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P707" t="n">
-        <v>861</v>
+        <v>500</v>
       </c>
       <c r="Q707" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R707" t="inlineStr">
         <is>
@@ -51309,7 +51309,7 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E708" t="n">
         <v>9</v>
@@ -51329,20 +51329,20 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J708" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="K708" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L708" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M708" t="n">
-        <v>16500</v>
+        <v>19000</v>
       </c>
       <c r="N708" t="inlineStr">
         <is>
@@ -51355,7 +51355,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>917</v>
+        <v>1056</v>
       </c>
       <c r="Q708" t="n">
         <v>18</v>
@@ -51381,7 +51381,7 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E709" t="n">
         <v>9</v>
@@ -51396,16 +51396,16 @@
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J709" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K709" t="n">
         <v>13000</v>
@@ -51414,23 +51414,23 @@
         <v>14000</v>
       </c>
       <c r="M709" t="n">
-        <v>13500</v>
+        <v>13200</v>
       </c>
       <c r="N709" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O709" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P709" t="n">
-        <v>750</v>
+        <v>880</v>
       </c>
       <c r="Q709" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R709" t="inlineStr">
         <is>
@@ -51453,7 +51453,7 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E710" t="n">
         <v>9</v>
@@ -51468,7 +51468,7 @@
       </c>
       <c r="H710" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -51477,29 +51477,29 @@
         </is>
       </c>
       <c r="J710" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K710" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L710" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M710" t="n">
-        <v>10000</v>
+        <v>15500</v>
       </c>
       <c r="N710" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O710" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P710" t="n">
-        <v>556</v>
+        <v>861</v>
       </c>
       <c r="Q710" t="n">
         <v>18</v>
@@ -51545,20 +51545,20 @@
       </c>
       <c r="I711" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J711" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K711" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L711" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M711" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="N711" t="inlineStr">
         <is>
@@ -51571,7 +51571,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>722</v>
+        <v>917</v>
       </c>
       <c r="Q711" t="n">
         <v>18</v>
@@ -51617,20 +51617,20 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J712" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K712" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L712" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M712" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="N712" t="inlineStr">
         <is>
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>556</v>
+        <v>750</v>
       </c>
       <c r="Q712" t="n">
         <v>18</v>
@@ -51693,32 +51693,32 @@
         </is>
       </c>
       <c r="J713" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="K713" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L713" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M713" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N713" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O713" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P713" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q713" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R713" t="inlineStr">
         <is>
@@ -51761,20 +51761,20 @@
       </c>
       <c r="I714" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J714" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K714" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L714" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M714" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N714" t="inlineStr">
         <is>
@@ -51783,11 +51783,11 @@
       </c>
       <c r="O714" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P714" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q714" t="n">
         <v>18</v>
@@ -51833,36 +51833,36 @@
       </c>
       <c r="I715" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J715" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="K715" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="L715" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M715" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="N715" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O715" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P715" t="n">
-        <v>233</v>
+        <v>556</v>
       </c>
       <c r="Q715" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R715" t="inlineStr">
         <is>
@@ -51900,7 +51900,7 @@
       </c>
       <c r="H716" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
@@ -51909,32 +51909,32 @@
         </is>
       </c>
       <c r="J716" t="n">
+        <v>1200</v>
+      </c>
+      <c r="K716" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L716" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M716" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N716" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O716" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P716" t="n">
         <v>500</v>
       </c>
-      <c r="K716" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L716" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M716" t="n">
-        <v>7000</v>
-      </c>
-      <c r="N716" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O716" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P716" t="n">
-        <v>389</v>
-      </c>
       <c r="Q716" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R716" t="inlineStr">
         <is>
@@ -51972,25 +51972,25 @@
       </c>
       <c r="H717" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J717" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="K717" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L717" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M717" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N717" t="inlineStr">
         <is>
@@ -51999,11 +51999,11 @@
       </c>
       <c r="O717" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P717" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="Q717" t="n">
         <v>18</v>
@@ -52029,7 +52029,7 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E718" t="n">
         <v>9</v>
@@ -52049,24 +52049,24 @@
       </c>
       <c r="I718" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J718" t="n">
-        <v>1550</v>
+        <v>160</v>
       </c>
       <c r="K718" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L718" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M718" t="n">
-        <v>7419</v>
+        <v>3500</v>
       </c>
       <c r="N718" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O718" t="inlineStr">
@@ -52075,10 +52075,10 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>412</v>
+        <v>233</v>
       </c>
       <c r="Q718" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R718" t="inlineStr">
         <is>
@@ -52101,7 +52101,7 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
@@ -52116,25 +52116,25 @@
       </c>
       <c r="H719" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J719" t="n">
-        <v>850</v>
+        <v>500</v>
       </c>
       <c r="K719" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L719" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M719" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N719" t="inlineStr">
         <is>
@@ -52143,11 +52143,11 @@
       </c>
       <c r="O719" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P719" t="n">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="Q719" t="n">
         <v>18</v>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44243</v>
+        <v>44301</v>
       </c>
       <c r="E720" t="n">
         <v>9</v>
@@ -52188,25 +52188,25 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J720" t="n">
-        <v>150</v>
+        <v>1600</v>
       </c>
       <c r="K720" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L720" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M720" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N720" t="inlineStr">
         <is>
@@ -52215,11 +52215,11 @@
       </c>
       <c r="O720" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P720" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="Q720" t="n">
         <v>18</v>
@@ -52245,7 +52245,7 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E721" t="n">
         <v>9</v>
@@ -52269,16 +52269,16 @@
         </is>
       </c>
       <c r="J721" t="n">
-        <v>950</v>
+        <v>1550</v>
       </c>
       <c r="K721" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L721" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M721" t="n">
-        <v>11579</v>
+        <v>7419</v>
       </c>
       <c r="N721" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>643</v>
+        <v>412</v>
       </c>
       <c r="Q721" t="n">
         <v>18</v>
@@ -52317,7 +52317,7 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E722" t="n">
         <v>9</v>
@@ -52337,20 +52337,20 @@
       </c>
       <c r="I722" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J722" t="n">
-        <v>630</v>
+        <v>850</v>
       </c>
       <c r="K722" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L722" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M722" t="n">
-        <v>13397</v>
+        <v>5000</v>
       </c>
       <c r="N722" t="inlineStr">
         <is>
@@ -52359,11 +52359,11 @@
       </c>
       <c r="O722" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P722" t="n">
-        <v>744</v>
+        <v>278</v>
       </c>
       <c r="Q722" t="n">
         <v>18</v>
@@ -52409,24 +52409,24 @@
       </c>
       <c r="I723" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J723" t="n">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="K723" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L723" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M723" t="n">
-        <v>9455</v>
+        <v>14000</v>
       </c>
       <c r="N723" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O723" t="inlineStr">
@@ -52435,10 +52435,10 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>630</v>
+        <v>778</v>
       </c>
       <c r="Q723" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R723" t="inlineStr">
         <is>
@@ -52481,20 +52481,20 @@
       </c>
       <c r="I724" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J724" t="n">
-        <v>1230</v>
+        <v>950</v>
       </c>
       <c r="K724" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L724" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M724" t="n">
-        <v>8528</v>
+        <v>11579</v>
       </c>
       <c r="N724" t="inlineStr">
         <is>
@@ -52507,7 +52507,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>474</v>
+        <v>643</v>
       </c>
       <c r="Q724" t="n">
         <v>18</v>
@@ -52548,7 +52548,7 @@
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
@@ -52557,7 +52557,7 @@
         </is>
       </c>
       <c r="J725" t="n">
-        <v>350</v>
+        <v>630</v>
       </c>
       <c r="K725" t="n">
         <v>13000</v>
@@ -52566,7 +52566,7 @@
         <v>14000</v>
       </c>
       <c r="M725" t="n">
-        <v>13571</v>
+        <v>13397</v>
       </c>
       <c r="N725" t="inlineStr">
         <is>
@@ -52575,11 +52575,11 @@
       </c>
       <c r="O725" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P725" t="n">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="Q725" t="n">
         <v>18</v>
@@ -52605,7 +52605,7 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E726" t="n">
         <v>9</v>
@@ -52629,20 +52629,20 @@
         </is>
       </c>
       <c r="J726" t="n">
-        <v>1630</v>
+        <v>550</v>
       </c>
       <c r="K726" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L726" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M726" t="n">
-        <v>8417</v>
+        <v>9455</v>
       </c>
       <c r="N726" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O726" t="inlineStr">
@@ -52651,10 +52651,10 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>468</v>
+        <v>630</v>
       </c>
       <c r="Q726" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R726" t="inlineStr">
         <is>
@@ -52677,7 +52677,7 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E727" t="n">
         <v>9</v>
@@ -52697,20 +52697,20 @@
       </c>
       <c r="I727" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J727" t="n">
-        <v>680</v>
+        <v>1230</v>
       </c>
       <c r="K727" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L727" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M727" t="n">
-        <v>12000</v>
+        <v>8528</v>
       </c>
       <c r="N727" t="inlineStr">
         <is>
@@ -52719,11 +52719,11 @@
       </c>
       <c r="O727" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P727" t="n">
-        <v>667</v>
+        <v>474</v>
       </c>
       <c r="Q727" t="n">
         <v>18</v>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E728" t="n">
         <v>9</v>
@@ -52764,25 +52764,25 @@
       </c>
       <c r="H728" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I728" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J728" t="n">
-        <v>680</v>
+        <v>350</v>
       </c>
       <c r="K728" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L728" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M728" t="n">
-        <v>5000</v>
+        <v>13571</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>278</v>
+        <v>754</v>
       </c>
       <c r="Q728" t="n">
         <v>18</v>
@@ -52836,7 +52836,7 @@
       </c>
       <c r="H729" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -52845,16 +52845,16 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>380</v>
+        <v>1630</v>
       </c>
       <c r="K729" t="n">
         <v>8000</v>
       </c>
       <c r="L729" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M729" t="n">
-        <v>8000</v>
+        <v>8417</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="Q729" t="n">
         <v>18</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E730" t="n">
         <v>9</v>
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>430</v>
+        <v>680</v>
       </c>
       <c r="K730" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L730" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M730" t="n">
-        <v>13419</v>
+        <v>12000</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>746</v>
+        <v>667</v>
       </c>
       <c r="Q730" t="n">
         <v>18</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E731" t="n">
         <v>9</v>
@@ -52985,36 +52985,36 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>2150</v>
+        <v>680</v>
       </c>
       <c r="K731" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L731" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="M731" t="n">
-        <v>4291</v>
+        <v>5000</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>429</v>
+        <v>278</v>
       </c>
       <c r="Q731" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R731" t="inlineStr">
         <is>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E732" t="n">
         <v>9</v>
@@ -53052,16 +53052,16 @@
       </c>
       <c r="H732" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J732" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="K732" t="n">
         <v>8000</v>
@@ -53079,7 +53079,7 @@
       </c>
       <c r="O732" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P732" t="n">
@@ -53124,7 +53124,7 @@
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -53133,32 +53133,32 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>1550</v>
+        <v>430</v>
       </c>
       <c r="K733" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L733" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M733" t="n">
-        <v>5000</v>
+        <v>13419</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>333</v>
+        <v>746</v>
       </c>
       <c r="Q733" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R733" t="inlineStr">
         <is>
@@ -53181,7 +53181,7 @@
         </is>
       </c>
       <c r="D734" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E734" t="n">
         <v>9</v>
@@ -53205,32 +53205,32 @@
         </is>
       </c>
       <c r="J734" t="n">
-        <v>1450</v>
+        <v>2150</v>
       </c>
       <c r="K734" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L734" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="M734" t="n">
-        <v>12897</v>
+        <v>4291</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>716</v>
+        <v>429</v>
       </c>
       <c r="Q734" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R734" t="inlineStr">
         <is>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E735" t="n">
         <v>9</v>
@@ -53273,36 +53273,36 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J735" t="n">
-        <v>1150</v>
+        <v>65</v>
       </c>
       <c r="K735" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L735" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M735" t="n">
-        <v>4283</v>
+        <v>8000</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="Q735" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R735" t="inlineStr">
         <is>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E736" t="n">
         <v>9</v>
@@ -53340,41 +53340,41 @@
       </c>
       <c r="H736" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J736" t="n">
-        <v>150</v>
+        <v>1550</v>
       </c>
       <c r="K736" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L736" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M736" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="Q736" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R736" t="inlineStr">
         <is>
@@ -53412,7 +53412,7 @@
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -53421,16 +53421,16 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>850</v>
+        <v>1450</v>
       </c>
       <c r="K737" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L737" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M737" t="n">
-        <v>11000</v>
+        <v>12897</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53439,11 +53439,11 @@
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>611</v>
+        <v>716</v>
       </c>
       <c r="Q737" t="n">
         <v>18</v>
@@ -53484,7 +53484,7 @@
       </c>
       <c r="H738" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
@@ -53493,32 +53493,32 @@
         </is>
       </c>
       <c r="J738" t="n">
-        <v>1900</v>
+        <v>1150</v>
       </c>
       <c r="K738" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L738" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M738" t="n">
-        <v>7658</v>
+        <v>4283</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>511</v>
+        <v>428</v>
       </c>
       <c r="Q738" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R738" t="inlineStr">
         <is>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E739" t="n">
         <v>9</v>
@@ -53556,41 +53556,41 @@
       </c>
       <c r="H739" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J739" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="K739" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L739" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M739" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>2000</v>
+        <v>556</v>
       </c>
       <c r="Q739" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R739" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E740" t="n">
         <v>9</v>
@@ -53628,7 +53628,7 @@
       </c>
       <c r="H740" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
@@ -53637,16 +53637,16 @@
         </is>
       </c>
       <c r="J740" t="n">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="K740" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L740" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M740" t="n">
-        <v>14455</v>
+        <v>11000</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53655,11 +53655,11 @@
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>803</v>
+        <v>611</v>
       </c>
       <c r="Q740" t="n">
         <v>18</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E741" t="n">
         <v>9</v>
@@ -53700,7 +53700,7 @@
       </c>
       <c r="H741" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I741" t="inlineStr">
@@ -53709,32 +53709,32 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="K741" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L741" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M741" t="n">
-        <v>5000</v>
+        <v>7658</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="Q741" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R741" t="inlineStr">
         <is>
@@ -53772,7 +53772,7 @@
       </c>
       <c r="H742" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I742" t="inlineStr">
@@ -53781,20 +53781,20 @@
         </is>
       </c>
       <c r="J742" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="K742" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L742" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M742" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O742" t="inlineStr">
@@ -53803,10 +53803,10 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>778</v>
+        <v>2000</v>
       </c>
       <c r="Q742" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R742" t="inlineStr">
         <is>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E743" t="n">
         <v>9</v>
@@ -53853,16 +53853,16 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K743" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L743" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M743" t="n">
-        <v>13083</v>
+        <v>14455</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53875,7 +53875,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>727</v>
+        <v>803</v>
       </c>
       <c r="Q743" t="n">
         <v>18</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E744" t="n">
         <v>9</v>
@@ -53925,16 +53925,16 @@
         </is>
       </c>
       <c r="J744" t="n">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="K744" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L744" t="n">
         <v>5000</v>
       </c>
       <c r="M744" t="n">
-        <v>4783</v>
+        <v>5000</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53947,7 +53947,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="Q744" t="n">
         <v>10</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E745" t="n">
         <v>9</v>
@@ -53993,24 +53993,24 @@
       </c>
       <c r="I745" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J745" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K745" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L745" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M745" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O745" t="inlineStr">
@@ -54019,7 +54019,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="Q745" t="n">
         <v>18</v>
@@ -54045,7 +54045,7 @@
         </is>
       </c>
       <c r="D746" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E746" t="n">
         <v>9</v>
@@ -54060,7 +54060,7 @@
       </c>
       <c r="H746" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I746" t="inlineStr">
@@ -54069,32 +54069,32 @@
         </is>
       </c>
       <c r="J746" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K746" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="L746" t="n">
-        <v>2000</v>
+        <v>14000</v>
       </c>
       <c r="M746" t="n">
-        <v>2000</v>
+        <v>13083</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>2000</v>
+        <v>727</v>
       </c>
       <c r="Q746" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R746" t="inlineStr">
         <is>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E747" t="n">
         <v>9</v>
@@ -54141,32 +54141,32 @@
         </is>
       </c>
       <c r="J747" t="n">
-        <v>830</v>
+        <v>1500</v>
       </c>
       <c r="K747" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="L747" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="M747" t="n">
-        <v>16542</v>
+        <v>4783</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O747" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P747" t="n">
-        <v>919</v>
+        <v>478</v>
       </c>
       <c r="Q747" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R747" t="inlineStr">
         <is>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E748" t="n">
         <v>9</v>
@@ -54204,25 +54204,25 @@
       </c>
       <c r="H748" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>850</v>
+        <v>380</v>
       </c>
       <c r="K748" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L748" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M748" t="n">
-        <v>12471</v>
+        <v>8000</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>693</v>
+        <v>444</v>
       </c>
       <c r="Q748" t="n">
         <v>18</v>
@@ -54276,7 +54276,7 @@
       </c>
       <c r="H749" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I749" t="inlineStr">
@@ -54285,32 +54285,32 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>2300</v>
+        <v>500</v>
       </c>
       <c r="K749" t="n">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="L749" t="n">
-        <v>9000</v>
+        <v>2000</v>
       </c>
       <c r="M749" t="n">
-        <v>8478</v>
+        <v>2000</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O749" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P749" t="n">
-        <v>565</v>
+        <v>2000</v>
       </c>
       <c r="Q749" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R749" t="inlineStr">
         <is>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E750" t="n">
         <v>9</v>
@@ -54353,20 +54353,20 @@
       </c>
       <c r="I750" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J750" t="n">
-        <v>500</v>
+        <v>830</v>
       </c>
       <c r="K750" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L750" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="M750" t="n">
-        <v>18400</v>
+        <v>16542</v>
       </c>
       <c r="N750" t="inlineStr">
         <is>
@@ -54375,11 +54375,11 @@
       </c>
       <c r="O750" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P750" t="n">
-        <v>1022</v>
+        <v>919</v>
       </c>
       <c r="Q750" t="n">
         <v>18</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E751" t="n">
         <v>9</v>
@@ -54420,7 +54420,7 @@
       </c>
       <c r="H751" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -54429,16 +54429,16 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="K751" t="n">
         <v>12000</v>
       </c>
       <c r="L751" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M751" t="n">
-        <v>12000</v>
+        <v>12471</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54447,11 +54447,11 @@
       </c>
       <c r="O751" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P751" t="n">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="Q751" t="n">
         <v>18</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E752" t="n">
         <v>9</v>
@@ -54492,7 +54492,7 @@
       </c>
       <c r="H752" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -54501,32 +54501,32 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K752" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L752" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M752" t="n">
-        <v>12455</v>
+        <v>8478</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O752" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P752" t="n">
-        <v>692</v>
+        <v>565</v>
       </c>
       <c r="Q752" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R752" t="inlineStr">
         <is>
@@ -54569,24 +54569,24 @@
       </c>
       <c r="I753" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J753" t="n">
-        <v>4700</v>
+        <v>500</v>
       </c>
       <c r="K753" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="L753" t="n">
-        <v>5000</v>
+        <v>19000</v>
       </c>
       <c r="M753" t="n">
-        <v>4532</v>
+        <v>18400</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O753" t="inlineStr">
@@ -54595,10 +54595,10 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>453</v>
+        <v>1022</v>
       </c>
       <c r="Q753" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R753" t="inlineStr">
         <is>
@@ -54645,29 +54645,29 @@
         </is>
       </c>
       <c r="J754" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K754" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L754" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M754" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O754" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P754" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q754" t="n">
         <v>18</v>
@@ -54713,20 +54713,20 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K755" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L755" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M755" t="n">
-        <v>9000</v>
+        <v>12455</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54739,7 +54739,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>500</v>
+        <v>692</v>
       </c>
       <c r="Q755" t="n">
         <v>18</v>
@@ -54765,7 +54765,7 @@
         </is>
       </c>
       <c r="D756" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E756" t="n">
         <v>9</v>
@@ -54785,24 +54785,24 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>280</v>
+        <v>4700</v>
       </c>
       <c r="K756" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="L756" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M756" t="n">
-        <v>16000</v>
+        <v>4532</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O756" t="inlineStr">
@@ -54811,10 +54811,10 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>889</v>
+        <v>453</v>
       </c>
       <c r="Q756" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R756" t="inlineStr">
         <is>
@@ -54837,7 +54837,7 @@
         </is>
       </c>
       <c r="D757" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E757" t="n">
         <v>9</v>
@@ -54857,11 +54857,11 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K757" t="n">
         <v>15000</v>
@@ -54909,7 +54909,7 @@
         </is>
       </c>
       <c r="D758" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E758" t="n">
         <v>9</v>
@@ -54929,7 +54929,7 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J758" t="n">
@@ -54939,10 +54939,10 @@
         <v>9000</v>
       </c>
       <c r="L758" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M758" t="n">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54955,7 +54955,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="Q758" t="n">
         <v>18</v>
@@ -55001,24 +55001,24 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>1400</v>
+        <v>280</v>
       </c>
       <c r="K759" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L759" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M759" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O759" t="inlineStr">
@@ -55027,10 +55027,10 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>500</v>
+        <v>889</v>
       </c>
       <c r="Q759" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R759" t="inlineStr">
         <is>
@@ -55068,38 +55068,38 @@
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K760" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L760" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M760" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q760" t="n">
         <v>18</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E761" t="n">
         <v>9</v>
@@ -55149,7 +55149,7 @@
         </is>
       </c>
       <c r="J761" t="n">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="K761" t="n">
         <v>9000</v>
@@ -55158,7 +55158,7 @@
         <v>10000</v>
       </c>
       <c r="M761" t="n">
-        <v>9455</v>
+        <v>9500</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="Q761" t="n">
         <v>18</v>
@@ -55197,7 +55197,7 @@
         </is>
       </c>
       <c r="D762" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E762" t="n">
         <v>9</v>
@@ -55217,36 +55217,36 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="K762" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L762" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M762" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q762" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R762" t="inlineStr">
         <is>
@@ -55269,7 +55269,7 @@
         </is>
       </c>
       <c r="D763" s="2" t="n">
-        <v>44397</v>
+        <v>44316</v>
       </c>
       <c r="E763" t="n">
         <v>9</v>
@@ -55284,25 +55284,25 @@
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="K763" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="L763" t="n">
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="M763" t="n">
-        <v>22909</v>
+        <v>8000</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>1273</v>
+        <v>444</v>
       </c>
       <c r="Q763" t="n">
         <v>18</v>
@@ -55341,7 +55341,7 @@
         </is>
       </c>
       <c r="D764" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E764" t="n">
         <v>9</v>
@@ -55365,16 +55365,16 @@
         </is>
       </c>
       <c r="J764" t="n">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="K764" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L764" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M764" t="n">
-        <v>14583</v>
+        <v>9455</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>810</v>
+        <v>525</v>
       </c>
       <c r="Q764" t="n">
         <v>18</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E765" t="n">
         <v>9</v>
@@ -55433,36 +55433,36 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="K765" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="L765" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M765" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>550</v>
+        <v>444</v>
       </c>
       <c r="Q765" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R765" t="inlineStr">
         <is>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E766" t="n">
         <v>9</v>
@@ -55509,20 +55509,20 @@
         </is>
       </c>
       <c r="J766" t="n">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="K766" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L766" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="M766" t="n">
-        <v>16000</v>
+        <v>22909</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O766" t="inlineStr">
@@ -55531,7 +55531,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>889</v>
+        <v>1273</v>
       </c>
       <c r="Q766" t="n">
         <v>18</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E767" t="n">
         <v>9</v>
@@ -55581,16 +55581,16 @@
         </is>
       </c>
       <c r="J767" t="n">
-        <v>550</v>
+        <v>1200</v>
       </c>
       <c r="K767" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L767" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M767" t="n">
-        <v>13636</v>
+        <v>14583</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55603,7 +55603,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>758</v>
+        <v>810</v>
       </c>
       <c r="Q767" t="n">
         <v>18</v>
@@ -55629,7 +55629,7 @@
         </is>
       </c>
       <c r="D768" s="2" t="n">
-        <v>44277</v>
+        <v>44397</v>
       </c>
       <c r="E768" t="n">
         <v>9</v>
@@ -55644,7 +55644,7 @@
       </c>
       <c r="H768" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -55653,32 +55653,32 @@
         </is>
       </c>
       <c r="J768" t="n">
-        <v>35</v>
+        <v>800</v>
       </c>
       <c r="K768" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="L768" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="M768" t="n">
-        <v>2000</v>
+        <v>5500</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>2000</v>
+        <v>550</v>
       </c>
       <c r="Q768" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R768" t="inlineStr">
         <is>
@@ -55701,7 +55701,7 @@
         </is>
       </c>
       <c r="D769" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E769" t="n">
         <v>9</v>
@@ -55721,33 +55721,33 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>1600</v>
+        <v>255</v>
       </c>
       <c r="K769" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L769" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M769" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q769" t="n">
         <v>18</v>
@@ -55773,7 +55773,7 @@
         </is>
       </c>
       <c r="D770" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E770" t="n">
         <v>9</v>
@@ -55797,16 +55797,16 @@
         </is>
       </c>
       <c r="J770" t="n">
-        <v>1250</v>
+        <v>550</v>
       </c>
       <c r="K770" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L770" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M770" t="n">
-        <v>12480</v>
+        <v>13636</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>693</v>
+        <v>758</v>
       </c>
       <c r="Q770" t="n">
         <v>18</v>
@@ -55860,7 +55860,7 @@
       </c>
       <c r="H771" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -55869,32 +55869,32 @@
         </is>
       </c>
       <c r="J771" t="n">
-        <v>550</v>
+        <v>35</v>
       </c>
       <c r="K771" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="L771" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="M771" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>40</v>
+        <v>2000</v>
       </c>
       <c r="Q771" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R771" t="inlineStr">
         <is>
@@ -55937,20 +55937,20 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>850</v>
+        <v>1600</v>
       </c>
       <c r="K772" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L772" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M772" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55963,7 +55963,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -56004,7 +56004,7 @@
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -56013,16 +56013,16 @@
         </is>
       </c>
       <c r="J773" t="n">
-        <v>650</v>
+        <v>1250</v>
       </c>
       <c r="K773" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L773" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M773" t="n">
-        <v>10000</v>
+        <v>12480</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56031,11 +56031,11 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>556</v>
+        <v>693</v>
       </c>
       <c r="Q773" t="n">
         <v>18</v>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -56076,7 +56076,7 @@
       </c>
       <c r="H774" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -56085,20 +56085,20 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>20</v>
+        <v>550</v>
       </c>
       <c r="K774" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="L774" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="M774" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O774" t="inlineStr">
@@ -56107,10 +56107,10 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>2000</v>
+        <v>40</v>
       </c>
       <c r="Q774" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R774" t="inlineStr">
         <is>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>780</v>
+        <v>850</v>
       </c>
       <c r="K775" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L775" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M775" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56179,7 +56179,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q775" t="n">
         <v>18</v>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -56220,7 +56220,7 @@
       </c>
       <c r="H776" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -56229,16 +56229,16 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="K776" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L776" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M776" t="n">
-        <v>18875</v>
+        <v>10000</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>1049</v>
+        <v>556</v>
       </c>
       <c r="Q776" t="n">
         <v>18</v>
@@ -56292,7 +56292,7 @@
       </c>
       <c r="H777" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
@@ -56301,20 +56301,20 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="K777" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="L777" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="M777" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O777" t="inlineStr">
@@ -56323,10 +56323,10 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q777" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R777" t="inlineStr">
         <is>
@@ -56373,32 +56373,32 @@
         </is>
       </c>
       <c r="J778" t="n">
-        <v>445</v>
+        <v>780</v>
       </c>
       <c r="K778" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="L778" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M778" t="n">
-        <v>9348</v>
+        <v>18000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>935</v>
+        <v>1000</v>
       </c>
       <c r="Q778" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R778" t="inlineStr">
         <is>
@@ -56445,32 +56445,32 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>120</v>
+        <v>800</v>
       </c>
       <c r="K779" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L779" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M779" t="n">
-        <v>5000</v>
+        <v>18875</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>500</v>
+        <v>1049</v>
       </c>
       <c r="Q779" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R779" t="inlineStr">
         <is>
@@ -56513,36 +56513,36 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J780" t="n">
         <v>155</v>
       </c>
       <c r="K780" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L780" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M780" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q780" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R780" t="inlineStr">
         <is>
@@ -56580,7 +56580,7 @@
       </c>
       <c r="H781" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
@@ -56589,32 +56589,32 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>650</v>
+        <v>445</v>
       </c>
       <c r="K781" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L781" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M781" t="n">
-        <v>18000</v>
+        <v>9348</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Provincia de Copiapó</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>1000</v>
+        <v>935</v>
       </c>
       <c r="Q781" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R781" t="inlineStr">
         <is>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E782" t="n">
         <v>9</v>
@@ -56657,36 +56657,36 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="K782" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="L782" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="M782" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Q782" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R782" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E783" t="n">
         <v>9</v>
@@ -56729,24 +56729,24 @@
       </c>
       <c r="I783" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J783" t="n">
-        <v>3300</v>
+        <v>155</v>
       </c>
       <c r="K783" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L783" t="n">
         <v>6000</v>
       </c>
       <c r="M783" t="n">
-        <v>5455</v>
+        <v>6000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O783" t="inlineStr">
@@ -56755,10 +56755,10 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>303</v>
+        <v>400</v>
       </c>
       <c r="Q783" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R783" t="inlineStr">
         <is>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -56796,7 +56796,7 @@
       </c>
       <c r="H784" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -56805,16 +56805,16 @@
         </is>
       </c>
       <c r="J784" t="n">
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="K784" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L784" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M784" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Copiapó</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q784" t="n">
         <v>18</v>
@@ -56873,36 +56873,36 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K785" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="L785" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="M785" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q785" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R785" t="inlineStr">
         <is>
@@ -56940,25 +56940,25 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>400</v>
+        <v>3300</v>
       </c>
       <c r="K786" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L786" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M786" t="n">
-        <v>11000</v>
+        <v>5455</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>611</v>
+        <v>303</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -57012,7 +57012,7 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -57021,16 +57021,16 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K787" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L787" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M787" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>528</v>
+        <v>667</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57084,7 +57084,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -57096,29 +57096,29 @@
         <v>600</v>
       </c>
       <c r="K788" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L788" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M788" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>278</v>
+        <v>400</v>
       </c>
       <c r="Q788" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R788" t="inlineStr">
         <is>
@@ -57161,20 +57161,20 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K789" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L789" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M789" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57187,7 +57187,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>389</v>
+        <v>611</v>
       </c>
       <c r="Q789" t="n">
         <v>18</v>
@@ -57237,32 +57237,32 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K790" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L790" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M790" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="Q790" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R790" t="inlineStr">
         <is>
@@ -57309,32 +57309,32 @@
         </is>
       </c>
       <c r="J791" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K791" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L791" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M791" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="Q791" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R791" t="inlineStr">
         <is>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E792" t="n">
         <v>9</v>
@@ -57372,41 +57372,41 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="K792" t="n">
-        <v>24000</v>
+        <v>7000</v>
       </c>
       <c r="L792" t="n">
-        <v>26000</v>
+        <v>7000</v>
       </c>
       <c r="M792" t="n">
-        <v>25111</v>
+        <v>7000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>1256</v>
+        <v>389</v>
       </c>
       <c r="Q792" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R792" t="inlineStr">
         <is>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E793" t="n">
         <v>9</v>
@@ -57444,7 +57444,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
@@ -57453,32 +57453,32 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>1100</v>
+        <v>300</v>
       </c>
       <c r="K793" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L793" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M793" t="n">
-        <v>15545</v>
+        <v>5000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>864</v>
+        <v>333</v>
       </c>
       <c r="Q793" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R793" t="inlineStr">
         <is>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E794" t="n">
         <v>9</v>
@@ -57516,7 +57516,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -57525,32 +57525,32 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>2200</v>
+        <v>300</v>
       </c>
       <c r="K794" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L794" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M794" t="n">
-        <v>7545</v>
+        <v>6000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>754</v>
+        <v>400</v>
       </c>
       <c r="Q794" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R794" t="inlineStr">
         <is>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E795" t="n">
         <v>9</v>
@@ -57593,24 +57593,24 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="K795" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="L795" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="M795" t="n">
-        <v>12500</v>
+        <v>25111</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O795" t="inlineStr">
@@ -57619,10 +57619,10 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>694</v>
+        <v>1256</v>
       </c>
       <c r="Q795" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R795" t="inlineStr">
         <is>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E796" t="n">
         <v>9</v>
@@ -57669,20 +57669,20 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K796" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L796" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="M796" t="n">
-        <v>5000</v>
+        <v>15545</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O796" t="inlineStr">
@@ -57691,10 +57691,10 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>500</v>
+        <v>864</v>
       </c>
       <c r="Q796" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R796" t="inlineStr">
         <is>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44286</v>
+        <v>44438</v>
       </c>
       <c r="E797" t="n">
         <v>9</v>
@@ -57741,32 +57741,32 @@
         </is>
       </c>
       <c r="J797" t="n">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="K797" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L797" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M797" t="n">
-        <v>12000</v>
+        <v>7545</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>667</v>
+        <v>754</v>
       </c>
       <c r="Q797" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R797" t="inlineStr">
         <is>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E798" t="n">
         <v>9</v>
@@ -57813,16 +57813,16 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K798" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L798" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M798" t="n">
-        <v>17000</v>
+        <v>12500</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>944</v>
+        <v>694</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -57881,36 +57881,36 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K799" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L799" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M799" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q799" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R799" t="inlineStr">
         <is>
@@ -57948,7 +57948,7 @@
       </c>
       <c r="H800" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
@@ -57957,16 +57957,16 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K800" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L800" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M800" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q800" t="n">
         <v>18</v>
@@ -58020,7 +58020,7 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
@@ -58029,16 +58029,16 @@
         </is>
       </c>
       <c r="J801" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K801" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L801" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M801" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58047,11 +58047,11 @@
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>778</v>
+        <v>944</v>
       </c>
       <c r="Q801" t="n">
         <v>18</v>
@@ -58092,7 +58092,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
@@ -58101,16 +58101,16 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K802" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L802" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M802" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E803" t="n">
         <v>9</v>
@@ -58164,7 +58164,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K803" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L803" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M803" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="Q803" t="n">
         <v>18</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
@@ -58236,7 +58236,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -58245,16 +58245,16 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K804" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L804" t="n">
-        <v>18500</v>
+        <v>14000</v>
       </c>
       <c r="M804" t="n">
-        <v>18278</v>
+        <v>14000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>1015</v>
+        <v>778</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E805" t="n">
         <v>9</v>
@@ -58308,16 +58308,16 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K805" t="n">
         <v>12000</v>
@@ -58335,7 +58335,7 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P805" t="n">
@@ -58389,32 +58389,32 @@
         </is>
       </c>
       <c r="J806" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="K806" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L806" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="M806" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>650</v>
+        <v>778</v>
       </c>
       <c r="Q806" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R806" t="inlineStr">
         <is>
@@ -58461,32 +58461,32 @@
         </is>
       </c>
       <c r="J807" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K807" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L807" t="n">
-        <v>6000</v>
+        <v>18500</v>
       </c>
       <c r="M807" t="n">
-        <v>6000</v>
+        <v>18278</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>400</v>
+        <v>1015</v>
       </c>
       <c r="Q807" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R807" t="inlineStr">
         <is>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K808" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L808" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M808" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58596,7 +58596,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I809" t="inlineStr">
@@ -58605,32 +58605,32 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>580</v>
+        <v>950</v>
       </c>
       <c r="K809" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L809" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="M809" t="n">
-        <v>14655</v>
+        <v>6500</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>814</v>
+        <v>650</v>
       </c>
       <c r="Q809" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R809" t="inlineStr">
         <is>
@@ -58668,7 +58668,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -58680,13 +58680,13 @@
         <v>380</v>
       </c>
       <c r="K810" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L810" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M810" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q810" t="n">
         <v>15</v>
@@ -58740,16 +58740,16 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K811" t="n">
         <v>8000</v>
@@ -58762,19 +58762,19 @@
       </c>
       <c r="N811" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>533</v>
+        <v>444</v>
       </c>
       <c r="Q811" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R811" t="inlineStr">
         <is>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E812" t="n">
         <v>9</v>
@@ -58812,7 +58812,7 @@
       </c>
       <c r="H812" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -58821,7 +58821,7 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="K812" t="n">
         <v>14000</v>
@@ -58830,7 +58830,7 @@
         <v>15000</v>
       </c>
       <c r="M812" t="n">
-        <v>14538</v>
+        <v>14655</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E813" t="n">
         <v>9</v>
@@ -58884,7 +58884,7 @@
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
@@ -58893,32 +58893,32 @@
         </is>
       </c>
       <c r="J813" t="n">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="K813" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L813" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M813" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="Q813" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R813" t="inlineStr">
         <is>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E814" t="n">
         <v>9</v>
@@ -58956,41 +58956,41 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="K814" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L814" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M814" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>778</v>
+        <v>533</v>
       </c>
       <c r="Q814" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R814" t="inlineStr">
         <is>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E815" t="n">
         <v>9</v>
@@ -59037,20 +59037,20 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>2000</v>
+        <v>260</v>
       </c>
       <c r="K815" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L815" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="M815" t="n">
-        <v>6000</v>
+        <v>14538</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O815" t="inlineStr">
@@ -59059,10 +59059,10 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>600</v>
+        <v>808</v>
       </c>
       <c r="Q815" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R815" t="inlineStr">
         <is>
@@ -59100,7 +59100,7 @@
       </c>
       <c r="H816" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
@@ -59109,32 +59109,32 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>800</v>
+        <v>40</v>
       </c>
       <c r="K816" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L816" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M816" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>722</v>
+        <v>1200</v>
       </c>
       <c r="Q816" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R816" t="inlineStr">
         <is>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E817" t="n">
         <v>9</v>
@@ -59177,33 +59177,33 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="K817" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L817" t="n">
         <v>14000</v>
       </c>
       <c r="M817" t="n">
-        <v>13556</v>
+        <v>14000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>753</v>
+        <v>778</v>
       </c>
       <c r="Q817" t="n">
         <v>18</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E818" t="n">
         <v>9</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>1450</v>
+        <v>2000</v>
       </c>
       <c r="K818" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L818" t="n">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="M818" t="n">
-        <v>5276</v>
+        <v>6000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>528</v>
+        <v>600</v>
       </c>
       <c r="Q818" t="n">
         <v>10</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44365</v>
+        <v>44160</v>
       </c>
       <c r="E819" t="n">
         <v>9</v>
@@ -59321,33 +59321,33 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="K819" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L819" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M819" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="Q819" t="n">
         <v>18</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E820" t="n">
         <v>9</v>
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="K820" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L820" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M820" t="n">
-        <v>16000</v>
+        <v>13556</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>889</v>
+        <v>753</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E821" t="n">
         <v>9</v>
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>850</v>
+        <v>1450</v>
       </c>
       <c r="K821" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L821" t="n">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="M821" t="n">
-        <v>6000</v>
+        <v>5276</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>600</v>
+        <v>528</v>
       </c>
       <c r="Q821" t="n">
         <v>10</v>
@@ -59537,24 +59537,24 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="K822" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L822" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M822" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O822" t="inlineStr">
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E823" t="n">
         <v>9</v>
@@ -59609,11 +59609,11 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>150</v>
+        <v>850</v>
       </c>
       <c r="K823" t="n">
         <v>16000</v>
@@ -59631,7 +59631,7 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P823" t="n">
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E824" t="n">
         <v>9</v>
@@ -59685,32 +59685,32 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>450</v>
+        <v>850</v>
       </c>
       <c r="K824" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L824" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M824" t="n">
-        <v>12556</v>
+        <v>6000</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>698</v>
+        <v>600</v>
       </c>
       <c r="Q824" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R824" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E825" t="n">
         <v>9</v>
@@ -59757,20 +59757,20 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>385</v>
+        <v>280</v>
       </c>
       <c r="K825" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L825" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M825" t="n">
-        <v>12481</v>
+        <v>16000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O825" t="inlineStr">
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>693</v>
+        <v>889</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59825,36 +59825,36 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>255</v>
+        <v>150</v>
       </c>
       <c r="K826" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="L826" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M826" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>450</v>
+        <v>889</v>
       </c>
       <c r="Q826" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R826" t="inlineStr">
         <is>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>305</v>
+        <v>450</v>
       </c>
       <c r="K827" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L827" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M827" t="n">
-        <v>8820</v>
+        <v>12556</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>490</v>
+        <v>698</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59964,7 +59964,7 @@
       </c>
       <c r="H828" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -59973,16 +59973,16 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>550</v>
+        <v>385</v>
       </c>
       <c r="K828" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L828" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M828" t="n">
-        <v>8909</v>
+        <v>12481</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>495</v>
+        <v>693</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E829" t="n">
         <v>9</v>
@@ -60045,32 +60045,32 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>900</v>
+        <v>255</v>
       </c>
       <c r="K829" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="L829" t="n">
-        <v>17000</v>
+        <v>4500</v>
       </c>
       <c r="M829" t="n">
-        <v>16556</v>
+        <v>4500</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>920</v>
+        <v>450</v>
       </c>
       <c r="Q829" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R829" t="inlineStr">
         <is>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -60108,25 +60108,25 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>1800</v>
+        <v>305</v>
       </c>
       <c r="K830" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L830" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M830" t="n">
-        <v>11556</v>
+        <v>8820</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>642</v>
+        <v>490</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E831" t="n">
         <v>9</v>
@@ -60189,32 +60189,32 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="K831" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L831" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M831" t="n">
-        <v>7000</v>
+        <v>8909</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>467</v>
+        <v>495</v>
       </c>
       <c r="Q831" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R831" t="inlineStr">
         <is>
@@ -60252,7 +60252,7 @@
       </c>
       <c r="H832" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
@@ -60261,29 +60261,29 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K832" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L832" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M832" t="n">
-        <v>7000</v>
+        <v>16556</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>389</v>
+        <v>920</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -60324,7 +60324,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
@@ -60333,32 +60333,32 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>30</v>
+        <v>1800</v>
       </c>
       <c r="K833" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L833" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M833" t="n">
-        <v>18000</v>
+        <v>11556</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>1800</v>
+        <v>642</v>
       </c>
       <c r="Q833" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R833" t="inlineStr">
         <is>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E834" t="n">
         <v>9</v>
@@ -60396,7 +60396,7 @@
       </c>
       <c r="H834" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I834" t="inlineStr">
@@ -60405,20 +60405,20 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="K834" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L834" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M834" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O834" t="inlineStr">
@@ -60427,10 +60427,10 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>1200</v>
+        <v>467</v>
       </c>
       <c r="Q834" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R834" t="inlineStr">
         <is>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E835" t="n">
         <v>9</v>
@@ -60468,38 +60468,38 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K835" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L835" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M835" t="n">
-        <v>15400</v>
+        <v>7000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>856</v>
+        <v>389</v>
       </c>
       <c r="Q835" t="n">
         <v>18</v>
@@ -60540,7 +60540,7 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -60549,32 +60549,32 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>3300</v>
+        <v>30</v>
       </c>
       <c r="K836" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="L836" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M836" t="n">
-        <v>13182</v>
+        <v>18000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>732</v>
+        <v>1800</v>
       </c>
       <c r="Q836" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60612,7 +60612,7 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -60621,32 +60621,32 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>1500</v>
+        <v>50</v>
       </c>
       <c r="K837" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L837" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M837" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>611</v>
+        <v>1200</v>
       </c>
       <c r="Q837" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R837" t="inlineStr">
         <is>
@@ -60689,36 +60689,36 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="K838" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L838" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M838" t="n">
-        <v>5455</v>
+        <v>15400</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>546</v>
+        <v>856</v>
       </c>
       <c r="Q838" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R838" t="inlineStr">
         <is>
@@ -60765,20 +60765,20 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>300</v>
+        <v>3300</v>
       </c>
       <c r="K839" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L839" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M839" t="n">
-        <v>11000</v>
+        <v>13182</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O839" t="inlineStr">
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>611</v>
+        <v>732</v>
       </c>
       <c r="Q839" t="n">
         <v>18</v>
@@ -60837,20 +60837,20 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="K840" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="L840" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M840" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>778</v>
+        <v>611</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60909,32 +60909,32 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>1500</v>
+        <v>3300</v>
       </c>
       <c r="K841" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L841" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M841" t="n">
-        <v>11000</v>
+        <v>5455</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>611</v>
+        <v>546</v>
       </c>
       <c r="Q841" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R841" t="inlineStr">
         <is>
@@ -60972,7 +60972,7 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -60981,32 +60981,32 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="K842" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L842" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M842" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="Q842" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R842" t="inlineStr">
         <is>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
@@ -61053,20 +61053,20 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K843" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L843" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M843" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O843" t="inlineStr">
@@ -61075,10 +61075,10 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>900</v>
+        <v>778</v>
       </c>
       <c r="Q843" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R843" t="inlineStr">
         <is>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -61116,25 +61116,25 @@
       </c>
       <c r="H844" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>40</v>
+        <v>1500</v>
       </c>
       <c r="K844" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="L844" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M844" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>750</v>
+        <v>611</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -61188,7 +61188,7 @@
       </c>
       <c r="H845" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -61197,32 +61197,32 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="K845" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L845" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M845" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="Q845" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R845" t="inlineStr">
         <is>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -61269,20 +61269,20 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K846" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L846" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M846" t="n">
-        <v>11429</v>
+        <v>9000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
@@ -61291,10 +61291,10 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>635</v>
+        <v>900</v>
       </c>
       <c r="Q846" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R846" t="inlineStr">
         <is>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -61337,24 +61337,24 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>3500</v>
+        <v>40</v>
       </c>
       <c r="K847" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L847" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="M847" t="n">
-        <v>5286</v>
+        <v>13500</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
@@ -61363,10 +61363,10 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>529</v>
+        <v>750</v>
       </c>
       <c r="Q847" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61409,36 +61409,36 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K848" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L848" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M848" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="Q848" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R848" t="inlineStr">
         <is>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K849" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="L849" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M849" t="n">
-        <v>18118</v>
+        <v>11429</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61503,11 +61503,11 @@
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>1007</v>
+        <v>635</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -61557,20 +61557,20 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="K850" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L850" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="M850" t="n">
-        <v>8000</v>
+        <v>5286</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O850" t="inlineStr">
@@ -61579,10 +61579,10 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>444</v>
+        <v>529</v>
       </c>
       <c r="Q850" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R850" t="inlineStr">
         <is>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E851" t="n">
         <v>9</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="K851" t="n">
-        <v>5500</v>
+        <v>4000</v>
       </c>
       <c r="L851" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M851" t="n">
-        <v>5750</v>
+        <v>4000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>575</v>
+        <v>400</v>
       </c>
       <c r="Q851" t="n">
         <v>10</v>
@@ -61692,7 +61692,7 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="K852" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L852" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M852" t="n">
-        <v>14000</v>
+        <v>18118</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>778</v>
+        <v>1007</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61764,7 +61764,7 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
@@ -61773,32 +61773,32 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>2200</v>
+        <v>500</v>
       </c>
       <c r="K853" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L853" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M853" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="Q853" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R853" t="inlineStr">
         <is>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61845,20 +61845,20 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="K854" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L854" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M854" t="n">
-        <v>8000</v>
+        <v>5750</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
@@ -61867,10 +61867,10 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>444</v>
+        <v>575</v>
       </c>
       <c r="Q854" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R854" t="inlineStr">
         <is>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="K855" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L855" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M855" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K856" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L856" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M856" t="n">
-        <v>7833</v>
+        <v>9000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="Q856" t="n">
         <v>15</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -62052,7 +62052,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -62061,20 +62061,20 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K857" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L857" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M857" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
@@ -62083,10 +62083,10 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="Q857" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R857" t="inlineStr">
         <is>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E858" t="n">
         <v>9</v>
@@ -62124,25 +62124,25 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K858" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L858" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M858" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>1111</v>
+        <v>611</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -62196,41 +62196,41 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>900</v>
+        <v>2400</v>
       </c>
       <c r="K859" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L859" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M859" t="n">
-        <v>12000</v>
+        <v>7833</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>667</v>
+        <v>522</v>
       </c>
       <c r="Q859" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R859" t="inlineStr">
         <is>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -62277,20 +62277,20 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K860" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L860" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M860" t="n">
-        <v>11600</v>
+        <v>5000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
@@ -62299,10 +62299,10 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>644</v>
+        <v>500</v>
       </c>
       <c r="Q860" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62345,24 +62345,24 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K861" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="L861" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="M861" t="n">
-        <v>4500</v>
+        <v>20000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
@@ -62371,10 +62371,10 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>450</v>
+        <v>1111</v>
       </c>
       <c r="Q861" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R861" t="inlineStr">
         <is>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K862" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L862" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M862" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62489,24 +62489,24 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K863" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L863" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M863" t="n">
-        <v>4000</v>
+        <v>11600</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
@@ -62515,10 +62515,10 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>400</v>
+        <v>644</v>
       </c>
       <c r="Q863" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R863" t="inlineStr">
         <is>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -62561,24 +62561,24 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="K864" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L864" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="M864" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O864" t="inlineStr">
@@ -62587,10 +62587,10 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>833</v>
+        <v>450</v>
       </c>
       <c r="Q864" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R864" t="inlineStr">
         <is>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -62633,24 +62633,24 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K865" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L865" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M865" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O865" t="inlineStr">
@@ -62659,10 +62659,10 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>1150</v>
+        <v>556</v>
       </c>
       <c r="Q865" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R865" t="inlineStr">
         <is>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -62705,24 +62705,24 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J866" t="n">
         <v>500</v>
       </c>
       <c r="K866" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L866" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M866" t="n">
-        <v>12500</v>
+        <v>4000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O866" t="inlineStr">
@@ -62731,10 +62731,10 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>694</v>
+        <v>400</v>
       </c>
       <c r="Q866" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R866" t="inlineStr">
         <is>
@@ -62777,24 +62777,24 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K867" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L867" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M867" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
@@ -62803,10 +62803,10 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="Q867" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R867" t="inlineStr">
         <is>
@@ -62849,24 +62849,24 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K868" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="L868" t="n">
-        <v>5000</v>
+        <v>24000</v>
       </c>
       <c r="M868" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O868" t="inlineStr">
@@ -62875,10 +62875,10 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="Q868" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R868" t="inlineStr">
         <is>
@@ -62928,17 +62928,17 @@
         <v>500</v>
       </c>
       <c r="K869" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L869" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M869" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>889</v>
+        <v>694</v>
       </c>
       <c r="Q869" t="n">
         <v>18</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -62997,32 +62997,32 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K870" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L870" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M870" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q870" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R870" t="inlineStr">
         <is>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -63069,32 +63069,32 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>1250</v>
+        <v>700</v>
       </c>
       <c r="K871" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L871" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M871" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q871" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R871" t="inlineStr">
         <is>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E872" t="n">
         <v>9</v>
@@ -63141,32 +63141,32 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="K872" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L872" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="M872" t="n">
-        <v>8237</v>
+        <v>16000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>549</v>
+        <v>889</v>
       </c>
       <c r="Q872" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R872" t="inlineStr">
         <is>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -63209,20 +63209,20 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J873" t="n">
         <v>800</v>
       </c>
       <c r="K873" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L873" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M873" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63281,24 +63281,24 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>250</v>
+        <v>1250</v>
       </c>
       <c r="K874" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L874" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M874" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
@@ -63307,10 +63307,10 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q874" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -63357,32 +63357,32 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="K875" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L875" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="M875" t="n">
-        <v>13000</v>
+        <v>8237</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>722</v>
+        <v>549</v>
       </c>
       <c r="Q875" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R875" t="inlineStr">
         <is>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -63425,36 +63425,36 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J876" t="n">
         <v>800</v>
       </c>
       <c r="K876" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L876" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M876" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="Q876" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R876" t="inlineStr">
         <is>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -63492,25 +63492,25 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K877" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L877" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M877" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="Q877" t="n">
         <v>15</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K878" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L878" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M878" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>889</v>
+        <v>722</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -63645,32 +63645,32 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>1750</v>
+        <v>800</v>
       </c>
       <c r="K879" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L879" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M879" t="n">
-        <v>12486</v>
+        <v>5000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>694</v>
+        <v>500</v>
       </c>
       <c r="Q879" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,32 +63717,32 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K880" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L880" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M880" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>778</v>
+        <v>533</v>
       </c>
       <c r="Q880" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R880" t="inlineStr">
         <is>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="K881" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L881" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M881" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63807,11 +63807,11 @@
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -63857,20 +63857,20 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>325</v>
+        <v>1750</v>
       </c>
       <c r="K882" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L882" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M882" t="n">
-        <v>16385</v>
+        <v>12486</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63879,11 +63879,11 @@
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>910</v>
+        <v>694</v>
       </c>
       <c r="Q882" t="n">
         <v>18</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E883" t="n">
         <v>9</v>
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>850</v>
+        <v>450</v>
       </c>
       <c r="K883" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L883" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M883" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63951,11 +63951,11 @@
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q883" t="n">
         <v>18</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44292</v>
+        <v>44239</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>225</v>
+        <v>550</v>
       </c>
       <c r="K884" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L884" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M884" t="n">
-        <v>18844</v>
+        <v>10000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64023,11 +64023,11 @@
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>1047</v>
+        <v>556</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>180</v>
+        <v>325</v>
       </c>
       <c r="K885" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L885" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M885" t="n">
-        <v>18000</v>
+        <v>16385</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64095,11 +64095,11 @@
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>1000</v>
+        <v>910</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E886" t="n">
         <v>9</v>
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>185</v>
+        <v>850</v>
       </c>
       <c r="K886" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L886" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M886" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>385</v>
+        <v>225</v>
       </c>
       <c r="K887" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L887" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M887" t="n">
-        <v>15000</v>
+        <v>18844</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>833</v>
+        <v>1047</v>
       </c>
       <c r="Q887" t="n">
         <v>18</v>
@@ -64284,7 +64284,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -64293,32 +64293,32 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="K888" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L888" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M888" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q888" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R888" t="inlineStr">
         <is>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="K889" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L889" t="n">
         <v>18000</v>
       </c>
       <c r="M889" t="n">
-        <v>17200</v>
+        <v>18000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>956</v>
+        <v>1000</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>600</v>
+        <v>385</v>
       </c>
       <c r="K890" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L890" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M890" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64455,11 +64455,11 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,32 +64509,32 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="K891" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L891" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M891" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q891" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R891" t="inlineStr">
         <is>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>830</v>
+        <v>250</v>
       </c>
       <c r="K892" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L892" t="n">
         <v>18000</v>
       </c>
-      <c r="L892" t="n">
-        <v>18500</v>
-      </c>
       <c r="M892" t="n">
-        <v>18331</v>
+        <v>17200</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64599,11 +64599,11 @@
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>1018</v>
+        <v>956</v>
       </c>
       <c r="Q892" t="n">
         <v>18</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64653,7 +64653,7 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K893" t="n">
         <v>12000</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -64725,16 +64725,16 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K894" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="L894" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M894" t="n">
-        <v>5771</v>
+        <v>5000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>577</v>
+        <v>500</v>
       </c>
       <c r="Q894" t="n">
         <v>10</v>
@@ -64788,7 +64788,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>255</v>
+        <v>830</v>
       </c>
       <c r="K895" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L895" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="M895" t="n">
-        <v>15000</v>
+        <v>18331</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>833</v>
+        <v>1018</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -64869,32 +64869,32 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="K896" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L896" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M896" t="n">
-        <v>7600</v>
+        <v>12000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>507</v>
+        <v>667</v>
       </c>
       <c r="Q896" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64932,7 +64932,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -64941,32 +64941,32 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="K897" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L897" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M897" t="n">
-        <v>8000</v>
+        <v>5771</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="Q897" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R897" t="inlineStr">
         <is>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -65004,25 +65004,25 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>400</v>
+        <v>255</v>
       </c>
       <c r="K898" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L898" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="M898" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>1139</v>
+        <v>833</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E899" t="n">
         <v>9</v>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65085,32 +65085,32 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="K899" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L899" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M899" t="n">
-        <v>4000</v>
+        <v>7600</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>400</v>
+        <v>507</v>
       </c>
       <c r="Q899" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E900" t="n">
         <v>9</v>
@@ -65148,7 +65148,7 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
@@ -65157,32 +65157,32 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>400</v>
+        <v>1250</v>
       </c>
       <c r="K900" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L900" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M900" t="n">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>806</v>
+        <v>533</v>
       </c>
       <c r="Q900" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>155</v>
+        <v>400</v>
       </c>
       <c r="K901" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L901" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="M901" t="n">
-        <v>13000</v>
+        <v>20500</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>722</v>
+        <v>1139</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -65301,32 +65301,32 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="K902" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L902" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M902" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q902" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E903" t="n">
         <v>9</v>
@@ -65373,20 +65373,20 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>650</v>
+        <v>400</v>
       </c>
       <c r="K903" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L903" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M903" t="n">
-        <v>9538</v>
+        <v>14500</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>530</v>
+        <v>806</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65441,36 +65441,36 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>1350</v>
+        <v>155</v>
       </c>
       <c r="K904" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="L904" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M904" t="n">
-        <v>4741</v>
+        <v>13000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>474</v>
+        <v>722</v>
       </c>
       <c r="Q904" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R904" t="inlineStr">
         <is>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="K905" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L905" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M905" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65535,16 +65535,232 @@
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
       </c>
       <c r="R905" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>10</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D906" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E906" t="n">
+        <v>9</v>
+      </c>
+      <c r="F906" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H906" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I906" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J906" t="n">
+        <v>650</v>
+      </c>
+      <c r="K906" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L906" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M906" t="n">
+        <v>9538</v>
+      </c>
+      <c r="N906" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O906" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P906" t="n">
+        <v>530</v>
+      </c>
+      <c r="Q906" t="n">
+        <v>18</v>
+      </c>
+      <c r="R906" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>10</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D907" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E907" t="n">
+        <v>9</v>
+      </c>
+      <c r="F907" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H907" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I907" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J907" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K907" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L907" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M907" t="n">
+        <v>4741</v>
+      </c>
+      <c r="N907" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O907" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P907" t="n">
+        <v>474</v>
+      </c>
+      <c r="Q907" t="n">
+        <v>10</v>
+      </c>
+      <c r="R907" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>10</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D908" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E908" t="n">
+        <v>9</v>
+      </c>
+      <c r="F908" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H908" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I908" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J908" t="n">
+        <v>210</v>
+      </c>
+      <c r="K908" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L908" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M908" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N908" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O908" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P908" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q908" t="n">
+        <v>18</v>
+      </c>
+      <c r="R908" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R931"/>
+  <dimension ref="A1:R933"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E818" t="n">
         <v>9</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K818" t="n">
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="L818" t="n">
         <v>26000</v>
       </c>
       <c r="M818" t="n">
-        <v>25111</v>
+        <v>26000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>1256</v>
+        <v>1300</v>
       </c>
       <c r="Q818" t="n">
         <v>20</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E819" t="n">
         <v>9</v>
@@ -59325,20 +59325,20 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K819" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L819" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M819" t="n">
-        <v>15545</v>
+        <v>7000</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O819" t="inlineStr">
@@ -59347,10 +59347,10 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>864</v>
+        <v>700</v>
       </c>
       <c r="Q819" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R819" t="inlineStr">
         <is>
@@ -59393,24 +59393,24 @@
       </c>
       <c r="I820" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J820" t="n">
-        <v>2200</v>
+        <v>450</v>
       </c>
       <c r="K820" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="L820" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="M820" t="n">
-        <v>7545</v>
+        <v>25111</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O820" t="inlineStr">
@@ -59419,10 +59419,10 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>754</v>
+        <v>1256</v>
       </c>
       <c r="Q820" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R820" t="inlineStr">
         <is>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E821" t="n">
         <v>9</v>
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K821" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L821" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M821" t="n">
-        <v>12500</v>
+        <v>15545</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>694</v>
+        <v>864</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -59541,16 +59541,16 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="K822" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L822" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M822" t="n">
-        <v>5000</v>
+        <v>7545</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>500</v>
+        <v>754</v>
       </c>
       <c r="Q822" t="n">
         <v>10</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E823" t="n">
         <v>9</v>
@@ -59613,16 +59613,16 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K823" t="n">
         <v>12000</v>
       </c>
       <c r="L823" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M823" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E824" t="n">
         <v>9</v>
@@ -59685,32 +59685,32 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K824" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L824" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="M824" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>944</v>
+        <v>500</v>
       </c>
       <c r="Q824" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R824" t="inlineStr">
         <is>
@@ -59753,20 +59753,20 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K825" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L825" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M825" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q825" t="n">
         <v>18</v>
@@ -59820,7 +59820,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -59829,16 +59829,16 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K826" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L826" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M826" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>444</v>
+        <v>944</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59892,25 +59892,25 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K827" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L827" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M827" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K828" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L828" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M828" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E829" t="n">
         <v>9</v>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -60045,7 +60045,7 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K829" t="n">
         <v>14000</v>
@@ -60063,7 +60063,7 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P829" t="n">
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -60108,25 +60108,25 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="K830" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L830" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="M830" t="n">
-        <v>18278</v>
+        <v>12000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>1015</v>
+        <v>667</v>
       </c>
       <c r="Q830" t="n">
         <v>18</v>
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K831" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L831" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M831" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60261,32 +60261,32 @@
         </is>
       </c>
       <c r="J832" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="K832" t="n">
-        <v>6500</v>
+        <v>18000</v>
       </c>
       <c r="L832" t="n">
-        <v>6500</v>
+        <v>18500</v>
       </c>
       <c r="M832" t="n">
-        <v>6500</v>
+        <v>18278</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>650</v>
+        <v>1015</v>
       </c>
       <c r="Q832" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R832" t="inlineStr">
         <is>
@@ -60333,32 +60333,32 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="K833" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L833" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M833" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="Q833" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R833" t="inlineStr">
         <is>
@@ -60401,24 +60401,24 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="K834" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L834" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="M834" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O834" t="inlineStr">
@@ -60427,10 +60427,10 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>444</v>
+        <v>650</v>
       </c>
       <c r="Q834" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R834" t="inlineStr">
         <is>
@@ -60468,7 +60468,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -60477,32 +60477,32 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="K835" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L835" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M835" t="n">
-        <v>14655</v>
+        <v>6000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>814</v>
+        <v>400</v>
       </c>
       <c r="Q835" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R835" t="inlineStr">
         <is>
@@ -60540,41 +60540,41 @@
       </c>
       <c r="H836" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K836" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L836" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M836" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="Q836" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60621,20 +60621,20 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="K837" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L837" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M837" t="n">
-        <v>8000</v>
+        <v>14655</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O837" t="inlineStr">
@@ -60643,10 +60643,10 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>533</v>
+        <v>814</v>
       </c>
       <c r="Q837" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R837" t="inlineStr">
         <is>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -60684,7 +60684,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -60693,32 +60693,32 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="K838" t="n">
-        <v>14000</v>
+        <v>9000</v>
       </c>
       <c r="L838" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M838" t="n">
-        <v>14538</v>
+        <v>9000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>808</v>
+        <v>600</v>
       </c>
       <c r="Q838" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R838" t="inlineStr">
         <is>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44160</v>
+        <v>44209</v>
       </c>
       <c r="E839" t="n">
         <v>9</v>
@@ -60756,7 +60756,7 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -60765,32 +60765,32 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="K839" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L839" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M839" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>1200</v>
+        <v>533</v>
       </c>
       <c r="Q839" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R839" t="inlineStr">
         <is>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E840" t="n">
         <v>9</v>
@@ -60833,33 +60833,33 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="K840" t="n">
         <v>14000</v>
       </c>
       <c r="L840" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M840" t="n">
-        <v>14000</v>
+        <v>14538</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>778</v>
+        <v>808</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60900,7 +60900,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>2000</v>
+        <v>40</v>
       </c>
       <c r="K841" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L841" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M841" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="Q841" t="n">
         <v>10</v>
@@ -60977,20 +60977,20 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K842" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L842" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M842" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
@@ -61053,20 +61053,20 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>450</v>
+        <v>2000</v>
       </c>
       <c r="K843" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L843" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M843" t="n">
-        <v>13556</v>
+        <v>6000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O843" t="inlineStr">
@@ -61075,10 +61075,10 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>753</v>
+        <v>600</v>
       </c>
       <c r="Q843" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R843" t="inlineStr">
         <is>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -61125,32 +61125,32 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>1450</v>
+        <v>800</v>
       </c>
       <c r="K844" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L844" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M844" t="n">
-        <v>5276</v>
+        <v>13000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>528</v>
+        <v>722</v>
       </c>
       <c r="Q844" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R844" t="inlineStr">
         <is>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -61193,20 +61193,20 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="K845" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L845" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M845" t="n">
-        <v>18000</v>
+        <v>13556</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>1000</v>
+        <v>753</v>
       </c>
       <c r="Q845" t="n">
         <v>18</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -61269,20 +61269,20 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>850</v>
+        <v>1450</v>
       </c>
       <c r="K846" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L846" t="n">
-        <v>16000</v>
+        <v>5500</v>
       </c>
       <c r="M846" t="n">
-        <v>16000</v>
+        <v>5276</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O846" t="inlineStr">
@@ -61291,10 +61291,10 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>889</v>
+        <v>528</v>
       </c>
       <c r="Q846" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R846" t="inlineStr">
         <is>
@@ -61337,24 +61337,24 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>850</v>
+        <v>380</v>
       </c>
       <c r="K847" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L847" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M847" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
@@ -61363,10 +61363,10 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q847" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61413,7 +61413,7 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>280</v>
+        <v>850</v>
       </c>
       <c r="K848" t="n">
         <v>16000</v>
@@ -61426,7 +61426,7 @@
       </c>
       <c r="N848" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O848" t="inlineStr">
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61481,36 +61481,36 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>150</v>
+        <v>850</v>
       </c>
       <c r="K849" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L849" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M849" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>889</v>
+        <v>600</v>
       </c>
       <c r="Q849" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -61557,29 +61557,29 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K850" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L850" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M850" t="n">
-        <v>12556</v>
+        <v>16000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>698</v>
+        <v>889</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>385</v>
+        <v>150</v>
       </c>
       <c r="K851" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L851" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M851" t="n">
-        <v>12481</v>
+        <v>16000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,11 +61647,11 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>693</v>
+        <v>889</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61701,32 +61701,32 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>255</v>
+        <v>450</v>
       </c>
       <c r="K852" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="L852" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M852" t="n">
-        <v>4500</v>
+        <v>12556</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>450</v>
+        <v>698</v>
       </c>
       <c r="Q852" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R852" t="inlineStr">
         <is>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="K853" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L853" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M853" t="n">
-        <v>8820</v>
+        <v>12481</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>490</v>
+        <v>693</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61845,32 +61845,32 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>550</v>
+        <v>255</v>
       </c>
       <c r="K854" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L854" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M854" t="n">
-        <v>8909</v>
+        <v>4500</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>495</v>
+        <v>450</v>
       </c>
       <c r="Q854" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R854" t="inlineStr">
         <is>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>900</v>
+        <v>305</v>
       </c>
       <c r="K855" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L855" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M855" t="n">
-        <v>16556</v>
+        <v>8820</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>920</v>
+        <v>490</v>
       </c>
       <c r="Q855" t="n">
         <v>18</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>1800</v>
+        <v>550</v>
       </c>
       <c r="K856" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L856" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M856" t="n">
-        <v>11556</v>
+        <v>8909</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>642</v>
+        <v>495</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62052,7 +62052,7 @@
       </c>
       <c r="H857" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -62061,32 +62061,32 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K857" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="L857" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M857" t="n">
-        <v>7000</v>
+        <v>16556</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>467</v>
+        <v>920</v>
       </c>
       <c r="Q857" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R857" t="inlineStr">
         <is>
@@ -62133,29 +62133,29 @@
         </is>
       </c>
       <c r="J858" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="K858" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L858" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M858" t="n">
-        <v>7000</v>
+        <v>11556</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>389</v>
+        <v>642</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62205,32 +62205,32 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="K859" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L859" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M859" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>1800</v>
+        <v>467</v>
       </c>
       <c r="Q859" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R859" t="inlineStr">
         <is>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -62268,7 +62268,7 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
@@ -62277,32 +62277,32 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K860" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L860" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M860" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>1200</v>
+        <v>389</v>
       </c>
       <c r="Q860" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62340,41 +62340,41 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="K861" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L861" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M861" t="n">
-        <v>15400</v>
+        <v>18000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>856</v>
+        <v>1800</v>
       </c>
       <c r="Q861" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R861" t="inlineStr">
         <is>
@@ -62412,7 +62412,7 @@
       </c>
       <c r="H862" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -62421,32 +62421,32 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>3300</v>
+        <v>50</v>
       </c>
       <c r="K862" t="n">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="L862" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M862" t="n">
-        <v>13182</v>
+        <v>12000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>732</v>
+        <v>1200</v>
       </c>
       <c r="Q862" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R862" t="inlineStr">
         <is>
@@ -62489,20 +62489,20 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K863" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L863" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M863" t="n">
-        <v>11000</v>
+        <v>15400</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>611</v>
+        <v>856</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62568,29 +62568,29 @@
         <v>3300</v>
       </c>
       <c r="K864" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="L864" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M864" t="n">
-        <v>5455</v>
+        <v>13182</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>546</v>
+        <v>732</v>
       </c>
       <c r="Q864" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R864" t="inlineStr">
         <is>
@@ -62637,7 +62637,7 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K865" t="n">
         <v>11000</v>
@@ -62650,12 +62650,12 @@
       </c>
       <c r="N865" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P865" t="n">
@@ -62709,20 +62709,20 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>1200</v>
+        <v>3300</v>
       </c>
       <c r="K866" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L866" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M866" t="n">
-        <v>14000</v>
+        <v>5455</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O866" t="inlineStr">
@@ -62731,10 +62731,10 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>778</v>
+        <v>546</v>
       </c>
       <c r="Q866" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R866" t="inlineStr">
         <is>
@@ -62772,7 +62772,7 @@
       </c>
       <c r="H867" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I867" t="inlineStr">
@@ -62781,7 +62781,7 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K867" t="n">
         <v>11000</v>
@@ -62794,12 +62794,12 @@
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P867" t="n">
@@ -62844,7 +62844,7 @@
       </c>
       <c r="H868" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I868" t="inlineStr">
@@ -62853,32 +62853,32 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="K868" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L868" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M868" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="Q868" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R868" t="inlineStr">
         <is>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -62916,7 +62916,7 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -62925,32 +62925,32 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K869" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L869" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M869" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>900</v>
+        <v>611</v>
       </c>
       <c r="Q869" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -62988,41 +62988,41 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="K870" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L870" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M870" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>750</v>
+        <v>533</v>
       </c>
       <c r="Q870" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R870" t="inlineStr">
         <is>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -63069,32 +63069,32 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K871" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L871" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M871" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>667</v>
+        <v>900</v>
       </c>
       <c r="Q871" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R871" t="inlineStr">
         <is>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E872" t="n">
         <v>9</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>700</v>
+        <v>40</v>
       </c>
       <c r="K872" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L872" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M872" t="n">
-        <v>11429</v>
+        <v>13500</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>635</v>
+        <v>750</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63213,32 +63213,32 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="K873" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L873" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M873" t="n">
-        <v>5286</v>
+        <v>12000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>529</v>
+        <v>667</v>
       </c>
       <c r="Q873" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R873" t="inlineStr">
         <is>
@@ -63281,24 +63281,24 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="K874" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="L874" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M874" t="n">
-        <v>4000</v>
+        <v>11429</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
@@ -63307,10 +63307,10 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>400</v>
+        <v>635</v>
       </c>
       <c r="Q874" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -63357,32 +63357,32 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K875" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="L875" t="n">
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="M875" t="n">
-        <v>18118</v>
+        <v>5286</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1007</v>
+        <v>529</v>
       </c>
       <c r="Q875" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R875" t="inlineStr">
         <is>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -63425,24 +63425,24 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K876" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L876" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M876" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O876" t="inlineStr">
@@ -63451,10 +63451,10 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="Q876" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R876" t="inlineStr">
         <is>
@@ -63501,32 +63501,32 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="K877" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="L877" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="M877" t="n">
-        <v>5750</v>
+        <v>18118</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>575</v>
+        <v>1007</v>
       </c>
       <c r="Q877" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R877" t="inlineStr">
         <is>
@@ -63564,7 +63564,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="K878" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L878" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M878" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63636,7 +63636,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -63645,32 +63645,32 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="K879" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="L879" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M879" t="n">
-        <v>9000</v>
+        <v>5750</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="Q879" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63717,29 +63717,29 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="K880" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L880" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M880" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>444</v>
+        <v>778</v>
       </c>
       <c r="Q880" t="n">
         <v>18</v>
@@ -63785,24 +63785,24 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K881" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L881" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M881" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
@@ -63811,10 +63811,10 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="Q881" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63857,36 +63857,36 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="K882" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L882" t="n">
         <v>8000</v>
       </c>
       <c r="M882" t="n">
-        <v>7833</v>
+        <v>8000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="Q882" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E883" t="n">
         <v>9</v>
@@ -63924,41 +63924,41 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="K883" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L883" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M883" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q883" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -63996,41 +63996,41 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="K884" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="L884" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M884" t="n">
-        <v>20000</v>
+        <v>7833</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>1111</v>
+        <v>522</v>
       </c>
       <c r="Q884" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R884" t="inlineStr">
         <is>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -64077,32 +64077,32 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="K885" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L885" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M885" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q885" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R885" t="inlineStr">
         <is>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K886" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L886" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M886" t="n">
-        <v>11600</v>
+        <v>20000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>644</v>
+        <v>1111</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64221,32 +64221,32 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="K887" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="L887" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M887" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>450</v>
+        <v>667</v>
       </c>
       <c r="Q887" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R887" t="inlineStr">
         <is>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K888" t="n">
         <v>10000</v>
       </c>
       <c r="L888" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M888" t="n">
-        <v>10000</v>
+        <v>11600</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>556</v>
+        <v>644</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="K889" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="L889" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="M889" t="n">
-        <v>4000</v>
+        <v>4500</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Q889" t="n">
         <v>10</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K890" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L890" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M890" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -64505,36 +64505,36 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J891" t="n">
+        <v>500</v>
+      </c>
+      <c r="K891" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L891" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M891" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N891" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O891" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P891" t="n">
         <v>400</v>
       </c>
-      <c r="K891" t="n">
-        <v>22000</v>
-      </c>
-      <c r="L891" t="n">
-        <v>24000</v>
-      </c>
-      <c r="M891" t="n">
-        <v>23000</v>
-      </c>
-      <c r="N891" t="inlineStr">
-        <is>
-          <t>$/bandeja 20 kilos</t>
-        </is>
-      </c>
-      <c r="O891" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P891" t="n">
-        <v>1150</v>
-      </c>
       <c r="Q891" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R891" t="inlineStr">
         <is>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K892" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L892" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M892" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>694</v>
+        <v>833</v>
       </c>
       <c r="Q892" t="n">
         <v>18</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K893" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L893" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M893" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>1000</v>
+        <v>1150</v>
       </c>
       <c r="Q893" t="n">
         <v>20</v>
@@ -64725,20 +64725,20 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K894" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L894" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M894" t="n">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
@@ -64747,10 +64747,10 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>500</v>
+        <v>694</v>
       </c>
       <c r="Q894" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64797,20 +64797,20 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K895" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L895" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M895" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O895" t="inlineStr">
@@ -64819,10 +64819,10 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q895" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R895" t="inlineStr">
         <is>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -64869,32 +64869,32 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K896" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L896" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="M896" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P896" t="n">
         <v>500</v>
       </c>
       <c r="Q896" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E897" t="n">
         <v>9</v>
@@ -64941,29 +64941,29 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="K897" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L897" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M897" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -65013,20 +65013,20 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="K898" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L898" t="n">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="M898" t="n">
-        <v>8237</v>
+        <v>9000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O898" t="inlineStr">
@@ -65035,10 +65035,10 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="Q898" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R898" t="inlineStr">
         <is>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="K899" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L899" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M899" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="K900" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L900" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M900" t="n">
-        <v>5000</v>
+        <v>8237</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>333</v>
+        <v>549</v>
       </c>
       <c r="Q900" t="n">
         <v>15</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K901" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L901" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M901" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -65297,11 +65297,11 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="K902" t="n">
         <v>5000</v>
@@ -65314,19 +65314,19 @@
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q902" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65376,29 +65376,29 @@
         <v>500</v>
       </c>
       <c r="K903" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L903" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M903" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>533</v>
+        <v>722</v>
       </c>
       <c r="Q903" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R903" t="inlineStr">
         <is>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -65441,36 +65441,36 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="K904" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L904" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M904" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>889</v>
+        <v>500</v>
       </c>
       <c r="Q904" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R904" t="inlineStr">
         <is>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E905" t="n">
         <v>9</v>
@@ -65508,7 +65508,7 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -65517,32 +65517,32 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>1750</v>
+        <v>500</v>
       </c>
       <c r="K905" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L905" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M905" t="n">
-        <v>12486</v>
+        <v>8000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>694</v>
+        <v>533</v>
       </c>
       <c r="Q905" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="K906" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L906" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M906" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>778</v>
+        <v>889</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>550</v>
+        <v>1750</v>
       </c>
       <c r="K907" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L907" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M907" t="n">
-        <v>10000</v>
+        <v>12486</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>556</v>
+        <v>694</v>
       </c>
       <c r="Q907" t="n">
         <v>18</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E908" t="n">
         <v>9</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="K908" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L908" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M908" t="n">
-        <v>16385</v>
+        <v>14000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>910</v>
+        <v>778</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="K909" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L909" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M909" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65823,11 +65823,11 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E910" t="n">
         <v>9</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="K910" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L910" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M910" t="n">
-        <v>18844</v>
+        <v>16385</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>1047</v>
+        <v>910</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E911" t="n">
         <v>9</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>180</v>
+        <v>850</v>
       </c>
       <c r="K911" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L911" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M911" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q911" t="n">
         <v>18</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="K912" t="n">
         <v>18000</v>
       </c>
       <c r="L912" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M912" t="n">
-        <v>18000</v>
+        <v>18844</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>1000</v>
+        <v>1047</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>385</v>
+        <v>180</v>
       </c>
       <c r="K913" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L913" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M913" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66165,32 +66165,32 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>280</v>
+        <v>185</v>
       </c>
       <c r="K914" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L914" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M914" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q914" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R914" t="inlineStr">
         <is>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>250</v>
+        <v>385</v>
       </c>
       <c r="K915" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L915" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M915" t="n">
-        <v>17200</v>
+        <v>15000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>956</v>
+        <v>833</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E916" t="n">
         <v>9</v>
@@ -66300,7 +66300,7 @@
       </c>
       <c r="H916" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -66309,32 +66309,32 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="K916" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L916" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M916" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P916" t="n">
         <v>667</v>
       </c>
       <c r="Q916" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R916" t="inlineStr">
         <is>
@@ -66377,24 +66377,24 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="K917" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L917" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M917" t="n">
-        <v>5000</v>
+        <v>17200</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O917" t="inlineStr">
@@ -66403,10 +66403,10 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>500</v>
+        <v>956</v>
       </c>
       <c r="Q917" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R917" t="inlineStr">
         <is>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E918" t="n">
         <v>9</v>
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>830</v>
+        <v>600</v>
       </c>
       <c r="K918" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L918" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="M918" t="n">
-        <v>18331</v>
+        <v>12000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>1018</v>
+        <v>667</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E919" t="n">
         <v>9</v>
@@ -66525,20 +66525,20 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="K919" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L919" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M919" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
@@ -66547,10 +66547,10 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q919" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66597,32 +66597,32 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>1200</v>
+        <v>830</v>
       </c>
       <c r="K920" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="L920" t="n">
-        <v>6000</v>
+        <v>18500</v>
       </c>
       <c r="M920" t="n">
-        <v>5771</v>
+        <v>18331</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>577</v>
+        <v>1018</v>
       </c>
       <c r="Q920" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="K921" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L921" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M921" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,32 +66741,32 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>750</v>
+        <v>1200</v>
       </c>
       <c r="K922" t="n">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="L922" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M922" t="n">
-        <v>7600</v>
+        <v>5771</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>507</v>
+        <v>577</v>
       </c>
       <c r="Q922" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66813,32 +66813,32 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>1250</v>
+        <v>255</v>
       </c>
       <c r="K923" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L923" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M923" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>533</v>
+        <v>833</v>
       </c>
       <c r="Q923" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E924" t="n">
         <v>9</v>
@@ -66876,41 +66876,41 @@
       </c>
       <c r="H924" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K924" t="n">
-        <v>20000</v>
+        <v>7000</v>
       </c>
       <c r="L924" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M924" t="n">
-        <v>20500</v>
+        <v>7600</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>1139</v>
+        <v>507</v>
       </c>
       <c r="Q924" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E925" t="n">
         <v>9</v>
@@ -66948,7 +66948,7 @@
       </c>
       <c r="H925" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -66957,32 +66957,32 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>600</v>
+        <v>1250</v>
       </c>
       <c r="K925" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L925" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M925" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="Q925" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67025,24 +67025,24 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J926" t="n">
         <v>400</v>
       </c>
       <c r="K926" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L926" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="M926" t="n">
-        <v>14500</v>
+        <v>20500</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>806</v>
+        <v>1139</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E927" t="n">
         <v>9</v>
@@ -67097,36 +67097,36 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>155</v>
+        <v>600</v>
       </c>
       <c r="K927" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L927" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M927" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>722</v>
+        <v>400</v>
       </c>
       <c r="Q927" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R927" t="inlineStr">
         <is>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E928" t="n">
         <v>9</v>
@@ -67173,29 +67173,29 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K928" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L928" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M928" t="n">
-        <v>10000</v>
+        <v>14500</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>556</v>
+        <v>806</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>650</v>
+        <v>155</v>
       </c>
       <c r="K929" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L929" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M929" t="n">
-        <v>9538</v>
+        <v>13000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>530</v>
+        <v>722</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67317,32 +67317,32 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>1350</v>
+        <v>150</v>
       </c>
       <c r="K930" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L930" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M930" t="n">
-        <v>4741</v>
+        <v>10000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>474</v>
+        <v>556</v>
       </c>
       <c r="Q930" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>210</v>
+        <v>650</v>
       </c>
       <c r="K931" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L931" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M931" t="n">
-        <v>8000</v>
+        <v>9538</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,16 +67407,160 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>444</v>
+        <v>530</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
       </c>
       <c r="R931" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>10</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D932" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E932" t="n">
+        <v>9</v>
+      </c>
+      <c r="F932" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G932" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H932" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I932" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J932" t="n">
+        <v>1350</v>
+      </c>
+      <c r="K932" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L932" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M932" t="n">
+        <v>4741</v>
+      </c>
+      <c r="N932" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O932" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P932" t="n">
+        <v>474</v>
+      </c>
+      <c r="Q932" t="n">
+        <v>10</v>
+      </c>
+      <c r="R932" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>10</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D933" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E933" t="n">
+        <v>9</v>
+      </c>
+      <c r="F933" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G933" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H933" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I933" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J933" t="n">
+        <v>210</v>
+      </c>
+      <c r="K933" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L933" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M933" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N933" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O933" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P933" t="n">
+        <v>444</v>
+      </c>
+      <c r="Q933" t="n">
+        <v>18</v>
+      </c>
+      <c r="R933" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R934"/>
+  <dimension ref="A1:R940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E772" t="n">
         <v>9</v>
@@ -55937,20 +55937,20 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K772" t="n">
         <v>22000</v>
       </c>
       <c r="L772" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="M772" t="n">
-        <v>22000</v>
+        <v>22500</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>1222</v>
+        <v>1250</v>
       </c>
       <c r="Q772" t="n">
         <v>18</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E773" t="n">
         <v>9</v>
@@ -56009,24 +56009,24 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K773" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="L773" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="M773" t="n">
-        <v>20000</v>
+        <v>26500</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O773" t="inlineStr">
@@ -56035,10 +56035,10 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>1111</v>
+        <v>1325</v>
       </c>
       <c r="Q773" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R773" t="inlineStr">
         <is>
@@ -56061,7 +56061,7 @@
         </is>
       </c>
       <c r="D774" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E774" t="n">
         <v>9</v>
@@ -56085,20 +56085,20 @@
         </is>
       </c>
       <c r="J774" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K774" t="n">
         <v>20000</v>
       </c>
       <c r="L774" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M774" t="n">
-        <v>20000</v>
+        <v>20529</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O774" t="inlineStr">
@@ -56107,7 +56107,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>1111</v>
+        <v>1140</v>
       </c>
       <c r="Q774" t="n">
         <v>18</v>
@@ -56133,7 +56133,7 @@
         </is>
       </c>
       <c r="D775" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E775" t="n">
         <v>9</v>
@@ -56153,24 +56153,24 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>200</v>
+        <v>4700</v>
       </c>
       <c r="K775" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L775" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M775" t="n">
-        <v>17000</v>
+        <v>7532</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O775" t="inlineStr">
@@ -56179,10 +56179,10 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>944</v>
+        <v>753</v>
       </c>
       <c r="Q775" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R775" t="inlineStr">
         <is>
@@ -56205,7 +56205,7 @@
         </is>
       </c>
       <c r="D776" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E776" t="n">
         <v>9</v>
@@ -56229,20 +56229,20 @@
         </is>
       </c>
       <c r="J776" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K776" t="n">
-        <v>5000</v>
+        <v>21000</v>
       </c>
       <c r="L776" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="M776" t="n">
-        <v>5000</v>
+        <v>21400</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O776" t="inlineStr">
@@ -56251,10 +56251,10 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>500</v>
+        <v>1189</v>
       </c>
       <c r="Q776" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R776" t="inlineStr">
         <is>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44384</v>
+        <v>44476</v>
       </c>
       <c r="E777" t="n">
         <v>9</v>
@@ -56297,20 +56297,20 @@
       </c>
       <c r="I777" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J777" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K777" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L777" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M777" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="Q777" t="n">
         <v>18</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E778" t="n">
         <v>9</v>
@@ -56376,13 +56376,13 @@
         <v>200</v>
       </c>
       <c r="K778" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L778" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M778" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56391,11 +56391,11 @@
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>1000</v>
+        <v>1222</v>
       </c>
       <c r="Q778" t="n">
         <v>18</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44384</v>
+        <v>44468</v>
       </c>
       <c r="E779" t="n">
         <v>9</v>
@@ -56445,20 +56445,20 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K779" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L779" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M779" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O779" t="inlineStr">
@@ -56467,10 +56467,10 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>500</v>
+        <v>1111</v>
       </c>
       <c r="Q779" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R779" t="inlineStr">
         <is>
@@ -56493,7 +56493,7 @@
         </is>
       </c>
       <c r="D780" s="2" t="n">
-        <v>44263</v>
+        <v>44468</v>
       </c>
       <c r="E780" t="n">
         <v>9</v>
@@ -56513,33 +56513,33 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>125</v>
+        <v>500</v>
       </c>
       <c r="K780" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L780" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M780" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>778</v>
+        <v>1111</v>
       </c>
       <c r="Q780" t="n">
         <v>18</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
@@ -56589,16 +56589,16 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K781" t="n">
-        <v>19500</v>
+        <v>17000</v>
       </c>
       <c r="L781" t="n">
-        <v>19500</v>
+        <v>17000</v>
       </c>
       <c r="M781" t="n">
-        <v>19500</v>
+        <v>17000</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,11 +56607,11 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>1083</v>
+        <v>944</v>
       </c>
       <c r="Q781" t="n">
         <v>18</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E782" t="n">
         <v>9</v>
@@ -56661,32 +56661,32 @@
         </is>
       </c>
       <c r="J782" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="K782" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L782" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M782" t="n">
-        <v>11542</v>
+        <v>5000</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>641</v>
+        <v>500</v>
       </c>
       <c r="Q782" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R782" t="inlineStr">
         <is>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E783" t="n">
         <v>9</v>
@@ -56733,16 +56733,16 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K783" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L783" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M783" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56755,7 +56755,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>889</v>
+        <v>722</v>
       </c>
       <c r="Q783" t="n">
         <v>18</v>
@@ -56781,7 +56781,7 @@
         </is>
       </c>
       <c r="D784" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E784" t="n">
         <v>9</v>
@@ -56805,20 +56805,20 @@
         </is>
       </c>
       <c r="J784" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K784" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L784" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M784" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O784" t="inlineStr">
@@ -56827,10 +56827,10 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="Q784" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R784" t="inlineStr">
         <is>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E785" t="n">
         <v>9</v>
@@ -56873,36 +56873,36 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="K785" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L785" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M785" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O785" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P785" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q785" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R785" t="inlineStr">
         <is>
@@ -56940,25 +56940,25 @@
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="K786" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L786" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M786" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="Q786" t="n">
         <v>18</v>
@@ -57012,25 +57012,25 @@
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J787" t="n">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="K787" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="L787" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="M787" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57039,11 +57039,11 @@
       </c>
       <c r="O787" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P787" t="n">
-        <v>667</v>
+        <v>1083</v>
       </c>
       <c r="Q787" t="n">
         <v>18</v>
@@ -57084,7 +57084,7 @@
       </c>
       <c r="H788" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -57093,16 +57093,16 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="K788" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L788" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M788" t="n">
-        <v>10000</v>
+        <v>11542</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>556</v>
+        <v>641</v>
       </c>
       <c r="Q788" t="n">
         <v>18</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E789" t="n">
         <v>9</v>
@@ -57161,11 +57161,11 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="K789" t="n">
         <v>16000</v>
@@ -57178,12 +57178,12 @@
       </c>
       <c r="N789" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O789" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P789" t="n">
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E790" t="n">
         <v>9</v>
@@ -57237,20 +57237,20 @@
         </is>
       </c>
       <c r="J790" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="K790" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L790" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M790" t="n">
-        <v>13636</v>
+        <v>7000</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O790" t="inlineStr">
@@ -57259,10 +57259,10 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>758</v>
+        <v>700</v>
       </c>
       <c r="Q790" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R790" t="inlineStr">
         <is>
@@ -57285,7 +57285,7 @@
         </is>
       </c>
       <c r="D791" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E791" t="n">
         <v>9</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>150</v>
+        <v>650</v>
       </c>
       <c r="K791" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L791" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M791" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>889</v>
+        <v>444</v>
       </c>
       <c r="Q791" t="n">
         <v>18</v>
@@ -57357,7 +57357,7 @@
         </is>
       </c>
       <c r="D792" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E792" t="n">
         <v>9</v>
@@ -57372,7 +57372,7 @@
       </c>
       <c r="H792" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -57381,16 +57381,16 @@
         </is>
       </c>
       <c r="J792" t="n">
-        <v>450</v>
+        <v>280</v>
       </c>
       <c r="K792" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L792" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M792" t="n">
-        <v>12556</v>
+        <v>15000</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>698</v>
+        <v>833</v>
       </c>
       <c r="Q792" t="n">
         <v>18</v>
@@ -57429,7 +57429,7 @@
         </is>
       </c>
       <c r="D793" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E793" t="n">
         <v>9</v>
@@ -57444,7 +57444,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
@@ -57453,16 +57453,16 @@
         </is>
       </c>
       <c r="J793" t="n">
-        <v>385</v>
+        <v>215</v>
       </c>
       <c r="K793" t="n">
         <v>12000</v>
       </c>
       <c r="L793" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M793" t="n">
-        <v>12481</v>
+        <v>12000</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57471,11 +57471,11 @@
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="Q793" t="n">
         <v>18</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E794" t="n">
         <v>9</v>
@@ -57516,7 +57516,7 @@
       </c>
       <c r="H794" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -57525,32 +57525,32 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="K794" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="L794" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="M794" t="n">
-        <v>4500</v>
+        <v>10000</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>450</v>
+        <v>556</v>
       </c>
       <c r="Q794" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R794" t="inlineStr">
         <is>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E795" t="n">
         <v>9</v>
@@ -57593,33 +57593,33 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="K795" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L795" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M795" t="n">
-        <v>8820</v>
+        <v>16000</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>490</v>
+        <v>889</v>
       </c>
       <c r="Q795" t="n">
         <v>18</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E796" t="n">
         <v>9</v>
@@ -57660,7 +57660,7 @@
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -57672,13 +57672,13 @@
         <v>550</v>
       </c>
       <c r="K796" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L796" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M796" t="n">
-        <v>8909</v>
+        <v>13636</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57687,11 +57687,11 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>495</v>
+        <v>758</v>
       </c>
       <c r="Q796" t="n">
         <v>18</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E797" t="n">
         <v>9</v>
@@ -57732,41 +57732,41 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="K797" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L797" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M797" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>2000</v>
+        <v>889</v>
       </c>
       <c r="Q797" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R797" t="inlineStr">
         <is>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E798" t="n">
         <v>9</v>
@@ -57813,16 +57813,16 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="K798" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L798" t="n">
         <v>13000</v>
       </c>
-      <c r="L798" t="n">
-        <v>15000</v>
-      </c>
       <c r="M798" t="n">
-        <v>14455</v>
+        <v>12556</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>803</v>
+        <v>698</v>
       </c>
       <c r="Q798" t="n">
         <v>18</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E799" t="n">
         <v>9</v>
@@ -57885,20 +57885,20 @@
         </is>
       </c>
       <c r="J799" t="n">
-        <v>2500</v>
+        <v>385</v>
       </c>
       <c r="K799" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L799" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M799" t="n">
-        <v>5000</v>
+        <v>12481</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O799" t="inlineStr">
@@ -57907,10 +57907,10 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>500</v>
+        <v>693</v>
       </c>
       <c r="Q799" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R799" t="inlineStr">
         <is>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E800" t="n">
         <v>9</v>
@@ -57957,20 +57957,20 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="K800" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L800" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="M800" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O800" t="inlineStr">
@@ -57979,10 +57979,10 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>778</v>
+        <v>450</v>
       </c>
       <c r="Q800" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R800" t="inlineStr">
         <is>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E801" t="n">
         <v>9</v>
@@ -58020,41 +58020,41 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="K801" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L801" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M801" t="n">
-        <v>20000</v>
+        <v>8820</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>2000</v>
+        <v>490</v>
       </c>
       <c r="Q801" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R801" t="inlineStr">
         <is>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44172</v>
+        <v>44306</v>
       </c>
       <c r="E802" t="n">
         <v>9</v>
@@ -58092,7 +58092,7 @@
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I802" t="inlineStr">
@@ -58101,16 +58101,16 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="K802" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L802" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M802" t="n">
-        <v>14000</v>
+        <v>8909</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>778</v>
+        <v>495</v>
       </c>
       <c r="Q802" t="n">
         <v>18</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E803" t="n">
         <v>9</v>
@@ -58164,7 +58164,7 @@
       </c>
       <c r="H803" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I803" t="inlineStr">
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>1650</v>
+        <v>40</v>
       </c>
       <c r="K803" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="L803" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="M803" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="Q803" t="n">
         <v>10</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E804" t="n">
         <v>9</v>
@@ -58236,7 +58236,7 @@
       </c>
       <c r="H804" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -58245,16 +58245,16 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>980</v>
+        <v>1100</v>
       </c>
       <c r="K804" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="L804" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M804" t="n">
-        <v>9000</v>
+        <v>14455</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>500</v>
+        <v>803</v>
       </c>
       <c r="Q804" t="n">
         <v>18</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E805" t="n">
         <v>9</v>
@@ -58308,7 +58308,7 @@
       </c>
       <c r="H805" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -58317,32 +58317,32 @@
         </is>
       </c>
       <c r="J805" t="n">
-        <v>2550</v>
+        <v>2500</v>
       </c>
       <c r="K805" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L805" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M805" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="Q805" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R805" t="inlineStr">
         <is>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E806" t="n">
         <v>9</v>
@@ -58385,33 +58385,33 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K806" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L806" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M806" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>917</v>
+        <v>778</v>
       </c>
       <c r="Q806" t="n">
         <v>18</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E807" t="n">
         <v>9</v>
@@ -58452,29 +58452,29 @@
       </c>
       <c r="H807" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>600</v>
+        <v>45</v>
       </c>
       <c r="K807" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L807" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M807" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O807" t="inlineStr">
@@ -58483,10 +58483,10 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="Q807" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R807" t="inlineStr">
         <is>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E808" t="n">
         <v>9</v>
@@ -58533,16 +58533,16 @@
         </is>
       </c>
       <c r="J808" t="n">
-        <v>1400</v>
+        <v>350</v>
       </c>
       <c r="K808" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L808" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M808" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q808" t="n">
         <v>18</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E809" t="n">
         <v>9</v>
@@ -58605,32 +58605,32 @@
         </is>
       </c>
       <c r="J809" t="n">
-        <v>1000</v>
+        <v>1650</v>
       </c>
       <c r="K809" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L809" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M809" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>722</v>
+        <v>400</v>
       </c>
       <c r="Q809" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R809" t="inlineStr">
         <is>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E810" t="n">
         <v>9</v>
@@ -58668,7 +58668,7 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I810" t="inlineStr">
@@ -58677,16 +58677,16 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>2000</v>
+        <v>980</v>
       </c>
       <c r="K810" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L810" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M810" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q810" t="n">
         <v>18</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E811" t="n">
         <v>9</v>
@@ -58740,7 +58740,7 @@
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -58749,32 +58749,32 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>1200</v>
+        <v>2550</v>
       </c>
       <c r="K811" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L811" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M811" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="Q811" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R811" t="inlineStr">
         <is>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K812" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L812" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="M812" t="n">
-        <v>8000</v>
+        <v>16500</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>444</v>
+        <v>917</v>
       </c>
       <c r="Q812" t="n">
         <v>18</v>
@@ -58889,36 +58889,36 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="K813" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="L813" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="M813" t="n">
-        <v>3500</v>
+        <v>13500</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>233</v>
+        <v>750</v>
       </c>
       <c r="Q813" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R813" t="inlineStr">
         <is>
@@ -58956,7 +58956,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
@@ -58965,16 +58965,16 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="K814" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L814" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M814" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q814" t="n">
         <v>18</v>
@@ -59028,7 +59028,7 @@
       </c>
       <c r="H815" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
@@ -59037,16 +59037,16 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K815" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L815" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M815" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>611</v>
+        <v>722</v>
       </c>
       <c r="Q815" t="n">
         <v>18</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E816" t="n">
         <v>9</v>
@@ -59109,16 +59109,16 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>700</v>
+        <v>2000</v>
       </c>
       <c r="K816" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L816" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M816" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q816" t="n">
         <v>18</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E817" t="n">
         <v>9</v>
@@ -59181,20 +59181,20 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="K817" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L817" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M817" t="n">
-        <v>11429</v>
+        <v>5000</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O817" t="inlineStr">
@@ -59203,10 +59203,10 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>635</v>
+        <v>500</v>
       </c>
       <c r="Q817" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R817" t="inlineStr">
         <is>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E818" t="n">
         <v>9</v>
@@ -59249,36 +59249,36 @@
       </c>
       <c r="I818" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J818" t="n">
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="K818" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L818" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M818" t="n">
-        <v>5286</v>
+        <v>8000</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>529</v>
+        <v>444</v>
       </c>
       <c r="Q818" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R818" t="inlineStr">
         <is>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E819" t="n">
         <v>9</v>
@@ -59321,36 +59321,36 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K819" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="L819" t="n">
         <v>4000</v>
       </c>
       <c r="M819" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>400</v>
+        <v>233</v>
       </c>
       <c r="Q819" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R819" t="inlineStr">
         <is>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E820" t="n">
         <v>9</v>
@@ -59388,7 +59388,7 @@
       </c>
       <c r="H820" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K820" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L820" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M820" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="Q820" t="n">
         <v>18</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44328</v>
+        <v>44301</v>
       </c>
       <c r="E821" t="n">
         <v>9</v>
@@ -59460,7 +59460,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>380</v>
+        <v>1600</v>
       </c>
       <c r="K821" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L821" t="n">
         <v>12000</v>
       </c>
       <c r="M821" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q821" t="n">
         <v>18</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E822" t="n">
         <v>9</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>155</v>
+        <v>700</v>
       </c>
       <c r="K822" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L822" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M822" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q822" t="n">
         <v>18</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E823" t="n">
         <v>9</v>
@@ -59613,16 +59613,16 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>215</v>
+        <v>700</v>
       </c>
       <c r="K823" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L823" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M823" t="n">
-        <v>8000</v>
+        <v>11429</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>444</v>
+        <v>635</v>
       </c>
       <c r="Q823" t="n">
         <v>18</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E824" t="n">
         <v>9</v>
@@ -59685,32 +59685,32 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>210</v>
+        <v>3500</v>
       </c>
       <c r="K824" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L824" t="n">
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M824" t="n">
-        <v>10000</v>
+        <v>5286</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O824" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P824" t="n">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="Q824" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R824" t="inlineStr">
         <is>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E825" t="n">
         <v>9</v>
@@ -59753,24 +59753,24 @@
       </c>
       <c r="I825" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J825" t="n">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="K825" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L825" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M825" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O825" t="inlineStr">
@@ -59779,10 +59779,10 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q825" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R825" t="inlineStr">
         <is>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E826" t="n">
         <v>9</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K826" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L826" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M826" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59847,11 +59847,11 @@
       </c>
       <c r="O826" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P826" t="n">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="Q826" t="n">
         <v>18</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E827" t="n">
         <v>9</v>
@@ -59892,7 +59892,7 @@
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -59904,13 +59904,13 @@
         <v>380</v>
       </c>
       <c r="K827" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L827" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M827" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q827" t="n">
         <v>18</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E828" t="n">
         <v>9</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>450</v>
+        <v>155</v>
       </c>
       <c r="K828" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L828" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M828" t="n">
-        <v>16444</v>
+        <v>13000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>914</v>
+        <v>722</v>
       </c>
       <c r="Q828" t="n">
         <v>18</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E829" t="n">
         <v>9</v>
@@ -60036,7 +60036,7 @@
       </c>
       <c r="H829" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -60045,16 +60045,16 @@
         </is>
       </c>
       <c r="J829" t="n">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="K829" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L829" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M829" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="Q829" t="n">
         <v>18</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E830" t="n">
         <v>9</v>
@@ -60108,7 +60108,7 @@
       </c>
       <c r="H830" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
@@ -60117,32 +60117,32 @@
         </is>
       </c>
       <c r="J830" t="n">
-        <v>950</v>
+        <v>210</v>
       </c>
       <c r="K830" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L830" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M830" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="Q830" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R830" t="inlineStr">
         <is>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E831" t="n">
         <v>9</v>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K831" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L831" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M831" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="Q831" t="n">
         <v>18</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E832" t="n">
         <v>9</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="K832" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L832" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M832" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>778</v>
+        <v>333</v>
       </c>
       <c r="Q832" t="n">
         <v>18</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E833" t="n">
         <v>9</v>
@@ -60324,7 +60324,7 @@
       </c>
       <c r="H833" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="K833" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L833" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M833" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60351,11 +60351,11 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>833</v>
+        <v>444</v>
       </c>
       <c r="Q833" t="n">
         <v>18</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E834" t="n">
         <v>9</v>
@@ -60405,16 +60405,16 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>1500</v>
+        <v>450</v>
       </c>
       <c r="K834" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L834" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M834" t="n">
-        <v>12000</v>
+        <v>16444</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>667</v>
+        <v>914</v>
       </c>
       <c r="Q834" t="n">
         <v>18</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E835" t="n">
         <v>9</v>
@@ -60468,7 +60468,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -60477,32 +60477,32 @@
         </is>
       </c>
       <c r="J835" t="n">
-        <v>2000</v>
+        <v>380</v>
       </c>
       <c r="K835" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L835" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M835" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="Q835" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R835" t="inlineStr">
         <is>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E836" t="n">
         <v>9</v>
@@ -60549,32 +60549,32 @@
         </is>
       </c>
       <c r="J836" t="n">
-        <v>2000</v>
+        <v>950</v>
       </c>
       <c r="K836" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L836" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M836" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="Q836" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R836" t="inlineStr">
         <is>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E837" t="n">
         <v>9</v>
@@ -60621,16 +60621,16 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="K837" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L837" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="M837" t="n">
-        <v>22909</v>
+        <v>18000</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>1273</v>
+        <v>1000</v>
       </c>
       <c r="Q837" t="n">
         <v>18</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E838" t="n">
         <v>9</v>
@@ -60689,20 +60689,20 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K838" t="n">
         <v>14000</v>
       </c>
       <c r="L838" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M838" t="n">
-        <v>14583</v>
+        <v>14000</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>810</v>
+        <v>778</v>
       </c>
       <c r="Q838" t="n">
         <v>18</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E839" t="n">
         <v>9</v>
@@ -60765,32 +60765,32 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K839" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L839" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="M839" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>550</v>
+        <v>833</v>
       </c>
       <c r="Q839" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R839" t="inlineStr">
         <is>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E840" t="n">
         <v>9</v>
@@ -60837,16 +60837,16 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K840" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L840" t="n">
         <v>12000</v>
       </c>
       <c r="M840" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="Q840" t="n">
         <v>18</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E841" t="n">
         <v>9</v>
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="K841" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L841" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M841" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q841" t="n">
         <v>10</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44333</v>
+        <v>44298</v>
       </c>
       <c r="E842" t="n">
         <v>9</v>
@@ -60972,25 +60972,25 @@
       </c>
       <c r="H842" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>550</v>
+        <v>2000</v>
       </c>
       <c r="K842" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L842" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M842" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q842" t="n">
         <v>18</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E843" t="n">
         <v>9</v>
@@ -61049,20 +61049,20 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="K843" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L843" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M843" t="n">
-        <v>13000</v>
+        <v>22909</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>722</v>
+        <v>1273</v>
       </c>
       <c r="Q843" t="n">
         <v>18</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E844" t="n">
         <v>9</v>
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="K844" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L844" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M844" t="n">
-        <v>10000</v>
+        <v>14583</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>556</v>
+        <v>810</v>
       </c>
       <c r="Q844" t="n">
         <v>18</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="K845" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="L845" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="M845" t="n">
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="Q845" t="n">
         <v>10</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E846" t="n">
         <v>9</v>
@@ -61265,20 +61265,20 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="K846" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L846" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M846" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61287,11 +61287,11 @@
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>556</v>
+        <v>639</v>
       </c>
       <c r="Q846" t="n">
         <v>18</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -61332,7 +61332,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -61341,32 +61341,32 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>650</v>
+        <v>900</v>
       </c>
       <c r="K847" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L847" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M847" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>778</v>
+        <v>500</v>
       </c>
       <c r="Q847" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -61409,24 +61409,24 @@
       </c>
       <c r="I848" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J848" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K848" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L848" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M848" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O848" t="inlineStr">
@@ -61435,10 +61435,10 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>850</v>
+        <v>833</v>
       </c>
       <c r="Q848" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R848" t="inlineStr">
         <is>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61481,33 +61481,33 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K849" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L849" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M849" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q849" t="n">
         <v>18</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="K850" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L850" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M850" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61575,11 +61575,11 @@
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E851" t="n">
         <v>9</v>
@@ -61629,7 +61629,7 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>600</v>
+        <v>1250</v>
       </c>
       <c r="K851" t="n">
         <v>5000</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -61692,25 +61692,25 @@
       </c>
       <c r="H852" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K852" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L852" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M852" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E853" t="n">
         <v>9</v>
@@ -61764,25 +61764,25 @@
       </c>
       <c r="H853" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="K853" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L853" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M853" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>1333</v>
+        <v>778</v>
       </c>
       <c r="Q853" t="n">
         <v>18</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K854" t="n">
-        <v>2800</v>
+        <v>17000</v>
       </c>
       <c r="L854" t="n">
-        <v>2800</v>
+        <v>17000</v>
       </c>
       <c r="M854" t="n">
-        <v>2800</v>
+        <v>17000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>140</v>
+        <v>850</v>
       </c>
       <c r="Q854" t="n">
         <v>20</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -61913,11 +61913,11 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>1250</v>
+        <v>300</v>
       </c>
       <c r="K855" t="n">
         <v>15000</v>
@@ -61930,7 +61930,7 @@
       </c>
       <c r="N855" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O855" t="inlineStr">
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -61989,32 +61989,32 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>9300</v>
+        <v>600</v>
       </c>
       <c r="K856" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L856" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M856" t="n">
-        <v>6812</v>
+        <v>11000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>681</v>
+        <v>611</v>
       </c>
       <c r="Q856" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R856" t="inlineStr">
         <is>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -62061,20 +62061,20 @@
         </is>
       </c>
       <c r="J857" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="K857" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="L857" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="M857" t="n">
-        <v>19091</v>
+        <v>5000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
@@ -62083,10 +62083,10 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>1061</v>
+        <v>500</v>
       </c>
       <c r="Q857" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R857" t="inlineStr">
         <is>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44425</v>
+        <v>44314</v>
       </c>
       <c r="E858" t="n">
         <v>9</v>
@@ -62124,25 +62124,25 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K858" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L858" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="M858" t="n">
-        <v>20500</v>
+        <v>9000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>1139</v>
+        <v>500</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -62201,24 +62201,24 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K859" t="n">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="L859" t="n">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="M859" t="n">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
@@ -62227,10 +62227,10 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>400</v>
+        <v>1333</v>
       </c>
       <c r="Q859" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R859" t="inlineStr">
         <is>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -62273,24 +62273,24 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K860" t="n">
-        <v>14000</v>
+        <v>2800</v>
       </c>
       <c r="L860" t="n">
-        <v>15000</v>
+        <v>2800</v>
       </c>
       <c r="M860" t="n">
-        <v>14500</v>
+        <v>2800</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
@@ -62299,10 +62299,10 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>806</v>
+        <v>140</v>
       </c>
       <c r="Q860" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -62345,20 +62345,20 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>380</v>
+        <v>1250</v>
       </c>
       <c r="K861" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L861" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M861" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>1333</v>
+        <v>833</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -62421,20 +62421,20 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>1350</v>
+        <v>9300</v>
       </c>
       <c r="K862" t="n">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="L862" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M862" t="n">
-        <v>15519</v>
+        <v>6812</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O862" t="inlineStr">
@@ -62443,10 +62443,10 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>862</v>
+        <v>681</v>
       </c>
       <c r="Q862" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R862" t="inlineStr">
         <is>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -62493,20 +62493,20 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>950</v>
+        <v>550</v>
       </c>
       <c r="K863" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L863" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="M863" t="n">
-        <v>6000</v>
+        <v>19091</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
@@ -62515,10 +62515,10 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>600</v>
+        <v>1061</v>
       </c>
       <c r="Q863" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R863" t="inlineStr">
         <is>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K864" t="n">
         <v>20000</v>
       </c>
       <c r="L864" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="M864" t="n">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>1111</v>
+        <v>1139</v>
       </c>
       <c r="Q864" t="n">
         <v>18</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -62637,20 +62637,20 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K865" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L865" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="M865" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O865" t="inlineStr">
@@ -62659,10 +62659,10 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>944</v>
+        <v>400</v>
       </c>
       <c r="Q865" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R865" t="inlineStr">
         <is>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -62709,16 +62709,16 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K866" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L866" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M866" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>944</v>
+        <v>806</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="K867" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L867" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="M867" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>833</v>
+        <v>1333</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -62849,24 +62849,24 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>100</v>
+        <v>1350</v>
       </c>
       <c r="K868" t="n">
         <v>15000</v>
       </c>
       <c r="L868" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M868" t="n">
-        <v>15000</v>
+        <v>15519</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O868" t="inlineStr">
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>833</v>
+        <v>862</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -62916,7 +62916,7 @@
       </c>
       <c r="H869" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -62925,32 +62925,32 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>1500</v>
+        <v>950</v>
       </c>
       <c r="K869" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L869" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M869" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Q869" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -62988,7 +62988,7 @@
       </c>
       <c r="H870" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
@@ -62997,32 +62997,32 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>3040</v>
+        <v>1200</v>
       </c>
       <c r="K870" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L870" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M870" t="n">
-        <v>7224</v>
+        <v>20000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="Q870" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R870" t="inlineStr">
         <is>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -63065,24 +63065,24 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K871" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L871" t="n">
-        <v>26000</v>
+        <v>17000</v>
       </c>
       <c r="M871" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O871" t="inlineStr">
@@ -63091,10 +63091,10 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>1250</v>
+        <v>944</v>
       </c>
       <c r="Q871" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R871" t="inlineStr">
         <is>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E872" t="n">
         <v>9</v>
@@ -63141,20 +63141,20 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K872" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L872" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M872" t="n">
-        <v>15059</v>
+        <v>17000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O872" t="inlineStr">
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>837</v>
+        <v>944</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -63209,24 +63209,24 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K873" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L873" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M873" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O873" t="inlineStr">
@@ -63235,10 +63235,10 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>1150</v>
+        <v>833</v>
       </c>
       <c r="Q873" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R873" t="inlineStr">
         <is>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -63288,17 +63288,17 @@
         <v>100</v>
       </c>
       <c r="K874" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L874" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M874" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
@@ -63307,10 +63307,10 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>900</v>
+        <v>833</v>
       </c>
       <c r="Q874" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -63348,7 +63348,7 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
@@ -63357,20 +63357,20 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>40</v>
+        <v>1500</v>
       </c>
       <c r="K875" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L875" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M875" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O875" t="inlineStr">
@@ -63379,10 +63379,10 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="Q875" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R875" t="inlineStr">
         <is>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -63420,41 +63420,41 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>400</v>
+        <v>3040</v>
       </c>
       <c r="K876" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L876" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M876" t="n">
-        <v>17000</v>
+        <v>7224</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>944</v>
+        <v>722</v>
       </c>
       <c r="Q876" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R876" t="inlineStr">
         <is>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -63497,36 +63497,36 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="K877" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="L877" t="n">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="M877" t="n">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>389</v>
+        <v>1250</v>
       </c>
       <c r="Q877" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R877" t="inlineStr">
         <is>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="K878" t="n">
         <v>14000</v>
       </c>
       <c r="L878" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M878" t="n">
-        <v>14429</v>
+        <v>15059</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>802</v>
+        <v>837</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -63645,20 +63645,20 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="K879" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="L879" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="M879" t="n">
-        <v>5000</v>
+        <v>23000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
@@ -63667,10 +63667,10 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>500</v>
+        <v>1150</v>
       </c>
       <c r="Q879" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -63717,32 +63717,32 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K880" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L880" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M880" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>278</v>
+        <v>900</v>
       </c>
       <c r="Q880" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R880" t="inlineStr">
         <is>
@@ -63780,41 +63780,41 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="K881" t="n">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="L881" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="M881" t="n">
-        <v>3455</v>
+        <v>18000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>230</v>
+        <v>1800</v>
       </c>
       <c r="Q881" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="K882" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L882" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M882" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63879,11 +63879,11 @@
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="Q882" t="n">
         <v>18</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="K883" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L883" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M883" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63951,11 +63951,11 @@
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>667</v>
+        <v>389</v>
       </c>
       <c r="Q883" t="n">
         <v>18</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K884" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L884" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M884" t="n">
-        <v>8000</v>
+        <v>14429</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64023,11 +64023,11 @@
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>444</v>
+        <v>802</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64068,7 +64068,7 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -64077,32 +64077,32 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="K885" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L885" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M885" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>389</v>
+        <v>500</v>
       </c>
       <c r="Q885" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R885" t="inlineStr">
         <is>
@@ -64140,41 +64140,41 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K886" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L886" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M886" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="Q886" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R886" t="inlineStr">
         <is>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E887" t="n">
         <v>9</v>
@@ -64217,24 +64217,24 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>750</v>
+        <v>220</v>
       </c>
       <c r="K887" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L887" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M887" t="n">
-        <v>9467</v>
+        <v>3455</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O887" t="inlineStr">
@@ -64243,10 +64243,10 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>526</v>
+        <v>230</v>
       </c>
       <c r="Q887" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R887" t="inlineStr">
         <is>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E888" t="n">
         <v>9</v>
@@ -64284,25 +64284,25 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>410</v>
+        <v>90</v>
       </c>
       <c r="K888" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L888" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M888" t="n">
-        <v>12512</v>
+        <v>10000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64311,11 +64311,11 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>695</v>
+        <v>556</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -64356,7 +64356,7 @@
       </c>
       <c r="H889" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>405</v>
+        <v>800</v>
       </c>
       <c r="K889" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L889" t="n">
         <v>12000</v>
       </c>
       <c r="M889" t="n">
-        <v>10617</v>
+        <v>12000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64383,11 +64383,11 @@
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>590</v>
+        <v>667</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -64428,25 +64428,25 @@
       </c>
       <c r="H890" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="K890" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L890" t="n">
         <v>8000</v>
       </c>
       <c r="M890" t="n">
-        <v>7538</v>
+        <v>8000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64455,11 +64455,11 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -64500,25 +64500,25 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>310</v>
+        <v>700</v>
       </c>
       <c r="K891" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L891" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M891" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q891" t="n">
         <v>18</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -64572,41 +64572,41 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K892" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="L892" t="n">
-        <v>26000</v>
+        <v>6000</v>
       </c>
       <c r="M892" t="n">
-        <v>25111</v>
+        <v>6000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>1256</v>
+        <v>400</v>
       </c>
       <c r="Q892" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="K893" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L893" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M893" t="n">
-        <v>15545</v>
+        <v>9467</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>864</v>
+        <v>526</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -64725,32 +64725,32 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>2200</v>
+        <v>410</v>
       </c>
       <c r="K894" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L894" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M894" t="n">
-        <v>7545</v>
+        <v>12512</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>754</v>
+        <v>695</v>
       </c>
       <c r="Q894" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E895" t="n">
         <v>9</v>
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>800</v>
+        <v>405</v>
       </c>
       <c r="K895" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L895" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M895" t="n">
-        <v>16000</v>
+        <v>10617</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>889</v>
+        <v>590</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="K896" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L896" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M896" t="n">
-        <v>14000</v>
+        <v>7538</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64887,11 +64887,11 @@
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>778</v>
+        <v>419</v>
       </c>
       <c r="Q896" t="n">
         <v>18</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44201</v>
+        <v>44250</v>
       </c>
       <c r="E897" t="n">
         <v>9</v>
@@ -64932,25 +64932,25 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="K897" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L897" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M897" t="n">
-        <v>10200</v>
+        <v>6000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>567</v>
+        <v>333</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -65004,41 +65004,41 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>1500</v>
+        <v>450</v>
       </c>
       <c r="K898" t="n">
-        <v>8000</v>
+        <v>24000</v>
       </c>
       <c r="L898" t="n">
-        <v>8000</v>
+        <v>26000</v>
       </c>
       <c r="M898" t="n">
-        <v>8000</v>
+        <v>25111</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>533</v>
+        <v>1256</v>
       </c>
       <c r="Q898" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R898" t="inlineStr">
         <is>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E899" t="n">
         <v>9</v>
@@ -65076,41 +65076,41 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="K899" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L899" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M899" t="n">
-        <v>6000</v>
+        <v>15545</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>400</v>
+        <v>864</v>
       </c>
       <c r="Q899" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E900" t="n">
         <v>9</v>
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>300</v>
+        <v>2200</v>
       </c>
       <c r="K900" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="L900" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M900" t="n">
-        <v>9000</v>
+        <v>7545</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>900</v>
+        <v>754</v>
       </c>
       <c r="Q900" t="n">
         <v>10</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="K901" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L901" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M901" t="n">
-        <v>13500</v>
+        <v>16000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>750</v>
+        <v>889</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -65292,41 +65292,41 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="K902" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L902" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M902" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>1000</v>
+        <v>778</v>
       </c>
       <c r="Q902" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E903" t="n">
         <v>9</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K903" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="L903" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="M903" t="n">
-        <v>23591</v>
+        <v>10200</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>1311</v>
+        <v>567</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -65445,20 +65445,20 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="K904" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L904" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="M904" t="n">
-        <v>18242</v>
+        <v>8000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O904" t="inlineStr">
@@ -65467,10 +65467,10 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>1013</v>
+        <v>533</v>
       </c>
       <c r="Q904" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R904" t="inlineStr">
         <is>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E905" t="n">
         <v>9</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>2850</v>
+        <v>1500</v>
       </c>
       <c r="K905" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="L905" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M905" t="n">
-        <v>13579</v>
+        <v>6000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>905</v>
+        <v>400</v>
       </c>
       <c r="Q905" t="n">
         <v>15</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E906" t="n">
         <v>9</v>
@@ -65580,41 +65580,41 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="K906" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="L906" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="M906" t="n">
-        <v>16000</v>
+        <v>9000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="Q906" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R906" t="inlineStr">
         <is>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E907" t="n">
         <v>9</v>
@@ -65652,7 +65652,7 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -65661,32 +65661,32 @@
         </is>
       </c>
       <c r="J907" t="n">
+        <v>40</v>
+      </c>
+      <c r="K907" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L907" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M907" t="n">
+        <v>13500</v>
+      </c>
+      <c r="N907" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O907" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P907" t="n">
         <v>750</v>
       </c>
-      <c r="K907" t="n">
-        <v>10000</v>
-      </c>
-      <c r="L907" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M907" t="n">
-        <v>10000</v>
-      </c>
-      <c r="N907" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O907" t="inlineStr">
-        <is>
-          <t>Región del Maule</t>
-        </is>
-      </c>
-      <c r="P907" t="n">
-        <v>667</v>
-      </c>
       <c r="Q907" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E908" t="n">
         <v>9</v>
@@ -65724,7 +65724,7 @@
       </c>
       <c r="H908" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -65733,32 +65733,32 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>1200</v>
+        <v>65</v>
       </c>
       <c r="K908" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L908" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M908" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q908" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="K909" t="n">
-        <v>17000</v>
+        <v>23000</v>
       </c>
       <c r="L909" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M909" t="n">
-        <v>17000</v>
+        <v>23591</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>944</v>
+        <v>1311</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E910" t="n">
         <v>9</v>
@@ -65868,25 +65868,25 @@
       </c>
       <c r="H910" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>200</v>
+        <v>1550</v>
       </c>
       <c r="K910" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L910" t="n">
-        <v>10000</v>
+        <v>18500</v>
       </c>
       <c r="M910" t="n">
-        <v>10000</v>
+        <v>18242</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>556</v>
+        <v>1013</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E911" t="n">
         <v>9</v>
@@ -65949,32 +65949,32 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>300</v>
+        <v>2850</v>
       </c>
       <c r="K911" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L911" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M911" t="n">
-        <v>8000</v>
+        <v>13579</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>444</v>
+        <v>905</v>
       </c>
       <c r="Q911" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E912" t="n">
         <v>9</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="K912" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L912" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M912" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>778</v>
+        <v>889</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E913" t="n">
         <v>9</v>
@@ -66093,20 +66093,20 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="K913" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L913" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M913" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
@@ -66118,7 +66118,7 @@
         <v>667</v>
       </c>
       <c r="Q913" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E914" t="n">
         <v>9</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="K914" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L914" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M914" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>1250</v>
+        <v>400</v>
       </c>
       <c r="K915" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L915" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M915" t="n">
-        <v>13520</v>
+        <v>17000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>751</v>
+        <v>944</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E916" t="n">
         <v>9</v>
@@ -66305,36 +66305,36 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>3500</v>
+        <v>200</v>
       </c>
       <c r="K916" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L916" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M916" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="Q916" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R916" t="inlineStr">
         <is>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -66372,25 +66372,25 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J917" t="n">
         <v>300</v>
       </c>
       <c r="K917" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L917" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M917" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="Q917" t="n">
         <v>18</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E918" t="n">
         <v>9</v>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K918" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L918" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M918" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E919" t="n">
         <v>9</v>
@@ -66516,25 +66516,25 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="K919" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L919" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M919" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q919" t="n">
         <v>18</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E920" t="n">
         <v>9</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="K920" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="L920" t="n">
-        <v>11000</v>
+        <v>24000</v>
       </c>
       <c r="M920" t="n">
-        <v>10571</v>
+        <v>24000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>587</v>
+        <v>1333</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E921" t="n">
         <v>9</v>
@@ -66669,20 +66669,20 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>2400</v>
+        <v>1250</v>
       </c>
       <c r="K921" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L921" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M921" t="n">
-        <v>5500</v>
+        <v>13520</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O921" t="inlineStr">
@@ -66691,10 +66691,10 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>550</v>
+        <v>751</v>
       </c>
       <c r="Q921" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R921" t="inlineStr">
         <is>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E922" t="n">
         <v>9</v>
@@ -66737,36 +66737,36 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="K922" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L922" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M922" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>444</v>
+        <v>600</v>
       </c>
       <c r="Q922" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K923" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L923" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M923" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="K924" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L924" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M924" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>278</v>
+        <v>556</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66953,36 +66953,36 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="K925" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="L925" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="M925" t="n">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>200</v>
+        <v>833</v>
       </c>
       <c r="Q925" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67020,7 +67020,7 @@
       </c>
       <c r="H926" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="K926" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L926" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M926" t="n">
-        <v>9471</v>
+        <v>10571</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E927" t="n">
         <v>9</v>
@@ -67097,24 +67097,24 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="K927" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L927" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M927" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O927" t="inlineStr">
@@ -67123,10 +67123,10 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>944</v>
+        <v>550</v>
       </c>
       <c r="Q927" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R927" t="inlineStr">
         <is>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E928" t="n">
         <v>9</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="K928" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L928" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M928" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E929" t="n">
         <v>9</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>3300</v>
+        <v>200</v>
       </c>
       <c r="K929" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L929" t="n">
         <v>12000</v>
       </c>
       <c r="M929" t="n">
-        <v>11455</v>
+        <v>12000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>636</v>
+        <v>667</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E930" t="n">
         <v>9</v>
@@ -67313,11 +67313,11 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="K930" t="n">
         <v>5000</v>
@@ -67330,19 +67330,19 @@
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>500</v>
+        <v>278</v>
       </c>
       <c r="Q930" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E931" t="n">
         <v>9</v>
@@ -67385,36 +67385,36 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="K931" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="L931" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="M931" t="n">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>833</v>
+        <v>200</v>
       </c>
       <c r="Q931" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44432</v>
+        <v>44312</v>
       </c>
       <c r="E932" t="n">
         <v>9</v>
@@ -67452,41 +67452,41 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>385</v>
+        <v>1700</v>
       </c>
       <c r="K932" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L932" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M932" t="n">
-        <v>22078</v>
+        <v>9471</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>1104</v>
+        <v>526</v>
       </c>
       <c r="Q932" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E933" t="n">
         <v>9</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="K933" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L933" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M933" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,58 +67581,490 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E934" t="n">
+        <v>9</v>
+      </c>
+      <c r="F934" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J934" t="n">
+        <v>800</v>
+      </c>
+      <c r="K934" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L934" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M934" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N934" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O934" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P934" t="n">
+        <v>667</v>
+      </c>
+      <c r="Q934" t="n">
+        <v>18</v>
+      </c>
+      <c r="R934" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>10</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D935" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E935" t="n">
+        <v>9</v>
+      </c>
+      <c r="F935" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J935" t="n">
+        <v>3300</v>
+      </c>
+      <c r="K935" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L935" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M935" t="n">
+        <v>11455</v>
+      </c>
+      <c r="N935" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O935" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P935" t="n">
+        <v>636</v>
+      </c>
+      <c r="Q935" t="n">
+        <v>18</v>
+      </c>
+      <c r="R935" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>10</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D936" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E936" t="n">
+        <v>9</v>
+      </c>
+      <c r="F936" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J936" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K936" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L936" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M936" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N936" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O936" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P936" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q936" t="n">
+        <v>10</v>
+      </c>
+      <c r="R936" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>10</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D937" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E934" t="n">
-        <v>9</v>
-      </c>
-      <c r="F934" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G934" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H934" t="inlineStr">
+      <c r="E937" t="n">
+        <v>9</v>
+      </c>
+      <c r="F937" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G937" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H937" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I937" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J937" t="n">
+        <v>250</v>
+      </c>
+      <c r="K937" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L937" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M937" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N937" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O937" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P937" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q937" t="n">
+        <v>18</v>
+      </c>
+      <c r="R937" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>10</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D938" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E938" t="n">
+        <v>9</v>
+      </c>
+      <c r="F938" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G938" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H938" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I938" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J938" t="n">
+        <v>385</v>
+      </c>
+      <c r="K938" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L938" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M938" t="n">
+        <v>22078</v>
+      </c>
+      <c r="N938" t="inlineStr">
+        <is>
+          <t>$/bandeja 20 kilos</t>
+        </is>
+      </c>
+      <c r="O938" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P938" t="n">
+        <v>1104</v>
+      </c>
+      <c r="Q938" t="n">
+        <v>20</v>
+      </c>
+      <c r="R938" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>10</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D939" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E939" t="n">
+        <v>9</v>
+      </c>
+      <c r="F939" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G939" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H939" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I939" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J939" t="n">
+        <v>480</v>
+      </c>
+      <c r="K939" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L939" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M939" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N939" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O939" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P939" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q939" t="n">
+        <v>18</v>
+      </c>
+      <c r="R939" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>10</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D940" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E940" t="n">
+        <v>9</v>
+      </c>
+      <c r="F940" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G940" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H940" t="inlineStr">
         <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I934" t="inlineStr">
+      <c r="I940" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="J934" t="n">
+      <c r="J940" t="n">
         <v>200</v>
       </c>
-      <c r="K934" t="n">
+      <c r="K940" t="n">
         <v>18000</v>
       </c>
-      <c r="L934" t="n">
+      <c r="L940" t="n">
         <v>18000</v>
       </c>
-      <c r="M934" t="n">
+      <c r="M940" t="n">
         <v>18000</v>
       </c>
-      <c r="N934" t="inlineStr">
+      <c r="N940" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O934" t="inlineStr">
+      <c r="O940" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P934" t="n">
+      <c r="P940" t="n">
         <v>1200</v>
       </c>
-      <c r="Q934" t="n">
+      <c r="Q940" t="n">
         <v>15</v>
       </c>
-      <c r="R934" t="inlineStr">
+      <c r="R940" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R984"/>
+  <dimension ref="A1:R988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -61332,7 +61332,7 @@
       </c>
       <c r="H847" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -61341,32 +61341,32 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K847" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="L847" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M847" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>2000</v>
+        <v>1222</v>
       </c>
       <c r="Q847" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K848" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L848" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M848" t="n">
-        <v>14000</v>
+        <v>17400</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>778</v>
+        <v>967</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="K849" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="L849" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M849" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="Q849" t="n">
         <v>10</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -61548,7 +61548,7 @@
       </c>
       <c r="H850" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
@@ -61557,29 +61557,29 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>980</v>
+        <v>300</v>
       </c>
       <c r="K850" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="L850" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="M850" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>500</v>
+        <v>1222</v>
       </c>
       <c r="Q850" t="n">
         <v>18</v>
@@ -61620,7 +61620,7 @@
       </c>
       <c r="H851" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
@@ -61629,32 +61629,32 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>2550</v>
+        <v>45</v>
       </c>
       <c r="K851" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L851" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M851" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>467</v>
+        <v>2000</v>
       </c>
       <c r="Q851" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R851" t="inlineStr">
         <is>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K852" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L852" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M852" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>917</v>
+        <v>778</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E853" t="n">
         <v>9</v>
@@ -61769,24 +61769,24 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>600</v>
+        <v>1650</v>
       </c>
       <c r="K853" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L853" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="M853" t="n">
-        <v>13500</v>
+        <v>4000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O853" t="inlineStr">
@@ -61795,10 +61795,10 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="Q853" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R853" t="inlineStr">
         <is>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -61836,7 +61836,7 @@
       </c>
       <c r="H854" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>1400</v>
+        <v>980</v>
       </c>
       <c r="K854" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L854" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M854" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q854" t="n">
         <v>18</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -61908,7 +61908,7 @@
       </c>
       <c r="H855" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I855" t="inlineStr">
@@ -61917,32 +61917,32 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>1000</v>
+        <v>2550</v>
       </c>
       <c r="K855" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L855" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M855" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>722</v>
+        <v>467</v>
       </c>
       <c r="Q855" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R855" t="inlineStr">
         <is>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="K856" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L856" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M856" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>556</v>
+        <v>917</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62057,24 +62057,24 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K857" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L857" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M857" t="n">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
@@ -62083,10 +62083,10 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q857" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R857" t="inlineStr">
         <is>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K858" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L858" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M858" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q858" t="n">
         <v>18</v>
@@ -62201,36 +62201,36 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="K859" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="L859" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M859" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>233</v>
+        <v>722</v>
       </c>
       <c r="Q859" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R859" t="inlineStr">
         <is>
@@ -62268,7 +62268,7 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
@@ -62277,16 +62277,16 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K860" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L860" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M860" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q860" t="n">
         <v>18</v>
@@ -62340,7 +62340,7 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
@@ -62349,32 +62349,32 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K861" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L861" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M861" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q861" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R861" t="inlineStr">
         <is>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K862" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L862" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M862" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q862" t="n">
         <v>18</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -62489,36 +62489,36 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>700</v>
+        <v>160</v>
       </c>
       <c r="K863" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L863" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M863" t="n">
-        <v>11429</v>
+        <v>3500</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>635</v>
+        <v>233</v>
       </c>
       <c r="Q863" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R863" t="inlineStr">
         <is>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -62556,7 +62556,7 @@
       </c>
       <c r="H864" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
@@ -62565,32 +62565,32 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="K864" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L864" t="n">
-        <v>5500</v>
+        <v>7000</v>
       </c>
       <c r="M864" t="n">
-        <v>5286</v>
+        <v>7000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>529</v>
+        <v>389</v>
       </c>
       <c r="Q864" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R864" t="inlineStr">
         <is>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -62628,41 +62628,41 @@
       </c>
       <c r="H865" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="K865" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L865" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M865" t="n">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>400</v>
+        <v>611</v>
       </c>
       <c r="Q865" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R865" t="inlineStr">
         <is>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -62709,7 +62709,7 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K866" t="n">
         <v>12000</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -62781,16 +62781,16 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>380</v>
+        <v>700</v>
       </c>
       <c r="K867" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L867" t="n">
         <v>12000</v>
       </c>
       <c r="M867" t="n">
-        <v>12000</v>
+        <v>11429</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -62849,36 +62849,36 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>155</v>
+        <v>3500</v>
       </c>
       <c r="K868" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L868" t="n">
-        <v>13000</v>
+        <v>5500</v>
       </c>
       <c r="M868" t="n">
-        <v>13000</v>
+        <v>5286</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>722</v>
+        <v>529</v>
       </c>
       <c r="Q868" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R868" t="inlineStr">
         <is>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44321</v>
+        <v>44357</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -62921,36 +62921,36 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="K869" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L869" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M869" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="Q869" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -62997,16 +62997,16 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="K870" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L870" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M870" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="K871" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L871" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M871" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="K872" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L872" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M872" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>333</v>
+        <v>722</v>
       </c>
       <c r="Q872" t="n">
         <v>18</v>
@@ -63204,7 +63204,7 @@
       </c>
       <c r="H873" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -63213,7 +63213,7 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="K873" t="n">
         <v>8000</v>
@@ -63231,7 +63231,7 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P873" t="n">
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="K874" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L874" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M874" t="n">
-        <v>16444</v>
+        <v>10000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>914</v>
+        <v>556</v>
       </c>
       <c r="Q874" t="n">
         <v>18</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -63348,7 +63348,7 @@
       </c>
       <c r="H875" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
@@ -63357,16 +63357,16 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="K875" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L875" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M875" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63375,11 +63375,11 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -63420,41 +63420,41 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>950</v>
+        <v>180</v>
       </c>
       <c r="K876" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L876" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M876" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="Q876" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R876" t="inlineStr">
         <is>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44298</v>
+        <v>44321</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -63492,25 +63492,25 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="K877" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L877" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M877" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="K878" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L878" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M878" t="n">
-        <v>14000</v>
+        <v>16444</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>778</v>
+        <v>914</v>
       </c>
       <c r="Q878" t="n">
         <v>18</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -63636,7 +63636,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -63645,16 +63645,16 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>700</v>
+        <v>380</v>
       </c>
       <c r="K879" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L879" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M879" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="Q879" t="n">
         <v>18</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -63708,7 +63708,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -63717,32 +63717,32 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>1500</v>
+        <v>950</v>
       </c>
       <c r="K880" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L880" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M880" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="Q880" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R880" t="inlineStr">
         <is>
@@ -63785,36 +63785,36 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="K881" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L881" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M881" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="Q881" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R881" t="inlineStr">
         <is>
@@ -63852,25 +63852,25 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="K882" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L882" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M882" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63879,11 +63879,11 @@
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q882" t="n">
         <v>18</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E883" t="n">
         <v>9</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63933,32 +63933,32 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="K883" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L883" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M883" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>2200</v>
+        <v>833</v>
       </c>
       <c r="Q883" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R883" t="inlineStr">
         <is>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>330</v>
+        <v>1500</v>
       </c>
       <c r="K884" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L884" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M884" t="n">
-        <v>22909</v>
+        <v>12000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>1273</v>
+        <v>667</v>
       </c>
       <c r="Q884" t="n">
         <v>18</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -64077,20 +64077,20 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="K885" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L885" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M885" t="n">
-        <v>14583</v>
+        <v>6000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O885" t="inlineStr">
@@ -64099,10 +64099,10 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>810</v>
+        <v>600</v>
       </c>
       <c r="Q885" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R885" t="inlineStr">
         <is>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E886" t="n">
         <v>9</v>
@@ -64140,7 +64140,7 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -64149,32 +64149,32 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="K886" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L886" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="M886" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>550</v>
+        <v>667</v>
       </c>
       <c r="Q886" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R886" t="inlineStr">
         <is>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E887" t="n">
         <v>9</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E888" t="n">
         <v>9</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>800</v>
+        <v>330</v>
       </c>
       <c r="K888" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="L888" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M888" t="n">
-        <v>11500</v>
+        <v>22909</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>639</v>
+        <v>1273</v>
       </c>
       <c r="Q888" t="n">
         <v>18</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -64365,20 +64365,20 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K889" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L889" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M889" t="n">
-        <v>5000</v>
+        <v>14583</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O889" t="inlineStr">
@@ -64387,10 +64387,10 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>500</v>
+        <v>810</v>
       </c>
       <c r="Q889" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R889" t="inlineStr">
         <is>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44333</v>
+        <v>44397</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -64433,36 +64433,36 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J890" t="n">
+        <v>800</v>
+      </c>
+      <c r="K890" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L890" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M890" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N890" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O890" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P890" t="n">
         <v>550</v>
       </c>
-      <c r="K890" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L890" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M890" t="n">
-        <v>15000</v>
-      </c>
-      <c r="N890" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O890" t="inlineStr">
-        <is>
-          <t>Limache</t>
-        </is>
-      </c>
-      <c r="P890" t="n">
-        <v>833</v>
-      </c>
       <c r="Q890" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R890" t="inlineStr">
         <is>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,32 +64509,32 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>650</v>
+        <v>30</v>
       </c>
       <c r="K891" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L891" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M891" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>722</v>
+        <v>2200</v>
       </c>
       <c r="Q891" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R891" t="inlineStr">
         <is>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="K892" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="L892" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M892" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>556</v>
+        <v>639</v>
       </c>
       <c r="Q892" t="n">
         <v>18</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64653,7 +64653,7 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>1250</v>
+        <v>900</v>
       </c>
       <c r="K893" t="n">
         <v>5000</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="K894" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L894" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M894" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q894" t="n">
         <v>18</v>
@@ -64788,7 +64788,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -64800,13 +64800,13 @@
         <v>650</v>
       </c>
       <c r="K895" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L895" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M895" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>778</v>
+        <v>722</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -64865,36 +64865,36 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="K896" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L896" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M896" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>850</v>
+        <v>556</v>
       </c>
       <c r="Q896" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E897" t="n">
         <v>9</v>
@@ -64937,24 +64937,24 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>300</v>
+        <v>1250</v>
       </c>
       <c r="K897" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L897" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M897" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O897" t="inlineStr">
@@ -64963,10 +64963,10 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q897" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R897" t="inlineStr">
         <is>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -65009,20 +65009,20 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K898" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L898" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="M898" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q898" t="n">
         <v>18</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E899" t="n">
         <v>9</v>
@@ -65076,7 +65076,7 @@
       </c>
       <c r="H899" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I899" t="inlineStr">
@@ -65085,32 +65085,32 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="K899" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L899" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M899" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="Q899" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R899" t="inlineStr">
         <is>
@@ -65148,41 +65148,41 @@
       </c>
       <c r="H900" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K900" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L900" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="M900" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="Q900" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -65229,20 +65229,20 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K901" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L901" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M901" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>1333</v>
+        <v>833</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -65297,36 +65297,36 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="K902" t="n">
-        <v>2800</v>
+        <v>11000</v>
       </c>
       <c r="L902" t="n">
-        <v>2800</v>
+        <v>11000</v>
       </c>
       <c r="M902" t="n">
-        <v>2800</v>
+        <v>11000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>140</v>
+        <v>611</v>
       </c>
       <c r="Q902" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E903" t="n">
         <v>9</v>
@@ -65373,20 +65373,20 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>1250</v>
+        <v>600</v>
       </c>
       <c r="K903" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L903" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M903" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O903" t="inlineStr">
@@ -65395,10 +65395,10 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>833</v>
+        <v>500</v>
       </c>
       <c r="Q903" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R903" t="inlineStr">
         <is>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -65436,7 +65436,7 @@
       </c>
       <c r="H904" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -65445,32 +65445,32 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>9300</v>
+        <v>500</v>
       </c>
       <c r="K904" t="n">
-        <v>6500</v>
+        <v>9000</v>
       </c>
       <c r="L904" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M904" t="n">
-        <v>6812</v>
+        <v>9000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>681</v>
+        <v>500</v>
       </c>
       <c r="Q904" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R904" t="inlineStr">
         <is>
@@ -65513,24 +65513,24 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K905" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L905" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M905" t="n">
-        <v>19091</v>
+        <v>24000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>1061</v>
+        <v>1333</v>
       </c>
       <c r="Q905" t="n">
         <v>18</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E906" t="n">
         <v>9</v>
@@ -65589,20 +65589,20 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K906" t="n">
-        <v>20000</v>
+        <v>2800</v>
       </c>
       <c r="L906" t="n">
-        <v>21000</v>
+        <v>2800</v>
       </c>
       <c r="M906" t="n">
-        <v>20500</v>
+        <v>2800</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O906" t="inlineStr">
@@ -65611,10 +65611,10 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>1139</v>
+        <v>140</v>
       </c>
       <c r="Q906" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R906" t="inlineStr">
         <is>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E907" t="n">
         <v>9</v>
@@ -65661,20 +65661,20 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>600</v>
+        <v>1250</v>
       </c>
       <c r="K907" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L907" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="M907" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O907" t="inlineStr">
@@ -65683,10 +65683,10 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>400</v>
+        <v>833</v>
       </c>
       <c r="Q907" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E908" t="n">
         <v>9</v>
@@ -65733,20 +65733,20 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>400</v>
+        <v>9300</v>
       </c>
       <c r="K908" t="n">
-        <v>14000</v>
+        <v>6500</v>
       </c>
       <c r="L908" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="M908" t="n">
-        <v>14500</v>
+        <v>6812</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
@@ -65755,10 +65755,10 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>806</v>
+        <v>681</v>
       </c>
       <c r="Q908" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -65801,24 +65801,24 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>380</v>
+        <v>550</v>
       </c>
       <c r="K909" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L909" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M909" t="n">
-        <v>24000</v>
+        <v>19091</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>1333</v>
+        <v>1061</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E910" t="n">
         <v>9</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>1350</v>
+        <v>400</v>
       </c>
       <c r="K910" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L910" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M910" t="n">
-        <v>15519</v>
+        <v>20500</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>862</v>
+        <v>1139</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E911" t="n">
         <v>9</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>950</v>
+        <v>600</v>
       </c>
       <c r="K911" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L911" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M911" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q911" t="n">
         <v>10</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44187</v>
+        <v>44425</v>
       </c>
       <c r="E912" t="n">
         <v>9</v>
@@ -66021,29 +66021,29 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K912" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L912" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M912" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>1111</v>
+        <v>806</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E913" t="n">
         <v>9</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="K913" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="L913" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="M913" t="n">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>944</v>
+        <v>1333</v>
       </c>
       <c r="Q913" t="n">
         <v>18</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E914" t="n">
         <v>9</v>
@@ -66165,20 +66165,20 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>500</v>
+        <v>1350</v>
       </c>
       <c r="K914" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L914" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M914" t="n">
-        <v>17000</v>
+        <v>15519</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>944</v>
+        <v>862</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -66233,24 +66233,24 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="K915" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="L915" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M915" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O915" t="inlineStr">
@@ -66259,10 +66259,10 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>833</v>
+        <v>600</v>
       </c>
       <c r="Q915" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R915" t="inlineStr">
         <is>
@@ -66305,33 +66305,33 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="K916" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L916" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="M916" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>833</v>
+        <v>1111</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66372,7 +66372,7 @@
       </c>
       <c r="H917" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -66381,32 +66381,32 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K917" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L917" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M917" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="Q917" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R917" t="inlineStr">
         <is>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E918" t="n">
         <v>9</v>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66453,20 +66453,20 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>3040</v>
+        <v>500</v>
       </c>
       <c r="K918" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L918" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="M918" t="n">
-        <v>7224</v>
+        <v>17000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O918" t="inlineStr">
@@ -66475,10 +66475,10 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="Q918" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R918" t="inlineStr">
         <is>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E919" t="n">
         <v>9</v>
@@ -66521,24 +66521,24 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K919" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L919" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="M919" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
@@ -66547,10 +66547,10 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="Q919" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E920" t="n">
         <v>9</v>
@@ -66593,24 +66593,24 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="K920" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L920" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M920" t="n">
-        <v>15059</v>
+        <v>15000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E921" t="n">
         <v>9</v>
@@ -66660,7 +66660,7 @@
       </c>
       <c r="H921" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -66669,32 +66669,32 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K921" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="L921" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M921" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="Q921" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R921" t="inlineStr">
         <is>
@@ -66732,29 +66732,29 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>100</v>
+        <v>3040</v>
       </c>
       <c r="K922" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L922" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M922" t="n">
-        <v>18000</v>
+        <v>7224</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
@@ -66763,10 +66763,10 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>900</v>
+        <v>722</v>
       </c>
       <c r="Q922" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E923" t="n">
         <v>9</v>
@@ -66804,41 +66804,41 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="K923" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L923" t="n">
-        <v>18000</v>
+        <v>26000</v>
       </c>
       <c r="M923" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>1800</v>
+        <v>1250</v>
       </c>
       <c r="Q923" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E924" t="n">
         <v>9</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>400</v>
+        <v>1700</v>
       </c>
       <c r="K924" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L924" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M924" t="n">
-        <v>17000</v>
+        <v>15059</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>944</v>
+        <v>837</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E925" t="n">
         <v>9</v>
@@ -66957,32 +66957,32 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="K925" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="L925" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="M925" t="n">
-        <v>7000</v>
+        <v>23000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>389</v>
+        <v>1150</v>
       </c>
       <c r="Q925" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E926" t="n">
         <v>9</v>
@@ -67025,36 +67025,36 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="K926" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L926" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M926" t="n">
-        <v>14429</v>
+        <v>18000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>802</v>
+        <v>900</v>
       </c>
       <c r="Q926" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67092,7 +67092,7 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>1400</v>
+        <v>40</v>
       </c>
       <c r="K927" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L927" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M927" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="Q927" t="n">
         <v>10</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K928" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L928" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="M928" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>278</v>
+        <v>944</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67241,24 +67241,24 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>220</v>
+        <v>2000</v>
       </c>
       <c r="K929" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L929" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M929" t="n">
-        <v>3455</v>
+        <v>7000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
@@ -67267,10 +67267,10 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>230</v>
+        <v>389</v>
       </c>
       <c r="Q929" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67308,25 +67308,25 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>90</v>
+        <v>1400</v>
       </c>
       <c r="K930" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L930" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M930" t="n">
-        <v>10000</v>
+        <v>14429</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>556</v>
+        <v>802</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,32 +67389,32 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K931" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L931" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M931" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q931" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R931" t="inlineStr">
         <is>
@@ -67452,25 +67452,25 @@
       </c>
       <c r="H932" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K932" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L932" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M932" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>444</v>
+        <v>278</v>
       </c>
       <c r="Q932" t="n">
         <v>18</v>
@@ -67524,41 +67524,41 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>700</v>
+        <v>220</v>
       </c>
       <c r="K933" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L933" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M933" t="n">
-        <v>7000</v>
+        <v>3455</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>389</v>
+        <v>230</v>
       </c>
       <c r="Q933" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67601,24 +67601,24 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="K934" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L934" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M934" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
@@ -67627,10 +67627,10 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="Q934" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E935" t="n">
         <v>9</v>
@@ -67668,7 +67668,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="K935" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L935" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M935" t="n">
-        <v>9467</v>
+        <v>12000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>526</v>
+        <v>667</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E936" t="n">
         <v>9</v>
@@ -67740,7 +67740,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>410</v>
+        <v>600</v>
       </c>
       <c r="K936" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L936" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M936" t="n">
-        <v>12512</v>
+        <v>8000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>695</v>
+        <v>444</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E937" t="n">
         <v>9</v>
@@ -67812,7 +67812,7 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>405</v>
+        <v>700</v>
       </c>
       <c r="K937" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L937" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M937" t="n">
-        <v>10617</v>
+        <v>7000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>590</v>
+        <v>389</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44250</v>
+        <v>44270</v>
       </c>
       <c r="E938" t="n">
         <v>9</v>
@@ -67884,41 +67884,41 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="K938" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L938" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M938" t="n">
-        <v>7538</v>
+        <v>6000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="Q938" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67961,20 +67961,20 @@
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>310</v>
+        <v>750</v>
       </c>
       <c r="K939" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L939" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M939" t="n">
-        <v>6000</v>
+        <v>9467</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>333</v>
+        <v>526</v>
       </c>
       <c r="Q939" t="n">
         <v>18</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E940" t="n">
         <v>9</v>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,32 +68037,32 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>40</v>
+        <v>410</v>
       </c>
       <c r="K940" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L940" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M940" t="n">
-        <v>22000</v>
+        <v>12512</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>2200</v>
+        <v>695</v>
       </c>
       <c r="Q940" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R940" t="inlineStr">
         <is>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E941" t="n">
         <v>9</v>
@@ -68105,24 +68105,24 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>450</v>
+        <v>405</v>
       </c>
       <c r="K941" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L941" t="n">
-        <v>26000</v>
+        <v>12000</v>
       </c>
       <c r="M941" t="n">
-        <v>25111</v>
+        <v>10617</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
@@ -68131,10 +68131,10 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>1256</v>
+        <v>590</v>
       </c>
       <c r="Q941" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E942" t="n">
         <v>9</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="K942" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L942" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M942" t="n">
-        <v>15545</v>
+        <v>7538</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68199,11 +68199,11 @@
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>864</v>
+        <v>419</v>
       </c>
       <c r="Q942" t="n">
         <v>18</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E943" t="n">
         <v>9</v>
@@ -68249,36 +68249,36 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>2200</v>
+        <v>310</v>
       </c>
       <c r="K943" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L943" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M943" t="n">
-        <v>7545</v>
+        <v>6000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>754</v>
+        <v>333</v>
       </c>
       <c r="Q943" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E944" t="n">
         <v>9</v>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,32 +68325,32 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>800</v>
+        <v>40</v>
       </c>
       <c r="K944" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L944" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="M944" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>889</v>
+        <v>2200</v>
       </c>
       <c r="Q944" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E945" t="n">
         <v>9</v>
@@ -68393,36 +68393,36 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K945" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="L945" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="M945" t="n">
-        <v>14000</v>
+        <v>25111</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>778</v>
+        <v>1256</v>
       </c>
       <c r="Q945" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R945" t="inlineStr">
         <is>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E946" t="n">
         <v>9</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K946" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L946" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M946" t="n">
-        <v>10200</v>
+        <v>15545</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>567</v>
+        <v>864</v>
       </c>
       <c r="Q946" t="n">
         <v>18</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E947" t="n">
         <v>9</v>
@@ -68532,7 +68532,7 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
@@ -68541,32 +68541,32 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="K947" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L947" t="n">
         <v>8000</v>
       </c>
       <c r="M947" t="n">
-        <v>8000</v>
+        <v>7545</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>533</v>
+        <v>754</v>
       </c>
       <c r="Q947" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R947" t="inlineStr">
         <is>
@@ -68604,41 +68604,41 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K948" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="L948" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M948" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>400</v>
+        <v>889</v>
       </c>
       <c r="Q948" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E949" t="n">
         <v>9</v>
@@ -68681,36 +68681,36 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K949" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="L949" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="M949" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>900</v>
+        <v>778</v>
       </c>
       <c r="Q949" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R949" t="inlineStr">
         <is>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E950" t="n">
         <v>9</v>
@@ -68748,25 +68748,25 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="K950" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L950" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M950" t="n">
-        <v>13500</v>
+        <v>10200</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>750</v>
+        <v>567</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E951" t="n">
         <v>9</v>
@@ -68820,7 +68820,7 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -68829,32 +68829,32 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>65</v>
+        <v>1500</v>
       </c>
       <c r="K951" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L951" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M951" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>1000</v>
+        <v>533</v>
       </c>
       <c r="Q951" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E952" t="n">
         <v>9</v>
@@ -68892,41 +68892,41 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="K952" t="n">
-        <v>23000</v>
+        <v>6000</v>
       </c>
       <c r="L952" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="M952" t="n">
-        <v>23591</v>
+        <v>6000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>1311</v>
+        <v>400</v>
       </c>
       <c r="Q952" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E953" t="n">
         <v>9</v>
@@ -68964,7 +68964,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -68973,32 +68973,32 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>1550</v>
+        <v>300</v>
       </c>
       <c r="K953" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="L953" t="n">
-        <v>18500</v>
+        <v>9000</v>
       </c>
       <c r="M953" t="n">
-        <v>18242</v>
+        <v>9000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>1013</v>
+        <v>900</v>
       </c>
       <c r="Q953" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E954" t="n">
         <v>9</v>
@@ -69036,16 +69036,16 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>2850</v>
+        <v>40</v>
       </c>
       <c r="K954" t="n">
         <v>13000</v>
@@ -69054,23 +69054,23 @@
         <v>14000</v>
       </c>
       <c r="M954" t="n">
-        <v>13579</v>
+        <v>13500</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>905</v>
+        <v>750</v>
       </c>
       <c r="Q954" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R954" t="inlineStr">
         <is>
@@ -69108,41 +69108,41 @@
       </c>
       <c r="H955" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="K955" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L955" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M955" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q955" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R955" t="inlineStr">
         <is>
@@ -69180,41 +69180,41 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>750</v>
+        <v>1100</v>
       </c>
       <c r="K956" t="n">
-        <v>10000</v>
+        <v>23000</v>
       </c>
       <c r="L956" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M956" t="n">
-        <v>10000</v>
+        <v>23591</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>667</v>
+        <v>1311</v>
       </c>
       <c r="Q956" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E957" t="n">
         <v>9</v>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>1200</v>
+        <v>1550</v>
       </c>
       <c r="K957" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L957" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
       <c r="M957" t="n">
-        <v>12000</v>
+        <v>18242</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>667</v>
+        <v>1013</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E958" t="n">
         <v>9</v>
@@ -69324,7 +69324,7 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
@@ -69333,32 +69333,32 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>400</v>
+        <v>2850</v>
       </c>
       <c r="K958" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L958" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M958" t="n">
-        <v>17000</v>
+        <v>13579</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>944</v>
+        <v>905</v>
       </c>
       <c r="Q958" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E959" t="n">
         <v>9</v>
@@ -69396,7 +69396,7 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="K959" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L959" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M959" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E960" t="n">
         <v>9</v>
@@ -69473,36 +69473,36 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="K960" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L960" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M960" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="Q960" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R960" t="inlineStr">
         <is>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K961" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L961" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M961" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69567,11 +69567,11 @@
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69612,25 +69612,25 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K962" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L962" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M962" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="Q962" t="n">
         <v>18</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E963" t="n">
         <v>9</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K963" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L963" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="M963" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>1333</v>
+        <v>556</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E964" t="n">
         <v>9</v>
@@ -69756,7 +69756,7 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>1250</v>
+        <v>300</v>
       </c>
       <c r="K964" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L964" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M964" t="n">
-        <v>13520</v>
+        <v>8000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>751</v>
+        <v>444</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E965" t="n">
         <v>9</v>
@@ -69828,7 +69828,7 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
@@ -69837,32 +69837,32 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>3500</v>
+        <v>500</v>
       </c>
       <c r="K965" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L965" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M965" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="Q965" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44312</v>
+        <v>44286</v>
       </c>
       <c r="E966" t="n">
         <v>9</v>
@@ -69900,25 +69900,25 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K966" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L966" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M966" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E967" t="n">
         <v>9</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>3000</v>
+        <v>350</v>
       </c>
       <c r="K967" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="L967" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M967" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -69999,11 +69999,11 @@
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>556</v>
+        <v>1333</v>
       </c>
       <c r="Q967" t="n">
         <v>18</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E968" t="n">
         <v>9</v>
@@ -70053,16 +70053,16 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="K968" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L968" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M968" t="n">
-        <v>15000</v>
+        <v>13520</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>833</v>
+        <v>751</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E969" t="n">
         <v>9</v>
@@ -70125,20 +70125,20 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>700</v>
+        <v>3500</v>
       </c>
       <c r="K969" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L969" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="M969" t="n">
-        <v>10571</v>
+        <v>6000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
@@ -70147,10 +70147,10 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="Q969" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70193,36 +70193,36 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>2400</v>
+        <v>300</v>
       </c>
       <c r="K970" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L970" t="n">
-        <v>6000</v>
+        <v>17000</v>
       </c>
       <c r="M970" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>550</v>
+        <v>944</v>
       </c>
       <c r="Q970" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="K971" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L971" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M971" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K972" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L972" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M972" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K973" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L973" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M973" t="n">
-        <v>5000</v>
+        <v>10571</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>278</v>
+        <v>587</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70481,36 +70481,36 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>50</v>
+        <v>2400</v>
       </c>
       <c r="K974" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L974" t="n">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="M974" t="n">
-        <v>3000</v>
+        <v>5500</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>200</v>
+        <v>550</v>
       </c>
       <c r="Q974" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70548,25 +70548,25 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>1700</v>
+        <v>500</v>
       </c>
       <c r="K975" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L975" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M975" t="n">
-        <v>9471</v>
+        <v>8000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>526</v>
+        <v>444</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E976" t="n">
         <v>9</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K976" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L976" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M976" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E977" t="n">
         <v>9</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="K977" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L977" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M977" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>667</v>
+        <v>278</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E978" t="n">
         <v>9</v>
@@ -70769,36 +70769,36 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>3300</v>
+        <v>50</v>
       </c>
       <c r="K978" t="n">
-        <v>11000</v>
+        <v>3000</v>
       </c>
       <c r="L978" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="M978" t="n">
-        <v>11455</v>
+        <v>3000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>636</v>
+        <v>200</v>
       </c>
       <c r="Q978" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E979" t="n">
         <v>9</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,32 +70845,32 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="K979" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L979" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M979" t="n">
-        <v>5000</v>
+        <v>9471</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="Q979" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R979" t="inlineStr">
         <is>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E980" t="n">
         <v>9</v>
@@ -70908,29 +70908,29 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="K980" t="n">
-        <v>2200</v>
+        <v>17000</v>
       </c>
       <c r="L980" t="n">
-        <v>2200</v>
+        <v>17000</v>
       </c>
       <c r="M980" t="n">
-        <v>2200</v>
+        <v>17000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
@@ -70939,10 +70939,10 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>2200</v>
+        <v>944</v>
       </c>
       <c r="Q980" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E981" t="n">
         <v>9</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K981" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L981" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M981" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E982" t="n">
         <v>9</v>
@@ -71057,24 +71057,24 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>385</v>
+        <v>3300</v>
       </c>
       <c r="K982" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="L982" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M982" t="n">
-        <v>22078</v>
+        <v>11455</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O982" t="inlineStr">
@@ -71083,10 +71083,10 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>1104</v>
+        <v>636</v>
       </c>
       <c r="Q982" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R982" t="inlineStr">
         <is>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E983" t="n">
         <v>9</v>
@@ -71133,20 +71133,20 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>480</v>
+        <v>2500</v>
       </c>
       <c r="K983" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L983" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M983" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O983" t="inlineStr">
@@ -71155,10 +71155,10 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>722</v>
+        <v>500</v>
       </c>
       <c r="Q983" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R983" t="inlineStr">
         <is>
@@ -71196,43 +71196,331 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J984" t="n">
+        <v>25</v>
+      </c>
+      <c r="K984" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L984" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M984" t="n">
+        <v>2200</v>
+      </c>
+      <c r="N984" t="inlineStr">
+        <is>
+          <t>$/kilo</t>
+        </is>
+      </c>
+      <c r="O984" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P984" t="n">
+        <v>2200</v>
+      </c>
+      <c r="Q984" t="n">
+        <v>1</v>
+      </c>
+      <c r="R984" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>10</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D985" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E985" t="n">
+        <v>9</v>
+      </c>
+      <c r="F985" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G985" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H985" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I985" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J985" t="n">
+        <v>250</v>
+      </c>
+      <c r="K985" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L985" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M985" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N985" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O985" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P985" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q985" t="n">
+        <v>18</v>
+      </c>
+      <c r="R985" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>10</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D986" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E986" t="n">
+        <v>9</v>
+      </c>
+      <c r="F986" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G986" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H986" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I986" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J986" t="n">
+        <v>385</v>
+      </c>
+      <c r="K986" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L986" t="n">
+        <v>24000</v>
+      </c>
+      <c r="M986" t="n">
+        <v>22078</v>
+      </c>
+      <c r="N986" t="inlineStr">
+        <is>
+          <t>$/bandeja 20 kilos</t>
+        </is>
+      </c>
+      <c r="O986" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P986" t="n">
+        <v>1104</v>
+      </c>
+      <c r="Q986" t="n">
+        <v>20</v>
+      </c>
+      <c r="R986" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>10</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D987" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E987" t="n">
+        <v>9</v>
+      </c>
+      <c r="F987" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G987" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H987" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I987" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J987" t="n">
+        <v>480</v>
+      </c>
+      <c r="K987" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L987" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M987" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N987" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O987" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P987" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q987" t="n">
+        <v>18</v>
+      </c>
+      <c r="R987" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>10</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D988" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E988" t="n">
+        <v>9</v>
+      </c>
+      <c r="F988" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G988" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H988" t="inlineStr">
+        <is>
           <t>Sin especificar</t>
         </is>
       </c>
-      <c r="I984" t="inlineStr">
+      <c r="I988" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="J984" t="n">
+      <c r="J988" t="n">
         <v>200</v>
       </c>
-      <c r="K984" t="n">
+      <c r="K988" t="n">
         <v>18000</v>
       </c>
-      <c r="L984" t="n">
+      <c r="L988" t="n">
         <v>18000</v>
       </c>
-      <c r="M984" t="n">
+      <c r="M988" t="n">
         <v>18000</v>
       </c>
-      <c r="N984" t="inlineStr">
+      <c r="N988" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O984" t="inlineStr">
+      <c r="O988" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P984" t="n">
+      <c r="P988" t="n">
         <v>1200</v>
       </c>
-      <c r="Q984" t="n">
+      <c r="Q988" t="n">
         <v>15</v>
       </c>
-      <c r="R984" t="inlineStr">
+      <c r="R988" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1009"/>
+  <dimension ref="A1:R1014"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E847" t="n">
         <v>9</v>
@@ -61337,36 +61337,36 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K847" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="L847" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="M847" t="n">
-        <v>13000</v>
+        <v>23455</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>722</v>
+        <v>1173</v>
       </c>
       <c r="Q847" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R847" t="inlineStr">
         <is>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E848" t="n">
         <v>9</v>
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="K848" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="L848" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="M848" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>1000</v>
+        <v>1389</v>
       </c>
       <c r="Q848" t="n">
         <v>18</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44384</v>
+        <v>44504</v>
       </c>
       <c r="E849" t="n">
         <v>9</v>
@@ -61485,20 +61485,20 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="K849" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L849" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M849" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O849" t="inlineStr">
@@ -61507,10 +61507,10 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>500</v>
+        <v>1111</v>
       </c>
       <c r="Q849" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R849" t="inlineStr">
         <is>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E850" t="n">
         <v>9</v>
@@ -61557,32 +61557,32 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>1200</v>
+        <v>1650</v>
       </c>
       <c r="K850" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L850" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M850" t="n">
-        <v>9542</v>
+        <v>8000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O850" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P850" t="n">
-        <v>530</v>
+        <v>800</v>
       </c>
       <c r="Q850" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R850" t="inlineStr">
         <is>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44246</v>
+        <v>44504</v>
       </c>
       <c r="E851" t="n">
         <v>9</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>530</v>
+        <v>1050</v>
       </c>
       <c r="K851" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L851" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M851" t="n">
-        <v>12472</v>
+        <v>17762</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,11 +61647,11 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>693</v>
+        <v>987</v>
       </c>
       <c r="Q851" t="n">
         <v>18</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E852" t="n">
         <v>9</v>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K852" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L852" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M852" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61719,11 +61719,11 @@
       </c>
       <c r="O852" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P852" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q852" t="n">
         <v>18</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E853" t="n">
         <v>9</v>
@@ -61769,24 +61769,24 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>850</v>
+        <v>200</v>
       </c>
       <c r="K853" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="L853" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="M853" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O853" t="inlineStr">
@@ -61795,10 +61795,10 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>1150</v>
+        <v>1000</v>
       </c>
       <c r="Q853" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R853" t="inlineStr">
         <is>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E854" t="n">
         <v>9</v>
@@ -61845,20 +61845,20 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>1650</v>
+        <v>700</v>
       </c>
       <c r="K854" t="n">
-        <v>18000</v>
+        <v>5000</v>
       </c>
       <c r="L854" t="n">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="M854" t="n">
-        <v>18515</v>
+        <v>5000</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O854" t="inlineStr">
@@ -61867,10 +61867,10 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>1029</v>
+        <v>500</v>
       </c>
       <c r="Q854" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R854" t="inlineStr">
         <is>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E855" t="n">
         <v>9</v>
@@ -61917,32 +61917,32 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="K855" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L855" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M855" t="n">
-        <v>7000</v>
+        <v>9542</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>700</v>
+        <v>530</v>
       </c>
       <c r="Q855" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R855" t="inlineStr">
         <is>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E856" t="n">
         <v>9</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>400</v>
+        <v>530</v>
       </c>
       <c r="K856" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L856" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="M856" t="n">
-        <v>20500</v>
+        <v>12472</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>1139</v>
+        <v>693</v>
       </c>
       <c r="Q856" t="n">
         <v>18</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44425</v>
+        <v>44246</v>
       </c>
       <c r="E857" t="n">
         <v>9</v>
@@ -62057,36 +62057,36 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="K857" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L857" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M857" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="Q857" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R857" t="inlineStr">
         <is>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E858" t="n">
         <v>9</v>
@@ -62129,24 +62129,24 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="K858" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="L858" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="M858" t="n">
-        <v>14500</v>
+        <v>23000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O858" t="inlineStr">
@@ -62155,10 +62155,10 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>806</v>
+        <v>1150</v>
       </c>
       <c r="Q858" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R858" t="inlineStr">
         <is>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>470</v>
+        <v>1650</v>
       </c>
       <c r="K859" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L859" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M859" t="n">
-        <v>17532</v>
+        <v>18515</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>974</v>
+        <v>1029</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -62273,24 +62273,24 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>200</v>
+        <v>3800</v>
       </c>
       <c r="K860" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L860" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M860" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
@@ -62299,10 +62299,10 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>778</v>
+        <v>700</v>
       </c>
       <c r="Q860" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -62349,20 +62349,20 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K861" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L861" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="M861" t="n">
-        <v>16000</v>
+        <v>20500</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O861" t="inlineStr">
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>889</v>
+        <v>1139</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -62421,32 +62421,32 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K862" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L862" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M862" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>722</v>
+        <v>400</v>
       </c>
       <c r="Q862" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R862" t="inlineStr">
         <is>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -62493,20 +62493,20 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K863" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L863" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M863" t="n">
-        <v>11571</v>
+        <v>14500</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>643</v>
+        <v>806</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62561,36 +62561,36 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>2500</v>
+        <v>470</v>
       </c>
       <c r="K864" t="n">
-        <v>5500</v>
+        <v>17000</v>
       </c>
       <c r="L864" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="M864" t="n">
-        <v>5500</v>
+        <v>17532</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>550</v>
+        <v>974</v>
       </c>
       <c r="Q864" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R864" t="inlineStr">
         <is>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -62640,13 +62640,13 @@
         <v>200</v>
       </c>
       <c r="K865" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L865" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M865" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>944</v>
+        <v>778</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -62705,24 +62705,24 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="K866" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L866" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M866" t="n">
-        <v>14111</v>
+        <v>16000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O866" t="inlineStr">
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>784</v>
+        <v>889</v>
       </c>
       <c r="Q866" t="n">
         <v>18</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -62781,32 +62781,32 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="K867" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L867" t="n">
-        <v>6500</v>
+        <v>13000</v>
       </c>
       <c r="M867" t="n">
-        <v>6227</v>
+        <v>13000</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>623</v>
+        <v>722</v>
       </c>
       <c r="Q867" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R867" t="inlineStr">
         <is>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E868" t="n">
         <v>9</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K868" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L868" t="n">
         <v>12000</v>
       </c>
       <c r="M868" t="n">
-        <v>12000</v>
+        <v>11571</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44449</v>
+        <v>44343</v>
       </c>
       <c r="E869" t="n">
         <v>9</v>
@@ -62921,36 +62921,36 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J869" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K869" t="n">
+        <v>5500</v>
+      </c>
+      <c r="L869" t="n">
+        <v>5500</v>
+      </c>
+      <c r="M869" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N869" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O869" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P869" t="n">
         <v>550</v>
       </c>
-      <c r="K869" t="n">
-        <v>30000</v>
-      </c>
-      <c r="L869" t="n">
-        <v>33000</v>
-      </c>
-      <c r="M869" t="n">
-        <v>31364</v>
-      </c>
-      <c r="N869" t="inlineStr">
-        <is>
-          <t>$/bandeja 20 kilos</t>
-        </is>
-      </c>
-      <c r="O869" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P869" t="n">
-        <v>1568</v>
-      </c>
       <c r="Q869" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="K870" t="n">
-        <v>24000</v>
+        <v>17000</v>
       </c>
       <c r="L870" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="M870" t="n">
-        <v>24579</v>
+        <v>17000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>1366</v>
+        <v>944</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -63069,20 +63069,20 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>1150</v>
+        <v>900</v>
       </c>
       <c r="K871" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L871" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M871" t="n">
-        <v>10478</v>
+        <v>14111</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O871" t="inlineStr">
@@ -63091,10 +63091,10 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>1048</v>
+        <v>784</v>
       </c>
       <c r="Q871" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R871" t="inlineStr">
         <is>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E872" t="n">
         <v>9</v>
@@ -63137,24 +63137,24 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>680</v>
+        <v>1100</v>
       </c>
       <c r="K872" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="L872" t="n">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="M872" t="n">
-        <v>22000</v>
+        <v>6227</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O872" t="inlineStr">
@@ -63163,10 +63163,10 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>1222</v>
+        <v>623</v>
       </c>
       <c r="Q872" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R872" t="inlineStr">
         <is>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44168</v>
+        <v>44370</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -63209,20 +63209,20 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>1450</v>
+        <v>200</v>
       </c>
       <c r="K873" t="n">
         <v>12000</v>
       </c>
       <c r="L873" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M873" t="n">
-        <v>12897</v>
+        <v>12000</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="Q873" t="n">
         <v>18</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -63281,24 +63281,24 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>1150</v>
+        <v>550</v>
       </c>
       <c r="K874" t="n">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="L874" t="n">
-        <v>4500</v>
+        <v>33000</v>
       </c>
       <c r="M874" t="n">
-        <v>4283</v>
+        <v>31364</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
@@ -63307,10 +63307,10 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>428</v>
+        <v>1568</v>
       </c>
       <c r="Q874" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>150</v>
+        <v>950</v>
       </c>
       <c r="K875" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="L875" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="M875" t="n">
-        <v>10000</v>
+        <v>24579</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63375,11 +63375,11 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>556</v>
+        <v>1366</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -63420,7 +63420,7 @@
       </c>
       <c r="H876" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
@@ -63429,32 +63429,32 @@
         </is>
       </c>
       <c r="J876" t="n">
-        <v>850</v>
+        <v>1150</v>
       </c>
       <c r="K876" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L876" t="n">
         <v>11000</v>
       </c>
       <c r="M876" t="n">
-        <v>11000</v>
+        <v>10478</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>611</v>
+        <v>1048</v>
       </c>
       <c r="Q876" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R876" t="inlineStr">
         <is>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -63492,41 +63492,41 @@
       </c>
       <c r="H877" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>1900</v>
+        <v>680</v>
       </c>
       <c r="K877" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="L877" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M877" t="n">
-        <v>7658</v>
+        <v>22000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>511</v>
+        <v>1222</v>
       </c>
       <c r="Q877" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R877" t="inlineStr">
         <is>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -63564,7 +63564,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
@@ -63573,32 +63573,32 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>30</v>
+        <v>1450</v>
       </c>
       <c r="K878" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L878" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M878" t="n">
-        <v>18000</v>
+        <v>12897</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>1800</v>
+        <v>716</v>
       </c>
       <c r="Q878" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R878" t="inlineStr">
         <is>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -63636,7 +63636,7 @@
       </c>
       <c r="H879" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -63645,16 +63645,16 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>50</v>
+        <v>1150</v>
       </c>
       <c r="K879" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L879" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M879" t="n">
-        <v>12000</v>
+        <v>4283</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>1200</v>
+        <v>428</v>
       </c>
       <c r="Q879" t="n">
         <v>10</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="K880" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L880" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M880" t="n">
-        <v>15400</v>
+        <v>10000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>856</v>
+        <v>556</v>
       </c>
       <c r="Q880" t="n">
         <v>18</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -63780,7 +63780,7 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
@@ -63789,16 +63789,16 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>3300</v>
+        <v>850</v>
       </c>
       <c r="K881" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="L881" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="M881" t="n">
-        <v>13182</v>
+        <v>11000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63807,11 +63807,11 @@
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>732</v>
+        <v>611</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E882" t="n">
         <v>9</v>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,32 +63861,32 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="K882" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L882" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M882" t="n">
-        <v>11000</v>
+        <v>7658</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>611</v>
+        <v>511</v>
       </c>
       <c r="Q882" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>3300</v>
+        <v>30</v>
       </c>
       <c r="K883" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L883" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M883" t="n">
-        <v>5455</v>
+        <v>18000</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>546</v>
+        <v>1800</v>
       </c>
       <c r="Q883" t="n">
         <v>10</v>
@@ -63996,7 +63996,7 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -64005,32 +64005,32 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K884" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L884" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="M884" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>611</v>
+        <v>1200</v>
       </c>
       <c r="Q884" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R884" t="inlineStr">
         <is>
@@ -64073,33 +64073,33 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K885" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L885" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M885" t="n">
-        <v>14000</v>
+        <v>15400</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>778</v>
+        <v>856</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64140,7 +64140,7 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>1500</v>
+        <v>3300</v>
       </c>
       <c r="K886" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="L886" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M886" t="n">
-        <v>11000</v>
+        <v>13182</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64167,11 +64167,11 @@
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>611</v>
+        <v>732</v>
       </c>
       <c r="Q886" t="n">
         <v>18</v>
@@ -64212,7 +64212,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -64221,32 +64221,32 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K887" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L887" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M887" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="Q887" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R887" t="inlineStr">
         <is>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E888" t="n">
         <v>9</v>
@@ -64289,24 +64289,24 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>500</v>
+        <v>3300</v>
       </c>
       <c r="K888" t="n">
-        <v>24000</v>
+        <v>5000</v>
       </c>
       <c r="L888" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="M888" t="n">
-        <v>24000</v>
+        <v>5455</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O888" t="inlineStr">
@@ -64315,10 +64315,10 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>1333</v>
+        <v>546</v>
       </c>
       <c r="Q888" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R888" t="inlineStr">
         <is>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E889" t="n">
         <v>9</v>
@@ -64361,36 +64361,36 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="K889" t="n">
-        <v>2800</v>
+        <v>11000</v>
       </c>
       <c r="L889" t="n">
-        <v>2800</v>
+        <v>11000</v>
       </c>
       <c r="M889" t="n">
-        <v>2800</v>
+        <v>11000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>140</v>
+        <v>611</v>
       </c>
       <c r="Q889" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R889" t="inlineStr">
         <is>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E890" t="n">
         <v>9</v>
@@ -64437,20 +64437,20 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="K890" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L890" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M890" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O890" t="inlineStr">
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E891" t="n">
         <v>9</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64509,32 +64509,32 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>9300</v>
+        <v>1500</v>
       </c>
       <c r="K891" t="n">
-        <v>6500</v>
+        <v>11000</v>
       </c>
       <c r="L891" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="M891" t="n">
-        <v>6812</v>
+        <v>11000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>681</v>
+        <v>611</v>
       </c>
       <c r="Q891" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R891" t="inlineStr">
         <is>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E892" t="n">
         <v>9</v>
@@ -64572,7 +64572,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
@@ -64581,32 +64581,32 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>550</v>
+        <v>4000</v>
       </c>
       <c r="K892" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L892" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M892" t="n">
-        <v>19091</v>
+        <v>8000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>1061</v>
+        <v>533</v>
       </c>
       <c r="Q892" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K893" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="L893" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M893" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>667</v>
+        <v>1333</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -64721,36 +64721,36 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="K894" t="n">
-        <v>17000</v>
+        <v>2800</v>
       </c>
       <c r="L894" t="n">
-        <v>17000</v>
+        <v>2800</v>
       </c>
       <c r="M894" t="n">
-        <v>17000</v>
+        <v>2800</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P894" t="n">
-        <v>944</v>
+        <v>140</v>
       </c>
       <c r="Q894" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E895" t="n">
         <v>9</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>200</v>
+        <v>1250</v>
       </c>
       <c r="K895" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L895" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M895" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -64869,32 +64869,32 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>300</v>
+        <v>9300</v>
       </c>
       <c r="K896" t="n">
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="L896" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M896" t="n">
-        <v>8000</v>
+        <v>6812</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>444</v>
+        <v>681</v>
       </c>
       <c r="Q896" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E897" t="n">
         <v>9</v>
@@ -64932,7 +64932,7 @@
       </c>
       <c r="H897" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -64941,29 +64941,29 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="K897" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L897" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="M897" t="n">
-        <v>14000</v>
+        <v>19091</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>778</v>
+        <v>1061</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -65004,16 +65004,16 @@
       </c>
       <c r="H898" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="K898" t="n">
         <v>12000</v>
@@ -65031,7 +65031,7 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P898" t="n">
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E899" t="n">
         <v>9</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="K899" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L899" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M899" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65103,11 +65103,11 @@
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>1111</v>
+        <v>944</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E900" t="n">
         <v>9</v>
@@ -65153,36 +65153,36 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K900" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="L900" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M900" t="n">
-        <v>21500</v>
+        <v>10000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>1075</v>
+        <v>556</v>
       </c>
       <c r="Q900" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K901" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L901" t="n">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="M901" t="n">
-        <v>18417</v>
+        <v>8000</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>1023</v>
+        <v>444</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E902" t="n">
         <v>9</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65301,32 +65301,32 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>3300</v>
+        <v>500</v>
       </c>
       <c r="K902" t="n">
-        <v>7500</v>
+        <v>14000</v>
       </c>
       <c r="L902" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M902" t="n">
-        <v>7727</v>
+        <v>14000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="Q902" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R902" t="inlineStr">
         <is>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E903" t="n">
         <v>9</v>
@@ -65364,7 +65364,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K903" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L903" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M903" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -65445,7 +65445,7 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K904" t="n">
         <v>20000</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E905" t="n">
         <v>9</v>
@@ -65513,24 +65513,24 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J905" t="n">
         <v>400</v>
       </c>
       <c r="K905" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="L905" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="M905" t="n">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
@@ -65539,10 +65539,10 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>833</v>
+        <v>1075</v>
       </c>
       <c r="Q905" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E906" t="n">
         <v>9</v>
@@ -65589,20 +65589,20 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K906" t="n">
-        <v>5500</v>
+        <v>18000</v>
       </c>
       <c r="L906" t="n">
-        <v>5500</v>
+        <v>19000</v>
       </c>
       <c r="M906" t="n">
-        <v>5500</v>
+        <v>18417</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O906" t="inlineStr">
@@ -65611,10 +65611,10 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>550</v>
+        <v>1023</v>
       </c>
       <c r="Q906" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R906" t="inlineStr">
         <is>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E907" t="n">
         <v>9</v>
@@ -65661,20 +65661,20 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>700</v>
+        <v>3300</v>
       </c>
       <c r="K907" t="n">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="L907" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M907" t="n">
-        <v>17429</v>
+        <v>7727</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O907" t="inlineStr">
@@ -65683,10 +65683,10 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>968</v>
+        <v>773</v>
       </c>
       <c r="Q907" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E908" t="n">
         <v>9</v>
@@ -65729,24 +65729,24 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K908" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L908" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M908" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O908" t="inlineStr">
@@ -65755,10 +65755,10 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>700</v>
+        <v>944</v>
       </c>
       <c r="Q908" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R908" t="inlineStr">
         <is>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -65801,24 +65801,24 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K909" t="n">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="L909" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="M909" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>1250</v>
+        <v>1111</v>
       </c>
       <c r="Q909" t="n">
         <v>18</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E910" t="n">
         <v>9</v>
@@ -65873,11 +65873,11 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K910" t="n">
         <v>15000</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44181</v>
+        <v>44400</v>
       </c>
       <c r="E911" t="n">
         <v>9</v>
@@ -65945,36 +65945,36 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="K911" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="L911" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M911" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>778</v>
+        <v>550</v>
       </c>
       <c r="Q911" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E912" t="n">
         <v>9</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>530</v>
+        <v>700</v>
       </c>
       <c r="K912" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L912" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M912" t="n">
-        <v>12434</v>
+        <v>17429</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>691</v>
+        <v>968</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E913" t="n">
         <v>9</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,32 +66093,32 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="K913" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L913" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M913" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="Q913" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E914" t="n">
         <v>9</v>
@@ -66156,7 +66156,7 @@
       </c>
       <c r="H914" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -66165,32 +66165,32 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>1800</v>
+        <v>280</v>
       </c>
       <c r="K914" t="n">
-        <v>8500</v>
+        <v>22000</v>
       </c>
       <c r="L914" t="n">
-        <v>9000</v>
+        <v>23000</v>
       </c>
       <c r="M914" t="n">
-        <v>8653</v>
+        <v>22500</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>577</v>
+        <v>1250</v>
       </c>
       <c r="Q914" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R914" t="inlineStr">
         <is>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -66233,24 +66233,24 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K915" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="L915" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M915" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O915" t="inlineStr">
@@ -66259,10 +66259,10 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>1200</v>
+        <v>833</v>
       </c>
       <c r="Q915" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R915" t="inlineStr">
         <is>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E916" t="n">
         <v>9</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>1700</v>
+        <v>110</v>
       </c>
       <c r="K916" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L916" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M916" t="n">
-        <v>17941</v>
+        <v>14000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>997</v>
+        <v>778</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -66381,32 +66381,32 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>2500</v>
+        <v>530</v>
       </c>
       <c r="K917" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L917" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M917" t="n">
-        <v>7000</v>
+        <v>12434</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="Q917" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R917" t="inlineStr">
         <is>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E918" t="n">
         <v>9</v>
@@ -66444,25 +66444,25 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K918" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L918" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M918" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E919" t="n">
         <v>9</v>
@@ -66516,7 +66516,7 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
@@ -66525,32 +66525,32 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="K919" t="n">
+        <v>8500</v>
+      </c>
+      <c r="L919" t="n">
         <v>9000</v>
       </c>
-      <c r="L919" t="n">
-        <v>10000</v>
-      </c>
       <c r="M919" t="n">
-        <v>9600</v>
+        <v>8653</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>533</v>
+        <v>577</v>
       </c>
       <c r="Q919" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44328</v>
+        <v>44494</v>
       </c>
       <c r="E920" t="n">
         <v>9</v>
@@ -66593,36 +66593,36 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K920" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="L920" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M920" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>667</v>
+        <v>1200</v>
       </c>
       <c r="Q920" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44328</v>
+        <v>44494</v>
       </c>
       <c r="E921" t="n">
         <v>9</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>380</v>
+        <v>1700</v>
       </c>
       <c r="K921" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L921" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M921" t="n">
-        <v>12000</v>
+        <v>17941</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>667</v>
+        <v>997</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44301</v>
+        <v>44494</v>
       </c>
       <c r="E922" t="n">
         <v>9</v>
@@ -66737,36 +66737,36 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="K922" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L922" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M922" t="n">
-        <v>16500</v>
+        <v>7000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>917</v>
+        <v>700</v>
       </c>
       <c r="Q922" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E923" t="n">
         <v>9</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K923" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L923" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M923" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>750</v>
+        <v>833</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E924" t="n">
         <v>9</v>
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="K924" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L924" t="n">
         <v>10000</v>
       </c>
       <c r="M924" t="n">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E925" t="n">
         <v>9</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K925" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L925" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M925" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E926" t="n">
         <v>9</v>
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>2000</v>
+        <v>380</v>
       </c>
       <c r="K926" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L926" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M926" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q926" t="n">
         <v>18</v>
@@ -67097,36 +67097,36 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K927" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L927" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="M927" t="n">
-        <v>5000</v>
+        <v>16500</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>500</v>
+        <v>917</v>
       </c>
       <c r="Q927" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R927" t="inlineStr">
         <is>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K928" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L928" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M928" t="n">
-        <v>8000</v>
+        <v>13500</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>444</v>
+        <v>750</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67241,24 +67241,24 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>160</v>
+        <v>1400</v>
       </c>
       <c r="K929" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="L929" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M929" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O929" t="inlineStr">
@@ -67267,10 +67267,10 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>233</v>
+        <v>556</v>
       </c>
       <c r="Q929" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R929" t="inlineStr">
         <is>
@@ -67308,7 +67308,7 @@
       </c>
       <c r="H930" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I930" t="inlineStr">
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K930" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L930" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M930" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>389</v>
+        <v>722</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67380,7 +67380,7 @@
       </c>
       <c r="H931" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="K931" t="n">
         <v>10000</v>
       </c>
       <c r="L931" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M931" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E932" t="n">
         <v>9</v>
@@ -67457,36 +67457,36 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K932" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L932" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="M932" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>944</v>
+        <v>500</v>
       </c>
       <c r="Q932" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E933" t="n">
         <v>9</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K933" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L933" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M933" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67551,11 +67551,11 @@
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E934" t="n">
         <v>9</v>
@@ -67601,36 +67601,36 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K934" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L934" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M934" t="n">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>600</v>
+        <v>233</v>
       </c>
       <c r="Q934" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E935" t="n">
         <v>9</v>
@@ -67680,13 +67680,13 @@
         <v>500</v>
       </c>
       <c r="K935" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L935" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M935" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E936" t="n">
         <v>9</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="K936" t="n">
         <v>10000</v>
       </c>
       <c r="L936" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M936" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q936" t="n">
         <v>18</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E937" t="n">
         <v>9</v>
@@ -67812,41 +67812,41 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K937" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L937" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M937" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>1800</v>
+        <v>944</v>
       </c>
       <c r="Q937" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R937" t="inlineStr">
         <is>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E938" t="n">
         <v>9</v>
@@ -67889,20 +67889,20 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K938" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L938" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M938" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="Q938" t="n">
         <v>18</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E939" t="n">
         <v>9</v>
@@ -67965,32 +67965,32 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="K939" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="L939" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="M939" t="n">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>389</v>
+        <v>600</v>
       </c>
       <c r="Q939" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E940" t="n">
         <v>9</v>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="H940" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I940" t="inlineStr">
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="K940" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L940" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M940" t="n">
-        <v>14429</v>
+        <v>13000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>802</v>
+        <v>722</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E941" t="n">
         <v>9</v>
@@ -68100,41 +68100,41 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="K941" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L941" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M941" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q941" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68172,41 +68172,41 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="K942" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L942" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M942" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>278</v>
+        <v>1800</v>
       </c>
       <c r="Q942" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68249,36 +68249,36 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="K943" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L943" t="n">
-        <v>4000</v>
+        <v>17000</v>
       </c>
       <c r="M943" t="n">
-        <v>3455</v>
+        <v>17000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>230</v>
+        <v>944</v>
       </c>
       <c r="Q943" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68316,25 +68316,25 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="K944" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="L944" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M944" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>556</v>
+        <v>389</v>
       </c>
       <c r="Q944" t="n">
         <v>18</v>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K945" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L945" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M945" t="n">
-        <v>12000</v>
+        <v>14429</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>667</v>
+        <v>802</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,32 +68469,32 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="K946" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L946" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M946" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q946" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R946" t="inlineStr">
         <is>
@@ -68532,25 +68532,25 @@
       </c>
       <c r="H947" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="K947" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L947" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M947" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68604,25 +68604,25 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="K948" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="L948" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M948" t="n">
-        <v>6000</v>
+        <v>3455</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="Q948" t="n">
         <v>15</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E949" t="n">
         <v>9</v>
@@ -68676,25 +68676,25 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>650</v>
+        <v>90</v>
       </c>
       <c r="K949" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L949" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M949" t="n">
-        <v>18538</v>
+        <v>10000</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>1030</v>
+        <v>556</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E950" t="n">
         <v>9</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="K950" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L950" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M950" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E951" t="n">
         <v>9</v>
@@ -68820,25 +68820,25 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K951" t="n">
-        <v>17500</v>
+        <v>8000</v>
       </c>
       <c r="L951" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M951" t="n">
-        <v>17800</v>
+        <v>8000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>989</v>
+        <v>444</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E952" t="n">
         <v>9</v>
@@ -68892,7 +68892,7 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="K952" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="L952" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M952" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>889</v>
+        <v>389</v>
       </c>
       <c r="Q952" t="n">
         <v>18</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E953" t="n">
         <v>9</v>
@@ -68964,7 +68964,7 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -68973,7 +68973,7 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K953" t="n">
         <v>6000</v>
@@ -68986,19 +68986,19 @@
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q953" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E954" t="n">
         <v>9</v>
@@ -69036,7 +69036,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="K954" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L954" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M954" t="n">
-        <v>10000</v>
+        <v>18538</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>556</v>
+        <v>1030</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E955" t="n">
         <v>9</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>4000</v>
+        <v>650</v>
       </c>
       <c r="K955" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L955" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M955" t="n">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>639</v>
+        <v>944</v>
       </c>
       <c r="Q955" t="n">
         <v>18</v>
@@ -69180,41 +69180,41 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K956" t="n">
-        <v>8000</v>
+        <v>17500</v>
       </c>
       <c r="L956" t="n">
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="M956" t="n">
-        <v>8500</v>
+        <v>17800</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>567</v>
+        <v>989</v>
       </c>
       <c r="Q956" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R956" t="inlineStr">
         <is>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,29 +69261,29 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K957" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L957" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M957" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>472</v>
+        <v>889</v>
       </c>
       <c r="Q957" t="n">
         <v>18</v>
@@ -69324,41 +69324,41 @@
       </c>
       <c r="H958" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K958" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="L958" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M958" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q958" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69401,36 +69401,36 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K959" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L959" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M959" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>433</v>
+        <v>556</v>
       </c>
       <c r="Q959" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R959" t="inlineStr">
         <is>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E960" t="n">
         <v>9</v>
@@ -69468,25 +69468,25 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="K960" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="L960" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M960" t="n">
-        <v>16667</v>
+        <v>11500</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>926</v>
+        <v>639</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E961" t="n">
         <v>9</v>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,32 +69549,32 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K961" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L961" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M961" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="Q961" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E962" t="n">
         <v>9</v>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69621,32 +69621,32 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K962" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L962" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M962" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="Q962" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E963" t="n">
         <v>9</v>
@@ -69684,41 +69684,41 @@
       </c>
       <c r="H963" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K963" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L963" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M963" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q963" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R963" t="inlineStr">
         <is>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44383</v>
+        <v>44217</v>
       </c>
       <c r="E964" t="n">
         <v>9</v>
@@ -69756,41 +69756,41 @@
       </c>
       <c r="H964" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K964" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="L964" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="M964" t="n">
-        <v>22000</v>
+        <v>6500</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>1222</v>
+        <v>433</v>
       </c>
       <c r="Q964" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E965" t="n">
         <v>9</v>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K965" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L965" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M965" t="n">
-        <v>10000</v>
+        <v>16667</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>556</v>
+        <v>926</v>
       </c>
       <c r="Q965" t="n">
         <v>18</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E966" t="n">
         <v>9</v>
@@ -69909,20 +69909,20 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K966" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L966" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M966" t="n">
-        <v>4467</v>
+        <v>12000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
@@ -69931,10 +69931,10 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>447</v>
+        <v>667</v>
       </c>
       <c r="Q966" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E967" t="n">
         <v>9</v>
@@ -69981,32 +69981,32 @@
         </is>
       </c>
       <c r="J967" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K967" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L967" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M967" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N967" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O967" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P967" t="n">
         <v>500</v>
       </c>
-      <c r="K967" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L967" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M967" t="n">
-        <v>15000</v>
-      </c>
-      <c r="N967" t="inlineStr">
-        <is>
-          <t>$/caja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O967" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P967" t="n">
-        <v>833</v>
-      </c>
       <c r="Q967" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44244</v>
+        <v>44421</v>
       </c>
       <c r="E968" t="n">
         <v>9</v>
@@ -70044,29 +70044,29 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>1250</v>
+        <v>50</v>
       </c>
       <c r="K968" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L968" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M968" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
@@ -70075,10 +70075,10 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="Q968" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E969" t="n">
         <v>9</v>
@@ -70121,36 +70121,36 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="K969" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="L969" t="n">
-        <v>8500</v>
+        <v>22000</v>
       </c>
       <c r="M969" t="n">
-        <v>8237</v>
+        <v>22000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>549</v>
+        <v>1222</v>
       </c>
       <c r="Q969" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E970" t="n">
         <v>9</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K970" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L970" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M970" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E971" t="n">
         <v>9</v>
@@ -70265,36 +70265,36 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K971" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L971" t="n">
         <v>5000</v>
       </c>
       <c r="M971" t="n">
-        <v>5000</v>
+        <v>4467</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>333</v>
+        <v>447</v>
       </c>
       <c r="Q971" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E972" t="n">
         <v>9</v>
@@ -70337,33 +70337,33 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K972" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L972" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M972" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>889</v>
+        <v>833</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E973" t="n">
         <v>9</v>
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>400</v>
+        <v>1250</v>
       </c>
       <c r="K973" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L973" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M973" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>722</v>
+        <v>556</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E974" t="n">
         <v>9</v>
@@ -70485,32 +70485,32 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>450</v>
+        <v>950</v>
       </c>
       <c r="K974" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L974" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="M974" t="n">
-        <v>12556</v>
+        <v>8237</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>698</v>
+        <v>549</v>
       </c>
       <c r="Q974" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E975" t="n">
         <v>9</v>
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="K975" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L975" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M975" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E976" t="n">
         <v>9</v>
@@ -70620,41 +70620,41 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="K976" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L976" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M976" t="n">
-        <v>8933</v>
+        <v>5000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>496</v>
+        <v>333</v>
       </c>
       <c r="Q976" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E977" t="n">
         <v>9</v>
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K977" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="L977" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="M977" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>1000</v>
+        <v>889</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E978" t="n">
         <v>9</v>
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>3300</v>
+        <v>400</v>
       </c>
       <c r="K978" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L978" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M978" t="n">
-        <v>5455</v>
+        <v>13000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>303</v>
+        <v>722</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E979" t="n">
         <v>9</v>
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="K979" t="n">
         <v>12000</v>
       </c>
       <c r="L979" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M979" t="n">
-        <v>12000</v>
+        <v>12556</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>667</v>
+        <v>698</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E980" t="n">
         <v>9</v>
@@ -70913,36 +70913,36 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="K980" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L980" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M980" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="Q980" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E981" t="n">
         <v>9</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="K981" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L981" t="n">
         <v>10000</v>
       </c>
-      <c r="L981" t="n">
-        <v>12000</v>
-      </c>
       <c r="M981" t="n">
-        <v>11000</v>
+        <v>8933</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>611</v>
+        <v>496</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71052,38 +71052,38 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J982" t="n">
+        <v>200</v>
+      </c>
+      <c r="K982" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L982" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M982" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N982" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O982" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P982" t="n">
         <v>1000</v>
-      </c>
-      <c r="K982" t="n">
-        <v>9000</v>
-      </c>
-      <c r="L982" t="n">
-        <v>10000</v>
-      </c>
-      <c r="M982" t="n">
-        <v>9500</v>
-      </c>
-      <c r="N982" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O982" t="inlineStr">
-        <is>
-          <t>Provincia de Limarí</t>
-        </is>
-      </c>
-      <c r="P982" t="n">
-        <v>528</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71124,7 +71124,7 @@
       </c>
       <c r="H983" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="K983" t="n">
         <v>5000</v>
       </c>
       <c r="L983" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M983" t="n">
-        <v>5000</v>
+        <v>5455</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71196,7 +71196,7 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K984" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L984" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M984" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71268,7 +71268,7 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
@@ -71277,32 +71277,32 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K985" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L985" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M985" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="Q985" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71345,24 +71345,24 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K986" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L986" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M986" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
@@ -71371,10 +71371,10 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>400</v>
+        <v>611</v>
       </c>
       <c r="Q986" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E987" t="n">
         <v>9</v>
@@ -71412,7 +71412,7 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K987" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L987" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M987" t="n">
-        <v>13083</v>
+        <v>9500</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>727</v>
+        <v>528</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E988" t="n">
         <v>9</v>
@@ -71484,7 +71484,7 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
@@ -71493,32 +71493,32 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K988" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L988" t="n">
         <v>5000</v>
       </c>
       <c r="M988" t="n">
-        <v>4783</v>
+        <v>5000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>478</v>
+        <v>278</v>
       </c>
       <c r="Q988" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E989" t="n">
         <v>9</v>
@@ -71556,25 +71556,25 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>380</v>
+        <v>800</v>
       </c>
       <c r="K989" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="L989" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="M989" t="n">
-        <v>8000</v>
+        <v>7000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q989" t="n">
         <v>18</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E990" t="n">
         <v>9</v>
@@ -71628,41 +71628,41 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K990" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L990" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M990" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>889</v>
+        <v>333</v>
       </c>
       <c r="Q990" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E991" t="n">
         <v>9</v>
@@ -71700,7 +71700,7 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
@@ -71712,29 +71712,29 @@
         <v>300</v>
       </c>
       <c r="K991" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L991" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M991" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q991" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E992" t="n">
         <v>9</v>
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K992" t="n">
         <v>12000</v>
       </c>
       <c r="L992" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M992" t="n">
-        <v>12500</v>
+        <v>13083</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>694</v>
+        <v>727</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E993" t="n">
         <v>9</v>
@@ -71853,20 +71853,20 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K993" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L993" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M993" t="n">
-        <v>10000</v>
+        <v>4783</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
@@ -71875,10 +71875,10 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>556</v>
+        <v>478</v>
       </c>
       <c r="Q993" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E994" t="n">
         <v>9</v>
@@ -71921,24 +71921,24 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>1500</v>
+        <v>380</v>
       </c>
       <c r="K994" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L994" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M994" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
@@ -71947,10 +71947,10 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="Q994" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K995" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L995" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M995" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72015,11 +72015,11 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>444</v>
+        <v>889</v>
       </c>
       <c r="Q995" t="n">
         <v>18</v>
@@ -72060,7 +72060,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -72069,16 +72069,16 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K996" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L996" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M996" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72132,7 +72132,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -72141,16 +72141,16 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K997" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L997" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M997" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>556</v>
+        <v>694</v>
       </c>
       <c r="Q997" t="n">
         <v>18</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E998" t="n">
         <v>9</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K998" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L998" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M998" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E999" t="n">
         <v>9</v>
@@ -72285,32 +72285,32 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>2900</v>
+        <v>1500</v>
       </c>
       <c r="K999" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L999" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="M999" t="n">
-        <v>12483</v>
+        <v>4000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>694</v>
+        <v>400</v>
       </c>
       <c r="Q999" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1000" t="n">
         <v>9</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>2000</v>
+        <v>80</v>
       </c>
       <c r="K1000" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L1000" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="M1000" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72375,11 +72375,11 @@
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>611</v>
+        <v>444</v>
       </c>
       <c r="Q1000" t="n">
         <v>18</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1001" t="n">
         <v>9</v>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72429,32 +72429,32 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="K1001" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L1001" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M1001" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1001" t="n">
         <v>500</v>
       </c>
       <c r="Q1001" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1001" t="inlineStr">
         <is>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1002" t="n">
         <v>9</v>
@@ -72492,7 +72492,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -72501,29 +72501,29 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K1002" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1002" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1002" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q1002" t="n">
         <v>18</v>
@@ -72569,36 +72569,36 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1003" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L1003" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="M1003" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>400</v>
+        <v>778</v>
       </c>
       <c r="Q1003" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72636,7 +72636,7 @@
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
@@ -72645,32 +72645,32 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>5300</v>
+        <v>2900</v>
       </c>
       <c r="K1004" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L1004" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M1004" t="n">
-        <v>8472</v>
+        <v>12483</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>565</v>
+        <v>694</v>
       </c>
       <c r="Q1004" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72708,29 +72708,29 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K1005" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L1005" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M1005" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
@@ -72739,10 +72739,10 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>400</v>
+        <v>611</v>
       </c>
       <c r="Q1005" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1006" t="n">
         <v>9</v>
@@ -72789,32 +72789,32 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="K1006" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="L1006" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="M1006" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>1222</v>
+        <v>500</v>
       </c>
       <c r="Q1006" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1007" t="n">
         <v>9</v>
@@ -72861,20 +72861,20 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K1007" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L1007" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M1007" t="n">
-        <v>17400</v>
+        <v>12000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>967</v>
+        <v>667</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1008" t="n">
         <v>9</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K1008" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L1008" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M1008" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q1008" t="n">
         <v>10</v>
@@ -72981,58 +72981,418 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1009" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1009" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I1009" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1009" t="n">
+        <v>5300</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>8472</v>
+      </c>
+      <c r="N1009" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1009" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P1009" t="n">
+        <v>565</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1009" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1010" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1010" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1010" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I1010" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1010" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1010" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1010" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P1010" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1010" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1011" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1009" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1009" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G1009" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H1009" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I1009" t="inlineStr">
+      <c r="E1011" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1011" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1011" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1011" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J1009" t="n">
+      <c r="J1011" t="n">
+        <v>100</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>22000</v>
+      </c>
+      <c r="N1011" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1011" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1011" t="n">
+        <v>1222</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1011" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1012" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1012" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1012" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1012" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>17400</v>
+      </c>
+      <c r="N1012" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1012" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1012" t="n">
+        <v>967</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1012" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1013" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1013" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1013" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1013" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1013" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1013" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1013" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1013" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1014" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1014" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1014" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1014" t="n">
         <v>300</v>
       </c>
-      <c r="K1009" t="n">
+      <c r="K1014" t="n">
         <v>22000</v>
       </c>
-      <c r="L1009" t="n">
+      <c r="L1014" t="n">
         <v>22000</v>
       </c>
-      <c r="M1009" t="n">
+      <c r="M1014" t="n">
         <v>22000</v>
       </c>
-      <c r="N1009" t="inlineStr">
+      <c r="N1014" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="O1009" t="inlineStr">
+      <c r="O1014" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1009" t="n">
+      <c r="P1014" t="n">
         <v>1222</v>
       </c>
-      <c r="Q1009" t="n">
+      <c r="Q1014" t="n">
         <v>18</v>
       </c>
-      <c r="R1009" t="inlineStr">
+      <c r="R1014" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1014"/>
+  <dimension ref="A1:R1018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E858" t="n">
         <v>9</v>
@@ -62124,41 +62124,41 @@
       </c>
       <c r="H858" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>850</v>
+        <v>155</v>
       </c>
       <c r="K858" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="L858" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="M858" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>1150</v>
+        <v>1333</v>
       </c>
       <c r="Q858" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R858" t="inlineStr">
         <is>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E859" t="n">
         <v>9</v>
@@ -62196,7 +62196,7 @@
       </c>
       <c r="H859" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I859" t="inlineStr">
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>1650</v>
+        <v>650</v>
       </c>
       <c r="K859" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L859" t="n">
-        <v>19000</v>
+        <v>21000</v>
       </c>
       <c r="M859" t="n">
-        <v>18515</v>
+        <v>21000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>1029</v>
+        <v>1167</v>
       </c>
       <c r="Q859" t="n">
         <v>18</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E860" t="n">
         <v>9</v>
@@ -62268,7 +62268,7 @@
       </c>
       <c r="H860" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I860" t="inlineStr">
@@ -62277,20 +62277,20 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>3800</v>
+        <v>650</v>
       </c>
       <c r="K860" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L860" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M860" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O860" t="inlineStr">
@@ -62299,10 +62299,10 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="Q860" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R860" t="inlineStr">
         <is>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44425</v>
+        <v>44505</v>
       </c>
       <c r="E861" t="n">
         <v>9</v>
@@ -62340,25 +62340,25 @@
       </c>
       <c r="H861" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J861" t="n">
         <v>400</v>
       </c>
       <c r="K861" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="L861" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M861" t="n">
-        <v>20500</v>
+        <v>18000</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>1139</v>
+        <v>1000</v>
       </c>
       <c r="Q861" t="n">
         <v>18</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E862" t="n">
         <v>9</v>
@@ -62417,24 +62417,24 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>600</v>
+        <v>850</v>
       </c>
       <c r="K862" t="n">
-        <v>4000</v>
+        <v>23000</v>
       </c>
       <c r="L862" t="n">
-        <v>4000</v>
+        <v>23000</v>
       </c>
       <c r="M862" t="n">
-        <v>4000</v>
+        <v>23000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O862" t="inlineStr">
@@ -62443,10 +62443,10 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>400</v>
+        <v>1150</v>
       </c>
       <c r="Q862" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R862" t="inlineStr">
         <is>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E863" t="n">
         <v>9</v>
@@ -62493,20 +62493,20 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>400</v>
+        <v>1650</v>
       </c>
       <c r="K863" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="L863" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M863" t="n">
-        <v>14500</v>
+        <v>18515</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O863" t="inlineStr">
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>806</v>
+        <v>1029</v>
       </c>
       <c r="Q863" t="n">
         <v>18</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44343</v>
+        <v>44487</v>
       </c>
       <c r="E864" t="n">
         <v>9</v>
@@ -62561,36 +62561,36 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>470</v>
+        <v>3800</v>
       </c>
       <c r="K864" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L864" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M864" t="n">
-        <v>17532</v>
+        <v>7000</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>974</v>
+        <v>700</v>
       </c>
       <c r="Q864" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R864" t="inlineStr">
         <is>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E865" t="n">
         <v>9</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K865" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L865" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="M865" t="n">
-        <v>14000</v>
+        <v>20500</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>778</v>
+        <v>1139</v>
       </c>
       <c r="Q865" t="n">
         <v>18</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E866" t="n">
         <v>9</v>
@@ -62705,24 +62705,24 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J866" t="n">
         <v>600</v>
       </c>
       <c r="K866" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="L866" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="M866" t="n">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O866" t="inlineStr">
@@ -62731,10 +62731,10 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>889</v>
+        <v>400</v>
       </c>
       <c r="Q866" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R866" t="inlineStr">
         <is>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E867" t="n">
         <v>9</v>
@@ -62781,29 +62781,29 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K867" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L867" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M867" t="n">
-        <v>13000</v>
+        <v>14500</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>722</v>
+        <v>806</v>
       </c>
       <c r="Q867" t="n">
         <v>18</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>1400</v>
+        <v>470</v>
       </c>
       <c r="K868" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L868" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M868" t="n">
-        <v>11571</v>
+        <v>17532</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>643</v>
+        <v>974</v>
       </c>
       <c r="Q868" t="n">
         <v>18</v>
@@ -62921,24 +62921,24 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="K869" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="L869" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="M869" t="n">
-        <v>5500</v>
+        <v>14000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O869" t="inlineStr">
@@ -62947,10 +62947,10 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>550</v>
+        <v>778</v>
       </c>
       <c r="Q869" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R869" t="inlineStr">
         <is>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E870" t="n">
         <v>9</v>
@@ -62997,20 +62997,20 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K870" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L870" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M870" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O870" t="inlineStr">
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="Q870" t="n">
         <v>18</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E871" t="n">
         <v>9</v>
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K871" t="n">
         <v>13000</v>
       </c>
       <c r="L871" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M871" t="n">
-        <v>14111</v>
+        <v>13000</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>784</v>
+        <v>722</v>
       </c>
       <c r="Q871" t="n">
         <v>18</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E872" t="n">
         <v>9</v>
@@ -63141,20 +63141,20 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="K872" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L872" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M872" t="n">
-        <v>6227</v>
+        <v>11571</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O872" t="inlineStr">
@@ -63163,10 +63163,10 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="Q872" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R872" t="inlineStr">
         <is>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E873" t="n">
         <v>9</v>
@@ -63209,24 +63209,24 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="K873" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="L873" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="M873" t="n">
-        <v>12000</v>
+        <v>5500</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O873" t="inlineStr">
@@ -63235,10 +63235,10 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>667</v>
+        <v>550</v>
       </c>
       <c r="Q873" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R873" t="inlineStr">
         <is>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E874" t="n">
         <v>9</v>
@@ -63285,20 +63285,20 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K874" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="L874" t="n">
-        <v>33000</v>
+        <v>17000</v>
       </c>
       <c r="M874" t="n">
-        <v>31364</v>
+        <v>17000</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O874" t="inlineStr">
@@ -63307,10 +63307,10 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>1568</v>
+        <v>944</v>
       </c>
       <c r="Q874" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R874" t="inlineStr">
         <is>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E875" t="n">
         <v>9</v>
@@ -63357,16 +63357,16 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="K875" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="L875" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="M875" t="n">
-        <v>24579</v>
+        <v>14111</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1366</v>
+        <v>784</v>
       </c>
       <c r="Q875" t="n">
         <v>18</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E876" t="n">
         <v>9</v>
@@ -63429,16 +63429,16 @@
         </is>
       </c>
       <c r="J876" t="n">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="K876" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L876" t="n">
-        <v>11000</v>
+        <v>6500</v>
       </c>
       <c r="M876" t="n">
-        <v>10478</v>
+        <v>6227</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>1048</v>
+        <v>623</v>
       </c>
       <c r="Q876" t="n">
         <v>10</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E877" t="n">
         <v>9</v>
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="K877" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L877" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M877" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="Q877" t="n">
         <v>18</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E878" t="n">
         <v>9</v>
@@ -63569,36 +63569,36 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>1450</v>
+        <v>550</v>
       </c>
       <c r="K878" t="n">
-        <v>12000</v>
+        <v>30000</v>
       </c>
       <c r="L878" t="n">
-        <v>14000</v>
+        <v>33000</v>
       </c>
       <c r="M878" t="n">
-        <v>12897</v>
+        <v>31364</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>716</v>
+        <v>1568</v>
       </c>
       <c r="Q878" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R878" t="inlineStr">
         <is>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E879" t="n">
         <v>9</v>
@@ -63645,20 +63645,20 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>1150</v>
+        <v>950</v>
       </c>
       <c r="K879" t="n">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="L879" t="n">
-        <v>4500</v>
+        <v>25000</v>
       </c>
       <c r="M879" t="n">
-        <v>4283</v>
+        <v>24579</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O879" t="inlineStr">
@@ -63667,10 +63667,10 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>428</v>
+        <v>1366</v>
       </c>
       <c r="Q879" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R879" t="inlineStr">
         <is>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E880" t="n">
         <v>9</v>
@@ -63713,36 +63713,36 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>150</v>
+        <v>1150</v>
       </c>
       <c r="K880" t="n">
         <v>10000</v>
       </c>
       <c r="L880" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="M880" t="n">
-        <v>10000</v>
+        <v>10478</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>556</v>
+        <v>1048</v>
       </c>
       <c r="Q880" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R880" t="inlineStr">
         <is>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -63780,25 +63780,25 @@
       </c>
       <c r="H881" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>850</v>
+        <v>680</v>
       </c>
       <c r="K881" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="L881" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M881" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63807,11 +63807,11 @@
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>611</v>
+        <v>1222</v>
       </c>
       <c r="Q881" t="n">
         <v>18</v>
@@ -63852,7 +63852,7 @@
       </c>
       <c r="H882" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -63861,32 +63861,32 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>1900</v>
+        <v>1450</v>
       </c>
       <c r="K882" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L882" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M882" t="n">
-        <v>7658</v>
+        <v>12897</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>511</v>
+        <v>716</v>
       </c>
       <c r="Q882" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R882" t="inlineStr">
         <is>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E883" t="n">
         <v>9</v>
@@ -63924,7 +63924,7 @@
       </c>
       <c r="H883" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>30</v>
+        <v>1150</v>
       </c>
       <c r="K883" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="L883" t="n">
-        <v>18000</v>
+        <v>4500</v>
       </c>
       <c r="M883" t="n">
-        <v>18000</v>
+        <v>4283</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>1800</v>
+        <v>428</v>
       </c>
       <c r="Q883" t="n">
         <v>10</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E884" t="n">
         <v>9</v>
@@ -63996,41 +63996,41 @@
       </c>
       <c r="H884" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="K884" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L884" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M884" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q884" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R884" t="inlineStr">
         <is>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E885" t="n">
         <v>9</v>
@@ -64068,25 +64068,25 @@
       </c>
       <c r="H885" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="K885" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L885" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="M885" t="n">
-        <v>15400</v>
+        <v>11000</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64095,11 +64095,11 @@
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>856</v>
+        <v>611</v>
       </c>
       <c r="Q885" t="n">
         <v>18</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44175</v>
+        <v>44168</v>
       </c>
       <c r="E886" t="n">
         <v>9</v>
@@ -64140,7 +64140,7 @@
       </c>
       <c r="H886" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -64149,32 +64149,32 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>3300</v>
+        <v>1900</v>
       </c>
       <c r="K886" t="n">
-        <v>12500</v>
+        <v>7000</v>
       </c>
       <c r="L886" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M886" t="n">
-        <v>13182</v>
+        <v>7658</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>732</v>
+        <v>511</v>
       </c>
       <c r="Q886" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R886" t="inlineStr">
         <is>
@@ -64212,7 +64212,7 @@
       </c>
       <c r="H887" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -64221,20 +64221,20 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="K887" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="L887" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M887" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O887" t="inlineStr">
@@ -64243,10 +64243,10 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>611</v>
+        <v>1800</v>
       </c>
       <c r="Q887" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R887" t="inlineStr">
         <is>
@@ -64284,7 +64284,7 @@
       </c>
       <c r="H888" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -64293,16 +64293,16 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>3300</v>
+        <v>50</v>
       </c>
       <c r="K888" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L888" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M888" t="n">
-        <v>5455</v>
+        <v>12000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64311,11 +64311,11 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>546</v>
+        <v>1200</v>
       </c>
       <c r="Q888" t="n">
         <v>10</v>
@@ -64361,24 +64361,24 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K889" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L889" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="M889" t="n">
-        <v>11000</v>
+        <v>15400</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O889" t="inlineStr">
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>611</v>
+        <v>856</v>
       </c>
       <c r="Q889" t="n">
         <v>18</v>
@@ -64437,29 +64437,29 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>1200</v>
+        <v>3300</v>
       </c>
       <c r="K890" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="L890" t="n">
         <v>14000</v>
       </c>
       <c r="M890" t="n">
-        <v>14000</v>
+        <v>13182</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>778</v>
+        <v>732</v>
       </c>
       <c r="Q890" t="n">
         <v>18</v>
@@ -64500,7 +64500,7 @@
       </c>
       <c r="H891" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I891" t="inlineStr">
@@ -64527,7 +64527,7 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P891" t="n">
@@ -64572,7 +64572,7 @@
       </c>
       <c r="H892" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I892" t="inlineStr">
@@ -64581,32 +64581,32 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="K892" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L892" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M892" t="n">
-        <v>8000</v>
+        <v>5455</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="Q892" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R892" t="inlineStr">
         <is>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E893" t="n">
         <v>9</v>
@@ -64649,33 +64649,33 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K893" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="L893" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="M893" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>1333</v>
+        <v>611</v>
       </c>
       <c r="Q893" t="n">
         <v>18</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E894" t="n">
         <v>9</v>
@@ -64721,24 +64721,24 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="K894" t="n">
-        <v>2800</v>
+        <v>14000</v>
       </c>
       <c r="L894" t="n">
-        <v>2800</v>
+        <v>14000</v>
       </c>
       <c r="M894" t="n">
-        <v>2800</v>
+        <v>14000</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O894" t="inlineStr">
@@ -64747,10 +64747,10 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>140</v>
+        <v>778</v>
       </c>
       <c r="Q894" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R894" t="inlineStr">
         <is>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E895" t="n">
         <v>9</v>
@@ -64788,7 +64788,7 @@
       </c>
       <c r="H895" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="K895" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="L895" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="M895" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>833</v>
+        <v>611</v>
       </c>
       <c r="Q895" t="n">
         <v>18</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E896" t="n">
         <v>9</v>
@@ -64860,7 +64860,7 @@
       </c>
       <c r="H896" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -64869,32 +64869,32 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>9300</v>
+        <v>4000</v>
       </c>
       <c r="K896" t="n">
-        <v>6500</v>
+        <v>8000</v>
       </c>
       <c r="L896" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M896" t="n">
-        <v>6812</v>
+        <v>8000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>681</v>
+        <v>533</v>
       </c>
       <c r="Q896" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R896" t="inlineStr">
         <is>
@@ -64937,24 +64937,24 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K897" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L897" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M897" t="n">
-        <v>19091</v>
+        <v>24000</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O897" t="inlineStr">
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>1061</v>
+        <v>1333</v>
       </c>
       <c r="Q897" t="n">
         <v>18</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E898" t="n">
         <v>9</v>
@@ -65009,36 +65009,36 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="K898" t="n">
-        <v>12000</v>
+        <v>2800</v>
       </c>
       <c r="L898" t="n">
-        <v>12000</v>
+        <v>2800</v>
       </c>
       <c r="M898" t="n">
-        <v>12000</v>
+        <v>2800</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>667</v>
+        <v>140</v>
       </c>
       <c r="Q898" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R898" t="inlineStr">
         <is>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E899" t="n">
         <v>9</v>
@@ -65085,16 +65085,16 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>400</v>
+        <v>1250</v>
       </c>
       <c r="K899" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L899" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M899" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65103,11 +65103,11 @@
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>944</v>
+        <v>833</v>
       </c>
       <c r="Q899" t="n">
         <v>18</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E900" t="n">
         <v>9</v>
@@ -65153,36 +65153,36 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>200</v>
+        <v>9300</v>
       </c>
       <c r="K900" t="n">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="L900" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="M900" t="n">
-        <v>10000</v>
+        <v>6812</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>556</v>
+        <v>681</v>
       </c>
       <c r="Q900" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R900" t="inlineStr">
         <is>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E901" t="n">
         <v>9</v>
@@ -65220,7 +65220,7 @@
       </c>
       <c r="H901" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -65229,29 +65229,29 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K901" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L901" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M901" t="n">
-        <v>8000</v>
+        <v>19091</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>444</v>
+        <v>1061</v>
       </c>
       <c r="Q901" t="n">
         <v>18</v>
@@ -65292,7 +65292,7 @@
       </c>
       <c r="H902" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -65301,16 +65301,16 @@
         </is>
       </c>
       <c r="J902" t="n">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="K902" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L902" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M902" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="Q902" t="n">
         <v>18</v>
@@ -65364,25 +65364,25 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K903" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L903" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M903" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>667</v>
+        <v>944</v>
       </c>
       <c r="Q903" t="n">
         <v>18</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E904" t="n">
         <v>9</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K904" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="L904" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M904" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>1111</v>
+        <v>556</v>
       </c>
       <c r="Q904" t="n">
         <v>18</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E905" t="n">
         <v>9</v>
@@ -65508,41 +65508,41 @@
       </c>
       <c r="H905" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K905" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="L905" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="M905" t="n">
-        <v>21500</v>
+        <v>8000</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>1075</v>
+        <v>444</v>
       </c>
       <c r="Q905" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E906" t="n">
         <v>9</v>
@@ -65580,7 +65580,7 @@
       </c>
       <c r="H906" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K906" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L906" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="M906" t="n">
-        <v>18417</v>
+        <v>14000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>1023</v>
+        <v>778</v>
       </c>
       <c r="Q906" t="n">
         <v>18</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E907" t="n">
         <v>9</v>
@@ -65652,41 +65652,41 @@
       </c>
       <c r="H907" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>3300</v>
+        <v>100</v>
       </c>
       <c r="K907" t="n">
-        <v>7500</v>
+        <v>12000</v>
       </c>
       <c r="L907" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M907" t="n">
-        <v>7727</v>
+        <v>12000</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>773</v>
+        <v>667</v>
       </c>
       <c r="Q907" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R907" t="inlineStr">
         <is>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K908" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="L908" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="M908" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>944</v>
+        <v>1111</v>
       </c>
       <c r="Q908" t="n">
         <v>18</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -65805,20 +65805,20 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K909" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="L909" t="n">
-        <v>20000</v>
+        <v>22000</v>
       </c>
       <c r="M909" t="n">
-        <v>20000</v>
+        <v>21500</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
@@ -65827,10 +65827,10 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>1111</v>
+        <v>1075</v>
       </c>
       <c r="Q909" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R909" t="inlineStr">
         <is>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E910" t="n">
         <v>9</v>
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="K910" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L910" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="M910" t="n">
-        <v>15000</v>
+        <v>18417</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>833</v>
+        <v>1023</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E911" t="n">
         <v>9</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>400</v>
+        <v>3300</v>
       </c>
       <c r="K911" t="n">
-        <v>5500</v>
+        <v>7500</v>
       </c>
       <c r="L911" t="n">
-        <v>5500</v>
+        <v>8000</v>
       </c>
       <c r="M911" t="n">
-        <v>5500</v>
+        <v>7727</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>550</v>
+        <v>773</v>
       </c>
       <c r="Q911" t="n">
         <v>10</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E912" t="n">
         <v>9</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K912" t="n">
         <v>17000</v>
       </c>
       <c r="L912" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M912" t="n">
-        <v>17429</v>
+        <v>17000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E913" t="n">
         <v>9</v>
@@ -66089,24 +66089,24 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K913" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L913" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M913" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
@@ -66115,10 +66115,10 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>700</v>
+        <v>1111</v>
       </c>
       <c r="Q913" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E914" t="n">
         <v>9</v>
@@ -66165,20 +66165,20 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="K914" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L914" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="M914" t="n">
-        <v>22500</v>
+        <v>15000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>1250</v>
+        <v>833</v>
       </c>
       <c r="Q914" t="n">
         <v>18</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -66233,24 +66233,24 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K915" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="L915" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="M915" t="n">
-        <v>15000</v>
+        <v>5500</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O915" t="inlineStr">
@@ -66259,10 +66259,10 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>833</v>
+        <v>550</v>
       </c>
       <c r="Q915" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R915" t="inlineStr">
         <is>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E916" t="n">
         <v>9</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="K916" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L916" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M916" t="n">
-        <v>14000</v>
+        <v>17429</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>778</v>
+        <v>968</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -66381,32 +66381,32 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>530</v>
+        <v>800</v>
       </c>
       <c r="K917" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L917" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M917" t="n">
-        <v>12434</v>
+        <v>7000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="Q917" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R917" t="inlineStr">
         <is>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E918" t="n">
         <v>9</v>
@@ -66444,7 +66444,7 @@
       </c>
       <c r="H918" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -66453,29 +66453,29 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="K918" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L918" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="M918" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>667</v>
+        <v>1250</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E919" t="n">
         <v>9</v>
@@ -66516,41 +66516,41 @@
       </c>
       <c r="H919" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>1800</v>
+        <v>100</v>
       </c>
       <c r="K919" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="L919" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M919" t="n">
-        <v>8653</v>
+        <v>15000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>577</v>
+        <v>833</v>
       </c>
       <c r="Q919" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E920" t="n">
         <v>9</v>
@@ -66597,32 +66597,32 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>300</v>
+        <v>110</v>
       </c>
       <c r="K920" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L920" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="M920" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>1200</v>
+        <v>778</v>
       </c>
       <c r="Q920" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R920" t="inlineStr">
         <is>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E921" t="n">
         <v>9</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>1700</v>
+        <v>530</v>
       </c>
       <c r="K921" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L921" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M921" t="n">
-        <v>17941</v>
+        <v>12434</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>997</v>
+        <v>691</v>
       </c>
       <c r="Q921" t="n">
         <v>18</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E922" t="n">
         <v>9</v>
@@ -66732,7 +66732,7 @@
       </c>
       <c r="H922" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -66741,32 +66741,32 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>2500</v>
+        <v>480</v>
       </c>
       <c r="K922" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L922" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M922" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="Q922" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44342</v>
+        <v>44181</v>
       </c>
       <c r="E923" t="n">
         <v>9</v>
@@ -66804,41 +66804,41 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>300</v>
+        <v>1800</v>
       </c>
       <c r="K923" t="n">
-        <v>15000</v>
+        <v>8500</v>
       </c>
       <c r="L923" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="M923" t="n">
-        <v>15000</v>
+        <v>8653</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>833</v>
+        <v>577</v>
       </c>
       <c r="Q923" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R923" t="inlineStr">
         <is>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E924" t="n">
         <v>9</v>
@@ -66881,24 +66881,24 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K924" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L924" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M924" t="n">
-        <v>9600</v>
+        <v>24000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O924" t="inlineStr">
@@ -66907,10 +66907,10 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>533</v>
+        <v>1200</v>
       </c>
       <c r="Q924" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R924" t="inlineStr">
         <is>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44328</v>
+        <v>44494</v>
       </c>
       <c r="E925" t="n">
         <v>9</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>250</v>
+        <v>1700</v>
       </c>
       <c r="K925" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L925" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="M925" t="n">
-        <v>12000</v>
+        <v>17941</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>667</v>
+        <v>997</v>
       </c>
       <c r="Q925" t="n">
         <v>18</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44328</v>
+        <v>44494</v>
       </c>
       <c r="E926" t="n">
         <v>9</v>
@@ -67029,20 +67029,20 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>380</v>
+        <v>2500</v>
       </c>
       <c r="K926" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L926" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M926" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
@@ -67051,10 +67051,10 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="Q926" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E927" t="n">
         <v>9</v>
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K927" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L927" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M927" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>917</v>
+        <v>833</v>
       </c>
       <c r="Q927" t="n">
         <v>18</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44301</v>
+        <v>44342</v>
       </c>
       <c r="E928" t="n">
         <v>9</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K928" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="L928" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M928" t="n">
-        <v>13500</v>
+        <v>9600</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>750</v>
+        <v>533</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E929" t="n">
         <v>9</v>
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>1400</v>
+        <v>250</v>
       </c>
       <c r="K929" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L929" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M929" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E930" t="n">
         <v>9</v>
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="K930" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L930" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M930" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="Q930" t="n">
         <v>18</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="K931" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L931" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M931" t="n">
-        <v>10000</v>
+        <v>16500</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>556</v>
+        <v>917</v>
       </c>
       <c r="Q931" t="n">
         <v>18</v>
@@ -67457,24 +67457,24 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K932" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="L932" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M932" t="n">
-        <v>5000</v>
+        <v>13500</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
@@ -67483,10 +67483,10 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q932" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="K933" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L933" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M933" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q933" t="n">
         <v>18</v>
@@ -67601,36 +67601,36 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="K934" t="n">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="L934" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M934" t="n">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>233</v>
+        <v>722</v>
       </c>
       <c r="Q934" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R934" t="inlineStr">
         <is>
@@ -67668,7 +67668,7 @@
       </c>
       <c r="H935" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="K935" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="L935" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M935" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>389</v>
+        <v>556</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67740,7 +67740,7 @@
       </c>
       <c r="H936" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
@@ -67749,32 +67749,32 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K936" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L936" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M936" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q936" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E937" t="n">
         <v>9</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J937" t="n">
         <v>200</v>
       </c>
       <c r="K937" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L937" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M937" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E938" t="n">
         <v>9</v>
@@ -67889,36 +67889,36 @@
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="K938" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="L938" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M938" t="n">
-        <v>12000</v>
+        <v>3500</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>667</v>
+        <v>233</v>
       </c>
       <c r="Q938" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E939" t="n">
         <v>9</v>
@@ -67956,7 +67956,7 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -67965,32 +67965,32 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K939" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L939" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M939" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="Q939" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E940" t="n">
         <v>9</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K940" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="L940" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M940" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>722</v>
+        <v>611</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68100,25 +68100,25 @@
       </c>
       <c r="H941" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K941" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L941" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M941" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="Q941" t="n">
         <v>18</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E942" t="n">
         <v>9</v>
@@ -68172,7 +68172,7 @@
       </c>
       <c r="H942" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
@@ -68181,32 +68181,32 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="K942" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L942" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M942" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P942" t="n">
-        <v>1800</v>
+        <v>667</v>
       </c>
       <c r="Q942" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E943" t="n">
         <v>9</v>
@@ -68249,36 +68249,36 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K943" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L943" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M943" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>944</v>
+        <v>600</v>
       </c>
       <c r="Q943" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R943" t="inlineStr">
         <is>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E944" t="n">
         <v>9</v>
@@ -68316,7 +68316,7 @@
       </c>
       <c r="H944" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K944" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L944" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="M944" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>389</v>
+        <v>722</v>
       </c>
       <c r="Q944" t="n">
         <v>18</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E945" t="n">
         <v>9</v>
@@ -68388,25 +68388,25 @@
       </c>
       <c r="H945" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>1400</v>
+        <v>100</v>
       </c>
       <c r="K945" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L945" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M945" t="n">
-        <v>14429</v>
+        <v>10000</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>802</v>
+        <v>556</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68460,7 +68460,7 @@
       </c>
       <c r="H946" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>1400</v>
+        <v>40</v>
       </c>
       <c r="K946" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L946" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M946" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="Q946" t="n">
         <v>10</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K947" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="L947" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="M947" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>278</v>
+        <v>944</v>
       </c>
       <c r="Q947" t="n">
         <v>18</v>
@@ -68609,24 +68609,24 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>220</v>
+        <v>2000</v>
       </c>
       <c r="K948" t="n">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="L948" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="M948" t="n">
-        <v>3455</v>
+        <v>7000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O948" t="inlineStr">
@@ -68635,10 +68635,10 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>230</v>
+        <v>389</v>
       </c>
       <c r="Q948" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R948" t="inlineStr">
         <is>
@@ -68676,25 +68676,25 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>90</v>
+        <v>1400</v>
       </c>
       <c r="K949" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L949" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M949" t="n">
-        <v>10000</v>
+        <v>14429</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>556</v>
+        <v>802</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68748,7 +68748,7 @@
       </c>
       <c r="H950" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
@@ -68757,32 +68757,32 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="K950" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L950" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M950" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q950" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R950" t="inlineStr">
         <is>
@@ -68820,25 +68820,25 @@
       </c>
       <c r="H951" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K951" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L951" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M951" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>444</v>
+        <v>278</v>
       </c>
       <c r="Q951" t="n">
         <v>18</v>
@@ -68892,41 +68892,41 @@
       </c>
       <c r="H952" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>700</v>
+        <v>220</v>
       </c>
       <c r="K952" t="n">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="L952" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M952" t="n">
-        <v>7000</v>
+        <v>3455</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>389</v>
+        <v>230</v>
       </c>
       <c r="Q952" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68969,24 +68969,24 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="K953" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L953" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M953" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O953" t="inlineStr">
@@ -68995,10 +68995,10 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="Q953" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R953" t="inlineStr">
         <is>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E954" t="n">
         <v>9</v>
@@ -69036,7 +69036,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="K954" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L954" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M954" t="n">
-        <v>18538</v>
+        <v>12000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>1030</v>
+        <v>667</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E955" t="n">
         <v>9</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="K955" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L955" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="M955" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>944</v>
+        <v>444</v>
       </c>
       <c r="Q955" t="n">
         <v>18</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E956" t="n">
         <v>9</v>
@@ -69180,25 +69180,25 @@
       </c>
       <c r="H956" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K956" t="n">
-        <v>17500</v>
+        <v>7000</v>
       </c>
       <c r="L956" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M956" t="n">
-        <v>17800</v>
+        <v>7000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>989</v>
+        <v>389</v>
       </c>
       <c r="Q956" t="n">
         <v>18</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E957" t="n">
         <v>9</v>
@@ -69252,7 +69252,7 @@
       </c>
       <c r="H957" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -69261,32 +69261,32 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K957" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L957" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M957" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>889</v>
+        <v>400</v>
       </c>
       <c r="Q957" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R957" t="inlineStr">
         <is>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E958" t="n">
         <v>9</v>
@@ -69333,20 +69333,20 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="K958" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="L958" t="n">
-        <v>6000</v>
+        <v>19000</v>
       </c>
       <c r="M958" t="n">
-        <v>6000</v>
+        <v>18538</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O958" t="inlineStr">
@@ -69355,10 +69355,10 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>600</v>
+        <v>1030</v>
       </c>
       <c r="Q958" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R958" t="inlineStr">
         <is>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E959" t="n">
         <v>9</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="K959" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L959" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M959" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69423,11 +69423,11 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P959" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="Q959" t="n">
         <v>18</v>
@@ -69468,25 +69468,25 @@
       </c>
       <c r="H960" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="K960" t="n">
-        <v>11000</v>
+        <v>17500</v>
       </c>
       <c r="L960" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M960" t="n">
-        <v>11500</v>
+        <v>17800</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>639</v>
+        <v>989</v>
       </c>
       <c r="Q960" t="n">
         <v>18</v>
@@ -69540,7 +69540,7 @@
       </c>
       <c r="H961" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -69549,32 +69549,32 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="K961" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L961" t="n">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="M961" t="n">
-        <v>8500</v>
+        <v>16000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O961" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P961" t="n">
-        <v>567</v>
+        <v>889</v>
       </c>
       <c r="Q961" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R961" t="inlineStr">
         <is>
@@ -69612,7 +69612,7 @@
       </c>
       <c r="H962" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I962" t="inlineStr">
@@ -69621,32 +69621,32 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K962" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L962" t="n">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="M962" t="n">
-        <v>8500</v>
+        <v>6000</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>472</v>
+        <v>600</v>
       </c>
       <c r="Q962" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R962" t="inlineStr">
         <is>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K963" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L963" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M963" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69711,11 +69711,11 @@
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69761,24 +69761,24 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="K964" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="L964" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M964" t="n">
-        <v>6500</v>
+        <v>11500</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O964" t="inlineStr">
@@ -69787,10 +69787,10 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>433</v>
+        <v>639</v>
       </c>
       <c r="Q964" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R964" t="inlineStr">
         <is>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E965" t="n">
         <v>9</v>
@@ -69828,41 +69828,41 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K965" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L965" t="n">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="M965" t="n">
-        <v>16667</v>
+        <v>8500</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>926</v>
+        <v>567</v>
       </c>
       <c r="Q965" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E966" t="n">
         <v>9</v>
@@ -69900,7 +69900,7 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
@@ -69909,29 +69909,29 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K966" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L966" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M966" t="n">
-        <v>12000</v>
+        <v>8500</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>667</v>
+        <v>472</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E967" t="n">
         <v>9</v>
@@ -69972,41 +69972,41 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K967" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L967" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M967" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P967" t="n">
         <v>500</v>
       </c>
       <c r="Q967" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E968" t="n">
         <v>9</v>
@@ -70044,41 +70044,41 @@
       </c>
       <c r="H968" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="K968" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L968" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M968" t="n">
-        <v>12000</v>
+        <v>6500</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>1200</v>
+        <v>433</v>
       </c>
       <c r="Q968" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E969" t="n">
         <v>9</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K969" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="L969" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M969" t="n">
-        <v>22000</v>
+        <v>16667</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>1222</v>
+        <v>926</v>
       </c>
       <c r="Q969" t="n">
         <v>18</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E970" t="n">
         <v>9</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="K970" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L970" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M970" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>556</v>
+        <v>667</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E971" t="n">
         <v>9</v>
@@ -70272,13 +70272,13 @@
         <v>1500</v>
       </c>
       <c r="K971" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L971" t="n">
         <v>5000</v>
       </c>
       <c r="M971" t="n">
-        <v>4467</v>
+        <v>5000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="Q971" t="n">
         <v>10</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E972" t="n">
         <v>9</v>
@@ -70332,41 +70332,41 @@
       </c>
       <c r="H972" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="K972" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L972" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M972" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>833</v>
+        <v>1200</v>
       </c>
       <c r="Q972" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R972" t="inlineStr">
         <is>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E973" t="n">
         <v>9</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>1250</v>
+        <v>200</v>
       </c>
       <c r="K973" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L973" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M973" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70431,11 +70431,11 @@
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>556</v>
+        <v>1222</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E974" t="n">
         <v>9</v>
@@ -70485,32 +70485,32 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="K974" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L974" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M974" t="n">
-        <v>8237</v>
+        <v>10000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q974" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R974" t="inlineStr">
         <is>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E975" t="n">
         <v>9</v>
@@ -70553,36 +70553,36 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="K975" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L975" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M975" t="n">
-        <v>8000</v>
+        <v>4467</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Q975" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E976" t="n">
         <v>9</v>
@@ -70625,36 +70625,36 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K976" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L976" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M976" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>333</v>
+        <v>833</v>
       </c>
       <c r="Q976" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E977" t="n">
         <v>9</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>300</v>
+        <v>1250</v>
       </c>
       <c r="K977" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L977" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M977" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E978" t="n">
         <v>9</v>
@@ -70773,32 +70773,32 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="K978" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L978" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="M978" t="n">
-        <v>13000</v>
+        <v>8237</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>722</v>
+        <v>549</v>
       </c>
       <c r="Q978" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E979" t="n">
         <v>9</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="K979" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L979" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M979" t="n">
-        <v>12556</v>
+        <v>8000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>698</v>
+        <v>444</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E980" t="n">
         <v>9</v>
@@ -70917,32 +70917,32 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K980" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L980" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M980" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="Q980" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70980,25 +70980,25 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K981" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L981" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M981" t="n">
-        <v>8933</v>
+        <v>16000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>496</v>
+        <v>889</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E982" t="n">
         <v>9</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K982" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L982" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M982" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E983" t="n">
         <v>9</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>3300</v>
+        <v>450</v>
       </c>
       <c r="K983" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L983" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M983" t="n">
-        <v>5455</v>
+        <v>12556</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>303</v>
+        <v>698</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E984" t="n">
         <v>9</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="K984" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L984" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M984" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E985" t="n">
         <v>9</v>
@@ -71268,7 +71268,7 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
@@ -71277,32 +71277,32 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="K985" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L985" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M985" t="n">
-        <v>4000</v>
+        <v>8933</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>400</v>
+        <v>496</v>
       </c>
       <c r="Q985" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71340,7 +71340,7 @@
       </c>
       <c r="H986" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K986" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L986" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M986" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>611</v>
+        <v>1000</v>
       </c>
       <c r="Q986" t="n">
         <v>18</v>
@@ -71412,7 +71412,7 @@
       </c>
       <c r="H987" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>1000</v>
+        <v>3300</v>
       </c>
       <c r="K987" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L987" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M987" t="n">
-        <v>9500</v>
+        <v>5455</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>528</v>
+        <v>303</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71484,7 +71484,7 @@
       </c>
       <c r="H988" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K988" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L988" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M988" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>278</v>
+        <v>667</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -71565,32 +71565,32 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K989" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="L989" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="M989" t="n">
-        <v>7000</v>
+        <v>4000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q989" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71633,36 +71633,36 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K990" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L990" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M990" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>333</v>
+        <v>611</v>
       </c>
       <c r="Q990" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R990" t="inlineStr">
         <is>
@@ -71709,32 +71709,32 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="K991" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="L991" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M991" t="n">
-        <v>6000</v>
+        <v>9500</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>400</v>
+        <v>528</v>
       </c>
       <c r="Q991" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E992" t="n">
         <v>9</v>
@@ -71772,7 +71772,7 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="K992" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L992" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M992" t="n">
-        <v>13083</v>
+        <v>5000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>727</v>
+        <v>278</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E993" t="n">
         <v>9</v>
@@ -71844,7 +71844,7 @@
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
@@ -71853,32 +71853,32 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="K993" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L993" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M993" t="n">
-        <v>4783</v>
+        <v>7000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>478</v>
+        <v>389</v>
       </c>
       <c r="Q993" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E994" t="n">
         <v>9</v>
@@ -71916,41 +71916,41 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>380</v>
+        <v>300</v>
       </c>
       <c r="K994" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L994" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M994" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="Q994" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44302</v>
+        <v>44273</v>
       </c>
       <c r="E995" t="n">
         <v>9</v>
@@ -71988,41 +71988,41 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K995" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L995" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M995" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>889</v>
+        <v>400</v>
       </c>
       <c r="Q995" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E996" t="n">
         <v>9</v>
@@ -72069,16 +72069,16 @@
         </is>
       </c>
       <c r="J996" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K996" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L996" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M996" t="n">
-        <v>10000</v>
+        <v>13083</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>556</v>
+        <v>727</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E997" t="n">
         <v>9</v>
@@ -72141,32 +72141,32 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>600</v>
+        <v>1500</v>
       </c>
       <c r="K997" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L997" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M997" t="n">
-        <v>12500</v>
+        <v>4783</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>694</v>
+        <v>478</v>
       </c>
       <c r="Q997" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E998" t="n">
         <v>9</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="K998" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L998" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M998" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72281,36 +72281,36 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="K999" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="L999" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="M999" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>400</v>
+        <v>889</v>
       </c>
       <c r="Q999" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K1000" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1000" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1000" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q1000" t="n">
         <v>18</v>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K1001" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L1001" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M1001" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>500</v>
+        <v>694</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72492,7 +72492,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -72519,7 +72519,7 @@
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1002" t="n">
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1003" t="n">
         <v>9</v>
@@ -72569,36 +72569,36 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K1003" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L1003" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="M1003" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>778</v>
+        <v>400</v>
       </c>
       <c r="Q1003" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1004" t="n">
         <v>9</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>2900</v>
+        <v>80</v>
       </c>
       <c r="K1004" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L1004" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M1004" t="n">
-        <v>12483</v>
+        <v>8000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>694</v>
+        <v>444</v>
       </c>
       <c r="Q1004" t="n">
         <v>18</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1005" t="n">
         <v>9</v>
@@ -72708,7 +72708,7 @@
       </c>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="K1005" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="L1005" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="M1005" t="n">
-        <v>11000</v>
+        <v>9000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1006" t="n">
         <v>9</v>
@@ -72780,7 +72780,7 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
@@ -72789,32 +72789,32 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="K1006" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1006" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M1006" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q1006" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1006" t="inlineStr">
         <is>
@@ -72857,33 +72857,33 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1007" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1007" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M1007" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>667</v>
+        <v>778</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72929,36 +72929,36 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>300</v>
+        <v>2900</v>
       </c>
       <c r="K1008" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L1008" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M1008" t="n">
-        <v>4000</v>
+        <v>12483</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>400</v>
+        <v>694</v>
       </c>
       <c r="Q1008" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1008" t="inlineStr">
         <is>
@@ -72996,7 +72996,7 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
@@ -73005,20 +73005,20 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>5300</v>
+        <v>2000</v>
       </c>
       <c r="K1009" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1009" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="M1009" t="n">
-        <v>8472</v>
+        <v>11000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
@@ -73027,10 +73027,10 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>565</v>
+        <v>611</v>
       </c>
       <c r="Q1009" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73068,41 +73068,41 @@
       </c>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1010" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1010" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1010" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1010" t="n">
         <v>500</v>
       </c>
-      <c r="K1010" t="n">
-        <v>6000</v>
-      </c>
-      <c r="L1010" t="n">
-        <v>6000</v>
-      </c>
-      <c r="M1010" t="n">
-        <v>6000</v>
-      </c>
-      <c r="N1010" t="inlineStr">
-        <is>
-          <t>$/caja 15 kilos</t>
-        </is>
-      </c>
-      <c r="O1010" t="inlineStr">
-        <is>
-          <t>Región del Maule</t>
-        </is>
-      </c>
-      <c r="P1010" t="n">
-        <v>400</v>
-      </c>
       <c r="Q1010" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1011" t="n">
         <v>9</v>
@@ -73149,29 +73149,29 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K1011" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L1011" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M1011" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>1222</v>
+        <v>667</v>
       </c>
       <c r="Q1011" t="n">
         <v>18</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1012" t="n">
         <v>9</v>
@@ -73217,24 +73217,24 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K1012" t="n">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="L1012" t="n">
-        <v>18000</v>
+        <v>4000</v>
       </c>
       <c r="M1012" t="n">
-        <v>17400</v>
+        <v>4000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1012" t="inlineStr">
@@ -73243,10 +73243,10 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>967</v>
+        <v>400</v>
       </c>
       <c r="Q1012" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1012" t="inlineStr">
         <is>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1013" t="n">
         <v>9</v>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -73293,32 +73293,32 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>1500</v>
+        <v>5300</v>
       </c>
       <c r="K1013" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1013" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1013" t="n">
-        <v>7000</v>
+        <v>8472</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>700</v>
+        <v>565</v>
       </c>
       <c r="Q1013" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73341,58 +73341,346 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1014" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I1014" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1014" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1014" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1014" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P1014" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1014" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1015" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1014" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1014" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G1014" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H1014" t="inlineStr">
-        <is>
-          <t>Larga vida</t>
-        </is>
-      </c>
-      <c r="I1014" t="inlineStr">
+      <c r="E1015" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1015" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1015" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1015" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J1014" t="n">
+      <c r="J1015" t="n">
+        <v>100</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>22000</v>
+      </c>
+      <c r="N1015" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1015" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1015" t="n">
+        <v>1222</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1015" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1016" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1016" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1016" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1016" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1016" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>17000</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>17400</v>
+      </c>
+      <c r="N1016" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1016" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1016" t="n">
+        <v>967</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1016" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1017" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1017" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1017" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1017" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1017" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1017" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1017" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1017" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1017" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1018" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1018" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1018" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1018" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1018" t="n">
         <v>300</v>
       </c>
-      <c r="K1014" t="n">
+      <c r="K1018" t="n">
         <v>22000</v>
       </c>
-      <c r="L1014" t="n">
+      <c r="L1018" t="n">
         <v>22000</v>
       </c>
-      <c r="M1014" t="n">
+      <c r="M1018" t="n">
         <v>22000</v>
       </c>
-      <c r="N1014" t="inlineStr">
+      <c r="N1018" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="O1014" t="inlineStr">
+      <c r="O1018" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1014" t="n">
+      <c r="P1018" t="n">
         <v>1222</v>
       </c>
-      <c r="Q1014" t="n">
+      <c r="Q1018" t="n">
         <v>18</v>
       </c>
-      <c r="R1014" t="inlineStr">
+      <c r="R1018" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1024"/>
+  <dimension ref="A1:R1025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E975" t="n">
         <v>9</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>300</v>
+        <v>780</v>
       </c>
       <c r="K975" t="n">
-        <v>16000</v>
+        <v>22000</v>
       </c>
       <c r="L975" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="M975" t="n">
-        <v>16667</v>
+        <v>22500</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70575,11 +70575,11 @@
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>926</v>
+        <v>1250</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K976" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L976" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M976" t="n">
-        <v>12000</v>
+        <v>16667</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>667</v>
+        <v>926</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70701,20 +70701,20 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K977" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L977" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M977" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O977" t="inlineStr">
@@ -70723,10 +70723,10 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q977" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R977" t="inlineStr">
         <is>
@@ -70764,25 +70764,25 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="K978" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L978" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M978" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="Q978" t="n">
         <v>10</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E979" t="n">
         <v>9</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,32 +70845,32 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K979" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L979" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="M979" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q979" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R979" t="inlineStr">
         <is>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K980" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L980" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M980" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>556</v>
+        <v>1222</v>
       </c>
       <c r="Q980" t="n">
         <v>18</v>
@@ -70989,20 +70989,20 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="K981" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L981" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M981" t="n">
-        <v>4467</v>
+        <v>10000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
@@ -71011,10 +71011,10 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>447</v>
+        <v>556</v>
       </c>
       <c r="Q981" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71061,20 +71061,20 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="K982" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="L982" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M982" t="n">
-        <v>15000</v>
+        <v>4467</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O982" t="inlineStr">
@@ -71083,10 +71083,10 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>833</v>
+        <v>447</v>
       </c>
       <c r="Q982" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R982" t="inlineStr">
         <is>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E983" t="n">
         <v>9</v>
@@ -71133,29 +71133,29 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="K983" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L983" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M983" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>556</v>
+        <v>833</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71205,20 +71205,20 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>950</v>
+        <v>1250</v>
       </c>
       <c r="K984" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L984" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="M984" t="n">
-        <v>8237</v>
+        <v>10000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
@@ -71227,10 +71227,10 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q984" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71273,24 +71273,24 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="K985" t="n">
         <v>8000</v>
       </c>
       <c r="L985" t="n">
-        <v>8000</v>
+        <v>8500</v>
       </c>
       <c r="M985" t="n">
-        <v>8000</v>
+        <v>8237</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
@@ -71299,10 +71299,10 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>444</v>
+        <v>549</v>
       </c>
       <c r="Q985" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71349,20 +71349,20 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K986" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L986" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M986" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
@@ -71371,10 +71371,10 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q986" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E987" t="n">
         <v>9</v>
@@ -71417,36 +71417,36 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K987" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="L987" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M987" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>889</v>
+        <v>333</v>
       </c>
       <c r="Q987" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K988" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L988" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M988" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>722</v>
+        <v>889</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="K989" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L989" t="n">
         <v>13000</v>
       </c>
       <c r="M989" t="n">
-        <v>12556</v>
+        <v>13000</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>698</v>
+        <v>722</v>
       </c>
       <c r="Q989" t="n">
         <v>18</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="K990" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L990" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M990" t="n">
-        <v>10000</v>
+        <v>12556</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>556</v>
+        <v>698</v>
       </c>
       <c r="Q990" t="n">
         <v>18</v>
@@ -71700,25 +71700,25 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="K991" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L991" t="n">
         <v>10000</v>
       </c>
       <c r="M991" t="n">
-        <v>8933</v>
+        <v>10000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="Q991" t="n">
         <v>18</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E992" t="n">
         <v>9</v>
@@ -71772,25 +71772,25 @@
       </c>
       <c r="H992" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="K992" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L992" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M992" t="n">
-        <v>18000</v>
+        <v>8933</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>1000</v>
+        <v>496</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>3300</v>
+        <v>200</v>
       </c>
       <c r="K993" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L993" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M993" t="n">
-        <v>5455</v>
+        <v>18000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71871,11 +71871,11 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>303</v>
+        <v>1000</v>
       </c>
       <c r="Q993" t="n">
         <v>18</v>
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>900</v>
+        <v>3300</v>
       </c>
       <c r="K994" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L994" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M994" t="n">
-        <v>12000</v>
+        <v>5455</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>667</v>
+        <v>303</v>
       </c>
       <c r="Q994" t="n">
         <v>18</v>
@@ -71997,32 +71997,32 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="K995" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L995" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M995" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="Q995" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72060,41 +72060,41 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J996" t="n">
+        <v>600</v>
+      </c>
+      <c r="K996" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L996" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M996" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N996" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O996" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P996" t="n">
         <v>400</v>
       </c>
-      <c r="K996" t="n">
-        <v>10000</v>
-      </c>
-      <c r="L996" t="n">
-        <v>12000</v>
-      </c>
-      <c r="M996" t="n">
-        <v>11000</v>
-      </c>
-      <c r="N996" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O996" t="inlineStr">
-        <is>
-          <t>Región del Maule</t>
-        </is>
-      </c>
-      <c r="P996" t="n">
-        <v>611</v>
-      </c>
       <c r="Q996" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="K997" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L997" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M997" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>528</v>
+        <v>611</v>
       </c>
       <c r="Q997" t="n">
         <v>18</v>
@@ -72213,16 +72213,16 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K998" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L998" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M998" t="n">
-        <v>5000</v>
+        <v>9500</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>278</v>
+        <v>528</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K999" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="L999" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M999" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72357,32 +72357,32 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K1000" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L1000" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1000" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="Q1000" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72432,13 +72432,13 @@
         <v>300</v>
       </c>
       <c r="K1001" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="L1001" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1001" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="Q1001" t="n">
         <v>15</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1002" t="n">
         <v>9</v>
@@ -72492,7 +72492,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -72501,32 +72501,32 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K1002" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L1002" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="M1002" t="n">
-        <v>13083</v>
+        <v>6000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>727</v>
+        <v>400</v>
       </c>
       <c r="Q1002" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72573,20 +72573,20 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K1003" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="L1003" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="M1003" t="n">
-        <v>4783</v>
+        <v>13083</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
@@ -72595,10 +72595,10 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>478</v>
+        <v>727</v>
       </c>
       <c r="Q1003" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72641,24 +72641,24 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>380</v>
+        <v>1500</v>
       </c>
       <c r="K1004" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L1004" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1004" t="n">
-        <v>8000</v>
+        <v>4783</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
@@ -72667,10 +72667,10 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="Q1004" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1005" t="n">
         <v>9</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="K1005" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L1005" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M1005" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>889</v>
+        <v>444</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K1006" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L1006" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M1006" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K1007" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1007" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1007" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="K1008" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1008" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1008" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>556</v>
+        <v>694</v>
       </c>
       <c r="Q1008" t="n">
         <v>18</v>
@@ -73005,20 +73005,20 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="K1009" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L1009" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="M1009" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1009" t="inlineStr">
@@ -73027,10 +73027,10 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>400</v>
+        <v>556</v>
       </c>
       <c r="Q1009" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1009" t="inlineStr">
         <is>
@@ -73073,36 +73073,36 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>80</v>
+        <v>1500</v>
       </c>
       <c r="K1010" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1010" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M1010" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="Q1010" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73140,25 +73140,25 @@
       </c>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="K1011" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L1011" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="M1011" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="Q1011" t="n">
         <v>18</v>
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K1012" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="L1012" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="M1012" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73239,11 +73239,11 @@
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q1012" t="n">
         <v>18</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1013" t="n">
         <v>9</v>
@@ -73284,25 +73284,25 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K1013" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L1013" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M1013" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73311,11 +73311,11 @@
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>778</v>
+        <v>556</v>
       </c>
       <c r="Q1013" t="n">
         <v>18</v>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="K1014" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1014" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M1014" t="n">
-        <v>12483</v>
+        <v>14000</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>694</v>
+        <v>778</v>
       </c>
       <c r="Q1014" t="n">
         <v>18</v>
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="K1015" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1015" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1015" t="n">
-        <v>11000</v>
+        <v>12483</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73455,11 +73455,11 @@
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>611</v>
+        <v>694</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73509,32 +73509,32 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K1016" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L1016" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M1016" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1016" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73581,20 +73581,20 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="K1017" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L1017" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M1017" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
@@ -73603,10 +73603,10 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q1017" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73649,24 +73649,24 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K1018" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L1018" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M1018" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
@@ -73675,10 +73675,10 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="Q1018" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73716,41 +73716,41 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>5300</v>
+        <v>300</v>
       </c>
       <c r="K1019" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1019" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M1019" t="n">
-        <v>8472</v>
+        <v>4000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>565</v>
+        <v>400</v>
       </c>
       <c r="Q1019" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>500</v>
+        <v>5300</v>
       </c>
       <c r="K1020" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1020" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1020" t="n">
-        <v>6000</v>
+        <v>8472</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>400</v>
+        <v>565</v>
       </c>
       <c r="Q1020" t="n">
         <v>15</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1021" t="n">
         <v>9</v>
@@ -73860,41 +73860,41 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K1021" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="L1021" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="M1021" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>1222</v>
+        <v>400</v>
       </c>
       <c r="Q1021" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K1022" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L1022" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M1022" t="n">
-        <v>17400</v>
+        <v>22000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>967</v>
+        <v>1222</v>
       </c>
       <c r="Q1022" t="n">
         <v>18</v>
@@ -74013,20 +74013,20 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K1023" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L1023" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M1023" t="n">
-        <v>7000</v>
+        <v>17400</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1023" t="inlineStr">
@@ -74035,10 +74035,10 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>700</v>
+        <v>967</v>
       </c>
       <c r="Q1023" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1023" t="inlineStr">
         <is>
@@ -74085,34 +74085,106 @@
         </is>
       </c>
       <c r="J1024" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1024" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1024" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1024" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1024" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1025" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1025" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1025" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1025" t="n">
         <v>300</v>
       </c>
-      <c r="K1024" t="n">
+      <c r="K1025" t="n">
         <v>22000</v>
       </c>
-      <c r="L1024" t="n">
+      <c r="L1025" t="n">
         <v>22000</v>
       </c>
-      <c r="M1024" t="n">
+      <c r="M1025" t="n">
         <v>22000</v>
       </c>
-      <c r="N1024" t="inlineStr">
+      <c r="N1025" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="O1024" t="inlineStr">
+      <c r="O1025" t="inlineStr">
         <is>
           <t>Región de Arica y Parinacota</t>
         </is>
       </c>
-      <c r="P1024" t="n">
+      <c r="P1025" t="n">
         <v>1222</v>
       </c>
-      <c r="Q1024" t="n">
+      <c r="Q1025" t="n">
         <v>18</v>
       </c>
-      <c r="R1024" t="inlineStr">
+      <c r="R1025" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1040"/>
+  <dimension ref="A1:R1042"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E967" t="n">
         <v>9</v>
@@ -69972,7 +69972,7 @@
       </c>
       <c r="H967" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -69981,32 +69981,32 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="K967" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="L967" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M967" t="n">
-        <v>18000</v>
+        <v>14545</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P967" t="n">
-        <v>1800</v>
+        <v>808</v>
       </c>
       <c r="Q967" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E968" t="n">
         <v>9</v>
@@ -70049,36 +70049,36 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="K968" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="L968" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="M968" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>944</v>
+        <v>500</v>
       </c>
       <c r="Q968" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R968" t="inlineStr">
         <is>
@@ -70116,7 +70116,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -70125,32 +70125,32 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>2000</v>
+        <v>40</v>
       </c>
       <c r="K969" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L969" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="M969" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>389</v>
+        <v>1800</v>
       </c>
       <c r="Q969" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K970" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L970" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M970" t="n">
-        <v>14429</v>
+        <v>17000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>802</v>
+        <v>944</v>
       </c>
       <c r="Q970" t="n">
         <v>18</v>
@@ -70269,32 +70269,32 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="K971" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L971" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M971" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q971" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R971" t="inlineStr">
         <is>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="K972" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L972" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M972" t="n">
-        <v>5000</v>
+        <v>14429</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>278</v>
+        <v>802</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70409,36 +70409,36 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>220</v>
+        <v>1400</v>
       </c>
       <c r="K973" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L973" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M973" t="n">
-        <v>3455</v>
+        <v>5000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O973" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P973" t="n">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="Q973" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R973" t="inlineStr">
         <is>
@@ -70476,25 +70476,25 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="K974" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L974" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M974" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>556</v>
+        <v>278</v>
       </c>
       <c r="Q974" t="n">
         <v>18</v>
@@ -70548,41 +70548,41 @@
       </c>
       <c r="H975" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>800</v>
+        <v>220</v>
       </c>
       <c r="K975" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="L975" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="M975" t="n">
-        <v>12000</v>
+        <v>3455</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>667</v>
+        <v>230</v>
       </c>
       <c r="Q975" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R975" t="inlineStr">
         <is>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="K976" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L976" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M976" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q976" t="n">
         <v>18</v>
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K977" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L977" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M977" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70719,11 +70719,11 @@
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>389</v>
+        <v>667</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70773,32 +70773,32 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K978" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L978" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M978" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="Q978" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R978" t="inlineStr">
         <is>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E979" t="n">
         <v>9</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="K979" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L979" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="M979" t="n">
-        <v>18538</v>
+        <v>7000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70863,11 +70863,11 @@
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>1030</v>
+        <v>389</v>
       </c>
       <c r="Q979" t="n">
         <v>18</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44295</v>
+        <v>44270</v>
       </c>
       <c r="E980" t="n">
         <v>9</v>
@@ -70917,32 +70917,32 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="K980" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L980" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="M980" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>944</v>
+        <v>400</v>
       </c>
       <c r="Q980" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E981" t="n">
         <v>9</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>500</v>
+        <v>650</v>
       </c>
       <c r="K981" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="L981" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="M981" t="n">
-        <v>17800</v>
+        <v>18538</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>989</v>
+        <v>1030</v>
       </c>
       <c r="Q981" t="n">
         <v>18</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E982" t="n">
         <v>9</v>
@@ -71052,7 +71052,7 @@
       </c>
       <c r="H982" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>1200</v>
+        <v>650</v>
       </c>
       <c r="K982" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L982" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M982" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>889</v>
+        <v>944</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71129,36 +71129,36 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="K983" t="n">
-        <v>6000</v>
+        <v>17500</v>
       </c>
       <c r="L983" t="n">
-        <v>6000</v>
+        <v>18000</v>
       </c>
       <c r="M983" t="n">
-        <v>6000</v>
+        <v>17800</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>600</v>
+        <v>989</v>
       </c>
       <c r="Q983" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R983" t="inlineStr">
         <is>
@@ -71196,7 +71196,7 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="K984" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L984" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M984" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>556</v>
+        <v>889</v>
       </c>
       <c r="Q984" t="n">
         <v>18</v>
@@ -71268,7 +71268,7 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
@@ -71277,32 +71277,32 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="K985" t="n">
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="L985" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M985" t="n">
-        <v>11500</v>
+        <v>6000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>639</v>
+        <v>600</v>
       </c>
       <c r="Q985" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71349,32 +71349,32 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K986" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L986" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="M986" t="n">
-        <v>8500</v>
+        <v>10000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="Q986" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71421,29 +71421,29 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="K987" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L987" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M987" t="n">
-        <v>8500</v>
+        <v>11500</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>472</v>
+        <v>639</v>
       </c>
       <c r="Q987" t="n">
         <v>18</v>
@@ -71489,24 +71489,24 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="K988" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="L988" t="n">
         <v>9000</v>
       </c>
       <c r="M988" t="n">
-        <v>9000</v>
+        <v>8500</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
@@ -71515,10 +71515,10 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="Q988" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R988" t="inlineStr">
         <is>
@@ -71561,36 +71561,36 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K989" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L989" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M989" t="n">
-        <v>6500</v>
+        <v>8500</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="Q989" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E990" t="n">
         <v>9</v>
@@ -71628,25 +71628,25 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>780</v>
+        <v>500</v>
       </c>
       <c r="K990" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="L990" t="n">
-        <v>23000</v>
+        <v>9000</v>
       </c>
       <c r="M990" t="n">
-        <v>22500</v>
+        <v>9000</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>1250</v>
+        <v>500</v>
       </c>
       <c r="Q990" t="n">
         <v>18</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E991" t="n">
         <v>9</v>
@@ -71700,41 +71700,41 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K991" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L991" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M991" t="n">
-        <v>16667</v>
+        <v>6500</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>926</v>
+        <v>433</v>
       </c>
       <c r="Q991" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E992" t="n">
         <v>9</v>
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>500</v>
+        <v>780</v>
       </c>
       <c r="K992" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L992" t="n">
-        <v>12000</v>
+        <v>23000</v>
       </c>
       <c r="M992" t="n">
-        <v>12000</v>
+        <v>22500</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>667</v>
+        <v>1250</v>
       </c>
       <c r="Q992" t="n">
         <v>18</v>
@@ -71849,24 +71849,24 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K993" t="n">
-        <v>5000</v>
+        <v>16000</v>
       </c>
       <c r="L993" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M993" t="n">
-        <v>5000</v>
+        <v>16667</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O993" t="inlineStr">
@@ -71875,10 +71875,10 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>500</v>
+        <v>926</v>
       </c>
       <c r="Q993" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R993" t="inlineStr">
         <is>
@@ -71916,16 +71916,16 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="K994" t="n">
         <v>12000</v>
@@ -71938,19 +71938,19 @@
       </c>
       <c r="N994" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q994" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R994" t="inlineStr">
         <is>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E995" t="n">
         <v>9</v>
@@ -71993,24 +71993,24 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K995" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="L995" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="M995" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O995" t="inlineStr">
@@ -72019,10 +72019,10 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>1222</v>
+        <v>500</v>
       </c>
       <c r="Q995" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R995" t="inlineStr">
         <is>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E996" t="n">
         <v>9</v>
@@ -72060,41 +72060,41 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="K996" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L996" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M996" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>556</v>
+        <v>1200</v>
       </c>
       <c r="Q996" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R996" t="inlineStr">
         <is>
@@ -72137,24 +72137,24 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="K997" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="L997" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="M997" t="n">
-        <v>4467</v>
+        <v>22000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
@@ -72163,10 +72163,10 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>447</v>
+        <v>1222</v>
       </c>
       <c r="Q997" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72213,20 +72213,20 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="K998" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L998" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M998" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O998" t="inlineStr">
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E999" t="n">
         <v>9</v>
@@ -72285,32 +72285,32 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="K999" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L999" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M999" t="n">
-        <v>10000</v>
+        <v>4467</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>556</v>
+        <v>447</v>
       </c>
       <c r="Q999" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R999" t="inlineStr">
         <is>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1000" t="n">
         <v>9</v>
@@ -72357,32 +72357,32 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="K1000" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L1000" t="n">
-        <v>8500</v>
+        <v>15000</v>
       </c>
       <c r="M1000" t="n">
-        <v>8237</v>
+        <v>15000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>549</v>
+        <v>833</v>
       </c>
       <c r="Q1000" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="K1001" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1001" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1001" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="K1002" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L1002" t="n">
-        <v>5000</v>
+        <v>8500</v>
       </c>
       <c r="M1002" t="n">
-        <v>5000</v>
+        <v>8237</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>333</v>
+        <v>549</v>
       </c>
       <c r="Q1002" t="n">
         <v>15</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1003" t="n">
         <v>9</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K1003" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="L1003" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="M1003" t="n">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72591,11 +72591,11 @@
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>889</v>
+        <v>444</v>
       </c>
       <c r="Q1003" t="n">
         <v>18</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1004" t="n">
         <v>9</v>
@@ -72641,36 +72641,36 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="K1004" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L1004" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M1004" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>722</v>
+        <v>333</v>
       </c>
       <c r="Q1004" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1004" t="inlineStr">
         <is>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K1005" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L1005" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1005" t="n">
-        <v>12556</v>
+        <v>16000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>698</v>
+        <v>889</v>
       </c>
       <c r="Q1005" t="n">
         <v>18</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K1006" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1006" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1006" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>556</v>
+        <v>722</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72852,7 +72852,7 @@
       </c>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>750</v>
+        <v>450</v>
       </c>
       <c r="K1007" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L1007" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1007" t="n">
-        <v>8933</v>
+        <v>12556</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>496</v>
+        <v>698</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1008" t="n">
         <v>9</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="K1008" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L1008" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M1008" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>1000</v>
+        <v>556</v>
       </c>
       <c r="Q1008" t="n">
         <v>18</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1009" t="n">
         <v>9</v>
@@ -72996,7 +72996,7 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
@@ -73005,16 +73005,16 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>3300</v>
+        <v>750</v>
       </c>
       <c r="K1009" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L1009" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M1009" t="n">
-        <v>5455</v>
+        <v>8933</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>303</v>
+        <v>496</v>
       </c>
       <c r="Q1009" t="n">
         <v>18</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K1010" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L1010" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="M1010" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q1010" t="n">
         <v>18</v>
@@ -73149,32 +73149,32 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>600</v>
+        <v>3300</v>
       </c>
       <c r="K1011" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1011" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="M1011" t="n">
-        <v>4000</v>
+        <v>5455</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>400</v>
+        <v>303</v>
       </c>
       <c r="Q1011" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73212,25 +73212,25 @@
       </c>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="K1012" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1012" t="n">
         <v>12000</v>
       </c>
       <c r="M1012" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73239,11 +73239,11 @@
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>611</v>
+        <v>667</v>
       </c>
       <c r="Q1012" t="n">
         <v>18</v>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -73293,32 +73293,32 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K1013" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L1013" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M1013" t="n">
-        <v>9500</v>
+        <v>4000</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>528</v>
+        <v>400</v>
       </c>
       <c r="Q1013" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73361,20 +73361,20 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K1014" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1014" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M1014" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73383,11 +73383,11 @@
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>278</v>
+        <v>611</v>
       </c>
       <c r="Q1014" t="n">
         <v>18</v>
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K1015" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1015" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1015" t="n">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73455,11 +73455,11 @@
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>389</v>
+        <v>528</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73509,7 +73509,7 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K1016" t="n">
         <v>5000</v>
@@ -73522,19 +73522,19 @@
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Región de La Araucanía</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="Q1016" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73581,20 +73581,20 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K1017" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="L1017" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="M1017" t="n">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
@@ -73603,10 +73603,10 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="Q1017" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1018" t="n">
         <v>9</v>
@@ -73644,7 +73644,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -73653,32 +73653,32 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="K1018" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L1018" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M1018" t="n">
-        <v>13083</v>
+        <v>5000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de La Araucanía</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>727</v>
+        <v>333</v>
       </c>
       <c r="Q1018" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1019" t="n">
         <v>9</v>
@@ -73716,7 +73716,7 @@
       </c>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -73725,32 +73725,32 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K1019" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="L1019" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1019" t="n">
-        <v>4783</v>
+        <v>6000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>478</v>
+        <v>400</v>
       </c>
       <c r="Q1019" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>380</v>
+        <v>1200</v>
       </c>
       <c r="K1020" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L1020" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M1020" t="n">
-        <v>8000</v>
+        <v>13083</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>444</v>
+        <v>727</v>
       </c>
       <c r="Q1020" t="n">
         <v>18</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1021" t="n">
         <v>9</v>
@@ -73865,36 +73865,36 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="K1021" t="n">
-        <v>16000</v>
+        <v>4500</v>
       </c>
       <c r="L1021" t="n">
-        <v>16000</v>
+        <v>5000</v>
       </c>
       <c r="M1021" t="n">
-        <v>16000</v>
+        <v>4783</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>889</v>
+        <v>478</v>
       </c>
       <c r="Q1021" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1022" t="n">
         <v>9</v>
@@ -73937,20 +73937,20 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="K1022" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1022" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1022" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q1022" t="n">
         <v>18</v>
@@ -74009,20 +74009,20 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="K1023" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L1023" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1023" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>694</v>
+        <v>889</v>
       </c>
       <c r="Q1023" t="n">
         <v>18</v>
@@ -74085,7 +74085,7 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K1024" t="n">
         <v>10000</v>
@@ -74103,7 +74103,7 @@
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1024" t="n">
@@ -74157,32 +74157,32 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="K1025" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L1025" t="n">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="M1025" t="n">
-        <v>4000</v>
+        <v>12500</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>400</v>
+        <v>694</v>
       </c>
       <c r="Q1025" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K1026" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1026" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1026" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74247,11 +74247,11 @@
       </c>
       <c r="O1026" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q1026" t="n">
         <v>18</v>
@@ -74292,7 +74292,7 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
@@ -74301,32 +74301,32 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K1027" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L1027" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M1027" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q1027" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1027" t="inlineStr">
         <is>
@@ -74364,25 +74364,25 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K1028" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1028" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1028" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74391,11 +74391,11 @@
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q1028" t="n">
         <v>18</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1029" t="n">
         <v>9</v>
@@ -74436,38 +74436,38 @@
       </c>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1029" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>9000</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>9000</v>
+      </c>
+      <c r="N1029" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1029" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P1029" t="n">
         <v>500</v>
-      </c>
-      <c r="K1029" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L1029" t="n">
-        <v>14000</v>
-      </c>
-      <c r="M1029" t="n">
-        <v>14000</v>
-      </c>
-      <c r="N1029" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O1029" t="inlineStr">
-        <is>
-          <t>Limache</t>
-        </is>
-      </c>
-      <c r="P1029" t="n">
-        <v>778</v>
       </c>
       <c r="Q1029" t="n">
         <v>18</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1030" t="n">
         <v>9</v>
@@ -74508,7 +74508,7 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>2900</v>
+        <v>200</v>
       </c>
       <c r="K1030" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1030" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1030" t="n">
-        <v>12483</v>
+        <v>10000</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74535,11 +74535,11 @@
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>694</v>
+        <v>556</v>
       </c>
       <c r="Q1030" t="n">
         <v>18</v>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="K1031" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L1031" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="M1031" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74607,11 +74607,11 @@
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>611</v>
+        <v>778</v>
       </c>
       <c r="Q1031" t="n">
         <v>18</v>
@@ -74661,32 +74661,32 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="K1032" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L1032" t="n">
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="M1032" t="n">
-        <v>5000</v>
+        <v>12483</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>500</v>
+        <v>694</v>
       </c>
       <c r="Q1032" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1032" t="inlineStr">
         <is>
@@ -74733,29 +74733,29 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="K1033" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L1033" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="M1033" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>667</v>
+        <v>611</v>
       </c>
       <c r="Q1033" t="n">
         <v>18</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>300</v>
+        <v>2500</v>
       </c>
       <c r="K1034" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1034" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1034" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q1034" t="n">
         <v>10</v>
@@ -74868,7 +74868,7 @@
       </c>
       <c r="H1035" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1035" t="inlineStr">
@@ -74877,32 +74877,32 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>5300</v>
+        <v>400</v>
       </c>
       <c r="K1035" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L1035" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M1035" t="n">
-        <v>8472</v>
+        <v>12000</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>565</v>
+        <v>667</v>
       </c>
       <c r="Q1035" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1035" t="inlineStr">
         <is>
@@ -74940,7 +74940,7 @@
       </c>
       <c r="H1036" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1036" t="inlineStr">
@@ -74949,32 +74949,32 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K1036" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="L1036" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="M1036" t="n">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1036" t="n">
         <v>400</v>
       </c>
       <c r="Q1036" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1036" t="inlineStr">
         <is>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1037" t="n">
         <v>9</v>
@@ -75012,7 +75012,7 @@
       </c>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
@@ -75021,32 +75021,32 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>100</v>
+        <v>5300</v>
       </c>
       <c r="K1037" t="n">
-        <v>22000</v>
+        <v>8000</v>
       </c>
       <c r="L1037" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M1037" t="n">
-        <v>22000</v>
+        <v>8472</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>1222</v>
+        <v>565</v>
       </c>
       <c r="Q1037" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1037" t="inlineStr">
         <is>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1038" t="n">
         <v>9</v>
@@ -75084,41 +75084,41 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1038" t="n">
         <v>500</v>
       </c>
       <c r="K1038" t="n">
-        <v>17000</v>
+        <v>6000</v>
       </c>
       <c r="L1038" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M1038" t="n">
-        <v>17400</v>
+        <v>6000</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>967</v>
+        <v>400</v>
       </c>
       <c r="Q1038" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
@@ -75165,32 +75165,32 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="K1039" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="L1039" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="M1039" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>700</v>
+        <v>1222</v>
       </c>
       <c r="Q1039" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1039" t="inlineStr">
         <is>
@@ -75237,20 +75237,20 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1040" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L1040" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M1040" t="n">
-        <v>22000</v>
+        <v>17400</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1040" t="inlineStr">
@@ -75259,12 +75259,156 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>1222</v>
+        <v>967</v>
       </c>
       <c r="Q1040" t="n">
         <v>18</v>
       </c>
       <c r="R1040" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1041" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1041" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1041" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1041" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>7000</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N1041" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1041" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1041" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1041" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1042" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1042" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1042" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1042" t="n">
+        <v>300</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>22000</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>22000</v>
+      </c>
+      <c r="N1042" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1042" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1042" t="n">
+        <v>1222</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1042" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1057"/>
+  <dimension ref="A1:R1062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E909" t="n">
         <v>9</v>
@@ -65796,7 +65796,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -65805,32 +65805,32 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>1200</v>
+        <v>80</v>
       </c>
       <c r="K909" t="n">
-        <v>9000</v>
+        <v>17000</v>
       </c>
       <c r="L909" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M909" t="n">
-        <v>9542</v>
+        <v>17000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>530</v>
+        <v>1700</v>
       </c>
       <c r="Q909" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R909" t="inlineStr">
         <is>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E910" t="n">
         <v>9</v>
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="K910" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="L910" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M910" t="n">
-        <v>12472</v>
+        <v>18000</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>693</v>
+        <v>1000</v>
       </c>
       <c r="Q910" t="n">
         <v>18</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E911" t="n">
         <v>9</v>
@@ -65945,36 +65945,36 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>750</v>
+        <v>4500</v>
       </c>
       <c r="K911" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L911" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="M911" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="Q911" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R911" t="inlineStr">
         <is>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E912" t="n">
         <v>9</v>
@@ -66012,7 +66012,7 @@
       </c>
       <c r="H912" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="K912" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L912" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M912" t="n">
-        <v>22000</v>
+        <v>13455</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>1222</v>
+        <v>748</v>
       </c>
       <c r="Q912" t="n">
         <v>18</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E913" t="n">
         <v>9</v>
@@ -66084,7 +66084,7 @@
       </c>
       <c r="H913" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -66093,32 +66093,32 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K913" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="L913" t="n">
-        <v>18000</v>
+        <v>8500</v>
       </c>
       <c r="M913" t="n">
-        <v>17400</v>
+        <v>8500</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>967</v>
+        <v>567</v>
       </c>
       <c r="Q913" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R913" t="inlineStr">
         <is>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E914" t="n">
         <v>9</v>
@@ -66165,32 +66165,32 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K914" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L914" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M914" t="n">
-        <v>7000</v>
+        <v>9542</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>700</v>
+        <v>530</v>
       </c>
       <c r="Q914" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R914" t="inlineStr">
         <is>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E915" t="n">
         <v>9</v>
@@ -66237,29 +66237,29 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="K915" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L915" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M915" t="n">
-        <v>22000</v>
+        <v>12472</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>1222</v>
+        <v>693</v>
       </c>
       <c r="Q915" t="n">
         <v>18</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44272</v>
+        <v>44246</v>
       </c>
       <c r="E916" t="n">
         <v>9</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="K916" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L916" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="M916" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q916" t="n">
         <v>18</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -66381,32 +66381,32 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K917" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="L917" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="M917" t="n">
-        <v>4000</v>
+        <v>22000</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>400</v>
+        <v>1222</v>
       </c>
       <c r="Q917" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R917" t="inlineStr">
         <is>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E918" t="n">
         <v>9</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K918" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L918" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M918" t="n">
-        <v>16000</v>
+        <v>17400</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>889</v>
+        <v>967</v>
       </c>
       <c r="Q918" t="n">
         <v>18</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E919" t="n">
         <v>9</v>
@@ -66525,32 +66525,32 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="K919" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L919" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M919" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="Q919" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R919" t="inlineStr">
         <is>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E920" t="n">
         <v>9</v>
@@ -66597,20 +66597,20 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="K920" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="L920" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M920" t="n">
-        <v>12471</v>
+        <v>22000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O920" t="inlineStr">
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>693</v>
+        <v>1222</v>
       </c>
       <c r="Q920" t="n">
         <v>18</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E921" t="n">
         <v>9</v>
@@ -66669,32 +66669,32 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="K921" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="L921" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="M921" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="Q921" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R921" t="inlineStr">
         <is>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E922" t="n">
         <v>9</v>
@@ -66737,24 +66737,24 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K922" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L922" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M922" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O922" t="inlineStr">
@@ -66763,10 +66763,10 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q922" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R922" t="inlineStr">
         <is>
@@ -66804,25 +66804,25 @@
       </c>
       <c r="H923" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>735</v>
+        <v>250</v>
       </c>
       <c r="K923" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L923" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M923" t="n">
-        <v>8966</v>
+        <v>16000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>498</v>
+        <v>889</v>
       </c>
       <c r="Q923" t="n">
         <v>18</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E924" t="n">
         <v>9</v>
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="K924" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L924" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M924" t="n">
-        <v>13419</v>
+        <v>12000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>746</v>
+        <v>667</v>
       </c>
       <c r="Q924" t="n">
         <v>18</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E925" t="n">
         <v>9</v>
@@ -66957,20 +66957,20 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>2150</v>
+        <v>850</v>
       </c>
       <c r="K925" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L925" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M925" t="n">
-        <v>4291</v>
+        <v>12471</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O925" t="inlineStr">
@@ -66979,10 +66979,10 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>429</v>
+        <v>693</v>
       </c>
       <c r="Q925" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R925" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E926" t="n">
         <v>9</v>
@@ -67025,36 +67025,36 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>65</v>
+        <v>650</v>
       </c>
       <c r="K926" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="L926" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="M926" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="Q926" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R926" t="inlineStr">
         <is>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E927" t="n">
         <v>9</v>
@@ -67092,41 +67092,41 @@
       </c>
       <c r="H927" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>1550</v>
+        <v>250</v>
       </c>
       <c r="K927" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="L927" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="M927" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>333</v>
+        <v>500</v>
       </c>
       <c r="Q927" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R927" t="inlineStr">
         <is>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E928" t="n">
         <v>9</v>
@@ -67164,7 +67164,7 @@
       </c>
       <c r="H928" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>250</v>
+        <v>735</v>
       </c>
       <c r="K928" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L928" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M928" t="n">
-        <v>14000</v>
+        <v>8966</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>778</v>
+        <v>498</v>
       </c>
       <c r="Q928" t="n">
         <v>18</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E929" t="n">
         <v>9</v>
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="K929" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L929" t="n">
         <v>14000</v>
       </c>
-      <c r="L929" t="n">
-        <v>15000</v>
-      </c>
       <c r="M929" t="n">
-        <v>14481</v>
+        <v>13419</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>804</v>
+        <v>746</v>
       </c>
       <c r="Q929" t="n">
         <v>18</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E930" t="n">
         <v>9</v>
@@ -67313,36 +67313,36 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>200</v>
+        <v>2150</v>
       </c>
       <c r="K930" t="n">
-        <v>12000</v>
+        <v>4000</v>
       </c>
       <c r="L930" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="M930" t="n">
-        <v>12000</v>
+        <v>4291</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>667</v>
+        <v>429</v>
       </c>
       <c r="Q930" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R930" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E931" t="n">
         <v>9</v>
@@ -67385,11 +67385,11 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="K931" t="n">
         <v>8000</v>
@@ -67407,7 +67407,7 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P931" t="n">
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E932" t="n">
         <v>9</v>
@@ -67461,20 +67461,20 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>650</v>
+        <v>1550</v>
       </c>
       <c r="K932" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L932" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M932" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O932" t="inlineStr">
@@ -67483,10 +67483,10 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="Q932" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R932" t="inlineStr">
         <is>
@@ -67524,7 +67524,7 @@
       </c>
       <c r="H933" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -67533,32 +67533,32 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K933" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L933" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M933" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>533</v>
+        <v>778</v>
       </c>
       <c r="Q933" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R933" t="inlineStr">
         <is>
@@ -67596,25 +67596,25 @@
       </c>
       <c r="H934" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>480</v>
+        <v>385</v>
       </c>
       <c r="K934" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="L934" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M934" t="n">
-        <v>8000</v>
+        <v>14481</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>444</v>
+        <v>804</v>
       </c>
       <c r="Q934" t="n">
         <v>18</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E935" t="n">
         <v>9</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="K935" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="L935" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="M935" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>1389</v>
+        <v>667</v>
       </c>
       <c r="Q935" t="n">
         <v>18</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E936" t="n">
         <v>9</v>
@@ -67745,36 +67745,36 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>780</v>
+        <v>185</v>
       </c>
       <c r="K936" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L936" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M936" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q936" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R936" t="inlineStr">
         <is>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E937" t="n">
         <v>9</v>
@@ -67812,25 +67812,25 @@
       </c>
       <c r="H937" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="K937" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L937" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M937" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>1222</v>
+        <v>556</v>
       </c>
       <c r="Q937" t="n">
         <v>18</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E938" t="n">
         <v>9</v>
@@ -67884,41 +67884,41 @@
       </c>
       <c r="H938" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J938" t="n">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="K938" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L938" t="n">
-        <v>21000</v>
+        <v>8000</v>
       </c>
       <c r="M938" t="n">
-        <v>20500</v>
+        <v>8000</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O938" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P938" t="n">
-        <v>1139</v>
+        <v>533</v>
       </c>
       <c r="Q938" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R938" t="inlineStr">
         <is>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44425</v>
+        <v>44225</v>
       </c>
       <c r="E939" t="n">
         <v>9</v>
@@ -67956,41 +67956,41 @@
       </c>
       <c r="H939" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J939" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="K939" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="L939" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="M939" t="n">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O939" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P939" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="Q939" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R939" t="inlineStr">
         <is>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E940" t="n">
         <v>9</v>
@@ -68037,20 +68037,20 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="K940" t="n">
-        <v>14000</v>
+        <v>25000</v>
       </c>
       <c r="L940" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="M940" t="n">
-        <v>14500</v>
+        <v>25000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O940" t="inlineStr">
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>806</v>
+        <v>1389</v>
       </c>
       <c r="Q940" t="n">
         <v>18</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E941" t="n">
         <v>9</v>
@@ -68105,24 +68105,24 @@
       </c>
       <c r="I941" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J941" t="n">
-        <v>400</v>
+        <v>780</v>
       </c>
       <c r="K941" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L941" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M941" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O941" t="inlineStr">
@@ -68131,10 +68131,10 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>917</v>
+        <v>1000</v>
       </c>
       <c r="Q941" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R941" t="inlineStr">
         <is>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44315</v>
+        <v>44447</v>
       </c>
       <c r="E942" t="n">
         <v>9</v>
@@ -68177,24 +68177,24 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K942" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L942" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="M942" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O942" t="inlineStr">
@@ -68203,10 +68203,10 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>850</v>
+        <v>1222</v>
       </c>
       <c r="Q942" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R942" t="inlineStr">
         <is>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E943" t="n">
         <v>9</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="K943" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L943" t="n">
-        <v>9000</v>
+        <v>21000</v>
       </c>
       <c r="M943" t="n">
-        <v>9000</v>
+        <v>20500</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>500</v>
+        <v>1139</v>
       </c>
       <c r="Q943" t="n">
         <v>18</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E944" t="n">
         <v>9</v>
@@ -68325,32 +68325,32 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="K944" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L944" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M944" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>556</v>
+        <v>400</v>
       </c>
       <c r="Q944" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R944" t="inlineStr">
         <is>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E945" t="n">
         <v>9</v>
@@ -68397,20 +68397,20 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K945" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="L945" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M945" t="n">
-        <v>11545</v>
+        <v>14500</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O945" t="inlineStr">
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>641</v>
+        <v>806</v>
       </c>
       <c r="Q945" t="n">
         <v>18</v>
@@ -68465,24 +68465,24 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>2700</v>
+        <v>400</v>
       </c>
       <c r="K946" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="L946" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="M946" t="n">
-        <v>4778</v>
+        <v>16500</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O946" t="inlineStr">
@@ -68491,10 +68491,10 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>478</v>
+        <v>917</v>
       </c>
       <c r="Q946" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R946" t="inlineStr">
         <is>
@@ -68537,36 +68537,36 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K947" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="L947" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="M947" t="n">
-        <v>7000</v>
+        <v>17000</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>389</v>
+        <v>850</v>
       </c>
       <c r="Q947" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R947" t="inlineStr">
         <is>
@@ -68604,7 +68604,7 @@
       </c>
       <c r="H948" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K948" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L948" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M948" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="Q948" t="n">
         <v>18</v>
@@ -68676,7 +68676,7 @@
       </c>
       <c r="H949" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K949" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L949" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M949" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q949" t="n">
         <v>18</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E950" t="n">
         <v>9</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>155</v>
+        <v>2200</v>
       </c>
       <c r="K950" t="n">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="L950" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="M950" t="n">
-        <v>19000</v>
+        <v>11545</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>1056</v>
+        <v>641</v>
       </c>
       <c r="Q950" t="n">
         <v>18</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E951" t="n">
         <v>9</v>
@@ -68829,20 +68829,20 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>450</v>
+        <v>2700</v>
       </c>
       <c r="K951" t="n">
-        <v>14000</v>
+        <v>4500</v>
       </c>
       <c r="L951" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="M951" t="n">
-        <v>14000</v>
+        <v>4778</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O951" t="inlineStr">
@@ -68851,10 +68851,10 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>778</v>
+        <v>478</v>
       </c>
       <c r="Q951" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R951" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E952" t="n">
         <v>9</v>
@@ -68897,36 +68897,36 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>850</v>
+        <v>400</v>
       </c>
       <c r="K952" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="L952" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M952" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="Q952" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R952" t="inlineStr">
         <is>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E953" t="n">
         <v>9</v>
@@ -68964,25 +68964,25 @@
       </c>
       <c r="H953" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="K953" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L953" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M953" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q953" t="n">
         <v>18</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44322</v>
+        <v>44315</v>
       </c>
       <c r="E954" t="n">
         <v>9</v>
@@ -69036,7 +69036,7 @@
       </c>
       <c r="H954" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="K954" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L954" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M954" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>444</v>
+        <v>333</v>
       </c>
       <c r="Q954" t="n">
         <v>18</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E955" t="n">
         <v>9</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>650</v>
+        <v>155</v>
       </c>
       <c r="K955" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="L955" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M955" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>556</v>
+        <v>1056</v>
       </c>
       <c r="Q955" t="n">
         <v>18</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E956" t="n">
         <v>9</v>
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="K956" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L956" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M956" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q956" t="n">
         <v>18</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E957" t="n">
         <v>9</v>
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>2550</v>
+        <v>850</v>
       </c>
       <c r="K957" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L957" t="n">
         <v>5000</v>
       </c>
       <c r="M957" t="n">
-        <v>4745</v>
+        <v>5000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="Q957" t="n">
         <v>10</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K958" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L958" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M958" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>333</v>
+        <v>722</v>
       </c>
       <c r="Q958" t="n">
         <v>18</v>
@@ -69396,7 +69396,7 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
@@ -69405,7 +69405,7 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="K959" t="n">
         <v>8000</v>
@@ -69423,7 +69423,7 @@
       </c>
       <c r="O959" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P959" t="n">
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E960" t="n">
         <v>9</v>
@@ -69473,36 +69473,36 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="K960" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L960" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="M960" t="n">
-        <v>24400</v>
+        <v>10000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>1220</v>
+        <v>556</v>
       </c>
       <c r="Q960" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R960" t="inlineStr">
         <is>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E961" t="n">
         <v>9</v>
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="K961" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L961" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M961" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="Q961" t="n">
         <v>18</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E962" t="n">
         <v>9</v>
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>800</v>
+        <v>2550</v>
       </c>
       <c r="K962" t="n">
-        <v>7000</v>
+        <v>4500</v>
       </c>
       <c r="L962" t="n">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M962" t="n">
-        <v>7000</v>
+        <v>4745</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>700</v>
+        <v>474</v>
       </c>
       <c r="Q962" t="n">
         <v>10</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E963" t="n">
         <v>9</v>
@@ -69689,33 +69689,33 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K963" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="L963" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="M963" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O963" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P963" t="n">
-        <v>1111</v>
+        <v>333</v>
       </c>
       <c r="Q963" t="n">
         <v>18</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44232</v>
+        <v>44322</v>
       </c>
       <c r="E964" t="n">
         <v>9</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>950</v>
+        <v>450</v>
       </c>
       <c r="K964" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L964" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M964" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q964" t="n">
         <v>18</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E965" t="n">
         <v>9</v>
@@ -69828,41 +69828,41 @@
       </c>
       <c r="H965" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>850</v>
+        <v>250</v>
       </c>
       <c r="K965" t="n">
-        <v>5000</v>
+        <v>24000</v>
       </c>
       <c r="L965" t="n">
-        <v>6000</v>
+        <v>25000</v>
       </c>
       <c r="M965" t="n">
-        <v>5471</v>
+        <v>24400</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O965" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P965" t="n">
-        <v>365</v>
+        <v>1220</v>
       </c>
       <c r="Q965" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R965" t="inlineStr">
         <is>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E966" t="n">
         <v>9</v>
@@ -69900,25 +69900,25 @@
       </c>
       <c r="H966" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="K966" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L966" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M966" t="n">
-        <v>9083</v>
+        <v>15000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>505</v>
+        <v>833</v>
       </c>
       <c r="Q966" t="n">
         <v>18</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44327</v>
+        <v>44495</v>
       </c>
       <c r="E967" t="n">
         <v>9</v>
@@ -69977,24 +69977,24 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K967" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L967" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M967" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O967" t="inlineStr">
@@ -70003,10 +70003,10 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>944</v>
+        <v>700</v>
       </c>
       <c r="Q967" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R967" t="inlineStr">
         <is>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44327</v>
+        <v>44495</v>
       </c>
       <c r="E968" t="n">
         <v>9</v>
@@ -70053,20 +70053,20 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="K968" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L968" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M968" t="n">
-        <v>12455</v>
+        <v>20000</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O968" t="inlineStr">
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>692</v>
+        <v>1111</v>
       </c>
       <c r="Q968" t="n">
         <v>18</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E969" t="n">
         <v>9</v>
@@ -70116,7 +70116,7 @@
       </c>
       <c r="H969" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -70125,32 +70125,32 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="K969" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L969" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M969" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O969" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P969" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q969" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R969" t="inlineStr">
         <is>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E970" t="n">
         <v>9</v>
@@ -70188,7 +70188,7 @@
       </c>
       <c r="H970" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
@@ -70197,32 +70197,32 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="K970" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L970" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M970" t="n">
-        <v>13000</v>
+        <v>5471</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>722</v>
+        <v>365</v>
       </c>
       <c r="Q970" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R970" t="inlineStr">
         <is>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E971" t="n">
         <v>9</v>
@@ -70265,20 +70265,20 @@
       </c>
       <c r="I971" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J971" t="n">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K971" t="n">
         <v>8000</v>
       </c>
       <c r="L971" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M971" t="n">
-        <v>8000</v>
+        <v>9083</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70287,11 +70287,11 @@
       </c>
       <c r="O971" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P971" t="n">
-        <v>444</v>
+        <v>505</v>
       </c>
       <c r="Q971" t="n">
         <v>18</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E972" t="n">
         <v>9</v>
@@ -70337,33 +70337,33 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K972" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="L972" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="M972" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>1222</v>
+        <v>944</v>
       </c>
       <c r="Q972" t="n">
         <v>18</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E973" t="n">
         <v>9</v>
@@ -70404,7 +70404,7 @@
       </c>
       <c r="H973" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>40</v>
+        <v>1100</v>
       </c>
       <c r="K973" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L973" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M973" t="n">
-        <v>20000</v>
+        <v>12455</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>1111</v>
+        <v>692</v>
       </c>
       <c r="Q973" t="n">
         <v>18</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E974" t="n">
         <v>9</v>
@@ -70476,7 +70476,7 @@
       </c>
       <c r="H974" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -70485,16 +70485,16 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="K974" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="L974" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M974" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>1300</v>
+        <v>500</v>
       </c>
       <c r="Q974" t="n">
         <v>10</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E975" t="n">
         <v>9</v>
@@ -70557,29 +70557,29 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="K975" t="n">
         <v>13000</v>
       </c>
       <c r="L975" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M975" t="n">
-        <v>13444</v>
+        <v>13000</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O975" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P975" t="n">
-        <v>747</v>
+        <v>722</v>
       </c>
       <c r="Q975" t="n">
         <v>18</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44161</v>
+        <v>44327</v>
       </c>
       <c r="E976" t="n">
         <v>9</v>
@@ -70620,7 +70620,7 @@
       </c>
       <c r="H976" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -70629,32 +70629,32 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="K976" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="L976" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="M976" t="n">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="Q976" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R976" t="inlineStr">
         <is>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E977" t="n">
         <v>9</v>
@@ -70701,29 +70701,29 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K977" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L977" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="M977" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O977" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P977" t="n">
-        <v>722</v>
+        <v>1222</v>
       </c>
       <c r="Q977" t="n">
         <v>18</v>
@@ -70764,25 +70764,25 @@
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K978" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L978" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="M978" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="Q978" t="n">
         <v>18</v>
@@ -70836,7 +70836,7 @@
       </c>
       <c r="H979" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I979" t="inlineStr">
@@ -70845,32 +70845,32 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="K979" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L979" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M979" t="n">
-        <v>11600</v>
+        <v>13000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O979" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P979" t="n">
-        <v>644</v>
+        <v>1300</v>
       </c>
       <c r="Q979" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R979" t="inlineStr">
         <is>
@@ -70908,7 +70908,7 @@
       </c>
       <c r="H980" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I980" t="inlineStr">
@@ -70917,32 +70917,32 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="K980" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L980" t="n">
-        <v>8000</v>
+        <v>14000</v>
       </c>
       <c r="M980" t="n">
-        <v>8000</v>
+        <v>13444</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>533</v>
+        <v>747</v>
       </c>
       <c r="Q980" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R980" t="inlineStr">
         <is>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E981" t="n">
         <v>9</v>
@@ -70989,32 +70989,32 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="K981" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="L981" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="M981" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>1222</v>
+        <v>500</v>
       </c>
       <c r="Q981" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R981" t="inlineStr">
         <is>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E982" t="n">
         <v>9</v>
@@ -71061,20 +71061,20 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K982" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="L982" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M982" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O982" t="inlineStr">
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>1111</v>
+        <v>722</v>
       </c>
       <c r="Q982" t="n">
         <v>18</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E983" t="n">
         <v>9</v>
@@ -71129,33 +71129,33 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K983" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L983" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M983" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>1111</v>
+        <v>667</v>
       </c>
       <c r="Q983" t="n">
         <v>18</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E984" t="n">
         <v>9</v>
@@ -71196,7 +71196,7 @@
       </c>
       <c r="H984" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
@@ -71205,32 +71205,32 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K984" t="n">
-        <v>1800</v>
+        <v>11000</v>
       </c>
       <c r="L984" t="n">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="M984" t="n">
-        <v>1905</v>
+        <v>11600</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>1905</v>
+        <v>644</v>
       </c>
       <c r="Q984" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R984" t="inlineStr">
         <is>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44238</v>
+        <v>44161</v>
       </c>
       <c r="E985" t="n">
         <v>9</v>
@@ -71268,7 +71268,7 @@
       </c>
       <c r="H985" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
@@ -71277,32 +71277,32 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>2450</v>
+        <v>3000</v>
       </c>
       <c r="K985" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L985" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M985" t="n">
-        <v>12510</v>
+        <v>8000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>695</v>
+        <v>533</v>
       </c>
       <c r="Q985" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R985" t="inlineStr">
         <is>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E986" t="n">
         <v>9</v>
@@ -71349,32 +71349,32 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>850</v>
+        <v>200</v>
       </c>
       <c r="K986" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="L986" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M986" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>800</v>
+        <v>1222</v>
       </c>
       <c r="Q986" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R986" t="inlineStr">
         <is>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E987" t="n">
         <v>9</v>
@@ -71421,32 +71421,32 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>650</v>
+        <v>500</v>
       </c>
       <c r="K987" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L987" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M987" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>667</v>
+        <v>1111</v>
       </c>
       <c r="Q987" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R987" t="inlineStr">
         <is>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44238</v>
+        <v>44468</v>
       </c>
       <c r="E988" t="n">
         <v>9</v>
@@ -71489,33 +71489,33 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="K988" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L988" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M988" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q988" t="n">
         <v>18</v>
@@ -71556,7 +71556,7 @@
       </c>
       <c r="H989" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -71565,32 +71565,32 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="K989" t="n">
-        <v>10000</v>
+        <v>1800</v>
       </c>
       <c r="L989" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M989" t="n">
-        <v>10000</v>
+        <v>1905</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>556</v>
+        <v>1905</v>
       </c>
       <c r="Q989" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R989" t="inlineStr">
         <is>
@@ -71628,25 +71628,25 @@
       </c>
       <c r="H990" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>250</v>
+        <v>2450</v>
       </c>
       <c r="K990" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L990" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M990" t="n">
-        <v>8000</v>
+        <v>12510</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>444</v>
+        <v>695</v>
       </c>
       <c r="Q990" t="n">
         <v>18</v>
@@ -71700,41 +71700,41 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>200</v>
+        <v>850</v>
       </c>
       <c r="K991" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L991" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M991" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>333</v>
+        <v>800</v>
       </c>
       <c r="Q991" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R991" t="inlineStr">
         <is>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E992" t="n">
         <v>9</v>
@@ -71781,32 +71781,32 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="K992" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L992" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="M992" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>778</v>
+        <v>667</v>
       </c>
       <c r="Q992" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R992" t="inlineStr">
         <is>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E993" t="n">
         <v>9</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="K993" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="L993" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M993" t="n">
-        <v>14458</v>
+        <v>10000</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>803</v>
+        <v>556</v>
       </c>
       <c r="Q993" t="n">
         <v>18</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E994" t="n">
         <v>9</v>
@@ -71916,7 +71916,7 @@
       </c>
       <c r="H994" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I994" t="inlineStr">
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="K994" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L994" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M994" t="n">
-        <v>15444</v>
+        <v>10000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>858</v>
+        <v>556</v>
       </c>
       <c r="Q994" t="n">
         <v>18</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E995" t="n">
         <v>9</v>
@@ -71988,7 +71988,7 @@
       </c>
       <c r="H995" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -71997,16 +71997,16 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="K995" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L995" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M995" t="n">
-        <v>12400</v>
+        <v>8000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72015,11 +72015,11 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>689</v>
+        <v>444</v>
       </c>
       <c r="Q995" t="n">
         <v>18</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44236</v>
+        <v>44238</v>
       </c>
       <c r="E996" t="n">
         <v>9</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K996" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L996" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M996" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="Q996" t="n">
         <v>18</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E997" t="n">
         <v>9</v>
@@ -72132,7 +72132,7 @@
       </c>
       <c r="H997" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -72141,32 +72141,32 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="K997" t="n">
-        <v>6500</v>
+        <v>14000</v>
       </c>
       <c r="L997" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M997" t="n">
-        <v>6818</v>
+        <v>14000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>455</v>
+        <v>778</v>
       </c>
       <c r="Q997" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R997" t="inlineStr">
         <is>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E998" t="n">
         <v>9</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>350</v>
+        <v>1200</v>
       </c>
       <c r="K998" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="L998" t="n">
-        <v>24000</v>
+        <v>15000</v>
       </c>
       <c r="M998" t="n">
-        <v>24000</v>
+        <v>14458</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>1333</v>
+        <v>803</v>
       </c>
       <c r="Q998" t="n">
         <v>18</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E999" t="n">
         <v>9</v>
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>1250</v>
+        <v>450</v>
       </c>
       <c r="K999" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L999" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M999" t="n">
-        <v>13520</v>
+        <v>15444</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>751</v>
+        <v>858</v>
       </c>
       <c r="Q999" t="n">
         <v>18</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1000" t="n">
         <v>9</v>
@@ -72353,36 +72353,36 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="K1000" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L1000" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M1000" t="n">
-        <v>6000</v>
+        <v>12400</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>600</v>
+        <v>689</v>
       </c>
       <c r="Q1000" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1000" t="inlineStr">
         <is>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E1001" t="n">
         <v>9</v>
@@ -72420,7 +72420,7 @@
       </c>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>1550</v>
+        <v>550</v>
       </c>
       <c r="K1001" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="L1001" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="M1001" t="n">
-        <v>7419</v>
+        <v>12000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>412</v>
+        <v>667</v>
       </c>
       <c r="Q1001" t="n">
         <v>18</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44251</v>
+        <v>44236</v>
       </c>
       <c r="E1002" t="n">
         <v>9</v>
@@ -72492,41 +72492,41 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="K1002" t="n">
-        <v>5000</v>
+        <v>6500</v>
       </c>
       <c r="L1002" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="M1002" t="n">
-        <v>5000</v>
+        <v>6818</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>278</v>
+        <v>455</v>
       </c>
       <c r="Q1002" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1002" t="inlineStr">
         <is>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E1003" t="n">
         <v>9</v>
@@ -72564,29 +72564,29 @@
       </c>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="K1003" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L1003" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M1003" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1003" t="inlineStr">
@@ -72595,10 +72595,10 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>2200</v>
+        <v>1333</v>
       </c>
       <c r="Q1003" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1003" t="inlineStr">
         <is>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E1004" t="n">
         <v>9</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>850</v>
+        <v>1250</v>
       </c>
       <c r="K1004" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L1004" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="M1004" t="n">
-        <v>17471</v>
+        <v>13520</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>971</v>
+        <v>751</v>
       </c>
       <c r="Q1004" t="n">
         <v>18</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E1005" t="n">
         <v>9</v>
@@ -72713,24 +72713,24 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>250</v>
+        <v>3500</v>
       </c>
       <c r="K1005" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="L1005" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="M1005" t="n">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
-          <t>$/caja 16 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1005" t="inlineStr">
@@ -72739,10 +72739,10 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Q1005" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="R1005" t="inlineStr">
         <is>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1006" t="n">
         <v>9</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="K1006" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="L1006" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M1006" t="n">
-        <v>13000</v>
+        <v>7419</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>722</v>
+        <v>412</v>
       </c>
       <c r="Q1006" t="n">
         <v>18</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1007" t="n">
         <v>9</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>2400</v>
+        <v>850</v>
       </c>
       <c r="K1007" t="n">
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="L1007" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M1007" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>667</v>
+        <v>278</v>
       </c>
       <c r="Q1007" t="n">
         <v>18</v>
@@ -72924,7 +72924,7 @@
       </c>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="K1008" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="L1008" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="M1008" t="n">
-        <v>5000</v>
+        <v>22000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="Q1008" t="n">
         <v>10</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1009" t="n">
         <v>9</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>350</v>
+        <v>850</v>
       </c>
       <c r="K1009" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L1009" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="M1009" t="n">
-        <v>20571</v>
+        <v>17471</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>1143</v>
+        <v>971</v>
       </c>
       <c r="Q1009" t="n">
         <v>18</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1010" t="n">
         <v>9</v>
@@ -73073,24 +73073,24 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>1450</v>
+        <v>250</v>
       </c>
       <c r="K1010" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L1010" t="n">
         <v>16000</v>
       </c>
       <c r="M1010" t="n">
-        <v>15448</v>
+        <v>16000</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 16 kilos</t>
         </is>
       </c>
       <c r="O1010" t="inlineStr">
@@ -73099,10 +73099,10 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>858</v>
+        <v>1000</v>
       </c>
       <c r="Q1010" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="R1010" t="inlineStr">
         <is>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1011" t="n">
         <v>9</v>
@@ -73149,32 +73149,32 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="K1011" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L1011" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M1011" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>600</v>
+        <v>722</v>
       </c>
       <c r="Q1011" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1011" t="inlineStr">
         <is>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E1012" t="n">
         <v>9</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>200</v>
+        <v>2400</v>
       </c>
       <c r="K1012" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="L1012" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M1012" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73239,11 +73239,11 @@
       </c>
       <c r="O1012" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>944</v>
+        <v>667</v>
       </c>
       <c r="Q1012" t="n">
         <v>18</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44330</v>
+        <v>44340</v>
       </c>
       <c r="E1013" t="n">
         <v>9</v>
@@ -73293,32 +73293,32 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="K1013" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L1013" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M1013" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q1013" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1013" t="inlineStr">
         <is>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1014" t="n">
         <v>9</v>
@@ -73365,32 +73365,32 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K1014" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="L1014" t="n">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="M1014" t="n">
-        <v>6000</v>
+        <v>20571</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>600</v>
+        <v>1143</v>
       </c>
       <c r="Q1014" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1014" t="inlineStr">
         <is>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1015" t="n">
         <v>9</v>
@@ -73428,7 +73428,7 @@
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>500</v>
+        <v>1450</v>
       </c>
       <c r="K1015" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L1015" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M1015" t="n">
-        <v>13000</v>
+        <v>15448</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73455,11 +73455,11 @@
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>722</v>
+        <v>858</v>
       </c>
       <c r="Q1015" t="n">
         <v>18</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1016" t="n">
         <v>9</v>
@@ -73500,41 +73500,41 @@
       </c>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="K1016" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L1016" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M1016" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="Q1016" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1016" t="inlineStr">
         <is>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1017" t="n">
         <v>9</v>
@@ -73572,41 +73572,41 @@
       </c>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
       <c r="K1017" t="n">
-        <v>2200</v>
+        <v>17000</v>
       </c>
       <c r="L1017" t="n">
-        <v>2200</v>
+        <v>17000</v>
       </c>
       <c r="M1017" t="n">
-        <v>2200</v>
+        <v>17000</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>2200</v>
+        <v>944</v>
       </c>
       <c r="Q1017" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R1017" t="inlineStr">
         <is>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1018" t="n">
         <v>9</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K1018" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L1018" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M1018" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73671,11 +73671,11 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>833</v>
+        <v>667</v>
       </c>
       <c r="Q1018" t="n">
         <v>18</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1019" t="n">
         <v>9</v>
@@ -73721,24 +73721,24 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="K1019" t="n">
-        <v>20000</v>
+        <v>6000</v>
       </c>
       <c r="L1019" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="M1019" t="n">
-        <v>22078</v>
+        <v>6000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1019" t="inlineStr">
@@ -73747,10 +73747,10 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>1104</v>
+        <v>600</v>
       </c>
       <c r="Q1019" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R1019" t="inlineStr">
         <is>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1020" t="n">
         <v>9</v>
@@ -73788,7 +73788,7 @@
       </c>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -73797,7 +73797,7 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="K1020" t="n">
         <v>13000</v>
@@ -73815,7 +73815,7 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1020" t="n">
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1021" t="n">
         <v>9</v>
@@ -73860,41 +73860,41 @@
       </c>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K1021" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L1021" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M1021" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1021" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>1200</v>
+        <v>556</v>
       </c>
       <c r="Q1021" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1021" t="inlineStr">
         <is>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1022" t="n">
         <v>9</v>
@@ -73932,41 +73932,41 @@
       </c>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="K1022" t="n">
-        <v>14000</v>
+        <v>2200</v>
       </c>
       <c r="L1022" t="n">
-        <v>14000</v>
+        <v>2200</v>
       </c>
       <c r="M1022" t="n">
-        <v>14000</v>
+        <v>2200</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>778</v>
+        <v>2200</v>
       </c>
       <c r="Q1022" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R1022" t="inlineStr">
         <is>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1023" t="n">
         <v>9</v>
@@ -74009,20 +74009,20 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>530</v>
+        <v>250</v>
       </c>
       <c r="K1023" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1023" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1023" t="n">
-        <v>12434</v>
+        <v>15000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74031,11 +74031,11 @@
       </c>
       <c r="O1023" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>691</v>
+        <v>833</v>
       </c>
       <c r="Q1023" t="n">
         <v>18</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1024" t="n">
         <v>9</v>
@@ -74076,41 +74076,41 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>480</v>
+        <v>385</v>
       </c>
       <c r="K1024" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="L1024" t="n">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="M1024" t="n">
-        <v>12000</v>
+        <v>22078</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1024" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>667</v>
+        <v>1104</v>
       </c>
       <c r="Q1024" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1024" t="inlineStr">
         <is>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1025" t="n">
         <v>9</v>
@@ -74148,7 +74148,7 @@
       </c>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
@@ -74157,32 +74157,32 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>1800</v>
+        <v>480</v>
       </c>
       <c r="K1025" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L1025" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M1025" t="n">
-        <v>8653</v>
+        <v>13000</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1025" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>577</v>
+        <v>722</v>
       </c>
       <c r="Q1025" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1025" t="inlineStr">
         <is>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E1026" t="n">
         <v>9</v>
@@ -74220,29 +74220,29 @@
       </c>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="K1026" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="L1026" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="M1026" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1026" t="inlineStr">
@@ -74251,10 +74251,10 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>1222</v>
+        <v>1200</v>
       </c>
       <c r="Q1026" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1026" t="inlineStr">
         <is>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1027" t="n">
         <v>9</v>
@@ -74292,25 +74292,25 @@
       </c>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>1500</v>
+        <v>110</v>
       </c>
       <c r="K1027" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="L1027" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="M1027" t="n">
-        <v>21133</v>
+        <v>14000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74319,11 +74319,11 @@
       </c>
       <c r="O1027" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>1174</v>
+        <v>778</v>
       </c>
       <c r="Q1027" t="n">
         <v>18</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1028" t="n">
         <v>9</v>
@@ -74364,7 +74364,7 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -74373,32 +74373,32 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>2200</v>
+        <v>530</v>
       </c>
       <c r="K1028" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L1028" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="M1028" t="n">
-        <v>14852</v>
+        <v>12434</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1028" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>990</v>
+        <v>691</v>
       </c>
       <c r="Q1028" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1028" t="inlineStr">
         <is>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44194</v>
+        <v>44181</v>
       </c>
       <c r="E1029" t="n">
         <v>9</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="K1029" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="L1029" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="M1029" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>1000</v>
+        <v>667</v>
       </c>
       <c r="Q1029" t="n">
         <v>18</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E1030" t="n">
         <v>9</v>
@@ -74508,41 +74508,41 @@
       </c>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>400</v>
+        <v>1800</v>
       </c>
       <c r="K1030" t="n">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="L1030" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M1030" t="n">
-        <v>17000</v>
+        <v>8653</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1030" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>944</v>
+        <v>577</v>
       </c>
       <c r="Q1030" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1030" t="inlineStr">
         <is>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1031" t="n">
         <v>9</v>
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>3300</v>
+        <v>550</v>
       </c>
       <c r="K1031" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="L1031" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M1031" t="n">
-        <v>7545</v>
+        <v>22000</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74607,11 +74607,11 @@
       </c>
       <c r="O1031" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>419</v>
+        <v>1222</v>
       </c>
       <c r="Q1031" t="n">
         <v>18</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1032" t="n">
         <v>9</v>
@@ -74652,25 +74652,25 @@
       </c>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K1032" t="n">
-        <v>6000</v>
+        <v>20000</v>
       </c>
       <c r="L1032" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="M1032" t="n">
-        <v>6000</v>
+        <v>21133</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74679,11 +74679,11 @@
       </c>
       <c r="O1032" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>333</v>
+        <v>1174</v>
       </c>
       <c r="Q1032" t="n">
         <v>18</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1033" t="n">
         <v>9</v>
@@ -74724,25 +74724,25 @@
       </c>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>180</v>
+        <v>2200</v>
       </c>
       <c r="K1033" t="n">
-        <v>3000</v>
+        <v>14000</v>
       </c>
       <c r="L1033" t="n">
-        <v>4000</v>
+        <v>15500</v>
       </c>
       <c r="M1033" t="n">
-        <v>3444</v>
+        <v>14852</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74751,11 +74751,11 @@
       </c>
       <c r="O1033" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>230</v>
+        <v>990</v>
       </c>
       <c r="Q1033" t="n">
         <v>15</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44307</v>
+        <v>44194</v>
       </c>
       <c r="E1034" t="n">
         <v>9</v>
@@ -74796,25 +74796,25 @@
       </c>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K1034" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="L1034" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="M1034" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74823,11 +74823,11 @@
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q1034" t="n">
         <v>18</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1035" t="n">
         <v>9</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1035" t="n">
         <v>400</v>
       </c>
       <c r="K1035" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L1035" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M1035" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>722</v>
+        <v>944</v>
       </c>
       <c r="Q1035" t="n">
         <v>18</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1036" t="n">
         <v>9</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>450</v>
+        <v>3300</v>
       </c>
       <c r="K1036" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L1036" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M1036" t="n">
-        <v>12556</v>
+        <v>7545</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>698</v>
+        <v>419</v>
       </c>
       <c r="Q1036" t="n">
         <v>18</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1037" t="n">
         <v>9</v>
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="K1037" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L1037" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M1037" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75039,11 +75039,11 @@
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>556</v>
+        <v>333</v>
       </c>
       <c r="Q1037" t="n">
         <v>18</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1038" t="n">
         <v>9</v>
@@ -75084,41 +75084,41 @@
       </c>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>750</v>
+        <v>180</v>
       </c>
       <c r="K1038" t="n">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="L1038" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M1038" t="n">
-        <v>8933</v>
+        <v>3444</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>496</v>
+        <v>230</v>
       </c>
       <c r="Q1038" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1038" t="inlineStr">
         <is>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1039" t="n">
         <v>9</v>
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K1039" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="L1039" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="M1039" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75183,11 +75183,11 @@
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>1111</v>
+        <v>889</v>
       </c>
       <c r="Q1039" t="n">
         <v>18</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1040" t="n">
         <v>9</v>
@@ -75240,13 +75240,13 @@
         <v>400</v>
       </c>
       <c r="K1040" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L1040" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M1040" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75255,11 +75255,11 @@
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q1040" t="n">
         <v>18</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1041" t="n">
         <v>9</v>
@@ -75309,20 +75309,20 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="K1041" t="n">
-        <v>5500</v>
+        <v>12000</v>
       </c>
       <c r="L1041" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M1041" t="n">
-        <v>5500</v>
+        <v>12556</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1041" t="inlineStr">
@@ -75331,10 +75331,10 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>550</v>
+        <v>698</v>
       </c>
       <c r="Q1041" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1041" t="inlineStr">
         <is>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E1042" t="n">
         <v>9</v>
@@ -75377,20 +75377,20 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="K1042" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1042" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1042" t="n">
-        <v>12455</v>
+        <v>10000</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>692</v>
+        <v>556</v>
       </c>
       <c r="Q1042" t="n">
         <v>18</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E1043" t="n">
         <v>9</v>
@@ -75444,7 +75444,7 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
@@ -75453,16 +75453,16 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>430</v>
+        <v>750</v>
       </c>
       <c r="K1043" t="n">
-        <v>11000</v>
+        <v>8000</v>
       </c>
       <c r="L1043" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1043" t="n">
-        <v>11581</v>
+        <v>8933</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75471,11 +75471,11 @@
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>643</v>
+        <v>496</v>
       </c>
       <c r="Q1043" t="n">
         <v>18</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1044" t="n">
         <v>9</v>
@@ -75521,24 +75521,24 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>850</v>
+        <v>200</v>
       </c>
       <c r="K1044" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L1044" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M1044" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1044" t="inlineStr">
@@ -75547,10 +75547,10 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>500</v>
+        <v>1111</v>
       </c>
       <c r="Q1044" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1044" t="inlineStr">
         <is>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1045" t="n">
         <v>9</v>
@@ -75597,29 +75597,29 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>255</v>
+        <v>400</v>
       </c>
       <c r="K1045" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="L1045" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="M1045" t="n">
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1045" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="Q1045" t="n">
         <v>18</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1046" t="n">
         <v>9</v>
@@ -75660,7 +75660,7 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
@@ -75669,32 +75669,32 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>1150</v>
+        <v>400</v>
       </c>
       <c r="K1046" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="L1046" t="n">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="M1046" t="n">
-        <v>8565</v>
+        <v>5500</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="Q1046" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1046" t="inlineStr">
         <is>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1047" t="n">
         <v>9</v>
@@ -75732,7 +75732,7 @@
       </c>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
@@ -75741,32 +75741,32 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="K1047" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="L1047" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="M1047" t="n">
-        <v>20000</v>
+        <v>12455</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1047" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>2000</v>
+        <v>692</v>
       </c>
       <c r="Q1047" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1047" t="inlineStr">
         <is>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1048" t="n">
         <v>9</v>
@@ -75809,20 +75809,20 @@
       </c>
       <c r="I1048" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>700</v>
+        <v>430</v>
       </c>
       <c r="K1048" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="L1048" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M1048" t="n">
-        <v>23429</v>
+        <v>11581</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75831,11 +75831,11 @@
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>1302</v>
+        <v>643</v>
       </c>
       <c r="Q1048" t="n">
         <v>18</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1049" t="n">
         <v>9</v>
@@ -75885,32 +75885,32 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>1600</v>
+        <v>850</v>
       </c>
       <c r="K1049" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="L1049" t="n">
-        <v>22000</v>
+        <v>5000</v>
       </c>
       <c r="M1049" t="n">
-        <v>21000</v>
+        <v>5000</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>1167</v>
+        <v>500</v>
       </c>
       <c r="Q1049" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1049" t="inlineStr">
         <is>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1050" t="n">
         <v>9</v>
@@ -75957,29 +75957,29 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>1300</v>
+        <v>255</v>
       </c>
       <c r="K1050" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L1050" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M1050" t="n">
-        <v>21077</v>
+        <v>9000</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>1171</v>
+        <v>500</v>
       </c>
       <c r="Q1050" t="n">
         <v>18</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1051" t="n">
         <v>9</v>
@@ -76020,7 +76020,7 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
@@ -76029,32 +76029,32 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>3000</v>
+        <v>1150</v>
       </c>
       <c r="K1051" t="n">
         <v>8000</v>
       </c>
       <c r="L1051" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1051" t="n">
-        <v>8000</v>
+        <v>8565</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>800</v>
+        <v>476</v>
       </c>
       <c r="Q1051" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1051" t="inlineStr">
         <is>
@@ -76092,29 +76092,29 @@
       </c>
       <c r="H1052" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K1052" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L1052" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="M1052" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1052" t="inlineStr">
@@ -76123,10 +76123,10 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q1052" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1052" t="inlineStr">
         <is>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1053" t="n">
         <v>9</v>
@@ -76169,20 +76169,20 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K1053" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="L1053" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="M1053" t="n">
-        <v>16000</v>
+        <v>23429</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>889</v>
+        <v>1302</v>
       </c>
       <c r="Q1053" t="n">
         <v>18</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1054" t="n">
         <v>9</v>
@@ -76241,20 +76241,20 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="K1054" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="L1054" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="M1054" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>778</v>
+        <v>1167</v>
       </c>
       <c r="Q1054" t="n">
         <v>18</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1055" t="n">
         <v>9</v>
@@ -76308,7 +76308,7 @@
       </c>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="K1055" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="L1055" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="M1055" t="n">
-        <v>10200</v>
+        <v>21077</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76335,11 +76335,11 @@
       </c>
       <c r="O1055" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>567</v>
+        <v>1171</v>
       </c>
       <c r="Q1055" t="n">
         <v>18</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1056" t="n">
         <v>9</v>
@@ -76380,7 +76380,7 @@
       </c>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1056" t="inlineStr">
@@ -76389,7 +76389,7 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="K1056" t="n">
         <v>8000</v>
@@ -76402,19 +76402,19 @@
       </c>
       <c r="N1056" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1056" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>533</v>
+        <v>800</v>
       </c>
       <c r="Q1056" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1056" t="inlineStr">
         <is>
@@ -76437,58 +76437,418 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1057" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1057" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1057" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1057" t="n">
+        <v>200</v>
+      </c>
+      <c r="K1057" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L1057" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1057" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N1057" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1057" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1057" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1057" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1057" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1058" s="2" t="n">
         <v>44201</v>
       </c>
-      <c r="E1057" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1057" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G1057" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H1057" t="inlineStr">
+      <c r="E1058" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1058" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1058" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1058" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1058" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1058" t="n">
+        <v>16000</v>
+      </c>
+      <c r="L1058" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1058" t="n">
+        <v>16000</v>
+      </c>
+      <c r="N1058" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1058" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1058" t="n">
+        <v>889</v>
+      </c>
+      <c r="Q1058" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1058" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1059" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1059" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1059" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1059" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1059" t="n">
+        <v>200</v>
+      </c>
+      <c r="K1059" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1059" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M1059" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N1059" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1059" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1059" t="n">
+        <v>778</v>
+      </c>
+      <c r="Q1059" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1059" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1060" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1060" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1060" t="inlineStr">
         <is>
           <t>Semiduro</t>
         </is>
       </c>
-      <c r="I1057" t="inlineStr">
+      <c r="I1060" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1060" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K1060" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1060" t="n">
+        <v>11000</v>
+      </c>
+      <c r="M1060" t="n">
+        <v>10200</v>
+      </c>
+      <c r="N1060" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1060" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P1060" t="n">
+        <v>567</v>
+      </c>
+      <c r="Q1060" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1060" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1061" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1061" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1061" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I1061" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1061" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1061" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1061" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1061" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N1061" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1061" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P1061" t="n">
+        <v>533</v>
+      </c>
+      <c r="Q1061" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1061" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1062" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1062" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1062" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I1062" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1057" t="n">
+      <c r="J1062" t="n">
         <v>1500</v>
       </c>
-      <c r="K1057" t="n">
+      <c r="K1062" t="n">
         <v>6000</v>
       </c>
-      <c r="L1057" t="n">
+      <c r="L1062" t="n">
         <v>6000</v>
       </c>
-      <c r="M1057" t="n">
+      <c r="M1062" t="n">
         <v>6000</v>
       </c>
-      <c r="N1057" t="inlineStr">
+      <c r="N1062" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O1057" t="inlineStr">
+      <c r="O1062" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P1057" t="n">
+      <c r="P1062" t="n">
         <v>400</v>
       </c>
-      <c r="Q1057" t="n">
+      <c r="Q1062" t="n">
         <v>15</v>
       </c>
-      <c r="R1057" t="inlineStr">
+      <c r="R1062" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1197"/>
+  <dimension ref="A1:R1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1092" t="n">
         <v>9</v>
@@ -78981,20 +78981,20 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="K1092" t="n">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="L1092" t="n">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="M1092" t="n">
-        <v>2000</v>
+        <v>15000</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1092" t="inlineStr">
@@ -79003,10 +79003,10 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="Q1092" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R1092" t="inlineStr">
         <is>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1093" t="n">
         <v>9</v>
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K1093" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="L1093" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="M1093" t="n">
-        <v>24000</v>
+        <v>19200</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>1333</v>
+        <v>1067</v>
       </c>
       <c r="Q1093" t="n">
         <v>18</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1094" t="n">
         <v>9</v>
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="K1094" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="L1094" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="M1094" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>1222</v>
+        <v>833</v>
       </c>
       <c r="Q1094" t="n">
         <v>18</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1095" t="n">
         <v>9</v>
@@ -79200,17 +79200,17 @@
         <v>2000</v>
       </c>
       <c r="K1095" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L1095" t="n">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="M1095" t="n">
-        <v>18375</v>
+        <v>7000</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1095" t="inlineStr">
@@ -79219,10 +79219,10 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>1021</v>
+        <v>700</v>
       </c>
       <c r="Q1095" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1095" t="inlineStr">
         <is>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1096" t="n">
         <v>9</v>
@@ -79260,7 +79260,7 @@
       </c>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
@@ -79269,32 +79269,32 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>3800</v>
+        <v>2700</v>
       </c>
       <c r="K1096" t="n">
-        <v>7000</v>
+        <v>13000</v>
       </c>
       <c r="L1096" t="n">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M1096" t="n">
-        <v>7000</v>
+        <v>13444</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1096" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>700</v>
+        <v>747</v>
       </c>
       <c r="Q1096" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1096" t="inlineStr">
         <is>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44427</v>
+        <v>44578</v>
       </c>
       <c r="E1097" t="n">
         <v>9</v>
@@ -79332,41 +79332,41 @@
       </c>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K1097" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L1097" t="n">
-        <v>22000</v>
+        <v>9000</v>
       </c>
       <c r="M1097" t="n">
-        <v>20889</v>
+        <v>9000</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1097" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>1160</v>
+        <v>600</v>
       </c>
       <c r="Q1097" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1097" t="inlineStr">
         <is>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44427</v>
+        <v>44578</v>
       </c>
       <c r="E1098" t="n">
         <v>9</v>
@@ -79404,25 +79404,25 @@
       </c>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>2200</v>
+        <v>200</v>
       </c>
       <c r="K1098" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="L1098" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1098" t="n">
-        <v>11318</v>
+        <v>10000</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79431,11 +79431,11 @@
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>629</v>
+        <v>556</v>
       </c>
       <c r="Q1098" t="n">
         <v>18</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44427</v>
+        <v>44578</v>
       </c>
       <c r="E1099" t="n">
         <v>9</v>
@@ -79476,41 +79476,41 @@
       </c>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>4000</v>
+        <v>300</v>
       </c>
       <c r="K1099" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L1099" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M1099" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1099" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="Q1099" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1099" t="inlineStr">
         <is>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1100" t="n">
         <v>9</v>
@@ -79548,7 +79548,7 @@
       </c>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>Sin especificar</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
@@ -79557,20 +79557,20 @@
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K1100" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="L1100" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M1100" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O1100" t="inlineStr">
@@ -79579,10 +79579,10 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Q1100" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R1100" t="inlineStr">
         <is>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="E1101" t="n">
         <v>9</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="K1101" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="L1101" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="M1101" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>1222</v>
+        <v>1333</v>
       </c>
       <c r="Q1101" t="n">
         <v>18</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="E1102" t="n">
         <v>9</v>
@@ -79701,16 +79701,16 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K1102" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="L1102" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M1102" t="n">
-        <v>17400</v>
+        <v>22000</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79719,11 +79719,11 @@
       </c>
       <c r="O1102" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>967</v>
+        <v>1222</v>
       </c>
       <c r="Q1102" t="n">
         <v>18</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="E1103" t="n">
         <v>9</v>
@@ -79773,20 +79773,20 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K1103" t="n">
-        <v>7000</v>
+        <v>18000</v>
       </c>
       <c r="L1103" t="n">
-        <v>7000</v>
+        <v>19000</v>
       </c>
       <c r="M1103" t="n">
-        <v>7000</v>
+        <v>18375</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1103" t="inlineStr">
@@ -79795,10 +79795,10 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>700</v>
+        <v>1021</v>
       </c>
       <c r="Q1103" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1103" t="inlineStr">
         <is>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="E1104" t="n">
         <v>9</v>
@@ -79845,20 +79845,20 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="K1104" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="L1104" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="M1104" t="n">
-        <v>22000</v>
+        <v>7000</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1104" t="inlineStr">
@@ -79867,10 +79867,10 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>1222</v>
+        <v>700</v>
       </c>
       <c r="Q1104" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1104" t="inlineStr">
         <is>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44293</v>
+        <v>44427</v>
       </c>
       <c r="E1105" t="n">
         <v>9</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>365</v>
+        <v>900</v>
       </c>
       <c r="K1105" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="L1105" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M1105" t="n">
-        <v>18000</v>
+        <v>20889</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79935,11 +79935,11 @@
       </c>
       <c r="O1105" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>1000</v>
+        <v>1160</v>
       </c>
       <c r="Q1105" t="n">
         <v>18</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44293</v>
+        <v>44427</v>
       </c>
       <c r="E1106" t="n">
         <v>9</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>155</v>
+        <v>2200</v>
       </c>
       <c r="K1106" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="L1106" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="M1106" t="n">
-        <v>20000</v>
+        <v>11318</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80007,11 +80007,11 @@
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>1111</v>
+        <v>629</v>
       </c>
       <c r="Q1106" t="n">
         <v>18</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44293</v>
+        <v>44427</v>
       </c>
       <c r="E1107" t="n">
         <v>9</v>
@@ -80061,32 +80061,32 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>350</v>
+        <v>4000</v>
       </c>
       <c r="K1107" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="L1107" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="M1107" t="n">
-        <v>20000</v>
+        <v>4500</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1107" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>1111</v>
+        <v>450</v>
       </c>
       <c r="Q1107" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1107" t="inlineStr">
         <is>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44293</v>
+        <v>44427</v>
       </c>
       <c r="E1108" t="n">
         <v>9</v>
@@ -80124,7 +80124,7 @@
       </c>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Sin especificar</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
@@ -80133,20 +80133,20 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="K1108" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="L1108" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="M1108" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1108" t="inlineStr">
@@ -80158,7 +80158,7 @@
         <v>1000</v>
       </c>
       <c r="Q1108" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1108" t="inlineStr">
         <is>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1109" t="n">
         <v>9</v>
@@ -80196,7 +80196,7 @@
       </c>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
@@ -80205,32 +80205,32 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K1109" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="L1109" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M1109" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1109" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>667</v>
+        <v>1222</v>
       </c>
       <c r="Q1109" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1109" t="inlineStr">
         <is>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44266</v>
+        <v>44491</v>
       </c>
       <c r="E1110" t="n">
         <v>9</v>
@@ -80273,20 +80273,20 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>195</v>
+        <v>500</v>
       </c>
       <c r="K1110" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L1110" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="M1110" t="n">
-        <v>14000</v>
+        <v>17400</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80295,11 +80295,11 @@
       </c>
       <c r="O1110" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>778</v>
+        <v>967</v>
       </c>
       <c r="Q1110" t="n">
         <v>18</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44266</v>
+        <v>44491</v>
       </c>
       <c r="E1111" t="n">
         <v>9</v>
@@ -80345,36 +80345,36 @@
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>680</v>
+        <v>1500</v>
       </c>
       <c r="K1111" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L1111" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M1111" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1111" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="Q1111" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1111" t="inlineStr">
         <is>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44266</v>
+        <v>44491</v>
       </c>
       <c r="E1112" t="n">
         <v>9</v>
@@ -80421,29 +80421,29 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>3500</v>
+        <v>300</v>
       </c>
       <c r="K1112" t="n">
-        <v>8500</v>
+        <v>22000</v>
       </c>
       <c r="L1112" t="n">
-        <v>9000</v>
+        <v>22000</v>
       </c>
       <c r="M1112" t="n">
-        <v>8736</v>
+        <v>22000</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1112" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>485</v>
+        <v>1222</v>
       </c>
       <c r="Q1112" t="n">
         <v>18</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1113" t="n">
         <v>9</v>
@@ -80493,16 +80493,16 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>680</v>
+        <v>365</v>
       </c>
       <c r="K1113" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="L1113" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="M1113" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80511,11 +80511,11 @@
       </c>
       <c r="O1113" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>833</v>
+        <v>1000</v>
       </c>
       <c r="Q1113" t="n">
         <v>18</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1114" t="n">
         <v>9</v>
@@ -80565,32 +80565,32 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>350</v>
+        <v>155</v>
       </c>
       <c r="K1114" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L1114" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M1114" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1114" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>467</v>
+        <v>1111</v>
       </c>
       <c r="Q1114" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1114" t="inlineStr">
         <is>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1115" t="n">
         <v>9</v>
@@ -80633,20 +80633,20 @@
       </c>
       <c r="I1115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>950</v>
+        <v>350</v>
       </c>
       <c r="K1115" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L1115" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M1115" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80655,11 +80655,11 @@
       </c>
       <c r="O1115" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>389</v>
+        <v>1111</v>
       </c>
       <c r="Q1115" t="n">
         <v>18</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1116" t="n">
         <v>9</v>
@@ -80705,36 +80705,36 @@
       </c>
       <c r="I1116" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="K1116" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="L1116" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M1116" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1116" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>333</v>
+        <v>1000</v>
       </c>
       <c r="Q1116" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1116" t="inlineStr">
         <is>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1117" t="n">
         <v>9</v>
@@ -80772,25 +80772,25 @@
       </c>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>185</v>
+        <v>550</v>
       </c>
       <c r="K1117" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="L1117" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M1117" t="n">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80799,11 +80799,11 @@
       </c>
       <c r="O1117" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>200</v>
+        <v>667</v>
       </c>
       <c r="Q1117" t="n">
         <v>15</v>
@@ -80844,25 +80844,25 @@
       </c>
       <c r="H1118" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>650</v>
+        <v>195</v>
       </c>
       <c r="K1118" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L1118" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M1118" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80871,11 +80871,11 @@
       </c>
       <c r="O1118" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="Q1118" t="n">
         <v>18</v>
@@ -80916,25 +80916,25 @@
       </c>
       <c r="H1119" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>480</v>
+        <v>680</v>
       </c>
       <c r="K1119" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L1119" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M1119" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80943,11 +80943,11 @@
       </c>
       <c r="O1119" t="inlineStr">
         <is>
-          <t>Región del Bíobío</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>556</v>
+        <v>1000</v>
       </c>
       <c r="Q1119" t="n">
         <v>18</v>
@@ -80988,7 +80988,7 @@
       </c>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -80997,32 +80997,32 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>155</v>
+        <v>3500</v>
       </c>
       <c r="K1120" t="n">
-        <v>6000</v>
+        <v>8500</v>
       </c>
       <c r="L1120" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1120" t="n">
-        <v>6000</v>
+        <v>8736</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1120" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>400</v>
+        <v>485</v>
       </c>
       <c r="Q1120" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1120" t="inlineStr">
         <is>
@@ -81060,25 +81060,25 @@
       </c>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="K1121" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1121" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1121" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81087,11 +81087,11 @@
       </c>
       <c r="O1121" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q1121" t="n">
         <v>18</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1122" t="n">
         <v>9</v>
@@ -81137,36 +81137,36 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>155</v>
+        <v>350</v>
       </c>
       <c r="K1122" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="L1122" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="M1122" t="n">
-        <v>18000</v>
+        <v>7000</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1122" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>1000</v>
+        <v>467</v>
       </c>
       <c r="Q1122" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1122" t="inlineStr">
         <is>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1123" t="n">
         <v>9</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>375</v>
+        <v>950</v>
       </c>
       <c r="K1123" t="n">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="L1123" t="n">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="M1123" t="n">
-        <v>15667</v>
+        <v>7000</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81231,11 +81231,11 @@
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>870</v>
+        <v>389</v>
       </c>
       <c r="Q1123" t="n">
         <v>18</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1124" t="n">
         <v>9</v>
@@ -81276,25 +81276,25 @@
       </c>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K1124" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="L1124" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="M1124" t="n">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81303,11 +81303,11 @@
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="Q1124" t="n">
         <v>15</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E1125" t="n">
         <v>9</v>
@@ -81353,36 +81353,36 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>450</v>
+        <v>185</v>
       </c>
       <c r="K1125" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="L1125" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="M1125" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="Q1125" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1125" t="inlineStr">
         <is>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E1126" t="n">
         <v>9</v>
@@ -81420,7 +81420,7 @@
       </c>
       <c r="H1126" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1126" t="inlineStr">
@@ -81429,16 +81429,16 @@
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="K1126" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1126" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1126" t="n">
-        <v>10794</v>
+        <v>15000</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81447,11 +81447,11 @@
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>600</v>
+        <v>833</v>
       </c>
       <c r="Q1126" t="n">
         <v>18</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E1127" t="n">
         <v>9</v>
@@ -81492,7 +81492,7 @@
       </c>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
@@ -81501,16 +81501,16 @@
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="K1127" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L1127" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1127" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81519,11 +81519,11 @@
       </c>
       <c r="O1127" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Bíobío</t>
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="Q1127" t="n">
         <v>18</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44264</v>
+        <v>44266</v>
       </c>
       <c r="E1128" t="n">
         <v>9</v>
@@ -81564,41 +81564,41 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>260</v>
+        <v>155</v>
       </c>
       <c r="K1128" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1128" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1128" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="Q1128" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1128" t="inlineStr">
         <is>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44494</v>
+        <v>44266</v>
       </c>
       <c r="E1129" t="n">
         <v>9</v>
@@ -81636,41 +81636,41 @@
       </c>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K1129" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L1129" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M1129" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1129" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>1200</v>
+        <v>667</v>
       </c>
       <c r="Q1129" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1129" t="inlineStr">
         <is>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44494</v>
+        <v>44533</v>
       </c>
       <c r="E1130" t="n">
         <v>9</v>
@@ -81713,20 +81713,20 @@
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>1700</v>
+        <v>155</v>
       </c>
       <c r="K1130" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="L1130" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="M1130" t="n">
-        <v>17941</v>
+        <v>18000</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81735,11 +81735,11 @@
       </c>
       <c r="O1130" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="Q1130" t="n">
         <v>18</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44494</v>
+        <v>44533</v>
       </c>
       <c r="E1131" t="n">
         <v>9</v>
@@ -81789,32 +81789,32 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>2500</v>
+        <v>375</v>
       </c>
       <c r="K1131" t="n">
-        <v>7000</v>
+        <v>15000</v>
       </c>
       <c r="L1131" t="n">
-        <v>7000</v>
+        <v>16000</v>
       </c>
       <c r="M1131" t="n">
-        <v>7000</v>
+        <v>15667</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1131" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>700</v>
+        <v>870</v>
       </c>
       <c r="Q1131" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1131" t="inlineStr">
         <is>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44571</v>
+        <v>44533</v>
       </c>
       <c r="E1132" t="n">
         <v>9</v>
@@ -81852,7 +81852,7 @@
       </c>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
@@ -81861,32 +81861,32 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>1030</v>
+        <v>650</v>
       </c>
       <c r="K1132" t="n">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="L1132" t="n">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="M1132" t="n">
-        <v>15631</v>
+        <v>7500</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1132" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>868</v>
+        <v>500</v>
       </c>
       <c r="Q1132" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1132" t="inlineStr">
         <is>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44571</v>
+        <v>44264</v>
       </c>
       <c r="E1133" t="n">
         <v>9</v>
@@ -81929,20 +81929,20 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="K1133" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="L1133" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M1133" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>722</v>
+        <v>1000</v>
       </c>
       <c r="Q1133" t="n">
         <v>18</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44390</v>
+        <v>44264</v>
       </c>
       <c r="E1134" t="n">
         <v>9</v>
@@ -82001,20 +82001,20 @@
       </c>
       <c r="I1134" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>380</v>
+        <v>630</v>
       </c>
       <c r="K1134" t="n">
-        <v>24000</v>
+        <v>10000</v>
       </c>
       <c r="L1134" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M1134" t="n">
-        <v>24000</v>
+        <v>10794</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82023,11 +82023,11 @@
       </c>
       <c r="O1134" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>1333</v>
+        <v>600</v>
       </c>
       <c r="Q1134" t="n">
         <v>18</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44390</v>
+        <v>44264</v>
       </c>
       <c r="E1135" t="n">
         <v>9</v>
@@ -82077,16 +82077,16 @@
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>1350</v>
+        <v>550</v>
       </c>
       <c r="K1135" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L1135" t="n">
         <v>16000</v>
       </c>
       <c r="M1135" t="n">
-        <v>15519</v>
+        <v>16000</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82095,11 +82095,11 @@
       </c>
       <c r="O1135" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>862</v>
+        <v>889</v>
       </c>
       <c r="Q1135" t="n">
         <v>18</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44390</v>
+        <v>44264</v>
       </c>
       <c r="E1136" t="n">
         <v>9</v>
@@ -82145,36 +82145,36 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>950</v>
+        <v>260</v>
       </c>
       <c r="K1136" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1136" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1136" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1136" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>600</v>
+        <v>444</v>
       </c>
       <c r="Q1136" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1136" t="inlineStr">
         <is>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44279</v>
+        <v>44494</v>
       </c>
       <c r="E1137" t="n">
         <v>9</v>
@@ -82217,36 +82217,36 @@
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="K1137" t="n">
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="L1137" t="n">
-        <v>10000</v>
+        <v>24000</v>
       </c>
       <c r="M1137" t="n">
-        <v>9455</v>
+        <v>24000</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1137" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>525</v>
+        <v>1200</v>
       </c>
       <c r="Q1137" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1137" t="inlineStr">
         <is>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44279</v>
+        <v>44494</v>
       </c>
       <c r="E1138" t="n">
         <v>9</v>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>250</v>
+        <v>1700</v>
       </c>
       <c r="K1138" t="n">
-        <v>8000</v>
+        <v>17000</v>
       </c>
       <c r="L1138" t="n">
-        <v>8000</v>
+        <v>19000</v>
       </c>
       <c r="M1138" t="n">
-        <v>8000</v>
+        <v>17941</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82311,11 +82311,11 @@
       </c>
       <c r="O1138" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>444</v>
+        <v>997</v>
       </c>
       <c r="Q1138" t="n">
         <v>18</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44277</v>
+        <v>44494</v>
       </c>
       <c r="E1139" t="n">
         <v>9</v>
@@ -82356,7 +82356,7 @@
       </c>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
@@ -82365,32 +82365,32 @@
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>35</v>
+        <v>2500</v>
       </c>
       <c r="K1139" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="L1139" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="M1139" t="n">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1139" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="Q1139" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R1139" t="inlineStr">
         <is>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E1140" t="n">
         <v>9</v>
@@ -82437,16 +82437,16 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>1600</v>
+        <v>1030</v>
       </c>
       <c r="K1140" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1140" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M1140" t="n">
-        <v>10000</v>
+        <v>15631</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82455,11 +82455,11 @@
       </c>
       <c r="O1140" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>556</v>
+        <v>868</v>
       </c>
       <c r="Q1140" t="n">
         <v>18</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44277</v>
+        <v>44571</v>
       </c>
       <c r="E1141" t="n">
         <v>9</v>
@@ -82505,20 +82505,20 @@
       </c>
       <c r="I1141" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>1250</v>
+        <v>280</v>
       </c>
       <c r="K1141" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L1141" t="n">
         <v>13000</v>
       </c>
       <c r="M1141" t="n">
-        <v>12480</v>
+        <v>13000</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82531,7 +82531,7 @@
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>693</v>
+        <v>722</v>
       </c>
       <c r="Q1141" t="n">
         <v>18</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44277</v>
+        <v>44390</v>
       </c>
       <c r="E1142" t="n">
         <v>9</v>
@@ -82577,24 +82577,24 @@
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="K1142" t="n">
-        <v>400</v>
+        <v>24000</v>
       </c>
       <c r="L1142" t="n">
-        <v>400</v>
+        <v>24000</v>
       </c>
       <c r="M1142" t="n">
-        <v>400</v>
+        <v>24000</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1142" t="inlineStr">
@@ -82603,10 +82603,10 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>40</v>
+        <v>1333</v>
       </c>
       <c r="Q1142" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1142" t="inlineStr">
         <is>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44277</v>
+        <v>44390</v>
       </c>
       <c r="E1143" t="n">
         <v>9</v>
@@ -82649,20 +82649,20 @@
       </c>
       <c r="I1143" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>850</v>
+        <v>1350</v>
       </c>
       <c r="K1143" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L1143" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M1143" t="n">
-        <v>8000</v>
+        <v>15519</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82671,11 +82671,11 @@
       </c>
       <c r="O1143" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>444</v>
+        <v>862</v>
       </c>
       <c r="Q1143" t="n">
         <v>18</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44277</v>
+        <v>44390</v>
       </c>
       <c r="E1144" t="n">
         <v>9</v>
@@ -82716,7 +82716,7 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
@@ -82725,32 +82725,32 @@
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="K1144" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="L1144" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="M1144" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1144" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>556</v>
+        <v>600</v>
       </c>
       <c r="Q1144" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1144" t="inlineStr">
         <is>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44525</v>
+        <v>44279</v>
       </c>
       <c r="E1145" t="n">
         <v>9</v>
@@ -82788,7 +82788,7 @@
       </c>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
@@ -82797,32 +82797,32 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="K1145" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="L1145" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M1145" t="n">
-        <v>20000</v>
+        <v>9455</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1145" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>2000</v>
+        <v>525</v>
       </c>
       <c r="Q1145" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1145" t="inlineStr">
         <is>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44525</v>
+        <v>44279</v>
       </c>
       <c r="E1146" t="n">
         <v>9</v>
@@ -82865,20 +82865,20 @@
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K1146" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L1146" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="M1146" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82887,11 +82887,11 @@
       </c>
       <c r="O1146" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>1000</v>
+        <v>444</v>
       </c>
       <c r="Q1146" t="n">
         <v>18</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1147" t="n">
         <v>9</v>
@@ -82932,41 +82932,41 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>400</v>
+        <v>35</v>
       </c>
       <c r="K1147" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="L1147" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="M1147" t="n">
-        <v>19000</v>
+        <v>2000</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O1147" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>950</v>
+        <v>2000</v>
       </c>
       <c r="Q1147" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R1147" t="inlineStr">
         <is>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1148" t="n">
         <v>9</v>
@@ -83009,33 +83009,33 @@
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="K1148" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L1148" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1148" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1148" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="Q1148" t="n">
         <v>18</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1149" t="n">
         <v>9</v>
@@ -83085,16 +83085,16 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>1200</v>
+        <v>1250</v>
       </c>
       <c r="K1149" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L1149" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M1149" t="n">
-        <v>15000</v>
+        <v>12480</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>833</v>
+        <v>693</v>
       </c>
       <c r="Q1149" t="n">
         <v>18</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1150" t="n">
         <v>9</v>
@@ -83157,20 +83157,20 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="K1150" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="L1150" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="M1150" t="n">
-        <v>10000</v>
+        <v>400</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1150" t="inlineStr">
@@ -83179,10 +83179,10 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>556</v>
+        <v>40</v>
       </c>
       <c r="Q1150" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1151" t="n">
         <v>9</v>
@@ -83225,36 +83225,36 @@
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="K1151" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L1151" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M1151" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1151" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>750</v>
+        <v>444</v>
       </c>
       <c r="Q1151" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1151" t="inlineStr">
         <is>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1152" t="n">
         <v>9</v>
@@ -83292,7 +83292,7 @@
       </c>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -83301,32 +83301,32 @@
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>4500</v>
+        <v>650</v>
       </c>
       <c r="K1152" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L1152" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M1152" t="n">
-        <v>4556</v>
+        <v>10000</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1152" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>456</v>
+        <v>556</v>
       </c>
       <c r="Q1152" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1152" t="inlineStr">
         <is>
@@ -83364,41 +83364,41 @@
       </c>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K1153" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L1153" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M1153" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1153" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>722</v>
+        <v>2000</v>
       </c>
       <c r="Q1153" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1153" t="inlineStr">
         <is>
@@ -83436,7 +83436,7 @@
       </c>
       <c r="H1154" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1154" t="inlineStr">
@@ -83445,32 +83445,32 @@
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K1154" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L1154" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="M1154" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1154" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="Q1154" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
@@ -83508,41 +83508,41 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="K1155" t="n">
-        <v>8500</v>
+        <v>18000</v>
       </c>
       <c r="L1155" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="M1155" t="n">
-        <v>8750</v>
+        <v>19000</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1155" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>583</v>
+        <v>950</v>
       </c>
       <c r="Q1155" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R1155" t="inlineStr">
         <is>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1156" t="n">
         <v>9</v>
@@ -83589,16 +83589,16 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1156" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L1156" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M1156" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N1156" t="inlineStr">
         <is>
@@ -83611,7 +83611,7 @@
         </is>
       </c>
       <c r="P1156" t="n">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="Q1156" t="n">
         <v>18</v>
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1157" t="n">
         <v>9</v>
@@ -83661,16 +83661,16 @@
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K1157" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1157" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1157" t="n">
-        <v>12455</v>
+        <v>15000</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83679,11 +83679,11 @@
       </c>
       <c r="O1157" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>692</v>
+        <v>833</v>
       </c>
       <c r="Q1157" t="n">
         <v>18</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1158" t="n">
         <v>9</v>
@@ -83733,20 +83733,20 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K1158" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1158" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M1158" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1158" t="inlineStr">
@@ -83755,10 +83755,10 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q1158" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1158" t="inlineStr">
         <is>
@@ -83781,7 +83781,7 @@
         </is>
       </c>
       <c r="D1159" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1159" t="n">
         <v>9</v>
@@ -83805,20 +83805,20 @@
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K1159" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L1159" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M1159" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1159" t="inlineStr">
@@ -83827,10 +83827,10 @@
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="Q1159" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1159" t="inlineStr">
         <is>
@@ -83853,7 +83853,7 @@
         </is>
       </c>
       <c r="D1160" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1160" t="n">
         <v>9</v>
@@ -83868,7 +83868,7 @@
       </c>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1160" t="inlineStr">
@@ -83877,32 +83877,32 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>300</v>
+        <v>4500</v>
       </c>
       <c r="K1160" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1160" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1160" t="n">
-        <v>8000</v>
+        <v>4556</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1160" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="Q1160" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1160" t="inlineStr">
         <is>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44354</v>
+        <v>44525</v>
       </c>
       <c r="E1161" t="n">
         <v>9</v>
@@ -83945,20 +83945,20 @@
       </c>
       <c r="I1161" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="K1161" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L1161" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M1161" t="n">
-        <v>18444</v>
+        <v>13000</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83967,11 +83967,11 @@
       </c>
       <c r="O1161" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>1025</v>
+        <v>722</v>
       </c>
       <c r="Q1161" t="n">
         <v>18</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44354</v>
+        <v>44525</v>
       </c>
       <c r="E1162" t="n">
         <v>9</v>
@@ -84012,7 +84012,7 @@
       </c>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
@@ -84021,32 +84021,32 @@
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="K1162" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L1162" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1162" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1162" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>889</v>
+        <v>667</v>
       </c>
       <c r="Q1162" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1162" t="inlineStr">
         <is>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44354</v>
+        <v>44525</v>
       </c>
       <c r="E1163" t="n">
         <v>9</v>
@@ -84084,7 +84084,7 @@
       </c>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1163" t="inlineStr">
@@ -84093,32 +84093,32 @@
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="K1163" t="n">
-        <v>13000</v>
+        <v>8500</v>
       </c>
       <c r="L1163" t="n">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="M1163" t="n">
-        <v>13000</v>
+        <v>8750</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1163" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>722</v>
+        <v>583</v>
       </c>
       <c r="Q1163" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1163" t="inlineStr">
         <is>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1164" t="n">
         <v>9</v>
@@ -84161,24 +84161,24 @@
       </c>
       <c r="I1164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="K1164" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="L1164" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M1164" t="n">
-        <v>11556</v>
+        <v>17000</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1164" t="inlineStr">
@@ -84187,7 +84187,7 @@
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>642</v>
+        <v>944</v>
       </c>
       <c r="Q1164" t="n">
         <v>18</v>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1165" t="n">
         <v>9</v>
@@ -84237,20 +84237,20 @@
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>4600</v>
+        <v>1100</v>
       </c>
       <c r="K1165" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L1165" t="n">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="M1165" t="n">
-        <v>5239</v>
+        <v>12455</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1165" t="inlineStr">
@@ -84259,10 +84259,10 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>524</v>
+        <v>692</v>
       </c>
       <c r="Q1165" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1165" t="inlineStr">
         <is>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1166" t="n">
         <v>9</v>
@@ -84305,33 +84305,33 @@
       </c>
       <c r="I1166" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1166" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1166" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1166" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1166" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1166" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1166" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1166" t="n">
         <v>500</v>
-      </c>
-      <c r="K1166" t="n">
-        <v>4500</v>
-      </c>
-      <c r="L1166" t="n">
-        <v>4500</v>
-      </c>
-      <c r="M1166" t="n">
-        <v>4500</v>
-      </c>
-      <c r="N1166" t="inlineStr">
-        <is>
-          <t>$/caja 10 kilos</t>
-        </is>
-      </c>
-      <c r="O1166" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P1166" t="n">
-        <v>450</v>
       </c>
       <c r="Q1166" t="n">
         <v>10</v>
@@ -84357,7 +84357,7 @@
         </is>
       </c>
       <c r="D1167" s="2" t="n">
-        <v>44503</v>
+        <v>44327</v>
       </c>
       <c r="E1167" t="n">
         <v>9</v>
@@ -84381,29 +84381,29 @@
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>780</v>
+        <v>700</v>
       </c>
       <c r="K1167" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="L1167" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M1167" t="n">
-        <v>21615</v>
+        <v>13000</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1167" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>1201</v>
+        <v>722</v>
       </c>
       <c r="Q1167" t="n">
         <v>18</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44462</v>
+        <v>44327</v>
       </c>
       <c r="E1168" t="n">
         <v>9</v>
@@ -84444,25 +84444,25 @@
       </c>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1168" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K1168" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L1168" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="M1168" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84471,11 +84471,11 @@
       </c>
       <c r="O1168" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>1111</v>
+        <v>444</v>
       </c>
       <c r="Q1168" t="n">
         <v>18</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="E1169" t="n">
         <v>9</v>
@@ -84525,20 +84525,20 @@
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K1169" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L1169" t="n">
-        <v>25000</v>
+        <v>19000</v>
       </c>
       <c r="M1169" t="n">
-        <v>25000</v>
+        <v>18444</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1169" t="inlineStr">
@@ -84547,10 +84547,10 @@
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>1250</v>
+        <v>1025</v>
       </c>
       <c r="Q1169" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1169" t="inlineStr">
         <is>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="E1170" t="n">
         <v>9</v>
@@ -84593,24 +84593,24 @@
       </c>
       <c r="I1170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="K1170" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L1170" t="n">
         <v>16000</v>
       </c>
       <c r="M1170" t="n">
-        <v>15545</v>
+        <v>16000</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1170" t="inlineStr">
@@ -84619,7 +84619,7 @@
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>864</v>
+        <v>889</v>
       </c>
       <c r="Q1170" t="n">
         <v>18</v>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="E1171" t="n">
         <v>9</v>
@@ -84669,32 +84669,32 @@
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="K1171" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="L1171" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="M1171" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1171" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>1100</v>
+        <v>722</v>
       </c>
       <c r="Q1171" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1171" t="inlineStr">
         <is>
@@ -84717,7 +84717,7 @@
         </is>
       </c>
       <c r="D1172" s="2" t="n">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="E1172" t="n">
         <v>9</v>
@@ -84741,20 +84741,20 @@
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="K1172" t="n">
-        <v>7000</v>
+        <v>11000</v>
       </c>
       <c r="L1172" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M1172" t="n">
-        <v>7000</v>
+        <v>11556</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1172" t="inlineStr">
@@ -84763,10 +84763,10 @@
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>700</v>
+        <v>642</v>
       </c>
       <c r="Q1172" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1172" t="inlineStr">
         <is>
@@ -84789,7 +84789,7 @@
         </is>
       </c>
       <c r="D1173" s="2" t="n">
-        <v>44462</v>
+        <v>44354</v>
       </c>
       <c r="E1173" t="n">
         <v>9</v>
@@ -84809,24 +84809,24 @@
       </c>
       <c r="I1173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>500</v>
+        <v>4600</v>
       </c>
       <c r="K1173" t="n">
-        <v>14000</v>
+        <v>5000</v>
       </c>
       <c r="L1173" t="n">
-        <v>14000</v>
+        <v>5500</v>
       </c>
       <c r="M1173" t="n">
-        <v>14000</v>
+        <v>5239</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1173" t="inlineStr">
@@ -84835,10 +84835,10 @@
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>778</v>
+        <v>524</v>
       </c>
       <c r="Q1173" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1173" t="inlineStr">
         <is>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44384</v>
+        <v>44354</v>
       </c>
       <c r="E1174" t="n">
         <v>9</v>
@@ -84881,36 +84881,36 @@
       </c>
       <c r="I1174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1174" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="L1174" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="M1174" t="n">
-        <v>13000</v>
+        <v>4500</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1174" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>722</v>
+        <v>450</v>
       </c>
       <c r="Q1174" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1174" t="inlineStr">
         <is>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44384</v>
+        <v>44503</v>
       </c>
       <c r="E1175" t="n">
         <v>9</v>
@@ -84957,16 +84957,16 @@
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>200</v>
+        <v>780</v>
       </c>
       <c r="K1175" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="L1175" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="M1175" t="n">
-        <v>18000</v>
+        <v>21615</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
@@ -84975,11 +84975,11 @@
       </c>
       <c r="O1175" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>1000</v>
+        <v>1201</v>
       </c>
       <c r="Q1175" t="n">
         <v>18</v>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1176" t="n">
         <v>9</v>
@@ -85025,24 +85025,24 @@
       </c>
       <c r="I1176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K1176" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="L1176" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="M1176" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1176" t="inlineStr">
@@ -85051,10 +85051,10 @@
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>500</v>
+        <v>1111</v>
       </c>
       <c r="Q1176" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1176" t="inlineStr">
         <is>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44512</v>
+        <v>44462</v>
       </c>
       <c r="E1177" t="n">
         <v>9</v>
@@ -85097,36 +85097,36 @@
       </c>
       <c r="I1177" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>790</v>
+        <v>200</v>
       </c>
       <c r="K1177" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="L1177" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="M1177" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1177" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>1222</v>
+        <v>1250</v>
       </c>
       <c r="Q1177" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1177" t="inlineStr">
         <is>
@@ -85149,7 +85149,7 @@
         </is>
       </c>
       <c r="D1178" s="2" t="n">
-        <v>44512</v>
+        <v>44462</v>
       </c>
       <c r="E1178" t="n">
         <v>9</v>
@@ -85173,16 +85173,16 @@
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>400</v>
+        <v>2200</v>
       </c>
       <c r="K1178" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L1178" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M1178" t="n">
-        <v>14500</v>
+        <v>15545</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
@@ -85195,7 +85195,7 @@
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>806</v>
+        <v>864</v>
       </c>
       <c r="Q1178" t="n">
         <v>18</v>
@@ -85221,7 +85221,7 @@
         </is>
       </c>
       <c r="D1179" s="2" t="n">
-        <v>44512</v>
+        <v>44462</v>
       </c>
       <c r="E1179" t="n">
         <v>9</v>
@@ -85245,20 +85245,20 @@
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="K1179" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="L1179" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="M1179" t="n">
-        <v>6000</v>
+        <v>22000</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1179" t="inlineStr">
@@ -85267,10 +85267,10 @@
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="Q1179" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R1179" t="inlineStr">
         <is>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44312</v>
+        <v>44462</v>
       </c>
       <c r="E1180" t="n">
         <v>9</v>
@@ -85313,36 +85313,36 @@
       </c>
       <c r="I1180" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>300</v>
+        <v>4000</v>
       </c>
       <c r="K1180" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L1180" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M1180" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1180" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>944</v>
+        <v>700</v>
       </c>
       <c r="Q1180" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1180" t="inlineStr">
         <is>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44312</v>
+        <v>44462</v>
       </c>
       <c r="E1181" t="n">
         <v>9</v>
@@ -85385,20 +85385,20 @@
       </c>
       <c r="I1181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="K1181" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L1181" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M1181" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
@@ -85407,11 +85407,11 @@
       </c>
       <c r="O1181" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q1181" t="n">
         <v>18</v>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E1182" t="n">
         <v>9</v>
@@ -85461,16 +85461,16 @@
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="K1182" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L1182" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M1182" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
@@ -85483,7 +85483,7 @@
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>833</v>
+        <v>722</v>
       </c>
       <c r="Q1182" t="n">
         <v>18</v>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E1183" t="n">
         <v>9</v>
@@ -85533,16 +85533,16 @@
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K1183" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="L1183" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="M1183" t="n">
-        <v>10571</v>
+        <v>18000</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85555,7 +85555,7 @@
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>587</v>
+        <v>1000</v>
       </c>
       <c r="Q1183" t="n">
         <v>18</v>
@@ -85581,7 +85581,7 @@
         </is>
       </c>
       <c r="D1184" s="2" t="n">
-        <v>44312</v>
+        <v>44384</v>
       </c>
       <c r="E1184" t="n">
         <v>9</v>
@@ -85605,16 +85605,16 @@
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="K1184" t="n">
         <v>5000</v>
       </c>
       <c r="L1184" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="M1184" t="n">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
@@ -85627,7 +85627,7 @@
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="Q1184" t="n">
         <v>10</v>
@@ -85653,7 +85653,7 @@
         </is>
       </c>
       <c r="D1185" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1185" t="n">
         <v>9</v>
@@ -85673,20 +85673,20 @@
       </c>
       <c r="I1185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>500</v>
+        <v>790</v>
       </c>
       <c r="K1185" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="L1185" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="M1185" t="n">
-        <v>8000</v>
+        <v>22000</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85695,11 +85695,11 @@
       </c>
       <c r="O1185" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>444</v>
+        <v>1222</v>
       </c>
       <c r="Q1185" t="n">
         <v>18</v>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1186" t="n">
         <v>9</v>
@@ -85745,20 +85745,20 @@
       </c>
       <c r="I1186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K1186" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1186" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1186" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
@@ -85767,11 +85767,11 @@
       </c>
       <c r="O1186" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>667</v>
+        <v>806</v>
       </c>
       <c r="Q1186" t="n">
         <v>18</v>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1187" t="n">
         <v>9</v>
@@ -85817,36 +85817,36 @@
       </c>
       <c r="I1187" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="K1187" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="L1187" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="M1187" t="n">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1187" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>278</v>
+        <v>600</v>
       </c>
       <c r="Q1187" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1187" t="inlineStr">
         <is>
@@ -85889,36 +85889,36 @@
       </c>
       <c r="I1188" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K1188" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="L1188" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="M1188" t="n">
-        <v>3000</v>
+        <v>17000</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1188" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>200</v>
+        <v>944</v>
       </c>
       <c r="Q1188" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1188" t="inlineStr">
         <is>
@@ -85956,7 +85956,7 @@
       </c>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1189" t="inlineStr">
@@ -85965,16 +85965,16 @@
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="K1189" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="L1189" t="n">
         <v>10000</v>
       </c>
       <c r="M1189" t="n">
-        <v>9471</v>
+        <v>10000</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
@@ -85983,11 +85983,11 @@
       </c>
       <c r="O1189" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="Q1189" t="n">
         <v>18</v>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1190" t="n">
         <v>9</v>
@@ -86033,20 +86033,20 @@
       </c>
       <c r="I1190" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="K1190" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="L1190" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="M1190" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
@@ -86055,11 +86055,11 @@
       </c>
       <c r="O1190" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>1000</v>
+        <v>833</v>
       </c>
       <c r="Q1190" t="n">
         <v>18</v>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1191" t="n">
         <v>9</v>
@@ -86105,24 +86105,24 @@
       </c>
       <c r="I1191" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="K1191" t="n">
-        <v>23000</v>
+        <v>10000</v>
       </c>
       <c r="L1191" t="n">
-        <v>25000</v>
+        <v>11000</v>
       </c>
       <c r="M1191" t="n">
-        <v>24067</v>
+        <v>10571</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1191" t="inlineStr">
@@ -86131,7 +86131,7 @@
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>1337</v>
+        <v>587</v>
       </c>
       <c r="Q1191" t="n">
         <v>18</v>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1192" t="n">
         <v>9</v>
@@ -86181,32 +86181,32 @@
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="K1192" t="n">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="L1192" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="M1192" t="n">
-        <v>20857</v>
+        <v>5500</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1192" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>1159</v>
+        <v>550</v>
       </c>
       <c r="Q1192" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1192" t="inlineStr">
         <is>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1193" t="n">
         <v>9</v>
@@ -86249,20 +86249,20 @@
       </c>
       <c r="I1193" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K1193" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L1193" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M1193" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86271,11 +86271,11 @@
       </c>
       <c r="O1193" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>778</v>
+        <v>444</v>
       </c>
       <c r="Q1193" t="n">
         <v>18</v>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1194" t="n">
         <v>9</v>
@@ -86321,36 +86321,36 @@
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="K1194" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L1194" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="M1194" t="n">
-        <v>6278</v>
+        <v>12000</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1194" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="Q1194" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1194" t="inlineStr">
         <is>
@@ -86373,7 +86373,7 @@
         </is>
       </c>
       <c r="D1195" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1195" t="n">
         <v>9</v>
@@ -86393,20 +86393,20 @@
       </c>
       <c r="I1195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K1195" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="L1195" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M1195" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86415,11 +86415,11 @@
       </c>
       <c r="O1195" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>833</v>
+        <v>278</v>
       </c>
       <c r="Q1195" t="n">
         <v>18</v>
@@ -86445,7 +86445,7 @@
         </is>
       </c>
       <c r="D1196" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1196" t="n">
         <v>9</v>
@@ -86460,41 +86460,41 @@
       </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1196" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="K1196" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="L1196" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="M1196" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1196" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="Q1196" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1196" t="inlineStr">
         <is>
@@ -86517,58 +86517,634 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1197" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1197" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1197" t="n">
+        <v>1700</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>9000</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>9471</v>
+      </c>
+      <c r="N1197" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1197" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P1197" t="n">
+        <v>526</v>
+      </c>
+      <c r="Q1197" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1197" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1198" s="2" t="n">
         <v>44511</v>
       </c>
-      <c r="E1197" t="n">
-        <v>9</v>
-      </c>
-      <c r="F1197" t="n">
-        <v>100112020</v>
-      </c>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>Tomate</t>
-        </is>
-      </c>
-      <c r="H1197" t="inlineStr">
+      <c r="E1198" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1198" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1198" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1198" t="n">
+        <v>200</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N1198" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1198" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1198" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1198" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1199" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1199" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1199" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1199" t="n">
+        <v>1500</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>23000</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>25000</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>24067</v>
+      </c>
+      <c r="N1199" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1199" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1199" t="n">
+        <v>1337</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1199" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1200" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1200" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1200" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1200" t="n">
+        <v>2100</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>20000</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>22000</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>20857</v>
+      </c>
+      <c r="N1200" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1200" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1200" t="n">
+        <v>1159</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1200" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1201" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1201" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1201" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1201" t="n">
+        <v>1000</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N1201" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1201" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1201" t="n">
+        <v>778</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1201" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1202" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1202" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1202" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1202" t="n">
+        <v>4500</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>6500</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>6278</v>
+      </c>
+      <c r="N1202" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1202" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1202" t="n">
+        <v>628</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1202" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1203" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1203" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1203" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1203" t="n">
+        <v>200</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N1203" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1203" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1203" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1203" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1204" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1204" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1204" t="inlineStr">
         <is>
           <t>Semiduro</t>
         </is>
       </c>
-      <c r="I1197" t="inlineStr">
+      <c r="I1204" t="inlineStr">
         <is>
           <t>Primera</t>
         </is>
       </c>
-      <c r="J1197" t="n">
+      <c r="J1204" t="n">
+        <v>500</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>18000</v>
+      </c>
+      <c r="N1204" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1204" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P1204" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1204" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1205" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1205" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1205" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1205" t="n">
         <v>300</v>
       </c>
-      <c r="K1197" t="n">
+      <c r="K1205" t="n">
         <v>14000</v>
       </c>
-      <c r="L1197" t="n">
+      <c r="L1205" t="n">
         <v>14000</v>
       </c>
-      <c r="M1197" t="n">
+      <c r="M1205" t="n">
         <v>14000</v>
       </c>
-      <c r="N1197" t="inlineStr">
+      <c r="N1205" t="inlineStr">
         <is>
           <t>$/caja 15 kilos</t>
         </is>
       </c>
-      <c r="O1197" t="inlineStr">
+      <c r="O1205" t="inlineStr">
         <is>
           <t>Región del Maule</t>
         </is>
       </c>
-      <c r="P1197" t="n">
+      <c r="P1205" t="n">
         <v>933</v>
       </c>
-      <c r="Q1197" t="n">
+      <c r="Q1205" t="n">
         <v>15</v>
       </c>
-      <c r="R1197" t="inlineStr">
+      <c r="R1205" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1226"/>
+  <dimension ref="A1:R1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1140" t="n">
         <v>9</v>
@@ -82437,16 +82437,16 @@
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>150</v>
+        <v>550</v>
       </c>
       <c r="K1140" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="L1140" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M1140" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82459,7 +82459,7 @@
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>1444</v>
+        <v>1000</v>
       </c>
       <c r="Q1140" t="n">
         <v>18</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1141" t="n">
         <v>9</v>
@@ -82509,16 +82509,16 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>480</v>
+        <v>650</v>
       </c>
       <c r="K1141" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="L1141" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="M1141" t="n">
-        <v>23167</v>
+        <v>12462</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82527,11 +82527,11 @@
       </c>
       <c r="O1141" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>1287</v>
+        <v>692</v>
       </c>
       <c r="Q1141" t="n">
         <v>18</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1142" t="n">
         <v>9</v>
@@ -82577,20 +82577,20 @@
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>385</v>
+        <v>550</v>
       </c>
       <c r="K1142" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="L1142" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M1142" t="n">
-        <v>19351</v>
+        <v>14455</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82603,7 +82603,7 @@
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>1075</v>
+        <v>803</v>
       </c>
       <c r="Q1142" t="n">
         <v>18</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1143" t="n">
         <v>9</v>
@@ -82653,16 +82653,16 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="K1143" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="L1143" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="M1143" t="n">
-        <v>23118</v>
+        <v>10583</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82675,7 +82675,7 @@
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>1284</v>
+        <v>588</v>
       </c>
       <c r="Q1143" t="n">
         <v>18</v>
@@ -82716,25 +82716,25 @@
       </c>
       <c r="H1144" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="K1144" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="L1144" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="M1144" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82743,11 +82743,11 @@
       </c>
       <c r="O1144" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>944</v>
+        <v>1444</v>
       </c>
       <c r="Q1144" t="n">
         <v>18</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1145" t="n">
         <v>9</v>
@@ -82797,16 +82797,16 @@
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K1145" t="n">
-        <v>7000</v>
+        <v>22000</v>
       </c>
       <c r="L1145" t="n">
-        <v>7000</v>
+        <v>24000</v>
       </c>
       <c r="M1145" t="n">
-        <v>7000</v>
+        <v>23167</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82815,11 +82815,11 @@
       </c>
       <c r="O1145" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>389</v>
+        <v>1287</v>
       </c>
       <c r="Q1145" t="n">
         <v>18</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1146" t="n">
         <v>9</v>
@@ -82865,36 +82865,36 @@
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>200</v>
+        <v>385</v>
       </c>
       <c r="K1146" t="n">
-        <v>4000</v>
+        <v>19000</v>
       </c>
       <c r="L1146" t="n">
-        <v>4000</v>
+        <v>20000</v>
       </c>
       <c r="M1146" t="n">
-        <v>4000</v>
+        <v>19351</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1146" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>400</v>
+        <v>1075</v>
       </c>
       <c r="Q1146" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1146" t="inlineStr">
         <is>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44385</v>
+        <v>44560</v>
       </c>
       <c r="E1147" t="n">
         <v>9</v>
@@ -82932,25 +82932,25 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="K1147" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="L1147" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="M1147" t="n">
-        <v>18000</v>
+        <v>23118</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82959,11 +82959,11 @@
       </c>
       <c r="O1147" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>1000</v>
+        <v>1284</v>
       </c>
       <c r="Q1147" t="n">
         <v>18</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44385</v>
+        <v>44560</v>
       </c>
       <c r="E1148" t="n">
         <v>9</v>
@@ -83004,41 +83004,41 @@
       </c>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="K1148" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="L1148" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="M1148" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1148" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>1000</v>
+        <v>944</v>
       </c>
       <c r="Q1148" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1148" t="inlineStr">
         <is>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1149" t="n">
         <v>9</v>
@@ -83085,16 +83085,16 @@
         </is>
       </c>
       <c r="J1149" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="K1149" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="L1149" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="M1149" t="n">
-        <v>11000</v>
+        <v>7000</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83103,11 +83103,11 @@
       </c>
       <c r="O1149" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>611</v>
+        <v>389</v>
       </c>
       <c r="Q1149" t="n">
         <v>18</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1150" t="n">
         <v>9</v>
@@ -83157,32 +83157,32 @@
         </is>
       </c>
       <c r="J1150" t="n">
+        <v>200</v>
+      </c>
+      <c r="K1150" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L1150" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1150" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N1150" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1150" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1150" t="n">
         <v>400</v>
       </c>
-      <c r="K1150" t="n">
-        <v>14000</v>
-      </c>
-      <c r="L1150" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M1150" t="n">
-        <v>14500</v>
-      </c>
-      <c r="N1150" t="inlineStr">
-        <is>
-          <t>$/bandeja 18 kilos</t>
-        </is>
-      </c>
-      <c r="O1150" t="inlineStr">
-        <is>
-          <t>Región de Arica y Parinacota</t>
-        </is>
-      </c>
-      <c r="P1150" t="n">
-        <v>806</v>
-      </c>
       <c r="Q1150" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1150" t="inlineStr">
         <is>
@@ -83225,24 +83225,24 @@
       </c>
       <c r="I1151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>4700</v>
+        <v>400</v>
       </c>
       <c r="K1151" t="n">
-        <v>4500</v>
+        <v>18000</v>
       </c>
       <c r="L1151" t="n">
-        <v>5000</v>
+        <v>18000</v>
       </c>
       <c r="M1151" t="n">
-        <v>4734</v>
+        <v>18000</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1151" t="inlineStr">
@@ -83251,10 +83251,10 @@
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>473</v>
+        <v>1000</v>
       </c>
       <c r="Q1151" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1151" t="inlineStr">
         <is>
@@ -83297,24 +83297,24 @@
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="K1152" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="L1152" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M1152" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1152" t="inlineStr">
@@ -83323,10 +83323,10 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>889</v>
+        <v>1000</v>
       </c>
       <c r="Q1152" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1152" t="inlineStr">
         <is>
@@ -83369,20 +83369,20 @@
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>1700</v>
+        <v>700</v>
       </c>
       <c r="K1153" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L1153" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M1153" t="n">
-        <v>12529</v>
+        <v>11000</v>
       </c>
       <c r="N1153" t="inlineStr">
         <is>
@@ -83391,11 +83391,11 @@
       </c>
       <c r="O1153" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1153" t="n">
-        <v>696</v>
+        <v>611</v>
       </c>
       <c r="Q1153" t="n">
         <v>18</v>
@@ -83421,7 +83421,7 @@
         </is>
       </c>
       <c r="D1154" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1154" t="n">
         <v>9</v>
@@ -83445,20 +83445,20 @@
         </is>
       </c>
       <c r="J1154" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="K1154" t="n">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="L1154" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M1154" t="n">
-        <v>5000</v>
+        <v>14500</v>
       </c>
       <c r="N1154" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1154" t="inlineStr">
@@ -83467,10 +83467,10 @@
         </is>
       </c>
       <c r="P1154" t="n">
-        <v>500</v>
+        <v>806</v>
       </c>
       <c r="Q1154" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1154" t="inlineStr">
         <is>
@@ -83493,7 +83493,7 @@
         </is>
       </c>
       <c r="D1155" s="2" t="n">
-        <v>44529</v>
+        <v>44385</v>
       </c>
       <c r="E1155" t="n">
         <v>9</v>
@@ -83508,25 +83508,25 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
         <is>
-          <t>1a (cosecha)</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1155" t="n">
-        <v>85</v>
+        <v>4700</v>
       </c>
       <c r="K1155" t="n">
-        <v>15000</v>
+        <v>4500</v>
       </c>
       <c r="L1155" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="M1155" t="n">
-        <v>15000</v>
+        <v>4734</v>
       </c>
       <c r="N1155" t="inlineStr">
         <is>
@@ -83539,7 +83539,7 @@
         </is>
       </c>
       <c r="P1155" t="n">
-        <v>1500</v>
+        <v>473</v>
       </c>
       <c r="Q1155" t="n">
         <v>10</v>
@@ -83565,7 +83565,7 @@
         </is>
       </c>
       <c r="D1156" s="2" t="n">
-        <v>44529</v>
+        <v>44385</v>
       </c>
       <c r="E1156" t="n">
         <v>9</v>
@@ -83589,7 +83589,7 @@
         </is>
       </c>
       <c r="J1156" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="K1156" t="n">
         <v>16000</v>
@@ -83602,12 +83602,12 @@
       </c>
       <c r="N1156" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1156" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1156" t="n">
@@ -83637,7 +83637,7 @@
         </is>
       </c>
       <c r="D1157" s="2" t="n">
-        <v>44529</v>
+        <v>44385</v>
       </c>
       <c r="E1157" t="n">
         <v>9</v>
@@ -83657,20 +83657,20 @@
       </c>
       <c r="I1157" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1157" t="n">
-        <v>1530</v>
+        <v>1700</v>
       </c>
       <c r="K1157" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1157" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1157" t="n">
-        <v>10889</v>
+        <v>12529</v>
       </c>
       <c r="N1157" t="inlineStr">
         <is>
@@ -83683,7 +83683,7 @@
         </is>
       </c>
       <c r="P1157" t="n">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="Q1157" t="n">
         <v>18</v>
@@ -83709,7 +83709,7 @@
         </is>
       </c>
       <c r="D1158" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1158" t="n">
         <v>9</v>
@@ -83733,16 +83733,16 @@
         </is>
       </c>
       <c r="J1158" t="n">
-        <v>2850</v>
+        <v>2000</v>
       </c>
       <c r="K1158" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="L1158" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="M1158" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="N1158" t="inlineStr">
         <is>
@@ -83755,7 +83755,7 @@
         </is>
       </c>
       <c r="P1158" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q1158" t="n">
         <v>10</v>
@@ -83796,41 +83796,41 @@
       </c>
       <c r="H1159" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1159" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>1a (cosecha)</t>
         </is>
       </c>
       <c r="J1159" t="n">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="K1159" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L1159" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M1159" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N1159" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1159" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1159" t="n">
-        <v>778</v>
+        <v>1500</v>
       </c>
       <c r="Q1159" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1159" t="inlineStr">
         <is>
@@ -83868,7 +83868,7 @@
       </c>
       <c r="H1160" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1160" t="inlineStr">
@@ -83877,32 +83877,32 @@
         </is>
       </c>
       <c r="J1160" t="n">
-        <v>1900</v>
+        <v>650</v>
       </c>
       <c r="K1160" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="L1160" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M1160" t="n">
-        <v>7829</v>
+        <v>16000</v>
       </c>
       <c r="N1160" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1160" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1160" t="n">
-        <v>522</v>
+        <v>889</v>
       </c>
       <c r="Q1160" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1160" t="inlineStr">
         <is>
@@ -83925,7 +83925,7 @@
         </is>
       </c>
       <c r="D1161" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1161" t="n">
         <v>9</v>
@@ -83949,16 +83949,16 @@
         </is>
       </c>
       <c r="J1161" t="n">
-        <v>800</v>
+        <v>1530</v>
       </c>
       <c r="K1161" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="L1161" t="n">
         <v>12000</v>
       </c>
       <c r="M1161" t="n">
-        <v>11500</v>
+        <v>10889</v>
       </c>
       <c r="N1161" t="inlineStr">
         <is>
@@ -83971,7 +83971,7 @@
         </is>
       </c>
       <c r="P1161" t="n">
-        <v>639</v>
+        <v>605</v>
       </c>
       <c r="Q1161" t="n">
         <v>18</v>
@@ -83997,7 +83997,7 @@
         </is>
       </c>
       <c r="D1162" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1162" t="n">
         <v>9</v>
@@ -84021,16 +84021,16 @@
         </is>
       </c>
       <c r="J1162" t="n">
-        <v>900</v>
+        <v>2850</v>
       </c>
       <c r="K1162" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="L1162" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="M1162" t="n">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="N1162" t="inlineStr">
         <is>
@@ -84043,7 +84043,7 @@
         </is>
       </c>
       <c r="P1162" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q1162" t="n">
         <v>10</v>
@@ -84069,7 +84069,7 @@
         </is>
       </c>
       <c r="D1163" s="2" t="n">
-        <v>44323</v>
+        <v>44529</v>
       </c>
       <c r="E1163" t="n">
         <v>9</v>
@@ -84089,20 +84089,20 @@
       </c>
       <c r="I1163" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1163" t="n">
-        <v>155</v>
+        <v>600</v>
       </c>
       <c r="K1163" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L1163" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M1163" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N1163" t="inlineStr">
         <is>
@@ -84115,7 +84115,7 @@
         </is>
       </c>
       <c r="P1163" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q1163" t="n">
         <v>18</v>
@@ -84141,7 +84141,7 @@
         </is>
       </c>
       <c r="D1164" s="2" t="n">
-        <v>44323</v>
+        <v>44529</v>
       </c>
       <c r="E1164" t="n">
         <v>9</v>
@@ -84156,7 +84156,7 @@
       </c>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1164" t="inlineStr">
@@ -84165,32 +84165,32 @@
         </is>
       </c>
       <c r="J1164" t="n">
-        <v>150</v>
+        <v>1900</v>
       </c>
       <c r="K1164" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L1164" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1164" t="n">
-        <v>10000</v>
+        <v>7829</v>
       </c>
       <c r="N1164" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1164" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1164" t="n">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="Q1164" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1164" t="inlineStr">
         <is>
@@ -84213,7 +84213,7 @@
         </is>
       </c>
       <c r="D1165" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1165" t="n">
         <v>9</v>
@@ -84237,16 +84237,16 @@
         </is>
       </c>
       <c r="J1165" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="K1165" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1165" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="M1165" t="n">
-        <v>9538</v>
+        <v>11500</v>
       </c>
       <c r="N1165" t="inlineStr">
         <is>
@@ -84259,7 +84259,7 @@
         </is>
       </c>
       <c r="P1165" t="n">
-        <v>530</v>
+        <v>639</v>
       </c>
       <c r="Q1165" t="n">
         <v>18</v>
@@ -84285,7 +84285,7 @@
         </is>
       </c>
       <c r="D1166" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1166" t="n">
         <v>9</v>
@@ -84309,16 +84309,16 @@
         </is>
       </c>
       <c r="J1166" t="n">
-        <v>1350</v>
+        <v>900</v>
       </c>
       <c r="K1166" t="n">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="L1166" t="n">
         <v>5000</v>
       </c>
       <c r="M1166" t="n">
-        <v>4741</v>
+        <v>5000</v>
       </c>
       <c r="N1166" t="inlineStr">
         <is>
@@ -84331,7 +84331,7 @@
         </is>
       </c>
       <c r="P1166" t="n">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="Q1166" t="n">
         <v>10</v>
@@ -84372,25 +84372,25 @@
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1167" t="n">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="K1167" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="L1167" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M1167" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="N1167" t="inlineStr">
         <is>
@@ -84399,11 +84399,11 @@
       </c>
       <c r="O1167" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1167" t="n">
-        <v>444</v>
+        <v>722</v>
       </c>
       <c r="Q1167" t="n">
         <v>18</v>
@@ -84429,7 +84429,7 @@
         </is>
       </c>
       <c r="D1168" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1168" t="n">
         <v>9</v>
@@ -84449,20 +84449,20 @@
       </c>
       <c r="I1168" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1168" t="n">
         <v>150</v>
       </c>
       <c r="K1168" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L1168" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1168" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N1168" t="inlineStr">
         <is>
@@ -84475,7 +84475,7 @@
         </is>
       </c>
       <c r="P1168" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="Q1168" t="n">
         <v>18</v>
@@ -84501,7 +84501,7 @@
         </is>
       </c>
       <c r="D1169" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1169" t="n">
         <v>9</v>
@@ -84525,16 +84525,16 @@
         </is>
       </c>
       <c r="J1169" t="n">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="K1169" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L1169" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1169" t="n">
-        <v>12556</v>
+        <v>9538</v>
       </c>
       <c r="N1169" t="inlineStr">
         <is>
@@ -84543,11 +84543,11 @@
       </c>
       <c r="O1169" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1169" t="n">
-        <v>698</v>
+        <v>530</v>
       </c>
       <c r="Q1169" t="n">
         <v>18</v>
@@ -84573,7 +84573,7 @@
         </is>
       </c>
       <c r="D1170" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1170" t="n">
         <v>9</v>
@@ -84597,20 +84597,20 @@
         </is>
       </c>
       <c r="J1170" t="n">
-        <v>385</v>
+        <v>1350</v>
       </c>
       <c r="K1170" t="n">
-        <v>12000</v>
+        <v>4500</v>
       </c>
       <c r="L1170" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M1170" t="n">
-        <v>12481</v>
+        <v>4741</v>
       </c>
       <c r="N1170" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1170" t="inlineStr">
@@ -84619,10 +84619,10 @@
         </is>
       </c>
       <c r="P1170" t="n">
-        <v>693</v>
+        <v>474</v>
       </c>
       <c r="Q1170" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1170" t="inlineStr">
         <is>
@@ -84645,7 +84645,7 @@
         </is>
       </c>
       <c r="D1171" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1171" t="n">
         <v>9</v>
@@ -84660,7 +84660,7 @@
       </c>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
@@ -84669,32 +84669,32 @@
         </is>
       </c>
       <c r="J1171" t="n">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="K1171" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="L1171" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="M1171" t="n">
-        <v>4500</v>
+        <v>8000</v>
       </c>
       <c r="N1171" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1171" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1171" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="Q1171" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1171" t="inlineStr">
         <is>
@@ -84737,20 +84737,20 @@
       </c>
       <c r="I1172" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1172" t="n">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="K1172" t="n">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L1172" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="M1172" t="n">
-        <v>8820</v>
+        <v>16000</v>
       </c>
       <c r="N1172" t="inlineStr">
         <is>
@@ -84763,7 +84763,7 @@
         </is>
       </c>
       <c r="P1172" t="n">
-        <v>490</v>
+        <v>889</v>
       </c>
       <c r="Q1172" t="n">
         <v>18</v>
@@ -84804,7 +84804,7 @@
       </c>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
@@ -84813,16 +84813,16 @@
         </is>
       </c>
       <c r="J1173" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="K1173" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L1173" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1173" t="n">
-        <v>8909</v>
+        <v>12556</v>
       </c>
       <c r="N1173" t="inlineStr">
         <is>
@@ -84831,11 +84831,11 @@
       </c>
       <c r="O1173" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1173" t="n">
-        <v>495</v>
+        <v>698</v>
       </c>
       <c r="Q1173" t="n">
         <v>18</v>
@@ -84861,7 +84861,7 @@
         </is>
       </c>
       <c r="D1174" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1174" t="n">
         <v>9</v>
@@ -84876,7 +84876,7 @@
       </c>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1174" t="inlineStr">
@@ -84885,20 +84885,20 @@
         </is>
       </c>
       <c r="J1174" t="n">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="K1174" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1174" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1174" t="n">
-        <v>10000</v>
+        <v>12481</v>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1174" t="inlineStr">
@@ -84907,10 +84907,10 @@
         </is>
       </c>
       <c r="P1174" t="n">
-        <v>1000</v>
+        <v>693</v>
       </c>
       <c r="Q1174" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1174" t="inlineStr">
         <is>
@@ -84933,7 +84933,7 @@
         </is>
       </c>
       <c r="D1175" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1175" t="n">
         <v>9</v>
@@ -84957,32 +84957,32 @@
         </is>
       </c>
       <c r="J1175" t="n">
-        <v>1700</v>
+        <v>255</v>
       </c>
       <c r="K1175" t="n">
-        <v>22000</v>
+        <v>4500</v>
       </c>
       <c r="L1175" t="n">
-        <v>23000</v>
+        <v>4500</v>
       </c>
       <c r="M1175" t="n">
-        <v>22471</v>
+        <v>4500</v>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1175" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1175" t="n">
-        <v>1248</v>
+        <v>450</v>
       </c>
       <c r="Q1175" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1175" t="inlineStr">
         <is>
@@ -85005,7 +85005,7 @@
         </is>
       </c>
       <c r="D1176" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1176" t="n">
         <v>9</v>
@@ -85025,36 +85025,36 @@
       </c>
       <c r="I1176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1176" t="n">
-        <v>1700</v>
+        <v>305</v>
       </c>
       <c r="K1176" t="n">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="L1176" t="n">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="M1176" t="n">
-        <v>7000</v>
+        <v>8820</v>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1176" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1176" t="n">
-        <v>700</v>
+        <v>490</v>
       </c>
       <c r="Q1176" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1176" t="inlineStr">
         <is>
@@ -85077,7 +85077,7 @@
         </is>
       </c>
       <c r="D1177" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1177" t="n">
         <v>9</v>
@@ -85092,7 +85092,7 @@
       </c>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
@@ -85101,29 +85101,29 @@
         </is>
       </c>
       <c r="J1177" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="K1177" t="n">
-        <v>20000</v>
+        <v>8000</v>
       </c>
       <c r="L1177" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="M1177" t="n">
-        <v>20000</v>
+        <v>8909</v>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1177" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1177" t="n">
-        <v>1111</v>
+        <v>495</v>
       </c>
       <c r="Q1177" t="n">
         <v>18</v>
@@ -85164,7 +85164,7 @@
       </c>
       <c r="H1178" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1178" t="inlineStr">
@@ -85173,32 +85173,32 @@
         </is>
       </c>
       <c r="J1178" t="n">
-        <v>800</v>
+        <v>20</v>
       </c>
       <c r="K1178" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L1178" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M1178" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1178" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1178" t="n">
-        <v>917</v>
+        <v>1000</v>
       </c>
       <c r="Q1178" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1178" t="inlineStr">
         <is>
@@ -85236,7 +85236,7 @@
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1179" t="inlineStr">
@@ -85245,32 +85245,32 @@
         </is>
       </c>
       <c r="J1179" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K1179" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="L1179" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="M1179" t="n">
-        <v>13000</v>
+        <v>22471</v>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1179" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1179" t="n">
-        <v>867</v>
+        <v>1248</v>
       </c>
       <c r="Q1179" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1179" t="inlineStr">
         <is>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1180" t="n">
         <v>9</v>
@@ -85313,36 +85313,36 @@
       </c>
       <c r="I1180" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>200</v>
+        <v>1700</v>
       </c>
       <c r="K1180" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="L1180" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="M1180" t="n">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1180" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>944</v>
+        <v>700</v>
       </c>
       <c r="Q1180" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1180" t="inlineStr">
         <is>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1181" t="n">
         <v>9</v>
@@ -85389,29 +85389,29 @@
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="K1181" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="L1181" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="M1181" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1181" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>556</v>
+        <v>1111</v>
       </c>
       <c r="Q1181" t="n">
         <v>18</v>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1182" t="n">
         <v>9</v>
@@ -85452,7 +85452,7 @@
       </c>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1182" t="inlineStr">
@@ -85461,16 +85461,16 @@
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="K1182" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L1182" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M1182" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
@@ -85479,11 +85479,11 @@
       </c>
       <c r="O1182" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>722</v>
+        <v>917</v>
       </c>
       <c r="Q1182" t="n">
         <v>18</v>
@@ -85509,7 +85509,7 @@
         </is>
       </c>
       <c r="D1183" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1183" t="n">
         <v>9</v>
@@ -85524,7 +85524,7 @@
       </c>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1183" t="inlineStr">
@@ -85533,32 +85533,32 @@
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K1183" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="L1183" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1183" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1183" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>611</v>
+        <v>867</v>
       </c>
       <c r="Q1183" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1183" t="inlineStr">
         <is>
@@ -85601,24 +85601,24 @@
       </c>
       <c r="I1184" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="K1184" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1184" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M1184" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1184" t="inlineStr">
@@ -85627,7 +85627,7 @@
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="Q1184" t="n">
         <v>18</v>
@@ -85673,20 +85673,20 @@
       </c>
       <c r="I1185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="K1185" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1185" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1185" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85699,7 +85699,7 @@
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q1185" t="n">
         <v>18</v>
@@ -85740,7 +85740,7 @@
       </c>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
@@ -85749,16 +85749,16 @@
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="K1186" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1186" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1186" t="n">
-        <v>11636</v>
+        <v>13000</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
@@ -85767,11 +85767,11 @@
       </c>
       <c r="O1186" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="Q1186" t="n">
         <v>18</v>
@@ -85812,7 +85812,7 @@
       </c>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
@@ -85824,13 +85824,13 @@
         <v>300</v>
       </c>
       <c r="K1187" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="L1187" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="M1187" t="n">
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
@@ -85839,11 +85839,11 @@
       </c>
       <c r="O1187" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="Q1187" t="n">
         <v>18</v>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1188" t="n">
         <v>9</v>
@@ -85889,33 +85889,33 @@
       </c>
       <c r="I1188" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="K1188" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L1188" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M1188" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1188" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>1111</v>
+        <v>833</v>
       </c>
       <c r="Q1188" t="n">
         <v>18</v>
@@ -85941,7 +85941,7 @@
         </is>
       </c>
       <c r="D1189" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1189" t="n">
         <v>9</v>
@@ -85961,20 +85961,20 @@
       </c>
       <c r="I1189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K1189" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L1189" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M1189" t="n">
-        <v>13500</v>
+        <v>8000</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
@@ -85983,11 +85983,11 @@
       </c>
       <c r="O1189" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>750</v>
+        <v>444</v>
       </c>
       <c r="Q1189" t="n">
         <v>18</v>
@@ -86013,7 +86013,7 @@
         </is>
       </c>
       <c r="D1190" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1190" t="n">
         <v>9</v>
@@ -86028,7 +86028,7 @@
       </c>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1190" t="inlineStr">
@@ -86037,32 +86037,32 @@
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="K1190" t="n">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="L1190" t="n">
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="M1190" t="n">
-        <v>4200</v>
+        <v>11636</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1190" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>420</v>
+        <v>646</v>
       </c>
       <c r="Q1190" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1190" t="inlineStr">
         <is>
@@ -86085,7 +86085,7 @@
         </is>
       </c>
       <c r="D1191" s="2" t="n">
-        <v>44321</v>
+        <v>44299</v>
       </c>
       <c r="E1191" t="n">
         <v>9</v>
@@ -86100,25 +86100,25 @@
       </c>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="K1191" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="L1191" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="M1191" t="n">
-        <v>13000</v>
+        <v>8000</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
@@ -86127,11 +86127,11 @@
       </c>
       <c r="O1191" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>722</v>
+        <v>444</v>
       </c>
       <c r="Q1191" t="n">
         <v>18</v>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1192" t="n">
         <v>9</v>
@@ -86177,20 +86177,20 @@
       </c>
       <c r="I1192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="K1192" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="L1192" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="M1192" t="n">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86199,11 +86199,11 @@
       </c>
       <c r="O1192" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>444</v>
+        <v>1111</v>
       </c>
       <c r="Q1192" t="n">
         <v>18</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1193" t="n">
         <v>9</v>
@@ -86253,16 +86253,16 @@
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="K1193" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="L1193" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M1193" t="n">
-        <v>10000</v>
+        <v>13500</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86271,11 +86271,11 @@
       </c>
       <c r="O1193" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>556</v>
+        <v>750</v>
       </c>
       <c r="Q1193" t="n">
         <v>18</v>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1194" t="n">
         <v>9</v>
@@ -86325,20 +86325,20 @@
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>355</v>
+        <v>500</v>
       </c>
       <c r="K1194" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L1194" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M1194" t="n">
-        <v>10000</v>
+        <v>4200</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1194" t="inlineStr">
@@ -86347,10 +86347,10 @@
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>556</v>
+        <v>420</v>
       </c>
       <c r="Q1194" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1194" t="inlineStr">
         <is>
@@ -86393,20 +86393,20 @@
       </c>
       <c r="I1195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="K1195" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="L1195" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="M1195" t="n">
-        <v>6000</v>
+        <v>13000</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86415,11 +86415,11 @@
       </c>
       <c r="O1195" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>333</v>
+        <v>722</v>
       </c>
       <c r="Q1195" t="n">
         <v>18</v>
@@ -86460,7 +86460,7 @@
       </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1196" t="inlineStr">
@@ -86469,7 +86469,7 @@
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>380</v>
+        <v>215</v>
       </c>
       <c r="K1196" t="n">
         <v>8000</v>
@@ -86487,7 +86487,7 @@
       </c>
       <c r="O1196" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1196" t="n">
@@ -86517,7 +86517,7 @@
         </is>
       </c>
       <c r="D1197" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1197" t="n">
         <v>9</v>
@@ -86537,20 +86537,20 @@
       </c>
       <c r="I1197" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K1197" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="L1197" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1197" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
@@ -86563,7 +86563,7 @@
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>889</v>
+        <v>556</v>
       </c>
       <c r="Q1197" t="n">
         <v>18</v>
@@ -86589,7 +86589,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1198" t="n">
         <v>9</v>
@@ -86613,7 +86613,7 @@
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="K1198" t="n">
         <v>10000</v>
@@ -86631,7 +86631,7 @@
       </c>
       <c r="O1198" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1198" t="n">
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1199" t="n">
         <v>9</v>
@@ -86681,20 +86681,20 @@
       </c>
       <c r="I1199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>600</v>
+        <v>180</v>
       </c>
       <c r="K1199" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L1199" t="n">
-        <v>13000</v>
+        <v>6000</v>
       </c>
       <c r="M1199" t="n">
-        <v>12500</v>
+        <v>6000</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
@@ -86703,11 +86703,11 @@
       </c>
       <c r="O1199" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>694</v>
+        <v>333</v>
       </c>
       <c r="Q1199" t="n">
         <v>18</v>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1200" t="n">
         <v>9</v>
@@ -86748,7 +86748,7 @@
       </c>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1200" t="inlineStr">
@@ -86757,16 +86757,16 @@
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="K1200" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1200" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1200" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
@@ -86775,11 +86775,11 @@
       </c>
       <c r="O1200" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q1200" t="n">
         <v>18</v>
@@ -86825,36 +86825,36 @@
       </c>
       <c r="I1201" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="K1201" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="L1201" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="M1201" t="n">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1201" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>400</v>
+        <v>889</v>
       </c>
       <c r="Q1201" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1201" t="inlineStr">
         <is>
@@ -86897,20 +86897,20 @@
       </c>
       <c r="I1202" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="K1202" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1202" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1202" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
@@ -86923,7 +86923,7 @@
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="Q1202" t="n">
         <v>18</v>
@@ -86964,7 +86964,7 @@
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1203" t="inlineStr">
@@ -86973,16 +86973,16 @@
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="K1203" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="L1203" t="n">
-        <v>9000</v>
+        <v>13000</v>
       </c>
       <c r="M1203" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
@@ -86991,11 +86991,11 @@
       </c>
       <c r="O1203" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>500</v>
+        <v>694</v>
       </c>
       <c r="Q1203" t="n">
         <v>18</v>
@@ -87036,7 +87036,7 @@
       </c>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1204" t="inlineStr">
@@ -87063,7 +87063,7 @@
       </c>
       <c r="O1204" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1204" t="n">
@@ -87093,7 +87093,7 @@
         </is>
       </c>
       <c r="D1205" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1205" t="n">
         <v>9</v>
@@ -87117,32 +87117,32 @@
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="K1205" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L1205" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="M1205" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1205" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>778</v>
+        <v>400</v>
       </c>
       <c r="Q1205" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1205" t="inlineStr">
         <is>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1206" t="n">
         <v>9</v>
@@ -87185,20 +87185,20 @@
       </c>
       <c r="I1206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="K1206" t="n">
-        <v>18000</v>
+        <v>8000</v>
       </c>
       <c r="L1206" t="n">
-        <v>18500</v>
+        <v>8000</v>
       </c>
       <c r="M1206" t="n">
-        <v>18278</v>
+        <v>8000</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
@@ -87207,11 +87207,11 @@
       </c>
       <c r="O1206" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>1015</v>
+        <v>444</v>
       </c>
       <c r="Q1206" t="n">
         <v>18</v>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1207" t="n">
         <v>9</v>
@@ -87252,7 +87252,7 @@
       </c>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1207" t="inlineStr">
@@ -87261,16 +87261,16 @@
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="K1207" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L1207" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="M1207" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
@@ -87279,11 +87279,11 @@
       </c>
       <c r="O1207" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q1207" t="n">
         <v>18</v>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1208" t="n">
         <v>9</v>
@@ -87324,7 +87324,7 @@
       </c>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1208" t="inlineStr">
@@ -87333,32 +87333,32 @@
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>950</v>
+        <v>200</v>
       </c>
       <c r="K1208" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="L1208" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="M1208" t="n">
-        <v>6500</v>
+        <v>10000</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1208" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>650</v>
+        <v>556</v>
       </c>
       <c r="Q1208" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1208" t="inlineStr">
         <is>
@@ -87405,20 +87405,20 @@
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K1209" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L1209" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M1209" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1209" t="inlineStr">
@@ -87427,10 +87427,10 @@
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>400</v>
+        <v>778</v>
       </c>
       <c r="Q1209" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1209" t="inlineStr">
         <is>
@@ -87473,20 +87473,20 @@
       </c>
       <c r="I1210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K1210" t="n">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="L1210" t="n">
-        <v>8000</v>
+        <v>18500</v>
       </c>
       <c r="M1210" t="n">
-        <v>8000</v>
+        <v>18278</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
@@ -87495,11 +87495,11 @@
       </c>
       <c r="O1210" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>444</v>
+        <v>1015</v>
       </c>
       <c r="Q1210" t="n">
         <v>18</v>
@@ -87540,7 +87540,7 @@
       </c>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1211" t="inlineStr">
@@ -87549,16 +87549,16 @@
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="K1211" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L1211" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M1211" t="n">
-        <v>14655</v>
+        <v>12000</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
@@ -87567,11 +87567,11 @@
       </c>
       <c r="O1211" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>814</v>
+        <v>667</v>
       </c>
       <c r="Q1211" t="n">
         <v>18</v>
@@ -87612,7 +87612,7 @@
       </c>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
@@ -87621,32 +87621,32 @@
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>380</v>
+        <v>950</v>
       </c>
       <c r="K1212" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="L1212" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="M1212" t="n">
-        <v>9000</v>
+        <v>6500</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1212" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="Q1212" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1212" t="inlineStr">
         <is>
@@ -87684,7 +87684,7 @@
       </c>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1213" t="inlineStr">
@@ -87693,16 +87693,16 @@
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="K1213" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="L1213" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1213" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
@@ -87711,11 +87711,11 @@
       </c>
       <c r="O1213" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="Q1213" t="n">
         <v>15</v>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1214" t="n">
         <v>9</v>
@@ -87761,20 +87761,20 @@
       </c>
       <c r="I1214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="K1214" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1214" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="M1214" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
@@ -87783,11 +87783,11 @@
       </c>
       <c r="O1214" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="Q1214" t="n">
         <v>18</v>
@@ -87813,7 +87813,7 @@
         </is>
       </c>
       <c r="D1215" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1215" t="n">
         <v>9</v>
@@ -87828,7 +87828,7 @@
       </c>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1215" t="inlineStr">
@@ -87837,32 +87837,32 @@
         </is>
       </c>
       <c r="J1215" t="n">
-        <v>1500</v>
+        <v>580</v>
       </c>
       <c r="K1215" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="L1215" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="M1215" t="n">
-        <v>4000</v>
+        <v>14655</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1215" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>400</v>
+        <v>814</v>
       </c>
       <c r="Q1215" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1215" t="inlineStr">
         <is>
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E1216" t="n">
         <v>9</v>
@@ -87900,41 +87900,41 @@
       </c>
       <c r="H1216" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1216" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1216" t="n">
         <v>380</v>
       </c>
       <c r="K1216" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="L1216" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="M1216" t="n">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1216" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>1056</v>
+        <v>600</v>
       </c>
       <c r="Q1216" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1216" t="inlineStr">
         <is>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44554</v>
+        <v>44209</v>
       </c>
       <c r="E1217" t="n">
         <v>9</v>
@@ -87972,7 +87972,7 @@
       </c>
       <c r="H1217" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1217" t="inlineStr">
@@ -87981,32 +87981,32 @@
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="K1217" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="L1217" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="M1217" t="n">
-        <v>15000</v>
+        <v>8000</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1217" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>833</v>
+        <v>533</v>
       </c>
       <c r="Q1217" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1217" t="inlineStr">
         <is>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1218" t="n">
         <v>9</v>
@@ -88049,20 +88049,20 @@
       </c>
       <c r="I1218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>350</v>
+        <v>1500</v>
       </c>
       <c r="K1218" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="L1218" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="M1218" t="n">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
@@ -88071,11 +88071,11 @@
       </c>
       <c r="O1218" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>667</v>
+        <v>333</v>
       </c>
       <c r="Q1218" t="n">
         <v>18</v>
@@ -88101,7 +88101,7 @@
         </is>
       </c>
       <c r="D1219" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1219" t="n">
         <v>9</v>
@@ -88116,7 +88116,7 @@
       </c>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1219" t="inlineStr">
@@ -88125,32 +88125,32 @@
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>830</v>
+        <v>1500</v>
       </c>
       <c r="K1219" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="L1219" t="n">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="M1219" t="n">
-        <v>14422</v>
+        <v>4000</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1219" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>801</v>
+        <v>400</v>
       </c>
       <c r="Q1219" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1219" t="inlineStr">
         <is>
@@ -88188,41 +88188,41 @@
       </c>
       <c r="H1220" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>740</v>
+        <v>380</v>
       </c>
       <c r="K1220" t="n">
-        <v>9000</v>
+        <v>19000</v>
       </c>
       <c r="L1220" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="M1220" t="n">
-        <v>9676</v>
+        <v>19000</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1220" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>645</v>
+        <v>1056</v>
       </c>
       <c r="Q1220" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1220" t="inlineStr">
         <is>
@@ -88260,25 +88260,25 @@
       </c>
       <c r="H1221" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="K1221" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L1221" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1221" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
@@ -88287,11 +88287,11 @@
       </c>
       <c r="O1221" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>667</v>
+        <v>833</v>
       </c>
       <c r="Q1221" t="n">
         <v>18</v>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1222" t="n">
         <v>9</v>
@@ -88337,20 +88337,20 @@
       </c>
       <c r="I1222" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="K1222" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="L1222" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="M1222" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88359,11 +88359,11 @@
       </c>
       <c r="O1222" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>1333</v>
+        <v>667</v>
       </c>
       <c r="Q1222" t="n">
         <v>18</v>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1223" t="n">
         <v>9</v>
@@ -88404,41 +88404,41 @@
       </c>
       <c r="H1223" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1223" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>350</v>
+        <v>830</v>
       </c>
       <c r="K1223" t="n">
-        <v>2800</v>
+        <v>14000</v>
       </c>
       <c r="L1223" t="n">
-        <v>2800</v>
+        <v>15000</v>
       </c>
       <c r="M1223" t="n">
-        <v>2800</v>
+        <v>14422</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1223" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>140</v>
+        <v>801</v>
       </c>
       <c r="Q1223" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1223" t="inlineStr">
         <is>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1224" t="n">
         <v>9</v>
@@ -88476,7 +88476,7 @@
       </c>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1224" t="inlineStr">
@@ -88485,32 +88485,32 @@
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>1250</v>
+        <v>740</v>
       </c>
       <c r="K1224" t="n">
-        <v>15000</v>
+        <v>9000</v>
       </c>
       <c r="L1224" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M1224" t="n">
-        <v>15000</v>
+        <v>9676</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1224" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>833</v>
+        <v>645</v>
       </c>
       <c r="Q1224" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1224" t="inlineStr">
         <is>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1225" t="n">
         <v>9</v>
@@ -88548,41 +88548,41 @@
       </c>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1225" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>9300</v>
+        <v>125</v>
       </c>
       <c r="K1225" t="n">
-        <v>6500</v>
+        <v>12000</v>
       </c>
       <c r="L1225" t="n">
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="M1225" t="n">
-        <v>6812</v>
+        <v>12000</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1225" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="Q1225" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1225" t="inlineStr">
         <is>
@@ -88625,24 +88625,24 @@
       </c>
       <c r="I1226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K1226" t="n">
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="L1226" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M1226" t="n">
-        <v>19091</v>
+        <v>24000</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1226" t="inlineStr">
@@ -88651,12 +88651,300 @@
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>1061</v>
+        <v>1333</v>
       </c>
       <c r="Q1226" t="n">
         <v>18</v>
       </c>
       <c r="R1226" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1227" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1227" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1227" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1227" t="n">
+        <v>350</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>2800</v>
+      </c>
+      <c r="N1227" t="inlineStr">
+        <is>
+          <t>$/bandeja 20 kilos</t>
+        </is>
+      </c>
+      <c r="O1227" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1227" t="n">
+        <v>140</v>
+      </c>
+      <c r="Q1227" t="n">
+        <v>20</v>
+      </c>
+      <c r="R1227" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1228" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1228" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1228" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1228" t="n">
+        <v>1250</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N1228" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1228" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1228" t="n">
+        <v>833</v>
+      </c>
+      <c r="Q1228" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1228" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1229" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1229" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1229" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1229" t="n">
+        <v>9300</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>6500</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>6812</v>
+      </c>
+      <c r="N1229" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1229" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1229" t="n">
+        <v>681</v>
+      </c>
+      <c r="Q1229" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1229" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1230" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1230" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1230" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1230" t="n">
+        <v>550</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>18000</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>20000</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>19091</v>
+      </c>
+      <c r="N1230" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1230" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1230" t="n">
+        <v>1061</v>
+      </c>
+      <c r="Q1230" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1230" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1260"/>
+  <dimension ref="A1:R1271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1247" t="n">
         <v>9</v>
@@ -90132,7 +90132,7 @@
       </c>
       <c r="H1247" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1247" t="inlineStr">
@@ -90141,32 +90141,32 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>355</v>
+        <v>100</v>
       </c>
       <c r="K1247" t="n">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L1247" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1247" t="n">
-        <v>12437</v>
+        <v>9500</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1247" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>691</v>
+        <v>950</v>
       </c>
       <c r="Q1247" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1247" t="inlineStr">
         <is>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1248" t="n">
         <v>9</v>
@@ -90204,25 +90204,25 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K1248" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L1248" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="M1248" t="n">
-        <v>10000</v>
+        <v>25500</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90231,11 +90231,11 @@
       </c>
       <c r="O1248" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>556</v>
+        <v>1417</v>
       </c>
       <c r="Q1248" t="n">
         <v>18</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1249" t="n">
         <v>9</v>
@@ -90281,20 +90281,20 @@
       </c>
       <c r="I1249" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>380</v>
+        <v>900</v>
       </c>
       <c r="K1249" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="L1249" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="M1249" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90303,11 +90303,11 @@
       </c>
       <c r="O1249" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>1056</v>
+        <v>833</v>
       </c>
       <c r="Q1249" t="n">
         <v>18</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1250" t="n">
         <v>9</v>
@@ -90357,16 +90357,16 @@
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="K1250" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="L1250" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="M1250" t="n">
-        <v>15538</v>
+        <v>20000</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90379,7 +90379,7 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>863</v>
+        <v>1111</v>
       </c>
       <c r="Q1250" t="n">
         <v>18</v>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1251" t="n">
         <v>9</v>
@@ -90425,36 +90425,36 @@
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="K1251" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="L1251" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="M1251" t="n">
-        <v>4500</v>
+        <v>13000</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1251" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>450</v>
+        <v>722</v>
       </c>
       <c r="Q1251" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1251" t="inlineStr">
         <is>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44552</v>
+        <v>44595</v>
       </c>
       <c r="E1252" t="n">
         <v>9</v>
@@ -90492,41 +90492,41 @@
       </c>
       <c r="H1252" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>780</v>
+        <v>200</v>
       </c>
       <c r="K1252" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="L1252" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="M1252" t="n">
-        <v>7500</v>
+        <v>18000</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1252" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q1252" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1252" t="inlineStr">
         <is>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44544</v>
+        <v>44595</v>
       </c>
       <c r="E1253" t="n">
         <v>9</v>
@@ -90564,25 +90564,25 @@
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K1253" t="n">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="L1253" t="n">
-        <v>10000</v>
+        <v>26000</v>
       </c>
       <c r="M1253" t="n">
-        <v>10000</v>
+        <v>25429</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
@@ -90591,11 +90591,11 @@
       </c>
       <c r="O1253" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>556</v>
+        <v>1413</v>
       </c>
       <c r="Q1253" t="n">
         <v>18</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44544</v>
+        <v>44595</v>
       </c>
       <c r="E1254" t="n">
         <v>9</v>
@@ -90636,7 +90636,7 @@
       </c>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
@@ -90645,32 +90645,32 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="K1254" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L1254" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M1254" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1254" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="Q1254" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1254" t="inlineStr">
         <is>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44544</v>
+        <v>44595</v>
       </c>
       <c r="E1255" t="n">
         <v>9</v>
@@ -90717,16 +90717,16 @@
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>550</v>
+        <v>1500</v>
       </c>
       <c r="K1255" t="n">
+        <v>11000</v>
+      </c>
+      <c r="L1255" t="n">
         <v>12000</v>
       </c>
-      <c r="L1255" t="n">
-        <v>13000</v>
-      </c>
       <c r="M1255" t="n">
-        <v>12636</v>
+        <v>11467</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90739,7 +90739,7 @@
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>702</v>
+        <v>637</v>
       </c>
       <c r="Q1255" t="n">
         <v>18</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44544</v>
+        <v>44595</v>
       </c>
       <c r="E1256" t="n">
         <v>9</v>
@@ -90789,16 +90789,16 @@
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="K1256" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="L1256" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="M1256" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90811,7 +90811,7 @@
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="Q1256" t="n">
         <v>15</v>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44160</v>
+        <v>44595</v>
       </c>
       <c r="E1257" t="n">
         <v>9</v>
@@ -90852,41 +90852,41 @@
       </c>
       <c r="H1257" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="K1257" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L1257" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="M1257" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1257" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>1200</v>
+        <v>467</v>
       </c>
       <c r="Q1257" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1257" t="inlineStr">
         <is>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44160</v>
+        <v>44335</v>
       </c>
       <c r="E1258" t="n">
         <v>9</v>
@@ -90929,24 +90929,24 @@
       </c>
       <c r="I1258" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>200</v>
+        <v>355</v>
       </c>
       <c r="K1258" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L1258" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M1258" t="n">
-        <v>14000</v>
+        <v>12437</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1258" t="inlineStr">
@@ -90955,7 +90955,7 @@
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>778</v>
+        <v>691</v>
       </c>
       <c r="Q1258" t="n">
         <v>18</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44160</v>
+        <v>44335</v>
       </c>
       <c r="E1259" t="n">
         <v>9</v>
@@ -90996,7 +90996,7 @@
       </c>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1259" t="inlineStr">
@@ -91005,32 +91005,32 @@
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="K1259" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L1259" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M1259" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1259" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="Q1259" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1259" t="inlineStr">
         <is>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44160</v>
+        <v>44552</v>
       </c>
       <c r="E1260" t="n">
         <v>9</v>
@@ -91073,24 +91073,24 @@
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>800</v>
+        <v>380</v>
       </c>
       <c r="K1260" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="L1260" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="M1260" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1260" t="inlineStr">
@@ -91099,12 +91099,804 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>722</v>
+        <v>1056</v>
       </c>
       <c r="Q1260" t="n">
         <v>18</v>
       </c>
       <c r="R1260" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1261" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1261" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1261" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1261" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1261" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1261" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1261" t="n">
+        <v>650</v>
+      </c>
+      <c r="K1261" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L1261" t="n">
+        <v>16000</v>
+      </c>
+      <c r="M1261" t="n">
+        <v>15538</v>
+      </c>
+      <c r="N1261" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1261" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1261" t="n">
+        <v>863</v>
+      </c>
+      <c r="Q1261" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1261" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1262" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1262" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1262" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1262" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1262" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1262" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1262" t="n">
+        <v>550</v>
+      </c>
+      <c r="K1262" t="n">
+        <v>4500</v>
+      </c>
+      <c r="L1262" t="n">
+        <v>4500</v>
+      </c>
+      <c r="M1262" t="n">
+        <v>4500</v>
+      </c>
+      <c r="N1262" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1262" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1262" t="n">
+        <v>450</v>
+      </c>
+      <c r="Q1262" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1262" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1263" s="2" t="n">
+        <v>44552</v>
+      </c>
+      <c r="E1263" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1263" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1263" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1263" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I1263" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1263" t="n">
+        <v>780</v>
+      </c>
+      <c r="K1263" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L1263" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M1263" t="n">
+        <v>7500</v>
+      </c>
+      <c r="N1263" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1263" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P1263" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q1263" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1263" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1264" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1264" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1264" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1264" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1264" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1264" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1264" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1264" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L1264" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M1264" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N1264" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1264" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1264" t="n">
+        <v>556</v>
+      </c>
+      <c r="Q1264" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1264" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1265" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1265" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1265" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1265" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1265" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1265" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1265" t="n">
+        <v>380</v>
+      </c>
+      <c r="K1265" t="n">
+        <v>5000</v>
+      </c>
+      <c r="L1265" t="n">
+        <v>5000</v>
+      </c>
+      <c r="M1265" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N1265" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1265" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1265" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q1265" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1265" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1266" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1266" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1266" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1266" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1266" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I1266" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1266" t="n">
+        <v>550</v>
+      </c>
+      <c r="K1266" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L1266" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M1266" t="n">
+        <v>12636</v>
+      </c>
+      <c r="N1266" t="inlineStr">
+        <is>
+          <t>$/bandeja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1266" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P1266" t="n">
+        <v>702</v>
+      </c>
+      <c r="Q1266" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1266" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1267" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1267" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1267" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1267" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1267" t="inlineStr">
+        <is>
+          <t>Semiduro</t>
+        </is>
+      </c>
+      <c r="I1267" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1267" t="n">
+        <v>650</v>
+      </c>
+      <c r="K1267" t="n">
+        <v>8000</v>
+      </c>
+      <c r="L1267" t="n">
+        <v>8000</v>
+      </c>
+      <c r="M1267" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N1267" t="inlineStr">
+        <is>
+          <t>$/caja 15 kilos</t>
+        </is>
+      </c>
+      <c r="O1267" t="inlineStr">
+        <is>
+          <t>Región del Maule</t>
+        </is>
+      </c>
+      <c r="P1267" t="n">
+        <v>533</v>
+      </c>
+      <c r="Q1267" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1267" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1268" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1268" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1268" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1268" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1268" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="I1268" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1268" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1268" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L1268" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M1268" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N1268" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1268" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1268" t="n">
+        <v>1200</v>
+      </c>
+      <c r="Q1268" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1268" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1269" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1269" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1269" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1269" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1269" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1269" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1269" t="n">
+        <v>200</v>
+      </c>
+      <c r="K1269" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L1269" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M1269" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N1269" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1269" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1269" t="n">
+        <v>778</v>
+      </c>
+      <c r="Q1269" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1269" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1270" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1270" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1270" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1270" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1270" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1270" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1270" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K1270" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1270" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1270" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1270" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1270" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1270" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q1270" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1270" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1271" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1271" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1271" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1271" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1271" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1271" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1271" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1271" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1271" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M1271" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N1271" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1271" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1271" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q1271" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1271" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1314"/>
+  <dimension ref="A1:R1315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88821,7 +88821,7 @@
         </is>
       </c>
       <c r="D1229" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1229" t="n">
         <v>9</v>
@@ -88841,20 +88841,20 @@
       </c>
       <c r="I1229" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="K1229" t="n">
-        <v>17000</v>
+        <v>8000</v>
       </c>
       <c r="L1229" t="n">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="M1229" t="n">
-        <v>17000</v>
+        <v>8533</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
@@ -88863,11 +88863,11 @@
       </c>
       <c r="O1229" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>944</v>
+        <v>474</v>
       </c>
       <c r="Q1229" t="n">
         <v>18</v>
@@ -88913,20 +88913,20 @@
       </c>
       <c r="I1230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="K1230" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="L1230" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M1230" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
@@ -88935,11 +88935,11 @@
       </c>
       <c r="O1230" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>556</v>
+        <v>944</v>
       </c>
       <c r="Q1230" t="n">
         <v>18</v>
@@ -88989,16 +88989,16 @@
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="K1231" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L1231" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M1231" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
@@ -89007,11 +89007,11 @@
       </c>
       <c r="O1231" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>833</v>
+        <v>556</v>
       </c>
       <c r="Q1231" t="n">
         <v>18</v>
@@ -89061,16 +89061,16 @@
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K1232" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L1232" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="M1232" t="n">
-        <v>10571</v>
+        <v>15000</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
@@ -89079,11 +89079,11 @@
       </c>
       <c r="O1232" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>587</v>
+        <v>833</v>
       </c>
       <c r="Q1232" t="n">
         <v>18</v>
@@ -89133,20 +89133,20 @@
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>2400</v>
+        <v>700</v>
       </c>
       <c r="K1233" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1233" t="n">
-        <v>6000</v>
+        <v>11000</v>
       </c>
       <c r="M1233" t="n">
-        <v>5500</v>
+        <v>10571</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1233" t="inlineStr">
@@ -89155,10 +89155,10 @@
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>550</v>
+        <v>587</v>
       </c>
       <c r="Q1233" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1233" t="inlineStr">
         <is>
@@ -89201,36 +89201,36 @@
       </c>
       <c r="I1234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="K1234" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1234" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="M1234" t="n">
-        <v>8000</v>
+        <v>5500</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1234" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>444</v>
+        <v>550</v>
       </c>
       <c r="Q1234" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1234" t="inlineStr">
         <is>
@@ -89277,16 +89277,16 @@
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K1235" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L1235" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M1235" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
@@ -89295,11 +89295,11 @@
       </c>
       <c r="O1235" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>667</v>
+        <v>444</v>
       </c>
       <c r="Q1235" t="n">
         <v>18</v>
@@ -89345,20 +89345,20 @@
       </c>
       <c r="I1236" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K1236" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L1236" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M1236" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89367,11 +89367,11 @@
       </c>
       <c r="O1236" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>278</v>
+        <v>667</v>
       </c>
       <c r="Q1236" t="n">
         <v>18</v>
@@ -89421,20 +89421,20 @@
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K1237" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="L1237" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="M1237" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1237" t="inlineStr">
@@ -89443,10 +89443,10 @@
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="Q1237" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1237" t="inlineStr">
         <is>
@@ -89484,41 +89484,41 @@
       </c>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>1700</v>
+        <v>50</v>
       </c>
       <c r="K1238" t="n">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="L1238" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="M1238" t="n">
-        <v>9471</v>
+        <v>3000</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1238" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>526</v>
+        <v>200</v>
       </c>
       <c r="Q1238" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1238" t="inlineStr">
         <is>
@@ -89541,7 +89541,7 @@
         </is>
       </c>
       <c r="D1239" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1239" t="n">
         <v>9</v>
@@ -89556,25 +89556,25 @@
       </c>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1239" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="K1239" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="L1239" t="n">
-        <v>22000</v>
+        <v>10000</v>
       </c>
       <c r="M1239" t="n">
-        <v>21500</v>
+        <v>9471</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89583,11 +89583,11 @@
       </c>
       <c r="O1239" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>1194</v>
+        <v>526</v>
       </c>
       <c r="Q1239" t="n">
         <v>18</v>
@@ -89637,20 +89637,20 @@
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K1240" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="L1240" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="M1240" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1240" t="inlineStr">
@@ -89659,10 +89659,10 @@
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>1225</v>
+        <v>1194</v>
       </c>
       <c r="Q1240" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R1240" t="inlineStr">
         <is>
@@ -89705,24 +89705,24 @@
       </c>
       <c r="I1241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>2200</v>
+        <v>400</v>
       </c>
       <c r="K1241" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L1241" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="M1241" t="n">
-        <v>15545</v>
+        <v>24500</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1241" t="inlineStr">
@@ -89731,10 +89731,10 @@
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>864</v>
+        <v>1225</v>
       </c>
       <c r="Q1241" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1241" t="inlineStr">
         <is>
@@ -89781,20 +89781,20 @@
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>5800</v>
+        <v>2200</v>
       </c>
       <c r="K1242" t="n">
-        <v>5500</v>
+        <v>15000</v>
       </c>
       <c r="L1242" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M1242" t="n">
-        <v>5759</v>
+        <v>15545</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1242" t="inlineStr">
@@ -89803,10 +89803,10 @@
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>576</v>
+        <v>864</v>
       </c>
       <c r="Q1242" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1242" t="inlineStr">
         <is>
@@ -89853,20 +89853,20 @@
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>900</v>
+        <v>5800</v>
       </c>
       <c r="K1243" t="n">
-        <v>17000</v>
+        <v>5500</v>
       </c>
       <c r="L1243" t="n">
-        <v>18000</v>
+        <v>6000</v>
       </c>
       <c r="M1243" t="n">
-        <v>17556</v>
+        <v>5759</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1243" t="inlineStr">
@@ -89875,10 +89875,10 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>975</v>
+        <v>576</v>
       </c>
       <c r="Q1243" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1243" t="inlineStr">
         <is>
@@ -89921,24 +89921,24 @@
       </c>
       <c r="I1244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>380</v>
+        <v>900</v>
       </c>
       <c r="K1244" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L1244" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="M1244" t="n">
-        <v>12526</v>
+        <v>17556</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1244" t="inlineStr">
@@ -89947,7 +89947,7 @@
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>696</v>
+        <v>975</v>
       </c>
       <c r="Q1244" t="n">
         <v>18</v>
@@ -89973,7 +89973,7 @@
         </is>
       </c>
       <c r="D1245" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1245" t="n">
         <v>9</v>
@@ -89988,29 +89988,29 @@
       </c>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="K1245" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L1245" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M1245" t="n">
-        <v>17000</v>
+        <v>12526</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1245" t="inlineStr">
@@ -90019,10 +90019,10 @@
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>1700</v>
+        <v>696</v>
       </c>
       <c r="Q1245" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1245" t="inlineStr">
         <is>
@@ -90060,7 +90060,7 @@
       </c>
       <c r="H1246" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1246" t="inlineStr">
@@ -90069,32 +90069,32 @@
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
       <c r="K1246" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="L1246" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="M1246" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1246" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>1000</v>
+        <v>1700</v>
       </c>
       <c r="Q1246" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1246" t="inlineStr">
         <is>
@@ -90141,32 +90141,32 @@
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>4500</v>
+        <v>600</v>
       </c>
       <c r="K1247" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="L1247" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="M1247" t="n">
-        <v>4000</v>
+        <v>18000</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1247" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="Q1247" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1247" t="inlineStr">
         <is>
@@ -90204,7 +90204,7 @@
       </c>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
@@ -90213,32 +90213,32 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>1100</v>
+        <v>4500</v>
       </c>
       <c r="K1248" t="n">
-        <v>13000</v>
+        <v>4000</v>
       </c>
       <c r="L1248" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="M1248" t="n">
-        <v>13455</v>
+        <v>4000</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1248" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>748</v>
+        <v>400</v>
       </c>
       <c r="Q1248" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1248" t="inlineStr">
         <is>
@@ -90285,20 +90285,20 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K1249" t="n">
-        <v>8500</v>
+        <v>13000</v>
       </c>
       <c r="L1249" t="n">
-        <v>8500</v>
+        <v>14000</v>
       </c>
       <c r="M1249" t="n">
-        <v>8500</v>
+        <v>13455</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1249" t="inlineStr">
@@ -90307,10 +90307,10 @@
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>567</v>
+        <v>748</v>
       </c>
       <c r="Q1249" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1249" t="inlineStr">
         <is>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44167</v>
+        <v>44522</v>
       </c>
       <c r="E1250" t="n">
         <v>9</v>
@@ -90348,7 +90348,7 @@
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
@@ -90357,32 +90357,32 @@
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="K1250" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="L1250" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="M1250" t="n">
-        <v>14000</v>
+        <v>8500</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1250" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>778</v>
+        <v>567</v>
       </c>
       <c r="Q1250" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1250" t="inlineStr">
         <is>
@@ -90425,20 +90425,20 @@
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="K1251" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L1251" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="M1251" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90451,7 +90451,7 @@
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>556</v>
+        <v>778</v>
       </c>
       <c r="Q1251" t="n">
         <v>18</v>
@@ -90504,17 +90504,17 @@
         <v>650</v>
       </c>
       <c r="K1252" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L1252" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1252" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1252" t="inlineStr">
@@ -90523,10 +90523,10 @@
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>533</v>
+        <v>556</v>
       </c>
       <c r="Q1252" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1252" t="inlineStr">
         <is>
@@ -90564,41 +90564,41 @@
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1253" t="n">
         <v>650</v>
       </c>
       <c r="K1253" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1253" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1253" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1253" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="Q1253" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1253" t="inlineStr">
         <is>
@@ -90645,20 +90645,20 @@
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>1950</v>
+        <v>650</v>
       </c>
       <c r="K1254" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L1254" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M1254" t="n">
-        <v>6872</v>
+        <v>10000</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1254" t="inlineStr">
@@ -90667,7 +90667,7 @@
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>382</v>
+        <v>556</v>
       </c>
       <c r="Q1254" t="n">
         <v>18</v>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1255" t="n">
         <v>9</v>
@@ -90708,7 +90708,7 @@
       </c>
       <c r="H1255" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1255" t="inlineStr">
@@ -90717,32 +90717,32 @@
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>35</v>
+        <v>1950</v>
       </c>
       <c r="K1255" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="L1255" t="n">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="M1255" t="n">
-        <v>2000</v>
+        <v>6872</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
-          <t>$/kilo</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1255" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>2000</v>
+        <v>382</v>
       </c>
       <c r="Q1255" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="R1255" t="inlineStr">
         <is>
@@ -90780,7 +90780,7 @@
       </c>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
@@ -90789,32 +90789,32 @@
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>1600</v>
+        <v>35</v>
       </c>
       <c r="K1256" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="L1256" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="M1256" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/kilo</t>
         </is>
       </c>
       <c r="O1256" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>556</v>
+        <v>2000</v>
       </c>
       <c r="Q1256" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R1256" t="inlineStr">
         <is>
@@ -90861,16 +90861,16 @@
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>1250</v>
+        <v>1600</v>
       </c>
       <c r="K1257" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1257" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1257" t="n">
-        <v>12480</v>
+        <v>10000</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90879,11 +90879,11 @@
       </c>
       <c r="O1257" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>693</v>
+        <v>556</v>
       </c>
       <c r="Q1257" t="n">
         <v>18</v>
@@ -90933,32 +90933,32 @@
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>550</v>
+        <v>1250</v>
       </c>
       <c r="K1258" t="n">
-        <v>400</v>
+        <v>12000</v>
       </c>
       <c r="L1258" t="n">
-        <v>400</v>
+        <v>13000</v>
       </c>
       <c r="M1258" t="n">
-        <v>400</v>
+        <v>12480</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1258" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>40</v>
+        <v>693</v>
       </c>
       <c r="Q1258" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1258" t="inlineStr">
         <is>
@@ -91001,36 +91001,36 @@
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="K1259" t="n">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="L1259" t="n">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="M1259" t="n">
-        <v>8000</v>
+        <v>400</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1259" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>444</v>
+        <v>40</v>
       </c>
       <c r="Q1259" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1259" t="inlineStr">
         <is>
@@ -91068,25 +91068,25 @@
       </c>
       <c r="H1260" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="K1260" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="L1260" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="M1260" t="n">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91095,11 +91095,11 @@
       </c>
       <c r="O1260" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q1260" t="n">
         <v>18</v>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1261" t="n">
         <v>9</v>
@@ -91140,7 +91140,7 @@
       </c>
       <c r="H1261" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1261" t="inlineStr">
@@ -91149,16 +91149,16 @@
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>1500</v>
+        <v>650</v>
       </c>
       <c r="K1261" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1261" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="M1261" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91167,11 +91167,11 @@
       </c>
       <c r="O1261" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>667</v>
+        <v>556</v>
       </c>
       <c r="Q1261" t="n">
         <v>18</v>
@@ -91221,32 +91221,32 @@
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="K1262" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="L1262" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="M1262" t="n">
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1262" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>500</v>
+        <v>667</v>
       </c>
       <c r="Q1262" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1262" t="inlineStr">
         <is>
@@ -91289,36 +91289,36 @@
       </c>
       <c r="I1263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="K1263" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="L1263" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M1263" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1263" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q1263" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1263" t="inlineStr">
         <is>
@@ -91361,20 +91361,20 @@
       </c>
       <c r="I1264" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K1264" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="L1264" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="M1264" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91387,7 +91387,7 @@
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>333</v>
+        <v>556</v>
       </c>
       <c r="Q1264" t="n">
         <v>18</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1265" t="n">
         <v>9</v>
@@ -91433,20 +91433,20 @@
       </c>
       <c r="I1265" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="K1265" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="L1265" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="M1265" t="n">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
@@ -91455,11 +91455,11 @@
       </c>
       <c r="O1265" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>1333</v>
+        <v>333</v>
       </c>
       <c r="Q1265" t="n">
         <v>18</v>
@@ -91505,20 +91505,20 @@
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>1350</v>
+        <v>380</v>
       </c>
       <c r="K1266" t="n">
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="L1266" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="M1266" t="n">
-        <v>15519</v>
+        <v>24000</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
@@ -91531,7 +91531,7 @@
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>862</v>
+        <v>1333</v>
       </c>
       <c r="Q1266" t="n">
         <v>18</v>
@@ -91581,20 +91581,20 @@
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>950</v>
+        <v>1350</v>
       </c>
       <c r="K1267" t="n">
-        <v>6000</v>
+        <v>15000</v>
       </c>
       <c r="L1267" t="n">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="M1267" t="n">
-        <v>6000</v>
+        <v>15519</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1267" t="inlineStr">
@@ -91603,10 +91603,10 @@
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>600</v>
+        <v>862</v>
       </c>
       <c r="Q1267" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1267" t="inlineStr">
         <is>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1268" t="n">
         <v>9</v>
@@ -91653,20 +91653,20 @@
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>650</v>
+        <v>950</v>
       </c>
       <c r="K1268" t="n">
-        <v>14000</v>
+        <v>6000</v>
       </c>
       <c r="L1268" t="n">
-        <v>15000</v>
+        <v>6000</v>
       </c>
       <c r="M1268" t="n">
-        <v>14538</v>
+        <v>6000</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1268" t="inlineStr">
@@ -91675,10 +91675,10 @@
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>808</v>
+        <v>600</v>
       </c>
       <c r="Q1268" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1268" t="inlineStr">
         <is>
@@ -91721,24 +91721,24 @@
       </c>
       <c r="I1269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="K1269" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="L1269" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M1269" t="n">
-        <v>10000</v>
+        <v>14538</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1269" t="inlineStr">
@@ -91747,7 +91747,7 @@
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>556</v>
+        <v>808</v>
       </c>
       <c r="Q1269" t="n">
         <v>18</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1270" t="n">
         <v>9</v>
@@ -91793,33 +91793,33 @@
       </c>
       <c r="I1270" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1270" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="K1270" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="L1270" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="M1270" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1270" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>944</v>
+        <v>556</v>
       </c>
       <c r="Q1270" t="n">
         <v>18</v>
@@ -91865,20 +91865,20 @@
       </c>
       <c r="I1271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K1271" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L1271" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M1271" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
@@ -91891,7 +91891,7 @@
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="Q1271" t="n">
         <v>18</v>
@@ -91941,32 +91941,32 @@
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="K1272" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="L1272" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="M1272" t="n">
-        <v>4444</v>
+        <v>15000</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1272" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>444</v>
+        <v>833</v>
       </c>
       <c r="Q1272" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1272" t="inlineStr">
         <is>
@@ -92009,36 +92009,36 @@
       </c>
       <c r="I1273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="K1273" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L1273" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M1273" t="n">
-        <v>10000</v>
+        <v>4444</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1273" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>556</v>
+        <v>444</v>
       </c>
       <c r="Q1273" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1273" t="inlineStr">
         <is>
@@ -92085,32 +92085,32 @@
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K1274" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="L1274" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="M1274" t="n">
-        <v>3500</v>
+        <v>10000</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1274" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>350</v>
+        <v>556</v>
       </c>
       <c r="Q1274" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1274" t="inlineStr">
         <is>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44498</v>
+        <v>44285</v>
       </c>
       <c r="E1275" t="n">
         <v>9</v>
@@ -92153,36 +92153,36 @@
       </c>
       <c r="I1275" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1275" t="n">
         <v>100</v>
       </c>
       <c r="K1275" t="n">
-        <v>24000</v>
+        <v>3500</v>
       </c>
       <c r="L1275" t="n">
-        <v>24000</v>
+        <v>3500</v>
       </c>
       <c r="M1275" t="n">
-        <v>24000</v>
+        <v>3500</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1275" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>1333</v>
+        <v>350</v>
       </c>
       <c r="Q1275" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1275" t="inlineStr">
         <is>
@@ -92225,20 +92225,20 @@
       </c>
       <c r="I1276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K1276" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="L1276" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M1276" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
@@ -92251,7 +92251,7 @@
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>1111</v>
+        <v>1333</v>
       </c>
       <c r="Q1276" t="n">
         <v>18</v>
@@ -92301,32 +92301,32 @@
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="K1277" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="L1277" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="M1277" t="n">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1277" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>700</v>
+        <v>1111</v>
       </c>
       <c r="Q1277" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1277" t="inlineStr">
         <is>
@@ -92369,36 +92369,36 @@
       </c>
       <c r="I1278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="K1278" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="L1278" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="M1278" t="n">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1278" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>778</v>
+        <v>700</v>
       </c>
       <c r="Q1278" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1278" t="inlineStr">
         <is>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44179</v>
+        <v>44498</v>
       </c>
       <c r="E1279" t="n">
         <v>9</v>
@@ -92441,11 +92441,11 @@
       </c>
       <c r="I1279" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="K1279" t="n">
         <v>14000</v>
@@ -92513,20 +92513,20 @@
       </c>
       <c r="I1280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>2900</v>
+        <v>500</v>
       </c>
       <c r="K1280" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L1280" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M1280" t="n">
-        <v>12483</v>
+        <v>14000</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92539,7 +92539,7 @@
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>694</v>
+        <v>778</v>
       </c>
       <c r="Q1280" t="n">
         <v>18</v>
@@ -92589,16 +92589,16 @@
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="K1281" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="L1281" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="M1281" t="n">
-        <v>11000</v>
+        <v>12483</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92607,11 +92607,11 @@
       </c>
       <c r="O1281" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>611</v>
+        <v>694</v>
       </c>
       <c r="Q1281" t="n">
         <v>18</v>
@@ -92661,32 +92661,32 @@
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K1282" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="L1282" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="M1282" t="n">
-        <v>5000</v>
+        <v>11000</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1282" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>500</v>
+        <v>611</v>
       </c>
       <c r="Q1282" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1282" t="inlineStr">
         <is>
@@ -92733,20 +92733,20 @@
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="K1283" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L1283" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="M1283" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1283" t="inlineStr">
@@ -92755,10 +92755,10 @@
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>667</v>
+        <v>500</v>
       </c>
       <c r="Q1283" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1283" t="inlineStr">
         <is>
@@ -92801,24 +92801,24 @@
       </c>
       <c r="I1284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K1284" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="L1284" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="M1284" t="n">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1284" t="inlineStr">
@@ -92827,10 +92827,10 @@
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>400</v>
+        <v>667</v>
       </c>
       <c r="Q1284" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1284" t="inlineStr">
         <is>
@@ -92868,41 +92868,41 @@
       </c>
       <c r="H1285" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1285" t="n">
-        <v>5300</v>
+        <v>300</v>
       </c>
       <c r="K1285" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="L1285" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M1285" t="n">
-        <v>8472</v>
+        <v>4000</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1285" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>565</v>
+        <v>400</v>
       </c>
       <c r="Q1285" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1285" t="inlineStr">
         <is>
@@ -92945,20 +92945,20 @@
       </c>
       <c r="I1286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>500</v>
+        <v>5300</v>
       </c>
       <c r="K1286" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="L1286" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="M1286" t="n">
-        <v>6000</v>
+        <v>8472</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
@@ -92971,7 +92971,7 @@
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>400</v>
+        <v>565</v>
       </c>
       <c r="Q1286" t="n">
         <v>15</v>
@@ -92997,7 +92997,7 @@
         </is>
       </c>
       <c r="D1287" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E1287" t="n">
         <v>9</v>
@@ -93012,41 +93012,41 @@
       </c>
       <c r="H1287" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1287" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>1150</v>
+        <v>500</v>
       </c>
       <c r="K1287" t="n">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="L1287" t="n">
-        <v>22000</v>
+        <v>6000</v>
       </c>
       <c r="M1287" t="n">
-        <v>21522</v>
+        <v>6000</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
-          <t>$/bandeja 20 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1287" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>1076</v>
+        <v>400</v>
       </c>
       <c r="Q1287" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R1287" t="inlineStr">
         <is>
@@ -93089,24 +93089,24 @@
       </c>
       <c r="I1288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1288" t="n">
-        <v>550</v>
+        <v>1150</v>
       </c>
       <c r="K1288" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="L1288" t="n">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="M1288" t="n">
-        <v>10000</v>
+        <v>21522</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/bandeja 20 kilos</t>
         </is>
       </c>
       <c r="O1288" t="inlineStr">
@@ -93115,10 +93115,10 @@
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>556</v>
+        <v>1076</v>
       </c>
       <c r="Q1288" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R1288" t="inlineStr">
         <is>
@@ -93165,20 +93165,20 @@
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="K1289" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1289" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M1289" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1289" t="inlineStr">
@@ -93187,10 +93187,10 @@
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q1289" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1289" t="inlineStr">
         <is>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E1290" t="n">
         <v>9</v>
@@ -93228,7 +93228,7 @@
       </c>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1290" t="inlineStr">
@@ -93237,16 +93237,16 @@
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>100</v>
+        <v>850</v>
       </c>
       <c r="K1290" t="n">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="L1290" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="M1290" t="n">
-        <v>9500</v>
+        <v>5000</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
@@ -93255,11 +93255,11 @@
       </c>
       <c r="O1290" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>950</v>
+        <v>500</v>
       </c>
       <c r="Q1290" t="n">
         <v>10</v>
@@ -93300,41 +93300,41 @@
       </c>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1291" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="K1291" t="n">
-        <v>25000</v>
+        <v>9000</v>
       </c>
       <c r="L1291" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="M1291" t="n">
-        <v>25500</v>
+        <v>9500</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1291" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>1417</v>
+        <v>950</v>
       </c>
       <c r="Q1291" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1291" t="inlineStr">
         <is>
@@ -93377,20 +93377,20 @@
       </c>
       <c r="I1292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="K1292" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L1292" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M1292" t="n">
-        <v>15000</v>
+        <v>25500</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93399,11 +93399,11 @@
       </c>
       <c r="O1292" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>833</v>
+        <v>1417</v>
       </c>
       <c r="Q1292" t="n">
         <v>18</v>
@@ -93453,16 +93453,16 @@
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K1293" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="L1293" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="M1293" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93471,11 +93471,11 @@
       </c>
       <c r="O1293" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>1111</v>
+        <v>833</v>
       </c>
       <c r="Q1293" t="n">
         <v>18</v>
@@ -93521,20 +93521,20 @@
       </c>
       <c r="I1294" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="K1294" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="L1294" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="M1294" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
@@ -93543,11 +93543,11 @@
       </c>
       <c r="O1294" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>722</v>
+        <v>1111</v>
       </c>
       <c r="Q1294" t="n">
         <v>18</v>
@@ -93597,16 +93597,16 @@
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K1295" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="L1295" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="M1295" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
@@ -93615,11 +93615,11 @@
       </c>
       <c r="O1295" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Angol</t>
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>1000</v>
+        <v>722</v>
       </c>
       <c r="Q1295" t="n">
         <v>18</v>
@@ -93660,25 +93660,25 @@
       </c>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1296" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K1296" t="n">
-        <v>25000</v>
+        <v>18000</v>
       </c>
       <c r="L1296" t="n">
-        <v>26000</v>
+        <v>18000</v>
       </c>
       <c r="M1296" t="n">
-        <v>25429</v>
+        <v>18000</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
@@ -93687,11 +93687,11 @@
       </c>
       <c r="O1296" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>1413</v>
+        <v>1000</v>
       </c>
       <c r="Q1296" t="n">
         <v>18</v>
@@ -93737,20 +93737,20 @@
       </c>
       <c r="I1297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="K1297" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="L1297" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="M1297" t="n">
-        <v>15000</v>
+        <v>25429</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93763,7 +93763,7 @@
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>833</v>
+        <v>1413</v>
       </c>
       <c r="Q1297" t="n">
         <v>18</v>
@@ -93813,16 +93813,16 @@
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K1298" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="L1298" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M1298" t="n">
-        <v>11467</v>
+        <v>15000</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
@@ -93831,11 +93831,11 @@
       </c>
       <c r="O1298" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>637</v>
+        <v>833</v>
       </c>
       <c r="Q1298" t="n">
         <v>18</v>
@@ -93885,20 +93885,20 @@
         </is>
       </c>
       <c r="J1299" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="K1299" t="n">
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="L1299" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="M1299" t="n">
-        <v>9000</v>
+        <v>11467</v>
       </c>
       <c r="N1299" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1299" t="inlineStr">
@@ -93907,10 +93907,10 @@
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>600</v>
+        <v>637</v>
       </c>
       <c r="Q1299" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1299" t="inlineStr">
         <is>
@@ -93953,20 +93953,20 @@
       </c>
       <c r="I1300" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K1300" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="L1300" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="M1300" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
@@ -93979,7 +93979,7 @@
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>467</v>
+        <v>600</v>
       </c>
       <c r="Q1300" t="n">
         <v>15</v>
@@ -94005,7 +94005,7 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1301" t="n">
         <v>9</v>
@@ -94020,41 +94020,41 @@
       </c>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1301" t="n">
-        <v>355</v>
+        <v>200</v>
       </c>
       <c r="K1301" t="n">
-        <v>12000</v>
+        <v>7000</v>
       </c>
       <c r="L1301" t="n">
-        <v>13000</v>
+        <v>7000</v>
       </c>
       <c r="M1301" t="n">
-        <v>12437</v>
+        <v>7000</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1301" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>691</v>
+        <v>467</v>
       </c>
       <c r="Q1301" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1301" t="inlineStr">
         <is>
@@ -94092,7 +94092,7 @@
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
@@ -94101,16 +94101,16 @@
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>250</v>
+        <v>355</v>
       </c>
       <c r="K1302" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="L1302" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="M1302" t="n">
-        <v>10000</v>
+        <v>12437</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
@@ -94119,11 +94119,11 @@
       </c>
       <c r="O1302" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>556</v>
+        <v>691</v>
       </c>
       <c r="Q1302" t="n">
         <v>18</v>
@@ -94149,7 +94149,7 @@
         </is>
       </c>
       <c r="D1303" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1303" t="n">
         <v>9</v>
@@ -94164,25 +94164,25 @@
       </c>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1303" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K1303" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="L1303" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="M1303" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
@@ -94191,11 +94191,11 @@
       </c>
       <c r="O1303" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>1056</v>
+        <v>556</v>
       </c>
       <c r="Q1303" t="n">
         <v>18</v>
@@ -94241,20 +94241,20 @@
       </c>
       <c r="I1304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="K1304" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="L1304" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="M1304" t="n">
-        <v>15538</v>
+        <v>19000</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
@@ -94267,7 +94267,7 @@
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>863</v>
+        <v>1056</v>
       </c>
       <c r="Q1304" t="n">
         <v>18</v>
@@ -94317,32 +94317,32 @@
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="K1305" t="n">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="L1305" t="n">
-        <v>4500</v>
+        <v>16000</v>
       </c>
       <c r="M1305" t="n">
-        <v>4500</v>
+        <v>15538</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1305" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>450</v>
+        <v>863</v>
       </c>
       <c r="Q1305" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1305" t="inlineStr">
         <is>
@@ -94380,7 +94380,7 @@
       </c>
       <c r="H1306" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1306" t="inlineStr">
@@ -94389,32 +94389,32 @@
         </is>
       </c>
       <c r="J1306" t="n">
-        <v>780</v>
+        <v>550</v>
       </c>
       <c r="K1306" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L1306" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="M1306" t="n">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1306" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="Q1306" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1306" t="inlineStr">
         <is>
@@ -94437,7 +94437,7 @@
         </is>
       </c>
       <c r="D1307" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1307" t="n">
         <v>9</v>
@@ -94452,7 +94452,7 @@
       </c>
       <c r="H1307" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1307" t="inlineStr">
@@ -94461,32 +94461,32 @@
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>250</v>
+        <v>780</v>
       </c>
       <c r="K1307" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="L1307" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="M1307" t="n">
-        <v>10000</v>
+        <v>7500</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1307" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>556</v>
+        <v>500</v>
       </c>
       <c r="Q1307" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1307" t="inlineStr">
         <is>
@@ -94533,20 +94533,20 @@
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K1308" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L1308" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M1308" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1308" t="inlineStr">
@@ -94555,10 +94555,10 @@
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="Q1308" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1308" t="inlineStr">
         <is>
@@ -94596,7 +94596,7 @@
       </c>
       <c r="H1309" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1309" t="inlineStr">
@@ -94605,32 +94605,32 @@
         </is>
       </c>
       <c r="J1309" t="n">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="K1309" t="n">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="L1309" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="M1309" t="n">
-        <v>12636</v>
+        <v>5000</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1309" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>702</v>
+        <v>500</v>
       </c>
       <c r="Q1309" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1309" t="inlineStr">
         <is>
@@ -94677,20 +94677,20 @@
         </is>
       </c>
       <c r="J1310" t="n">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="K1310" t="n">
-        <v>8000</v>
+        <v>12000</v>
       </c>
       <c r="L1310" t="n">
-        <v>8000</v>
+        <v>13000</v>
       </c>
       <c r="M1310" t="n">
-        <v>8000</v>
+        <v>12636</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1310" t="inlineStr">
@@ -94699,10 +94699,10 @@
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>533</v>
+        <v>702</v>
       </c>
       <c r="Q1310" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1310" t="inlineStr">
         <is>
@@ -94725,7 +94725,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1311" t="n">
         <v>9</v>
@@ -94740,7 +94740,7 @@
       </c>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1311" t="inlineStr">
@@ -94749,32 +94749,32 @@
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>40</v>
+        <v>650</v>
       </c>
       <c r="K1311" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="L1311" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="M1311" t="n">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1311" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>1200</v>
+        <v>533</v>
       </c>
       <c r="Q1311" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1311" t="inlineStr">
         <is>
@@ -94812,41 +94812,41 @@
       </c>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1312" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="K1312" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L1312" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M1312" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1312" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>778</v>
+        <v>1200</v>
       </c>
       <c r="Q1312" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1312" t="inlineStr">
         <is>
@@ -94889,36 +94889,36 @@
       </c>
       <c r="I1313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="K1313" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="L1313" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="M1313" t="n">
-        <v>6000</v>
+        <v>14000</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="O1313" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>600</v>
+        <v>778</v>
       </c>
       <c r="Q1313" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1313" t="inlineStr">
         <is>
@@ -94965,34 +94965,106 @@
         </is>
       </c>
       <c r="J1314" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1314" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1314" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1314" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1314" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1315" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1315" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1315" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1315" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1315" t="n">
         <v>800</v>
       </c>
-      <c r="K1314" t="n">
+      <c r="K1315" t="n">
         <v>13000</v>
       </c>
-      <c r="L1314" t="n">
+      <c r="L1315" t="n">
         <v>13000</v>
       </c>
-      <c r="M1314" t="n">
+      <c r="M1315" t="n">
         <v>13000</v>
       </c>
-      <c r="N1314" t="inlineStr">
+      <c r="N1315" t="inlineStr">
         <is>
           <t>$/caja 18 kilos</t>
         </is>
       </c>
-      <c r="O1314" t="inlineStr">
+      <c r="O1315" t="inlineStr">
         <is>
           <t>Limache</t>
         </is>
       </c>
-      <c r="P1314" t="n">
+      <c r="P1315" t="n">
         <v>722</v>
       </c>
-      <c r="Q1314" t="n">
+      <c r="Q1315" t="n">
         <v>18</v>
       </c>
-      <c r="R1314" t="inlineStr">
+      <c r="R1315" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Vega Modelo de Temuco - Tomate.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1352"/>
+  <dimension ref="A1:R1354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96741,7 +96741,7 @@
         </is>
       </c>
       <c r="D1339" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1339" t="n">
         <v>9</v>
@@ -96756,7 +96756,7 @@
       </c>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1339" t="inlineStr">
@@ -96765,32 +96765,32 @@
         </is>
       </c>
       <c r="J1339" t="n">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c r="K1339" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="L1339" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="M1339" t="n">
-        <v>12437</v>
+        <v>11000</v>
       </c>
       <c r="N1339" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1339" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1339" t="n">
-        <v>691</v>
+        <v>1100</v>
       </c>
       <c r="Q1339" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1339" t="inlineStr">
         <is>
@@ -96813,7 +96813,7 @@
         </is>
       </c>
       <c r="D1340" s="2" t="n">
-        <v>44335</v>
+        <v>44628</v>
       </c>
       <c r="E1340" t="n">
         <v>9</v>
@@ -96828,7 +96828,7 @@
       </c>
       <c r="H1340" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1340" t="inlineStr">
@@ -96837,16 +96837,16 @@
         </is>
       </c>
       <c r="J1340" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="K1340" t="n">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="L1340" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="M1340" t="n">
-        <v>10000</v>
+        <v>16471</v>
       </c>
       <c r="N1340" t="inlineStr">
         <is>
@@ -96859,7 +96859,7 @@
         </is>
       </c>
       <c r="P1340" t="n">
-        <v>556</v>
+        <v>915</v>
       </c>
       <c r="Q1340" t="n">
         <v>18</v>
@@ -96885,7 +96885,7 @@
         </is>
       </c>
       <c r="D1341" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1341" t="n">
         <v>9</v>
@@ -96905,20 +96905,20 @@
       </c>
       <c r="I1341" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1341" t="n">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="K1341" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="L1341" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="M1341" t="n">
-        <v>19000</v>
+        <v>12437</v>
       </c>
       <c r="N1341" t="inlineStr">
         <is>
@@ -96931,7 +96931,7 @@
         </is>
       </c>
       <c r="P1341" t="n">
-        <v>1056</v>
+        <v>691</v>
       </c>
       <c r="Q1341" t="n">
         <v>18</v>
@@ -96957,7 +96957,7 @@
         </is>
       </c>
       <c r="D1342" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1342" t="n">
         <v>9</v>
@@ -96972,7 +96972,7 @@
       </c>
       <c r="H1342" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1342" t="inlineStr">
@@ -96981,16 +96981,16 @@
         </is>
       </c>
       <c r="J1342" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K1342" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L1342" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="M1342" t="n">
-        <v>15538</v>
+        <v>10000</v>
       </c>
       <c r="N1342" t="inlineStr">
         <is>
@@ -96999,11 +96999,11 @@
       </c>
       <c r="O1342" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P1342" t="n">
-        <v>863</v>
+        <v>556</v>
       </c>
       <c r="Q1342" t="n">
         <v>18</v>
@@ -97049,36 +97049,36 @@
       </c>
       <c r="I1343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1343" t="n">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="K1343" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="L1343" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="M1343" t="n">
-        <v>4500</v>
+        <v>19000</v>
       </c>
       <c r="N1343" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1343" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1343" t="n">
-        <v>450</v>
+        <v>1056</v>
       </c>
       <c r="Q1343" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1343" t="inlineStr">
         <is>
@@ -97116,7 +97116,7 @@
       </c>
       <c r="H1344" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1344" t="inlineStr">
@@ -97125,32 +97125,32 @@
         </is>
       </c>
       <c r="J1344" t="n">
-        <v>780</v>
+        <v>650</v>
       </c>
       <c r="K1344" t="n">
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="L1344" t="n">
-        <v>7500</v>
+        <v>16000</v>
       </c>
       <c r="M1344" t="n">
-        <v>7500</v>
+        <v>15538</v>
       </c>
       <c r="N1344" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1344" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="P1344" t="n">
-        <v>500</v>
+        <v>863</v>
       </c>
       <c r="Q1344" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R1344" t="inlineStr">
         <is>
@@ -97173,7 +97173,7 @@
         </is>
       </c>
       <c r="D1345" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1345" t="n">
         <v>9</v>
@@ -97197,20 +97197,20 @@
         </is>
       </c>
       <c r="J1345" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K1345" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="L1345" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="M1345" t="n">
-        <v>10000</v>
+        <v>4500</v>
       </c>
       <c r="N1345" t="inlineStr">
         <is>
-          <t>$/bandeja 18 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1345" t="inlineStr">
@@ -97219,10 +97219,10 @@
         </is>
       </c>
       <c r="P1345" t="n">
-        <v>556</v>
+        <v>450</v>
       </c>
       <c r="Q1345" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="R1345" t="inlineStr">
         <is>
@@ -97245,7 +97245,7 @@
         </is>
       </c>
       <c r="D1346" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1346" t="n">
         <v>9</v>
@@ -97260,7 +97260,7 @@
       </c>
       <c r="H1346" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1346" t="inlineStr">
@@ -97269,32 +97269,32 @@
         </is>
       </c>
       <c r="J1346" t="n">
-        <v>380</v>
+        <v>780</v>
       </c>
       <c r="K1346" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="L1346" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="M1346" t="n">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="N1346" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1346" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1346" t="n">
         <v>500</v>
       </c>
       <c r="Q1346" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R1346" t="inlineStr">
         <is>
@@ -97332,7 +97332,7 @@
       </c>
       <c r="H1347" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1347" t="inlineStr">
@@ -97341,16 +97341,16 @@
         </is>
       </c>
       <c r="J1347" t="n">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="K1347" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="L1347" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="M1347" t="n">
-        <v>12636</v>
+        <v>10000</v>
       </c>
       <c r="N1347" t="inlineStr">
         <is>
@@ -97359,11 +97359,11 @@
       </c>
       <c r="O1347" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1347" t="n">
-        <v>702</v>
+        <v>556</v>
       </c>
       <c r="Q1347" t="n">
         <v>18</v>
@@ -97404,7 +97404,7 @@
       </c>
       <c r="H1348" t="inlineStr">
         <is>
-          <t>Semiduro</t>
+          <t>Larga vida</t>
         </is>
       </c>
       <c r="I1348" t="inlineStr">
@@ -97413,32 +97413,32 @@
         </is>
       </c>
       <c r="J1348" t="n">
-        <v>650</v>
+        <v>380</v>
       </c>
       <c r="K1348" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="L1348" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="M1348" t="n">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="N1348" t="inlineStr">
         <is>
-          <t>$/caja 15 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="O1348" t="inlineStr">
         <is>
-          <t>Región del Maule</t>
+          <t>Región de Arica y Parinacota</t>
         </is>
       </c>
       <c r="P1348" t="n">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="Q1348" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R1348" t="inlineStr">
         <is>
@@ -97461,7 +97461,7 @@
         </is>
       </c>
       <c r="D1349" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1349" t="n">
         <v>9</v>
@@ -97476,7 +97476,7 @@
       </c>
       <c r="H1349" t="inlineStr">
         <is>
-          <t>Cherry</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1349" t="inlineStr">
@@ -97485,32 +97485,32 @@
         </is>
       </c>
       <c r="J1349" t="n">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="K1349" t="n">
         <v>12000</v>
       </c>
       <c r="L1349" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M1349" t="n">
-        <v>12000</v>
+        <v>12636</v>
       </c>
       <c r="N1349" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 18 kilos</t>
         </is>
       </c>
       <c r="O1349" t="inlineStr">
         <is>
-          <t>Región de Arica y Parinacota</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1349" t="n">
-        <v>1200</v>
+        <v>702</v>
       </c>
       <c r="Q1349" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R1349" t="inlineStr">
         <is>
@@ -97533,7 +97533,7 @@
         </is>
       </c>
       <c r="D1350" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1350" t="n">
         <v>9</v>
@@ -97548,41 +97548,41 @@
       </c>
       <c r="H1350" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Semiduro</t>
         </is>
       </c>
       <c r="I1350" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1350" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="K1350" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="L1350" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="M1350" t="n">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="N1350" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 15 kilos</t>
         </is>
       </c>
       <c r="O1350" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Región del Maule</t>
         </is>
       </c>
       <c r="P1350" t="n">
-        <v>778</v>
+        <v>533</v>
       </c>
       <c r="Q1350" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="R1350" t="inlineStr">
         <is>
@@ -97620,7 +97620,7 @@
       </c>
       <c r="H1351" t="inlineStr">
         <is>
-          <t>Larga vida</t>
+          <t>Cherry</t>
         </is>
       </c>
       <c r="I1351" t="inlineStr">
@@ -97629,16 +97629,16 @@
         </is>
       </c>
       <c r="J1351" t="n">
-        <v>2000</v>
+        <v>40</v>
       </c>
       <c r="K1351" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="L1351" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="M1351" t="n">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="N1351" t="inlineStr">
         <is>
@@ -97651,7 +97651,7 @@
         </is>
       </c>
       <c r="P1351" t="n">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="Q1351" t="n">
         <v>10</v>
@@ -97697,20 +97697,20 @@
       </c>
       <c r="I1352" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1352" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="K1352" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L1352" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M1352" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N1352" t="inlineStr">
         <is>
@@ -97723,12 +97723,156 @@
         </is>
       </c>
       <c r="P1352" t="n">
-        <v>722</v>
+        <v>778</v>
       </c>
       <c r="Q1352" t="n">
         <v>18</v>
       </c>
       <c r="R1352" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1353" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1353" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1353" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1353" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1353" t="n">
+        <v>2000</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>6000</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>6000</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N1353" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="O1353" t="inlineStr">
+        <is>
+          <t>Región de Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="P1353" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>10</v>
+      </c>
+      <c r="R1353" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>Vega Modelo de Temuco</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="D1354" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>100112020</v>
+      </c>
+      <c r="G1354" t="inlineStr">
+        <is>
+          <t>Tomate</t>
+        </is>
+      </c>
+      <c r="H1354" t="inlineStr">
+        <is>
+          <t>Larga vida</t>
+        </is>
+      </c>
+      <c r="I1354" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1354" t="n">
+        <v>800</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>13000</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N1354" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="O1354" t="inlineStr">
+        <is>
+          <t>Limache</t>
+        </is>
+      </c>
+      <c r="P1354" t="n">
+        <v>722</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>18</v>
+      </c>
+      <c r="R1354" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
